--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -3349,7 +3349,8 @@
 kammā</t>
   </si>
   <si>
-    <t xml:space="preserve">atu
+    <t xml:space="preserve">a
+atu
 ātu</t>
   </si>
   <si>
@@ -39131,8 +39132,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ94" activeCellId="0" sqref="AQ94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CB31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CJ37" activeCellId="0" sqref="CJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -1390,7 +1390,8 @@
   </si>
   <si>
     <t xml:space="preserve">atthi
-santi</t>
+santi
+sante</t>
   </si>
   <si>
     <t xml:space="preserve">natthi</t>
@@ -39140,8 +39141,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD38" activeCellId="0" sqref="AD38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CT4" activeCellId="0" sqref="CT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39621,7 +39622,7 @@
       </c>
       <c r="DC3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
         <v>416</v>
       </c>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -4899,11 +4899,6 @@
 satīsu</t>
   </si>
   <si>
-    <t xml:space="preserve">santamhi
-santasmiṃ
-sante</t>
-  </si>
-  <si>
     <t xml:space="preserve">ssāmi</t>
   </si>
   <si>
@@ -6244,6 +6239,11 @@
     <t xml:space="preserve">santīsu</t>
   </si>
   <si>
+    <t xml:space="preserve">santamhi
+santasmiṃ
+sante</t>
+  </si>
+  <si>
     <t xml:space="preserve">parise</t>
   </si>
   <si>
@@ -7113,28 +7113,8 @@
     <t xml:space="preserve">karā</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">karuṃ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">karū</t>
-    </r>
+    <t xml:space="preserve">karuṃ
+karū</t>
   </si>
   <si>
     <t xml:space="preserve">kari
@@ -9134,7 +9114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9238,13 +9218,6 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Crimson Pro"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9449,7 +9422,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9762,10 +9735,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9774,7 +9743,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9873,7 +9842,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="B50" activeCellId="1" sqref="AZ90 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39176,8 +39145,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN189" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CZ202" activeCellId="0" sqref="CZ202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AZ90" activeCellId="0" sqref="AZ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56132,7 +56101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="23"/>
       <c r="D90" s="23"/>
       <c r="F90" s="23"/>
@@ -56213,7 +56182,7 @@
         <v>602</v>
       </c>
       <c r="AZ90" s="26" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BA90" s="54" t="s">
         <v>603</v>
@@ -56237,7 +56206,7 @@
         <v>722</v>
       </c>
       <c r="CJ90" s="57" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="CK90" s="58" t="s">
         <v>724</v>
@@ -56255,7 +56224,7 @@
         <v>728</v>
       </c>
       <c r="CP90" s="57" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="CQ90" s="58" t="s">
         <v>730</v>
@@ -56264,13 +56233,13 @@
         <v>505</v>
       </c>
       <c r="CT90" s="68" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="CU90" s="69" t="s">
         <v>507</v>
       </c>
       <c r="CV90" s="68" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="CW90" s="69" t="s">
         <v>509</v>
@@ -56346,7 +56315,7 @@
         <v>625</v>
       </c>
       <c r="AR91" s="26" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AS91" s="54" t="s">
         <v>627</v>
@@ -56358,7 +56327,7 @@
         <v>628</v>
       </c>
       <c r="AV91" s="41" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AW91" s="55" t="s">
         <v>629</v>
@@ -56370,7 +56339,7 @@
         <v>630</v>
       </c>
       <c r="AZ91" s="26" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BA91" s="54" t="s">
         <v>631</v>
@@ -56428,37 +56397,37 @@
         <v>416</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>418</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E92" s="49" t="s">
         <v>420</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G92" s="50" t="s">
         <v>422</v>
       </c>
       <c r="H92" s="38" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I92" s="50" t="s">
         <v>424</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="K92" s="49" t="s">
         <v>426</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="M92" s="49" t="s">
         <v>428</v>
@@ -56496,13 +56465,13 @@
         <v>416</v>
       </c>
       <c r="BF92" s="42" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="BG92" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH92" s="42" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="BI92" s="56" t="s">
         <v>420</v>
@@ -56538,37 +56507,37 @@
         <v>454</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C93" s="49" t="s">
         <v>455</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E93" s="49" t="s">
         <v>457</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G93" s="50" t="s">
         <v>458</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I93" s="50" t="s">
         <v>459</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="K93" s="49" t="s">
         <v>460</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="M93" s="49" t="s">
         <v>461</v>
@@ -56712,37 +56681,37 @@
         <v>480</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>482</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E94" s="49" t="s">
         <v>484</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G94" s="50" t="s">
         <v>486</v>
       </c>
       <c r="H94" s="38" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I94" s="50" t="s">
         <v>488</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K94" s="49" t="s">
         <v>489</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="M94" s="49" t="s">
         <v>490</v>
@@ -56763,37 +56732,37 @@
         <v>416</v>
       </c>
       <c r="AD94" s="25" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="AE94" s="53" t="s">
         <v>418</v>
       </c>
       <c r="AF94" s="25" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="AG94" s="53" t="s">
         <v>420</v>
       </c>
       <c r="AH94" s="65" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="AI94" s="67" t="s">
         <v>422</v>
       </c>
       <c r="AJ94" s="65" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AK94" s="67" t="s">
         <v>424</v>
       </c>
       <c r="AL94" s="25" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AM94" s="53" t="s">
         <v>426</v>
       </c>
       <c r="AN94" s="25" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AO94" s="53" t="s">
         <v>428</v>
@@ -56802,25 +56771,25 @@
         <v>416</v>
       </c>
       <c r="AR94" s="26" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AS94" s="54" t="s">
         <v>418</v>
       </c>
       <c r="AT94" s="26" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AU94" s="54" t="s">
         <v>420</v>
       </c>
       <c r="AV94" s="41" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="AW94" s="55" t="s">
         <v>422</v>
       </c>
       <c r="AX94" s="41" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AY94" s="55" t="s">
         <v>424</v>
@@ -56832,7 +56801,7 @@
         <v>426</v>
       </c>
       <c r="BB94" s="26" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="BC94" s="54" t="s">
         <v>428</v>
@@ -56903,25 +56872,25 @@
         <v>616</v>
       </c>
       <c r="CT94" s="68" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="CU94" s="69" t="s">
         <v>618</v>
       </c>
       <c r="CV94" s="68" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="CW94" s="69" t="s">
         <v>620</v>
       </c>
       <c r="CX94" s="68" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="CY94" s="69" t="s">
         <v>622</v>
       </c>
       <c r="CZ94" s="68" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="DA94" s="69" t="s">
         <v>624</v>
@@ -56932,37 +56901,37 @@
         <v>517</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>519</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E95" s="49" t="s">
         <v>521</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G95" s="50" t="s">
         <v>522</v>
       </c>
       <c r="H95" s="38" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I95" s="50" t="s">
         <v>524</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K95" s="49" t="s">
         <v>525</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M95" s="49" t="s">
         <v>526</v>
@@ -56971,7 +56940,7 @@
         <v>416</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q95" s="51" t="s">
         <v>679</v>
@@ -56985,37 +56954,37 @@
         <v>454</v>
       </c>
       <c r="AD95" s="25" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AE95" s="53" t="s">
         <v>455</v>
       </c>
       <c r="AF95" s="25" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="AG95" s="53" t="s">
         <v>457</v>
       </c>
       <c r="AH95" s="65" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AI95" s="67" t="s">
         <v>458</v>
       </c>
       <c r="AJ95" s="65" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AK95" s="67" t="s">
         <v>459</v>
       </c>
       <c r="AL95" s="25" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AM95" s="53" t="s">
         <v>460</v>
       </c>
       <c r="AN95" s="25" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AO95" s="53" t="s">
         <v>461</v>
@@ -57024,37 +56993,37 @@
         <v>454</v>
       </c>
       <c r="AR95" s="26" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="AS95" s="54" t="s">
         <v>455</v>
       </c>
       <c r="AT95" s="26" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AU95" s="54" t="s">
         <v>457</v>
       </c>
       <c r="AV95" s="41" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="AW95" s="55" t="s">
         <v>458</v>
       </c>
       <c r="AX95" s="41" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AY95" s="55" t="s">
         <v>459</v>
       </c>
       <c r="AZ95" s="26" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BA95" s="54" t="s">
         <v>460</v>
       </c>
       <c r="BB95" s="26" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="BC95" s="54" t="s">
         <v>461</v>
@@ -57125,25 +57094,25 @@
         <v>640</v>
       </c>
       <c r="CT95" s="68" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="CU95" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV95" s="68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="CW95" s="69" t="s">
         <v>644</v>
       </c>
       <c r="CX95" s="68" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="CY95" s="69" t="s">
         <v>646</v>
       </c>
       <c r="CZ95" s="68" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="DA95" s="69" t="s">
         <v>648</v>
@@ -57154,37 +57123,37 @@
         <v>547</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C96" s="49" t="s">
         <v>549</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E96" s="49" t="s">
         <v>550</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G96" s="50" t="s">
         <v>551</v>
       </c>
       <c r="H96" s="38" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I96" s="50" t="s">
         <v>552</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="K96" s="49" t="s">
         <v>554</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="M96" s="49" t="s">
         <v>555</v>
@@ -57193,7 +57162,7 @@
         <v>454</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q96" s="51" t="s">
         <v>708</v>
@@ -57207,37 +57176,37 @@
         <v>480</v>
       </c>
       <c r="AD96" s="25" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AE96" s="53" t="s">
         <v>482</v>
       </c>
       <c r="AF96" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AG96" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AH96" s="65" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AI96" s="67" t="s">
         <v>486</v>
       </c>
       <c r="AJ96" s="65" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AK96" s="67" t="s">
         <v>488</v>
       </c>
       <c r="AL96" s="25" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AM96" s="53" t="s">
         <v>489</v>
       </c>
       <c r="AN96" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AO96" s="53" t="s">
         <v>490</v>
@@ -57246,37 +57215,37 @@
         <v>480</v>
       </c>
       <c r="AR96" s="26" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="AS96" s="54" t="s">
         <v>482</v>
       </c>
       <c r="AT96" s="26" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AU96" s="54" t="s">
         <v>484</v>
       </c>
       <c r="AV96" s="41" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AW96" s="55" t="s">
         <v>486</v>
       </c>
       <c r="AX96" s="41" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AY96" s="55" t="s">
         <v>488</v>
       </c>
       <c r="AZ96" s="26" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="BA96" s="54" t="s">
         <v>489</v>
       </c>
       <c r="BB96" s="26" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="BC96" s="54" t="s">
         <v>490</v>
@@ -57285,7 +57254,7 @@
         <v>547</v>
       </c>
       <c r="BF96" s="42" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="BG96" s="56" t="s">
         <v>549</v>
@@ -57338,7 +57307,7 @@
         <v>728</v>
       </c>
       <c r="CP96" s="57" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="CQ96" s="58" t="s">
         <v>730</v>
@@ -57347,25 +57316,25 @@
         <v>650</v>
       </c>
       <c r="CT96" s="68" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="CU96" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV96" s="68" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="CW96" s="69" t="s">
         <v>654</v>
       </c>
       <c r="CX96" s="68" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="CY96" s="69" t="s">
         <v>656</v>
       </c>
       <c r="CZ96" s="68" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="DA96" s="69" t="s">
         <v>658</v>
@@ -57376,37 +57345,37 @@
         <v>574</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C97" s="49" t="s">
         <v>576</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E97" s="49" t="s">
         <v>577</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G97" s="50" t="s">
         <v>578</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I97" s="50" t="s">
         <v>579</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K97" s="49" t="s">
         <v>580</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M97" s="49" t="s">
         <v>581</v>
@@ -57415,7 +57384,7 @@
         <v>480</v>
       </c>
       <c r="P97" s="24" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="Q97" s="51" t="s">
         <v>741</v>
@@ -57429,37 +57398,37 @@
         <v>517</v>
       </c>
       <c r="AD97" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AE97" s="53" t="s">
         <v>519</v>
       </c>
       <c r="AF97" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AG97" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AH97" s="65" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AI97" s="67" t="s">
         <v>522</v>
       </c>
       <c r="AJ97" s="65" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AK97" s="67" t="s">
         <v>524</v>
       </c>
       <c r="AL97" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AM97" s="53" t="s">
         <v>525</v>
       </c>
       <c r="AN97" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AO97" s="53" t="s">
         <v>526</v>
@@ -57468,37 +57437,37 @@
         <v>517</v>
       </c>
       <c r="AR97" s="26" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AS97" s="54" t="s">
         <v>519</v>
       </c>
       <c r="AT97" s="26" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AU97" s="54" t="s">
         <v>521</v>
       </c>
       <c r="AV97" s="41" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AW97" s="55" t="s">
         <v>522</v>
       </c>
       <c r="AX97" s="41" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AY97" s="55" t="s">
         <v>524</v>
       </c>
       <c r="AZ97" s="26" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="BA97" s="54" t="s">
         <v>525</v>
       </c>
       <c r="BB97" s="26" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BC97" s="54" t="s">
         <v>526</v>
@@ -57562,37 +57531,37 @@
         <v>594</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C98" s="49" t="s">
         <v>596</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E98" s="49" t="s">
         <v>598</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G98" s="50" t="s">
         <v>600</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I98" s="50" t="s">
         <v>602</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="K98" s="49" t="s">
         <v>603</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="M98" s="49" t="s">
         <v>604</v>
@@ -57601,7 +57570,7 @@
         <v>517</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="Q98" s="51" t="s">
         <v>757</v>
@@ -57615,37 +57584,37 @@
         <v>547</v>
       </c>
       <c r="AD98" s="25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AE98" s="53" t="s">
         <v>549</v>
       </c>
       <c r="AF98" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AG98" s="53" t="s">
         <v>550</v>
       </c>
       <c r="AH98" s="65" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AI98" s="67" t="s">
         <v>551</v>
       </c>
       <c r="AJ98" s="65" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AK98" s="67" t="s">
         <v>552</v>
       </c>
       <c r="AL98" s="25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AM98" s="53" t="s">
         <v>554</v>
       </c>
       <c r="AN98" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AO98" s="53" t="s">
         <v>555</v>
@@ -57654,37 +57623,37 @@
         <v>547</v>
       </c>
       <c r="AR98" s="26" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AS98" s="54" t="s">
         <v>549</v>
       </c>
       <c r="AT98" s="26" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AU98" s="54" t="s">
         <v>550</v>
       </c>
       <c r="AV98" s="41" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AW98" s="55" t="s">
         <v>551</v>
       </c>
       <c r="AX98" s="41" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AY98" s="55" t="s">
         <v>552</v>
       </c>
       <c r="AZ98" s="26" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="BA98" s="54" t="s">
         <v>554</v>
       </c>
       <c r="BB98" s="26" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="BC98" s="54" t="s">
         <v>555</v>
@@ -57693,7 +57662,7 @@
         <v>594</v>
       </c>
       <c r="BF98" s="42" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="BG98" s="56" t="s">
         <v>596</v>
@@ -57735,37 +57704,37 @@
         <v>625</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>627</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E99" s="49" t="s">
         <v>628</v>
       </c>
       <c r="F99" s="38" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G99" s="50" t="s">
         <v>629</v>
       </c>
       <c r="H99" s="38" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I99" s="50" t="s">
         <v>630</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K99" s="49" t="s">
         <v>631</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="M99" s="49" t="s">
         <v>633</v>
@@ -57774,7 +57743,7 @@
         <v>547</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="Q99" s="51" t="s">
         <v>775</v>
@@ -57788,37 +57757,37 @@
         <v>574</v>
       </c>
       <c r="AD99" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AE99" s="53" t="s">
         <v>576</v>
       </c>
       <c r="AF99" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AG99" s="53" t="s">
         <v>577</v>
       </c>
       <c r="AH99" s="65" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AI99" s="67" t="s">
         <v>578</v>
       </c>
       <c r="AJ99" s="65" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AK99" s="67" t="s">
         <v>579</v>
       </c>
       <c r="AL99" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AM99" s="53" t="s">
         <v>580</v>
       </c>
       <c r="AN99" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AO99" s="53" t="s">
         <v>581</v>
@@ -57827,37 +57796,37 @@
         <v>574</v>
       </c>
       <c r="AR99" s="26" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AS99" s="54" t="s">
         <v>576</v>
       </c>
       <c r="AT99" s="26" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AU99" s="54" t="s">
         <v>577</v>
       </c>
       <c r="AV99" s="41" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AW99" s="55" t="s">
         <v>578</v>
       </c>
       <c r="AX99" s="41" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AY99" s="55" t="s">
         <v>579</v>
       </c>
       <c r="AZ99" s="26" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="BA99" s="54" t="s">
         <v>580</v>
       </c>
       <c r="BB99" s="26" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BC99" s="54" t="s">
         <v>581</v>
@@ -57866,13 +57835,13 @@
         <v>625</v>
       </c>
       <c r="BF99" s="42" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="BG99" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH99" s="42" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="BI99" s="56" t="s">
         <v>628</v>
@@ -57886,7 +57855,7 @@
         <v>625</v>
       </c>
       <c r="CD99" s="29" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="CE99" s="45" t="s">
         <v>631</v>
@@ -57952,7 +57921,7 @@
         <v>574</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="Q100" s="51" t="s">
         <v>787</v>
@@ -57966,37 +57935,37 @@
         <v>594</v>
       </c>
       <c r="AD100" s="25" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AE100" s="53" t="s">
         <v>596</v>
       </c>
       <c r="AF100" s="25" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AG100" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AH100" s="65" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AI100" s="67" t="s">
         <v>600</v>
       </c>
       <c r="AJ100" s="65" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AK100" s="67" t="s">
         <v>602</v>
       </c>
       <c r="AL100" s="25" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AM100" s="53" t="s">
         <v>603</v>
       </c>
       <c r="AN100" s="25" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AO100" s="53" t="s">
         <v>604</v>
@@ -58005,37 +57974,37 @@
         <v>594</v>
       </c>
       <c r="AR100" s="26" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AS100" s="54" t="s">
         <v>596</v>
       </c>
       <c r="AT100" s="26" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="AU100" s="54" t="s">
         <v>598</v>
       </c>
       <c r="AV100" s="41" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AW100" s="55" t="s">
         <v>600</v>
       </c>
       <c r="AX100" s="41" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY100" s="55" t="s">
         <v>602</v>
       </c>
       <c r="AZ100" s="26" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="BA100" s="54" t="s">
         <v>603</v>
       </c>
       <c r="BB100" s="26" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="BC100" s="54" t="s">
         <v>604</v>
@@ -58044,7 +58013,7 @@
         <v>634</v>
       </c>
       <c r="BF100" s="42" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="BG100" s="56" t="s">
         <v>634</v>
@@ -58098,13 +58067,13 @@
         <v>671</v>
       </c>
       <c r="CT100" s="68" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="CU100" s="69" t="s">
         <v>673</v>
       </c>
       <c r="CV100" s="68" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="CW100" s="69" t="s">
         <v>675</v>
@@ -58121,7 +58090,7 @@
         <v>594</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="Q101" s="51" t="s">
         <v>800</v>
@@ -58135,7 +58104,7 @@
         <v>634</v>
       </c>
       <c r="AD101" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AE101" s="53" t="s">
         <v>634</v>
@@ -58154,37 +58123,37 @@
         <v>625</v>
       </c>
       <c r="AR101" s="26" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AS101" s="54" t="s">
         <v>627</v>
       </c>
       <c r="AT101" s="26" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AU101" s="54" t="s">
         <v>628</v>
       </c>
       <c r="AV101" s="41" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AW101" s="55" t="s">
         <v>629</v>
       </c>
       <c r="AX101" s="41" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AY101" s="55" t="s">
         <v>630</v>
       </c>
       <c r="AZ101" s="26" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="BA101" s="54" t="s">
         <v>631</v>
       </c>
       <c r="BB101" s="26" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="BC101" s="54" t="s">
         <v>633</v>
@@ -58229,13 +58198,13 @@
         <v>698</v>
       </c>
       <c r="CT101" s="68" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="CU101" s="69" t="s">
         <v>699</v>
       </c>
       <c r="CV101" s="68" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="CW101" s="69" t="s">
         <v>701</v>
@@ -58273,7 +58242,7 @@
         <v>634</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q102" s="51" t="s">
         <v>634</v>
@@ -58353,13 +58322,13 @@
         <v>731</v>
       </c>
       <c r="CT102" s="68" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="CU102" s="69" t="s">
         <v>733</v>
       </c>
       <c r="CV102" s="68" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="CW102" s="69" t="s">
         <v>735</v>
@@ -58449,13 +58418,13 @@
         <v>416</v>
       </c>
       <c r="BF103" s="42" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="BG103" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH103" s="42" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="BI103" s="56" t="s">
         <v>420</v>
@@ -58464,13 +58433,13 @@
         <v>416</v>
       </c>
       <c r="BR103" s="73" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BS103" s="74" t="s">
         <v>422</v>
       </c>
       <c r="BT103" s="73" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="BU103" s="74" t="s">
         <v>424</v>
@@ -58589,13 +58558,13 @@
         <v>454</v>
       </c>
       <c r="BF104" s="42" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="BG104" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH104" s="42" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="BI104" s="56" t="s">
         <v>457</v>
@@ -58604,13 +58573,13 @@
         <v>454</v>
       </c>
       <c r="BR104" s="73" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="BS104" s="74" t="s">
         <v>458</v>
       </c>
       <c r="BT104" s="73" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="BU104" s="74" t="s">
         <v>459</v>
@@ -58720,13 +58689,13 @@
         <v>480</v>
       </c>
       <c r="BF105" s="42" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="BG105" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH105" s="42" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="BI105" s="56" t="s">
         <v>484</v>
@@ -58735,13 +58704,13 @@
         <v>480</v>
       </c>
       <c r="BR105" s="73" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS105" s="74" t="s">
         <v>486</v>
       </c>
       <c r="BT105" s="73" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BU105" s="74" t="s">
         <v>488</v>
@@ -58884,13 +58853,13 @@
         <v>517</v>
       </c>
       <c r="BF106" s="42" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="BG106" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH106" s="42" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="BI106" s="56" t="s">
         <v>521</v>
@@ -58899,13 +58868,13 @@
         <v>517</v>
       </c>
       <c r="BR106" s="73" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS106" s="74" t="s">
         <v>522</v>
       </c>
       <c r="BT106" s="73" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="BU106" s="74" t="s">
         <v>524</v>
@@ -58917,25 +58886,25 @@
         <v>662</v>
       </c>
       <c r="CJ106" s="57" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="CK106" s="58" t="s">
         <v>664</v>
       </c>
       <c r="CL106" s="57" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="CM106" s="58" t="s">
         <v>666</v>
       </c>
       <c r="CN106" s="57" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="CO106" s="58" t="s">
         <v>668</v>
       </c>
       <c r="CP106" s="57" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="CQ106" s="58" t="s">
         <v>670</v>
@@ -58944,25 +58913,25 @@
         <v>442</v>
       </c>
       <c r="CT106" s="68" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="CU106" s="69" t="s">
         <v>444</v>
       </c>
       <c r="CV106" s="68" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="CW106" s="69" t="s">
         <v>446</v>
       </c>
       <c r="CX106" s="68" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="CY106" s="69" t="s">
         <v>448</v>
       </c>
       <c r="CZ106" s="68" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="DA106" s="69" t="s">
         <v>450</v>
@@ -59064,13 +59033,13 @@
         <v>547</v>
       </c>
       <c r="BF107" s="42" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="BG107" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH107" s="42" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="BI107" s="56" t="s">
         <v>550</v>
@@ -59079,13 +59048,13 @@
         <v>547</v>
       </c>
       <c r="BR107" s="73" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS107" s="74" t="s">
         <v>551</v>
       </c>
       <c r="BT107" s="73" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BU107" s="74" t="s">
         <v>552</v>
@@ -59097,25 +59066,25 @@
         <v>689</v>
       </c>
       <c r="CJ107" s="57" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="CK107" s="58" t="s">
         <v>691</v>
       </c>
       <c r="CL107" s="57" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="CM107" s="58" t="s">
         <v>693</v>
       </c>
       <c r="CN107" s="57" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="CO107" s="58" t="s">
         <v>695</v>
       </c>
       <c r="CP107" s="57" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="CQ107" s="58" t="s">
         <v>697</v>
@@ -59124,25 +59093,25 @@
         <v>468</v>
       </c>
       <c r="CT107" s="68" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="CU107" s="69" t="s">
         <v>470</v>
       </c>
       <c r="CV107" s="68" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="CW107" s="69" t="s">
         <v>472</v>
       </c>
       <c r="CX107" s="68" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="CY107" s="69" t="s">
         <v>474</v>
       </c>
       <c r="CZ107" s="68" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="DA107" s="69" t="s">
         <v>476</v>
@@ -59244,13 +59213,13 @@
         <v>574</v>
       </c>
       <c r="BF108" s="42" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="BG108" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH108" s="42" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="BI108" s="56" t="s">
         <v>577</v>
@@ -59259,13 +59228,13 @@
         <v>574</v>
       </c>
       <c r="BR108" s="73" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS108" s="74" t="s">
         <v>578</v>
       </c>
       <c r="BT108" s="73" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="BU108" s="74" t="s">
         <v>579</v>
@@ -59277,25 +59246,25 @@
         <v>722</v>
       </c>
       <c r="CJ108" s="57" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="CK108" s="58" t="s">
         <v>724</v>
       </c>
       <c r="CL108" s="57" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="CM108" s="58" t="s">
         <v>726</v>
       </c>
       <c r="CN108" s="57" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="CO108" s="58" t="s">
         <v>728</v>
       </c>
       <c r="CP108" s="57" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="CQ108" s="58" t="s">
         <v>730</v>
@@ -59304,25 +59273,25 @@
         <v>505</v>
       </c>
       <c r="CT108" s="68" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="CU108" s="69" t="s">
         <v>507</v>
       </c>
       <c r="CV108" s="68" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="CW108" s="69" t="s">
         <v>509</v>
       </c>
       <c r="CX108" s="68" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="CY108" s="69" t="s">
         <v>510</v>
       </c>
       <c r="CZ108" s="68" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="DA108" s="69" t="s">
         <v>512</v>
@@ -59424,13 +59393,13 @@
         <v>594</v>
       </c>
       <c r="BF109" s="42" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="BG109" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH109" s="42" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="BI109" s="56" t="s">
         <v>598</v>
@@ -59439,13 +59408,13 @@
         <v>594</v>
       </c>
       <c r="BR109" s="73" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="BS109" s="74" t="s">
         <v>600</v>
       </c>
       <c r="BT109" s="73" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="BU109" s="74" t="s">
         <v>602</v>
@@ -59466,25 +59435,25 @@
         <v>536</v>
       </c>
       <c r="CT109" s="47" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="CU109" s="19" t="s">
         <v>538</v>
       </c>
       <c r="CV109" s="47" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="CW109" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CX109" s="47" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="CY109" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CZ109" s="47" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="DA109" s="19" t="s">
         <v>544</v>
@@ -59586,13 +59555,13 @@
         <v>625</v>
       </c>
       <c r="BF110" s="42" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="BG110" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH110" s="42" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="BI110" s="56" t="s">
         <v>628</v>
@@ -59601,13 +59570,13 @@
         <v>625</v>
       </c>
       <c r="BR110" s="73" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BS110" s="74" t="s">
         <v>629</v>
       </c>
       <c r="BT110" s="73" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="BU110" s="74" t="s">
         <v>630</v>
@@ -59624,25 +59593,25 @@
         <v>565</v>
       </c>
       <c r="CT110" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="CU110" s="19" t="s">
         <v>567</v>
       </c>
       <c r="CV110" s="47" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="CW110" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CX110" s="47" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="CY110" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CZ110" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="DA110" s="19" t="s">
         <v>572</v>
@@ -59704,7 +59673,7 @@
         <v>634</v>
       </c>
       <c r="BF111" s="42" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="BG111" s="56" t="s">
         <v>634</v>
@@ -59715,7 +59684,7 @@
         <v>634</v>
       </c>
       <c r="BR111" s="73" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BS111" s="43" t="s">
         <v>634</v>
@@ -59748,25 +59717,25 @@
         <v>587</v>
       </c>
       <c r="CT111" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="CU111" s="19" t="s">
         <v>588</v>
       </c>
       <c r="CV111" s="47" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="CW111" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CX111" s="47" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="CY111" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CZ111" s="47" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="DA111" s="19" t="s">
         <v>592</v>
@@ -59839,25 +59808,25 @@
         <v>616</v>
       </c>
       <c r="CT112" s="68" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="CU112" s="69" t="s">
         <v>618</v>
       </c>
       <c r="CV112" s="68" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="CW112" s="69" t="s">
         <v>620</v>
       </c>
       <c r="CX112" s="68" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="CY112" s="69" t="s">
         <v>622</v>
       </c>
       <c r="CZ112" s="68" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="DA112" s="69" t="s">
         <v>624</v>
@@ -59972,7 +59941,7 @@
         <v>701</v>
       </c>
       <c r="CN113" s="57" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="CO113" s="58" t="s">
         <v>957</v>
@@ -59987,25 +59956,25 @@
         <v>640</v>
       </c>
       <c r="CT113" s="68" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="CU113" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV113" s="68" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="CW113" s="69" t="s">
         <v>644</v>
       </c>
       <c r="CX113" s="68" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="CY113" s="69" t="s">
         <v>646</v>
       </c>
       <c r="CZ113" s="68" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="DA113" s="69" t="s">
         <v>648</v>
@@ -60016,7 +59985,7 @@
         <v>416</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>418</v>
@@ -60028,25 +59997,25 @@
         <v>420</v>
       </c>
       <c r="F114" s="38" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G114" s="50" t="s">
         <v>422</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I114" s="50" t="s">
         <v>424</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K114" s="49" t="s">
         <v>426</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="M114" s="49" t="s">
         <v>428</v>
@@ -60061,37 +60030,37 @@
         <v>416</v>
       </c>
       <c r="AD114" s="25" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="AE114" s="53" t="s">
         <v>418</v>
       </c>
       <c r="AF114" s="25" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="AG114" s="53" t="s">
         <v>420</v>
       </c>
       <c r="AH114" s="65" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="AI114" s="67" t="s">
         <v>422</v>
       </c>
       <c r="AJ114" s="65" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="AK114" s="67" t="s">
         <v>424</v>
       </c>
       <c r="AL114" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AM114" s="53" t="s">
         <v>426</v>
       </c>
       <c r="AN114" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AO114" s="53" t="s">
         <v>428</v>
@@ -60107,13 +60076,13 @@
         <v>416</v>
       </c>
       <c r="BF114" s="42" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="BG114" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH114" s="42" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="BI114" s="56" t="s">
         <v>420</v>
@@ -60122,13 +60091,13 @@
         <v>416</v>
       </c>
       <c r="BR114" s="73" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="BS114" s="74" t="s">
         <v>422</v>
       </c>
       <c r="BT114" s="73" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="BU114" s="74" t="s">
         <v>424</v>
@@ -60140,7 +60109,7 @@
         <v>731</v>
       </c>
       <c r="CJ114" s="57" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="CK114" s="58" t="s">
         <v>733</v>
@@ -60152,13 +60121,13 @@
         <v>735</v>
       </c>
       <c r="CN114" s="57" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="CO114" s="58" t="s">
         <v>972</v>
       </c>
       <c r="CP114" s="57" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="CQ114" s="58" t="s">
         <v>974</v>
@@ -60167,25 +60136,25 @@
         <v>650</v>
       </c>
       <c r="CT114" s="68" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="CU114" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV114" s="68" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="CW114" s="69" t="s">
         <v>654</v>
       </c>
       <c r="CX114" s="68" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="CY114" s="69" t="s">
         <v>656</v>
       </c>
       <c r="CZ114" s="68" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="DA114" s="69" t="s">
         <v>658</v>
@@ -60202,31 +60171,31 @@
         <v>455</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E115" s="49" t="s">
         <v>457</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G115" s="50" t="s">
         <v>458</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I115" s="50" t="s">
         <v>459</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K115" s="49" t="s">
         <v>460</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="M115" s="49" t="s">
         <v>461</v>
@@ -60241,37 +60210,37 @@
         <v>454</v>
       </c>
       <c r="AD115" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AE115" s="53" t="s">
         <v>455</v>
       </c>
       <c r="AF115" s="25" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="AG115" s="53" t="s">
         <v>457</v>
       </c>
       <c r="AH115" s="65" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AI115" s="67" t="s">
         <v>458</v>
       </c>
       <c r="AJ115" s="65" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="AK115" s="67" t="s">
         <v>459</v>
       </c>
       <c r="AL115" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AM115" s="53" t="s">
         <v>460</v>
       </c>
       <c r="AN115" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AO115" s="53" t="s">
         <v>461</v>
@@ -60287,13 +60256,13 @@
         <v>454</v>
       </c>
       <c r="BF115" s="42" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="BG115" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH115" s="42" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="BI115" s="56" t="s">
         <v>457</v>
@@ -60302,13 +60271,13 @@
         <v>454</v>
       </c>
       <c r="BR115" s="73" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="BS115" s="74" t="s">
         <v>458</v>
       </c>
       <c r="BT115" s="73" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="BU115" s="74" t="s">
         <v>459</v>
@@ -60329,25 +60298,25 @@
         <v>662</v>
       </c>
       <c r="CT115" s="47" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="CU115" s="19" t="s">
         <v>664</v>
       </c>
       <c r="CV115" s="47" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="CW115" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CX115" s="47" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="CY115" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CZ115" s="47" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="DA115" s="19" t="s">
         <v>670</v>
@@ -60370,19 +60339,19 @@
         <v>484</v>
       </c>
       <c r="F116" s="38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G116" s="50" t="s">
         <v>486</v>
       </c>
       <c r="H116" s="38" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I116" s="50" t="s">
         <v>488</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K116" s="49" t="s">
         <v>489</v>
@@ -60403,37 +60372,37 @@
         <v>480</v>
       </c>
       <c r="AD116" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AE116" s="53" t="s">
         <v>482</v>
       </c>
       <c r="AF116" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AG116" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AH116" s="65" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AI116" s="67" t="s">
         <v>486</v>
       </c>
       <c r="AJ116" s="65" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AK116" s="67" t="s">
         <v>488</v>
       </c>
       <c r="AL116" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AM116" s="53" t="s">
         <v>489</v>
       </c>
       <c r="AN116" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AO116" s="53" t="s">
         <v>490</v>
@@ -60449,13 +60418,13 @@
         <v>480</v>
       </c>
       <c r="BF116" s="42" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="BG116" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH116" s="42" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="BI116" s="56" t="s">
         <v>484</v>
@@ -60464,13 +60433,13 @@
         <v>480</v>
       </c>
       <c r="BR116" s="73" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="BS116" s="74" t="s">
         <v>486</v>
       </c>
       <c r="BT116" s="73" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="BU116" s="74" t="s">
         <v>488</v>
@@ -60487,25 +60456,25 @@
         <v>689</v>
       </c>
       <c r="CT116" s="47" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="CU116" s="19" t="s">
         <v>691</v>
       </c>
       <c r="CV116" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="CW116" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CX116" s="47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="CY116" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CZ116" s="47" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="DA116" s="19" t="s">
         <v>697</v>
@@ -60516,7 +60485,7 @@
         <v>517</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C117" s="49" t="s">
         <v>519</v>
@@ -60528,25 +60497,25 @@
         <v>521</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G117" s="50" t="s">
         <v>522</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I117" s="50" t="s">
         <v>524</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K117" s="49" t="s">
         <v>525</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="M117" s="49" t="s">
         <v>526</v>
@@ -60561,37 +60530,37 @@
         <v>517</v>
       </c>
       <c r="AD117" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AE117" s="53" t="s">
         <v>519</v>
       </c>
       <c r="AF117" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AG117" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AH117" s="65" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AI117" s="67" t="s">
         <v>522</v>
       </c>
       <c r="AJ117" s="65" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AK117" s="67" t="s">
         <v>524</v>
       </c>
       <c r="AL117" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AM117" s="53" t="s">
         <v>525</v>
       </c>
       <c r="AN117" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AO117" s="53" t="s">
         <v>526</v>
@@ -60607,13 +60576,13 @@
         <v>517</v>
       </c>
       <c r="BF117" s="42" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="BG117" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH117" s="42" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="BI117" s="56" t="s">
         <v>521</v>
@@ -60622,13 +60591,13 @@
         <v>517</v>
       </c>
       <c r="BR117" s="73" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="BS117" s="74" t="s">
         <v>522</v>
       </c>
       <c r="BT117" s="73" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BU117" s="74" t="s">
         <v>524</v>
@@ -60659,25 +60628,25 @@
         <v>722</v>
       </c>
       <c r="CT117" s="47" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="CU117" s="19" t="s">
         <v>724</v>
       </c>
       <c r="CV117" s="47" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="CW117" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CX117" s="47" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="CY117" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CZ117" s="47" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="DA117" s="19" t="s">
         <v>730</v>
@@ -60700,19 +60669,19 @@
         <v>550</v>
       </c>
       <c r="F118" s="38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G118" s="50" t="s">
         <v>551</v>
       </c>
       <c r="H118" s="38" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I118" s="50" t="s">
         <v>552</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K118" s="49" t="s">
         <v>554</v>
@@ -60733,37 +60702,37 @@
         <v>547</v>
       </c>
       <c r="AD118" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AE118" s="53" t="s">
         <v>549</v>
       </c>
       <c r="AF118" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AG118" s="53" t="s">
         <v>550</v>
       </c>
       <c r="AH118" s="65" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AI118" s="67" t="s">
         <v>551</v>
       </c>
       <c r="AJ118" s="65" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AK118" s="67" t="s">
         <v>552</v>
       </c>
       <c r="AL118" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AM118" s="53" t="s">
         <v>554</v>
       </c>
       <c r="AN118" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AO118" s="53" t="s">
         <v>555</v>
@@ -60779,13 +60748,13 @@
         <v>547</v>
       </c>
       <c r="BF118" s="42" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="BG118" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH118" s="42" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="BI118" s="56" t="s">
         <v>550</v>
@@ -60794,13 +60763,13 @@
         <v>547</v>
       </c>
       <c r="BR118" s="73" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="BS118" s="74" t="s">
         <v>551</v>
       </c>
       <c r="BT118" s="73" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="BU118" s="74" t="s">
         <v>552</v>
@@ -60809,31 +60778,31 @@
       <c r="CD118" s="23"/>
       <c r="CF118" s="23"/>
       <c r="CI118" s="75" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CJ118" s="57" t="s">
         <v>1638</v>
       </c>
-      <c r="CJ118" s="57" t="s">
+      <c r="CK118" s="58" t="s">
         <v>1639</v>
       </c>
-      <c r="CK118" s="58" t="s">
+      <c r="CL118" s="57" t="s">
         <v>1640</v>
       </c>
-      <c r="CL118" s="57" t="s">
+      <c r="CM118" s="58" t="s">
         <v>1641</v>
-      </c>
-      <c r="CM118" s="58" t="s">
-        <v>1642</v>
       </c>
       <c r="CN118" s="57" t="s">
         <v>692</v>
       </c>
       <c r="CO118" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="CP118" s="57" t="s">
         <v>1643</v>
       </c>
-      <c r="CP118" s="57" t="s">
+      <c r="CQ118" s="71" t="s">
         <v>1644</v>
-      </c>
-      <c r="CQ118" s="71" t="s">
-        <v>1645</v>
       </c>
       <c r="CS118" s="20"/>
       <c r="CT118" s="20"/>
@@ -60862,25 +60831,25 @@
         <v>577</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G119" s="50" t="s">
         <v>578</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I119" s="50" t="s">
         <v>579</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K119" s="49" t="s">
         <v>580</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="M119" s="49" t="s">
         <v>581</v>
@@ -60895,37 +60864,37 @@
         <v>574</v>
       </c>
       <c r="AD119" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AE119" s="53" t="s">
         <v>576</v>
       </c>
       <c r="AF119" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AG119" s="53" t="s">
         <v>577</v>
       </c>
       <c r="AH119" s="65" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AI119" s="67" t="s">
         <v>578</v>
       </c>
       <c r="AJ119" s="65" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AK119" s="67" t="s">
         <v>579</v>
       </c>
       <c r="AL119" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AM119" s="53" t="s">
         <v>580</v>
       </c>
       <c r="AN119" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AO119" s="53" t="s">
         <v>581</v>
@@ -60941,13 +60910,13 @@
         <v>574</v>
       </c>
       <c r="BF119" s="42" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="BG119" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH119" s="42" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="BI119" s="56" t="s">
         <v>577</v>
@@ -60956,13 +60925,13 @@
         <v>574</v>
       </c>
       <c r="BR119" s="73" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="BS119" s="74" t="s">
         <v>578</v>
       </c>
       <c r="BT119" s="73" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BU119" s="74" t="s">
         <v>579</v>
@@ -60971,31 +60940,31 @@
       <c r="CD119" s="23"/>
       <c r="CF119" s="23"/>
       <c r="CI119" s="75" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CJ119" s="57" t="s">
         <v>1646</v>
       </c>
-      <c r="CJ119" s="57" t="s">
+      <c r="CK119" s="58" t="s">
         <v>1647</v>
-      </c>
-      <c r="CK119" s="58" t="s">
-        <v>1648</v>
       </c>
       <c r="CL119" s="57" t="s">
         <v>692</v>
       </c>
       <c r="CM119" s="58" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="CN119" s="57" t="s">
         <v>694</v>
       </c>
       <c r="CO119" s="71" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="CP119" s="57" t="s">
         <v>696</v>
       </c>
       <c r="CQ119" s="71" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -61015,13 +60984,13 @@
         <v>598</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G120" s="50" t="s">
         <v>600</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I120" s="50" t="s">
         <v>602</v>
@@ -61048,37 +61017,37 @@
         <v>594</v>
       </c>
       <c r="AD120" s="25" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AE120" s="53" t="s">
         <v>596</v>
       </c>
       <c r="AF120" s="25" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AG120" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AH120" s="65" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AI120" s="67" t="s">
         <v>600</v>
       </c>
       <c r="AJ120" s="65" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="AK120" s="67" t="s">
         <v>602</v>
       </c>
       <c r="AL120" s="25" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AM120" s="53" t="s">
         <v>603</v>
       </c>
       <c r="AN120" s="25" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AO120" s="53" t="s">
         <v>604</v>
@@ -61094,13 +61063,13 @@
         <v>594</v>
       </c>
       <c r="BF120" s="42" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BG120" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH120" s="42" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="BI120" s="56" t="s">
         <v>598</v>
@@ -61109,13 +61078,13 @@
         <v>594</v>
       </c>
       <c r="BR120" s="73" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="BS120" s="74" t="s">
         <v>600</v>
       </c>
       <c r="BT120" s="73" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="BU120" s="74" t="s">
         <v>602</v>
@@ -61124,31 +61093,31 @@
       <c r="CD120" s="23"/>
       <c r="CF120" s="23"/>
       <c r="CI120" s="57" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="CJ120" s="57" t="s">
         <v>727</v>
       </c>
       <c r="CK120" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="CL120" s="57" t="s">
         <v>1663</v>
       </c>
-      <c r="CL120" s="57" t="s">
+      <c r="CM120" s="58" t="s">
         <v>1664</v>
       </c>
-      <c r="CM120" s="58" t="s">
+      <c r="CN120" s="57" t="s">
         <v>1665</v>
       </c>
-      <c r="CN120" s="57" t="s">
+      <c r="CO120" s="71" t="s">
         <v>1666</v>
       </c>
-      <c r="CO120" s="71" t="s">
+      <c r="CP120" s="57" t="s">
         <v>1667</v>
       </c>
-      <c r="CP120" s="57" t="s">
+      <c r="CQ120" s="71" t="s">
         <v>1668</v>
-      </c>
-      <c r="CQ120" s="71" t="s">
-        <v>1669</v>
       </c>
       <c r="CS120" s="47" t="s">
         <v>377</v>
@@ -61181,19 +61150,19 @@
         <v>627</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E121" s="49" t="s">
         <v>628</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G121" s="50" t="s">
         <v>629</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I121" s="50" t="s">
         <v>630</v>
@@ -61205,7 +61174,7 @@
         <v>631</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="M121" s="49" t="s">
         <v>633</v>
@@ -61220,7 +61189,7 @@
         <v>634</v>
       </c>
       <c r="AD121" s="25" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="AE121" s="53" t="s">
         <v>634</v>
@@ -61246,13 +61215,13 @@
         <v>625</v>
       </c>
       <c r="BF121" s="42" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="BG121" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH121" s="42" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="BI121" s="56" t="s">
         <v>628</v>
@@ -61261,13 +61230,13 @@
         <v>625</v>
       </c>
       <c r="BR121" s="73" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="BS121" s="74" t="s">
         <v>629</v>
       </c>
       <c r="BT121" s="73" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="BU121" s="74" t="s">
         <v>630</v>
@@ -61288,25 +61257,25 @@
         <v>442</v>
       </c>
       <c r="CT121" s="68" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="CU121" s="69" t="s">
         <v>444</v>
       </c>
       <c r="CV121" s="68" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="CW121" s="69" t="s">
         <v>446</v>
       </c>
       <c r="CX121" s="68" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="CY121" s="69" t="s">
         <v>448</v>
       </c>
       <c r="CZ121" s="68" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="DA121" s="69" t="s">
         <v>450</v>
@@ -61356,7 +61325,7 @@
         <v>634</v>
       </c>
       <c r="BF122" s="42" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="BG122" s="56" t="s">
         <v>634</v>
@@ -61367,7 +61336,7 @@
         <v>634</v>
       </c>
       <c r="BR122" s="73" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="BS122" s="43" t="s">
         <v>634</v>
@@ -61381,25 +61350,25 @@
         <v>468</v>
       </c>
       <c r="CT122" s="68" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="CU122" s="69" t="s">
         <v>470</v>
       </c>
       <c r="CV122" s="68" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="CW122" s="69" t="s">
         <v>472</v>
       </c>
       <c r="CX122" s="68" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="CY122" s="69" t="s">
         <v>474</v>
       </c>
       <c r="CZ122" s="68" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="DA122" s="69" t="s">
         <v>476</v>
@@ -61484,25 +61453,25 @@
         <v>505</v>
       </c>
       <c r="CT123" s="68" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="CU123" s="69" t="s">
         <v>507</v>
       </c>
       <c r="CV123" s="68" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="CW123" s="69" t="s">
         <v>509</v>
       </c>
       <c r="CX123" s="68" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="CY123" s="69" t="s">
         <v>510</v>
       </c>
       <c r="CZ123" s="68" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="DA123" s="69" t="s">
         <v>512</v>
@@ -61525,7 +61494,7 @@
         <v>416</v>
       </c>
       <c r="AD124" s="25" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AE124" s="53" t="s">
         <v>418</v>
@@ -61537,25 +61506,25 @@
         <v>420</v>
       </c>
       <c r="AH124" s="65" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="AI124" s="67" t="s">
         <v>422</v>
       </c>
       <c r="AJ124" s="65" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AK124" s="67" t="s">
         <v>424</v>
       </c>
       <c r="AL124" s="25" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="AM124" s="53" t="s">
         <v>426</v>
       </c>
       <c r="AN124" s="25" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AO124" s="53" t="s">
         <v>428</v>
@@ -61611,37 +61580,37 @@
         <v>1250</v>
       </c>
       <c r="CO124" s="58" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CP124" s="57" t="s">
         <v>1693</v>
       </c>
-      <c r="CP124" s="57" t="s">
+      <c r="CQ124" s="58" t="s">
         <v>1694</v>
-      </c>
-      <c r="CQ124" s="58" t="s">
-        <v>1695</v>
       </c>
       <c r="CS124" s="47" t="s">
         <v>536</v>
       </c>
       <c r="CT124" s="47" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="CU124" s="19" t="s">
         <v>538</v>
       </c>
       <c r="CV124" s="47" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="CW124" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CX124" s="47" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="CY124" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CZ124" s="47" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="DA124" s="19" t="s">
         <v>544</v>
@@ -61685,7 +61654,7 @@
         <v>454</v>
       </c>
       <c r="AD125" s="25" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AE125" s="53" t="s">
         <v>455</v>
@@ -61697,25 +61666,25 @@
         <v>457</v>
       </c>
       <c r="AH125" s="65" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AI125" s="67" t="s">
         <v>458</v>
       </c>
       <c r="AJ125" s="65" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AK125" s="67" t="s">
         <v>459</v>
       </c>
       <c r="AL125" s="25" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="AM125" s="53" t="s">
         <v>460</v>
       </c>
       <c r="AN125" s="25" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AO125" s="53" t="s">
         <v>461</v>
@@ -61746,13 +61715,13 @@
         <v>416</v>
       </c>
       <c r="BR125" s="73" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="BS125" s="74" t="s">
         <v>422</v>
       </c>
       <c r="BT125" s="73" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="BU125" s="74" t="s">
         <v>424</v>
@@ -61767,49 +61736,49 @@
         <v>456</v>
       </c>
       <c r="CK125" s="58" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="CL125" s="57" t="s">
         <v>1250</v>
       </c>
       <c r="CM125" s="58" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CN125" s="57" t="s">
         <v>1704</v>
       </c>
-      <c r="CN125" s="57" t="s">
+      <c r="CO125" s="58" t="s">
         <v>1705</v>
       </c>
-      <c r="CO125" s="58" t="s">
+      <c r="CP125" s="57" t="s">
         <v>1706</v>
       </c>
-      <c r="CP125" s="57" t="s">
+      <c r="CQ125" s="58" t="s">
         <v>1707</v>
-      </c>
-      <c r="CQ125" s="58" t="s">
-        <v>1708</v>
       </c>
       <c r="CS125" s="47" t="s">
         <v>565</v>
       </c>
       <c r="CT125" s="47" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="CU125" s="19" t="s">
         <v>567</v>
       </c>
       <c r="CV125" s="47" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="CW125" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CX125" s="47" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="CY125" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CZ125" s="47" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="DA125" s="19" t="s">
         <v>572</v>
@@ -61838,7 +61807,7 @@
         <v>422</v>
       </c>
       <c r="H126" s="38" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I126" s="50" t="s">
         <v>424</v>
@@ -61865,37 +61834,37 @@
         <v>480</v>
       </c>
       <c r="AD126" s="25" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="AE126" s="53" t="s">
         <v>482</v>
       </c>
       <c r="AF126" s="25" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AG126" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AH126" s="65" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="AI126" s="67" t="s">
         <v>486</v>
       </c>
       <c r="AJ126" s="65" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="AK126" s="67" t="s">
         <v>488</v>
       </c>
       <c r="AL126" s="25" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="AM126" s="53" t="s">
         <v>489</v>
       </c>
       <c r="AN126" s="25" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AO126" s="53" t="s">
         <v>490</v>
@@ -61926,13 +61895,13 @@
         <v>454</v>
       </c>
       <c r="BR126" s="73" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="BS126" s="74" t="s">
         <v>458</v>
       </c>
       <c r="BT126" s="73" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="BU126" s="74" t="s">
         <v>459</v>
@@ -61947,49 +61916,49 @@
         <v>425</v>
       </c>
       <c r="CK126" s="58" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="CL126" s="57" t="s">
         <v>1262</v>
       </c>
       <c r="CM126" s="58" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="CN126" s="57" t="s">
         <v>196</v>
       </c>
       <c r="CO126" s="58" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CP126" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="CQ126" s="58" t="s">
         <v>1720</v>
-      </c>
-      <c r="CP126" s="57" t="s">
-        <v>1595</v>
-      </c>
-      <c r="CQ126" s="58" t="s">
-        <v>1721</v>
       </c>
       <c r="CS126" s="47" t="s">
         <v>587</v>
       </c>
       <c r="CT126" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="CU126" s="19" t="s">
         <v>588</v>
       </c>
       <c r="CV126" s="47" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="CW126" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CX126" s="47" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="CY126" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CZ126" s="47" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="DA126" s="19" t="s">
         <v>592</v>
@@ -62000,7 +61969,7 @@
         <v>454</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C127" s="49" t="s">
         <v>455</v>
@@ -62012,13 +61981,13 @@
         <v>457</v>
       </c>
       <c r="F127" s="38" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G127" s="50" t="s">
         <v>458</v>
       </c>
       <c r="H127" s="38" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I127" s="50" t="s">
         <v>459</v>
@@ -62045,37 +62014,37 @@
         <v>517</v>
       </c>
       <c r="AD127" s="25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AE127" s="53" t="s">
         <v>519</v>
       </c>
       <c r="AF127" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AG127" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AH127" s="65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AI127" s="67" t="s">
         <v>522</v>
       </c>
       <c r="AJ127" s="65" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AK127" s="67" t="s">
         <v>524</v>
       </c>
       <c r="AL127" s="25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AM127" s="53" t="s">
         <v>525</v>
       </c>
       <c r="AN127" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AO127" s="53" t="s">
         <v>526</v>
@@ -62091,7 +62060,7 @@
         <v>480</v>
       </c>
       <c r="BF127" s="42" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="BG127" s="56" t="s">
         <v>482</v>
@@ -62106,13 +62075,13 @@
         <v>480</v>
       </c>
       <c r="BR127" s="73" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="BS127" s="74" t="s">
         <v>486</v>
       </c>
       <c r="BT127" s="73" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="BU127" s="74" t="s">
         <v>488</v>
@@ -62133,19 +62102,19 @@
         <v>616</v>
       </c>
       <c r="CT127" s="68" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="CU127" s="69" t="s">
         <v>618</v>
       </c>
       <c r="CV127" s="68" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="CW127" s="69" t="s">
         <v>620</v>
       </c>
       <c r="CX127" s="68" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="CY127" s="69" t="s">
         <v>622</v>
@@ -62166,19 +62135,19 @@
         <v>482</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E128" s="49" t="s">
         <v>484</v>
       </c>
       <c r="F128" s="38" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G128" s="50" t="s">
         <v>486</v>
       </c>
       <c r="H128" s="38" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="I128" s="50" t="s">
         <v>488</v>
@@ -62190,7 +62159,7 @@
         <v>489</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="M128" s="49" t="s">
         <v>490</v>
@@ -62205,37 +62174,37 @@
         <v>547</v>
       </c>
       <c r="AD128" s="25" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="AE128" s="53" t="s">
         <v>549</v>
       </c>
       <c r="AF128" s="25" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AG128" s="53" t="s">
         <v>550</v>
       </c>
       <c r="AH128" s="65" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="AI128" s="67" t="s">
         <v>551</v>
       </c>
       <c r="AJ128" s="65" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="AK128" s="67" t="s">
         <v>552</v>
       </c>
       <c r="AL128" s="25" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="AM128" s="53" t="s">
         <v>554</v>
       </c>
       <c r="AN128" s="25" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AO128" s="53" t="s">
         <v>555</v>
@@ -62257,7 +62226,7 @@
         <v>519</v>
       </c>
       <c r="BH128" s="42" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="BI128" s="56" t="s">
         <v>521</v>
@@ -62266,13 +62235,13 @@
         <v>517</v>
       </c>
       <c r="BR128" s="73" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="BS128" s="74" t="s">
         <v>522</v>
       </c>
       <c r="BT128" s="73" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="BU128" s="74" t="s">
         <v>524</v>
@@ -62284,13 +62253,13 @@
         <v>640</v>
       </c>
       <c r="CT128" s="68" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="CU128" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV128" s="68" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="CW128" s="69" t="s">
         <v>644</v>
@@ -62315,31 +62284,31 @@
         <v>519</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E129" s="49" t="s">
         <v>521</v>
       </c>
       <c r="F129" s="38" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G129" s="50" t="s">
         <v>522</v>
       </c>
       <c r="H129" s="38" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I129" s="50" t="s">
         <v>524</v>
       </c>
       <c r="J129" s="22" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K129" s="49" t="s">
         <v>525</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="M129" s="49" t="s">
         <v>526</v>
@@ -62354,37 +62323,37 @@
         <v>574</v>
       </c>
       <c r="AD129" s="25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AE129" s="53" t="s">
         <v>576</v>
       </c>
       <c r="AF129" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AG129" s="53" t="s">
         <v>577</v>
       </c>
       <c r="AH129" s="65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AI129" s="67" t="s">
         <v>578</v>
       </c>
       <c r="AJ129" s="65" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="AK129" s="67" t="s">
         <v>579</v>
       </c>
       <c r="AL129" s="25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AM129" s="53" t="s">
         <v>580</v>
       </c>
       <c r="AN129" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AO129" s="53" t="s">
         <v>581</v>
@@ -62400,7 +62369,7 @@
         <v>547</v>
       </c>
       <c r="BF129" s="42" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="BG129" s="56" t="s">
         <v>549</v>
@@ -62415,13 +62384,13 @@
         <v>547</v>
       </c>
       <c r="BR129" s="73" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="BS129" s="74" t="s">
         <v>551</v>
       </c>
       <c r="BT129" s="73" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="BU129" s="74" t="s">
         <v>552</v>
@@ -62452,25 +62421,25 @@
         <v>650</v>
       </c>
       <c r="CT129" s="68" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="CU129" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV129" s="68" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="CW129" s="69" t="s">
         <v>654</v>
       </c>
       <c r="CX129" s="68" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="CY129" s="69" t="s">
         <v>656</v>
       </c>
       <c r="CZ129" s="68" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="DA129" s="69" t="s">
         <v>658</v>
@@ -62481,37 +62450,37 @@
         <v>547</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C130" s="49" t="s">
         <v>549</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E130" s="49" t="s">
         <v>550</v>
       </c>
       <c r="F130" s="38" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G130" s="50" t="s">
         <v>551</v>
       </c>
       <c r="H130" s="38" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="I130" s="50" t="s">
         <v>552</v>
       </c>
       <c r="J130" s="22" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="K130" s="49" t="s">
         <v>554</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="M130" s="49" t="s">
         <v>555</v>
@@ -62526,37 +62495,37 @@
         <v>594</v>
       </c>
       <c r="AD130" s="25" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="AE130" s="53" t="s">
         <v>596</v>
       </c>
       <c r="AF130" s="25" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="AG130" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AH130" s="65" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="AI130" s="67" t="s">
         <v>600</v>
       </c>
       <c r="AJ130" s="65" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="AK130" s="67" t="s">
         <v>602</v>
       </c>
       <c r="AL130" s="25" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="AM130" s="53" t="s">
         <v>603</v>
       </c>
       <c r="AN130" s="25" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="AO130" s="53" t="s">
         <v>604</v>
@@ -62578,7 +62547,7 @@
         <v>576</v>
       </c>
       <c r="BH130" s="42" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="BI130" s="56" t="s">
         <v>577</v>
@@ -62587,13 +62556,13 @@
         <v>574</v>
       </c>
       <c r="BR130" s="73" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="BS130" s="74" t="s">
         <v>578</v>
       </c>
       <c r="BT130" s="73" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="BU130" s="74" t="s">
         <v>579</v>
@@ -62632,25 +62601,25 @@
         <v>662</v>
       </c>
       <c r="CT130" s="47" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="CU130" s="19" t="s">
         <v>664</v>
       </c>
       <c r="CV130" s="47" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="CW130" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CX130" s="47" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="CY130" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CZ130" s="47" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="DA130" s="19" t="s">
         <v>670</v>
@@ -62667,31 +62636,31 @@
         <v>576</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E131" s="49" t="s">
         <v>577</v>
       </c>
       <c r="F131" s="38" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G131" s="50" t="s">
         <v>578</v>
       </c>
       <c r="H131" s="38" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I131" s="50" t="s">
         <v>579</v>
       </c>
       <c r="J131" s="22" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K131" s="49" t="s">
         <v>580</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="M131" s="49" t="s">
         <v>581</v>
@@ -62706,7 +62675,7 @@
         <v>634</v>
       </c>
       <c r="AD131" s="25" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AE131" s="53" t="s">
         <v>634</v>
@@ -62738,7 +62707,7 @@
         <v>596</v>
       </c>
       <c r="BH131" s="42" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="BI131" s="56" t="s">
         <v>598</v>
@@ -62747,13 +62716,13 @@
         <v>594</v>
       </c>
       <c r="BR131" s="73" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="BS131" s="74" t="s">
         <v>600</v>
       </c>
       <c r="BT131" s="73" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="BU131" s="74" t="s">
         <v>602</v>
@@ -62792,25 +62761,25 @@
         <v>689</v>
       </c>
       <c r="CT131" s="47" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="CU131" s="19" t="s">
         <v>691</v>
       </c>
       <c r="CV131" s="47" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="CW131" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CX131" s="47" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="CY131" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CZ131" s="47" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="DA131" s="19" t="s">
         <v>697</v>
@@ -62833,19 +62802,19 @@
         <v>598</v>
       </c>
       <c r="F132" s="38" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G132" s="50" t="s">
         <v>600</v>
       </c>
       <c r="H132" s="38" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I132" s="50" t="s">
         <v>602</v>
       </c>
       <c r="J132" s="22" t="s">
-        <v>1406</v>
+        <v>1775</v>
       </c>
       <c r="K132" s="49" t="s">
         <v>603</v>
@@ -62901,7 +62870,7 @@
         <v>629</v>
       </c>
       <c r="BT132" s="73" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="BU132" s="74" t="s">
         <v>630</v>
@@ -62975,7 +62944,7 @@
         <v>627</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E133" s="49" t="s">
         <v>628</v>
@@ -62987,7 +62956,7 @@
         <v>629</v>
       </c>
       <c r="H133" s="38" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I133" s="50" t="s">
         <v>630</v>
@@ -63570,13 +63539,13 @@
         <v>735</v>
       </c>
       <c r="CN138" s="57" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="CO138" s="58" t="s">
         <v>972</v>
       </c>
       <c r="CP138" s="57" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="CQ138" s="58" t="s">
         <v>974</v>
@@ -64328,13 +64297,13 @@
         <v>735</v>
       </c>
       <c r="CN144" s="57" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="CO144" s="58" t="s">
         <v>972</v>
       </c>
       <c r="CP144" s="57" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="CQ144" s="58" t="s">
         <v>974</v>
@@ -64634,31 +64603,31 @@
       <c r="CD147" s="23"/>
       <c r="CF147" s="23"/>
       <c r="CI147" s="75" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="CJ147" s="57" t="s">
         <v>1847</v>
       </c>
       <c r="CK147" s="58" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="CL147" s="57" t="s">
         <v>1848</v>
       </c>
       <c r="CM147" s="58" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="CN147" s="57" t="s">
         <v>1849</v>
       </c>
       <c r="CO147" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="CP147" s="57" t="s">
         <v>1850</v>
       </c>
       <c r="CQ147" s="71" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="CS147" s="47" t="s">
         <v>587</v>
@@ -64782,31 +64751,31 @@
       <c r="CD148" s="23"/>
       <c r="CF148" s="23"/>
       <c r="CI148" s="75" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="CJ148" s="57" t="s">
         <v>1855</v>
       </c>
       <c r="CK148" s="58" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="CL148" s="57" t="s">
         <v>1849</v>
       </c>
       <c r="CM148" s="58" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="CN148" s="57" t="s">
         <v>903</v>
       </c>
       <c r="CO148" s="71" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="CP148" s="57" t="s">
         <v>904</v>
       </c>
       <c r="CQ148" s="71" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="CS148" s="68" t="s">
         <v>616</v>
@@ -64930,31 +64899,31 @@
       <c r="CD149" s="23"/>
       <c r="CF149" s="23"/>
       <c r="CI149" s="57" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="CJ149" s="57" t="s">
         <v>920</v>
       </c>
       <c r="CK149" s="58" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="CL149" s="57" t="s">
         <v>1860</v>
       </c>
       <c r="CM149" s="58" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="CN149" s="57" t="s">
         <v>1861</v>
       </c>
       <c r="CO149" s="71" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="CP149" s="57" t="s">
         <v>1862</v>
       </c>
       <c r="CQ149" s="71" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="CS149" s="68" t="s">
         <v>640</v>
@@ -66079,7 +66048,7 @@
         <v>482</v>
       </c>
       <c r="BH161" s="42" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="BI161" s="56" t="s">
         <v>484</v>
@@ -66248,7 +66217,7 @@
         <v>549</v>
       </c>
       <c r="BH163" s="42" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="BI163" s="56" t="s">
         <v>550</v>
@@ -67889,13 +67858,13 @@
         <v>416</v>
       </c>
       <c r="BF181" s="42" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="BG181" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH181" s="42" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="BI181" s="56" t="s">
         <v>420</v>
@@ -68159,7 +68128,7 @@
         <v>519</v>
       </c>
       <c r="BH184" s="42" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BI184" s="56" t="s">
         <v>521</v>
@@ -68292,7 +68261,7 @@
         <v>620</v>
       </c>
       <c r="CX185" s="60" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="CY185" s="61" t="s">
         <v>622</v>
@@ -68372,7 +68341,7 @@
         <v>576</v>
       </c>
       <c r="BH186" s="42" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BI186" s="56" t="s">
         <v>577</v>
@@ -68398,7 +68367,7 @@
         <v>642</v>
       </c>
       <c r="CV186" s="60" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="CW186" s="61" t="s">
         <v>644</v>
@@ -69925,7 +69894,7 @@
       <c r="CY202" s="69" t="s">
         <v>943</v>
       </c>
-      <c r="CZ202" s="78" t="s">
+      <c r="CZ202" s="68" t="s">
         <v>2011</v>
       </c>
       <c r="DA202" s="69" t="s">
@@ -74275,7 +74244,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="AZ90 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -74290,14 +74259,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="19.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="21" width="48.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="21" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="79" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="78" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>2074</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>2075</v>
       </c>
       <c r="C1" s="23" t="s">
@@ -74306,19 +74275,19 @@
       <c r="D1" s="23" t="s">
         <v>2077</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>2078</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>2079</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="79" t="s">
         <v>2080</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>2081</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>2082</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -74336,8 +74305,8 @@
       <c r="N1" s="23" t="s">
         <v>2087</v>
       </c>
-      <c r="AMI1" s="79"/>
-      <c r="AMJ1" s="79"/>
+      <c r="AMI1" s="78"/>
+      <c r="AMJ1" s="78"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
@@ -74349,16 +74318,16 @@
       <c r="C2" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>2089</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>2090</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>2091</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>2092</v>
       </c>
       <c r="I2" s="21" t="s">
@@ -74367,16 +74336,16 @@
       <c r="J2" s="21" t="s">
         <v>2094</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="80" t="s">
         <v>2095</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>2096</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="80" t="s">
         <v>2097</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -74390,16 +74359,16 @@
       <c r="C3" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>2100</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>2101</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="80" t="s">
         <v>2102</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="80" t="s">
         <v>2103</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -74408,16 +74377,16 @@
       <c r="J3" s="21" t="s">
         <v>2105</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="80" t="s">
         <v>2106</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="80" t="s">
         <v>2107</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="80" t="s">
         <v>2108</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="80" t="s">
         <v>2109</v>
       </c>
     </row>
@@ -74431,16 +74400,16 @@
       <c r="C4" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="80" t="s">
         <v>2111</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>2112</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>2113</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="80" t="s">
         <v>2114</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -74449,16 +74418,16 @@
       <c r="J4" s="21" t="s">
         <v>2116</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="80" t="s">
         <v>2117</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="80" t="s">
         <v>2118</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="80" t="s">
         <v>2119</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>2120</v>
       </c>
     </row>
@@ -74472,16 +74441,16 @@
       <c r="C5" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>2122</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>2123</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>2124</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="80" t="s">
         <v>2125</v>
       </c>
       <c r="I5" s="21" t="s">
@@ -74490,16 +74459,16 @@
       <c r="J5" s="21" t="s">
         <v>2127</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>2128</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="80" t="s">
         <v>2129</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="80" t="s">
         <v>2130</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="80" t="s">
         <v>2131</v>
       </c>
     </row>
@@ -74513,16 +74482,16 @@
       <c r="C6" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="80" t="s">
         <v>2133</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="80" t="s">
         <v>2134</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="80" t="s">
         <v>2135</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="80" t="s">
         <v>2136</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -74531,16 +74500,16 @@
       <c r="J6" s="21" t="s">
         <v>2138</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="80" t="s">
         <v>2139</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="80" t="s">
         <v>2140</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="80" t="s">
         <v>2141</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="80" t="s">
         <v>2142</v>
       </c>
     </row>
@@ -74554,16 +74523,16 @@
       <c r="C7" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="80" t="s">
         <v>2144</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="80" t="s">
         <v>2145</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="80" t="s">
         <v>2146</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="80" t="s">
         <v>2147</v>
       </c>
       <c r="I7" s="21" t="s">
@@ -74572,16 +74541,16 @@
       <c r="J7" s="21" t="s">
         <v>2149</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="80" t="s">
         <v>2150</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="80" t="s">
         <v>2151</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="80" t="s">
         <v>2152</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="80" t="s">
         <v>2153</v>
       </c>
     </row>
@@ -74595,16 +74564,16 @@
       <c r="C8" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="80" t="s">
         <v>2155</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="80" t="s">
         <v>2156</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="80" t="s">
         <v>2157</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="80" t="s">
         <v>2158</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -74613,16 +74582,16 @@
       <c r="J8" s="21" t="s">
         <v>2160</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="80" t="s">
         <v>2161</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="80" t="s">
         <v>2162</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="80" t="s">
         <v>2163</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="80" t="s">
         <v>2164</v>
       </c>
     </row>
@@ -74636,16 +74605,16 @@
       <c r="C9" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="80" t="s">
         <v>2166</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="80" t="s">
         <v>2167</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="80" t="s">
         <v>2168</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="80" t="s">
         <v>2169</v>
       </c>
       <c r="I9" s="21" t="s">
@@ -74654,16 +74623,16 @@
       <c r="J9" s="21" t="s">
         <v>2171</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="80" t="s">
         <v>2172</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="80" t="s">
         <v>2173</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="M9" s="80" t="s">
         <v>2174</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="80" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -74674,16 +74643,16 @@
       <c r="B10" s="21" t="s">
         <v>2176</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>2177</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>2177</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="80" t="s">
         <v>2178</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>2179</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -74692,32 +74661,32 @@
       <c r="J10" s="21" t="s">
         <v>2181</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>2182</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="80" t="s">
         <v>2182</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>2183</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
@@ -74729,16 +74698,16 @@
       <c r="C12" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="80" t="s">
         <v>2187</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="80" t="s">
         <v>2188</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="80" t="s">
         <v>2189</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="80" t="s">
         <v>2190</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -74747,16 +74716,16 @@
       <c r="J12" s="21" t="s">
         <v>2192</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="80" t="s">
         <v>2193</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="80" t="s">
         <v>2194</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="M12" s="80" t="s">
         <v>2195</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="80" t="s">
         <v>2196</v>
       </c>
     </row>
@@ -74770,16 +74739,16 @@
       <c r="C13" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>2199</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="80" t="s">
         <v>2200</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="80" t="s">
         <v>2201</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="80" t="s">
         <v>2202</v>
       </c>
       <c r="I13" s="21" t="s">
@@ -74788,16 +74757,16 @@
       <c r="J13" s="21" t="s">
         <v>2204</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="80" t="s">
         <v>2205</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="80" t="s">
         <v>2206</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="80" t="s">
         <v>2207</v>
       </c>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="80" t="s">
         <v>2208</v>
       </c>
     </row>
@@ -74811,16 +74780,16 @@
       <c r="C14" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="80" t="s">
         <v>2211</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="80" t="s">
         <v>2212</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="80" t="s">
         <v>2213</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="80" t="s">
         <v>2214</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -74829,16 +74798,16 @@
       <c r="J14" s="21" t="s">
         <v>2216</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="80" t="s">
         <v>2217</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="80" t="s">
         <v>2218</v>
       </c>
-      <c r="M14" s="81" t="s">
+      <c r="M14" s="80" t="s">
         <v>2219</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="80" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -74852,16 +74821,16 @@
       <c r="C15" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="80" t="s">
         <v>2223</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="80" t="s">
         <v>2223</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="80" t="s">
         <v>2224</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="80" t="s">
         <v>2225</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -74870,32 +74839,32 @@
       <c r="J15" s="21" t="s">
         <v>2227</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="80" t="s">
         <v>2228</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="80" t="s">
         <v>2228</v>
       </c>
-      <c r="M15" s="81" t="s">
+      <c r="M15" s="80" t="s">
         <v>2229</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="80" t="s">
         <v>2230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
@@ -74907,16 +74876,16 @@
       <c r="C17" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>2232</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="80" t="s">
         <v>2233</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="80" t="s">
         <v>2234</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="80" t="s">
         <v>2235</v>
       </c>
       <c r="I17" s="21" t="s">
@@ -74925,16 +74894,16 @@
       <c r="J17" s="21" t="s">
         <v>2237</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="80" t="s">
         <v>2238</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="80" t="s">
         <v>2239</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="80" t="s">
         <v>2240</v>
       </c>
-      <c r="N17" s="81" t="s">
+      <c r="N17" s="80" t="s">
         <v>2241</v>
       </c>
     </row>
@@ -74948,16 +74917,16 @@
       <c r="C18" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>2243</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="80" t="s">
         <v>2244</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="80" t="s">
         <v>2245</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="80" t="s">
         <v>2246</v>
       </c>
       <c r="I18" s="21" t="s">
@@ -74966,16 +74935,16 @@
       <c r="J18" s="21" t="s">
         <v>2248</v>
       </c>
-      <c r="K18" s="81" t="s">
+      <c r="K18" s="80" t="s">
         <v>2249</v>
       </c>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="80" t="s">
         <v>2250</v>
       </c>
-      <c r="M18" s="81" t="s">
+      <c r="M18" s="80" t="s">
         <v>2251</v>
       </c>
-      <c r="N18" s="81" t="s">
+      <c r="N18" s="80" t="s">
         <v>2252</v>
       </c>
     </row>
@@ -74989,16 +74958,16 @@
       <c r="C19" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>2253</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="80" t="s">
         <v>2254</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="80" t="s">
         <v>2255</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="80" t="s">
         <v>2256</v>
       </c>
       <c r="I19" s="21" t="s">
@@ -75007,32 +74976,32 @@
       <c r="J19" s="21" t="s">
         <v>2258</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="80" t="s">
         <v>2259</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="80" t="s">
         <v>2260</v>
       </c>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="80" t="s">
         <v>2261</v>
       </c>
-      <c r="N19" s="81" t="s">
+      <c r="N19" s="80" t="s">
         <v>2262</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
@@ -75044,16 +75013,16 @@
       <c r="C21" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="80" t="s">
         <v>2265</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="80" t="s">
         <v>2266</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="80" t="s">
         <v>2267</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="80" t="s">
         <v>2268</v>
       </c>
       <c r="I21" s="21" t="s">
@@ -75062,16 +75031,16 @@
       <c r="J21" s="21" t="s">
         <v>2270</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="80" t="s">
         <v>2271</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="80" t="s">
         <v>2272</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="80" t="s">
         <v>2273</v>
       </c>
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="80" t="s">
         <v>2274</v>
       </c>
     </row>
@@ -75085,16 +75054,16 @@
       <c r="C22" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="80" t="s">
         <v>2277</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="80" t="s">
         <v>2278</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="80" t="s">
         <v>2279</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="80" t="s">
         <v>2280</v>
       </c>
       <c r="I22" s="21" t="s">
@@ -75103,32 +75072,32 @@
       <c r="J22" s="21" t="s">
         <v>2282</v>
       </c>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="80" t="s">
         <v>2283</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="80" t="s">
         <v>2284</v>
       </c>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="80" t="s">
         <v>2285</v>
       </c>
-      <c r="N22" s="81" t="s">
+      <c r="N22" s="80" t="s">
         <v>2286</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
@@ -75143,16 +75112,16 @@
       <c r="D24" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="80" t="s">
         <v>2289</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="80" t="s">
         <v>2290</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="80" t="s">
         <v>2291</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="80" t="s">
         <v>2292</v>
       </c>
       <c r="I24" s="21" t="s">
@@ -75161,16 +75130,16 @@
       <c r="J24" s="21" t="s">
         <v>2294</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="80" t="s">
         <v>2295</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="80" t="s">
         <v>2296</v>
       </c>
-      <c r="M24" s="81" t="s">
+      <c r="M24" s="80" t="s">
         <v>2297</v>
       </c>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="80" t="s">
         <v>2298</v>
       </c>
     </row>
@@ -75187,16 +75156,16 @@
       <c r="D25" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>2301</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="80" t="s">
         <v>2302</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="80" t="s">
         <v>2303</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="80" t="s">
         <v>2304</v>
       </c>
       <c r="I25" s="21" t="s">
@@ -75205,16 +75174,16 @@
       <c r="J25" s="21" t="s">
         <v>2306</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="80" t="s">
         <v>2307</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L25" s="80" t="s">
         <v>2308</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="80" t="s">
         <v>2309</v>
       </c>
-      <c r="N25" s="81" t="s">
+      <c r="N25" s="80" t="s">
         <v>2310</v>
       </c>
     </row>
@@ -75231,16 +75200,16 @@
       <c r="D26" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="80" t="s">
         <v>2313</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="80" t="s">
         <v>2314</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="80" t="s">
         <v>2315</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="80" t="s">
         <v>2316</v>
       </c>
       <c r="I26" s="21" t="s">
@@ -75249,16 +75218,16 @@
       <c r="J26" s="21" t="s">
         <v>2318</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="80" t="s">
         <v>2319</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="80" t="s">
         <v>2320</v>
       </c>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="80" t="s">
         <v>2321</v>
       </c>
-      <c r="N26" s="81" t="s">
+      <c r="N26" s="80" t="s">
         <v>2322</v>
       </c>
     </row>
@@ -75275,16 +75244,16 @@
       <c r="D27" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="80" t="s">
         <v>2325</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="80" t="s">
         <v>2326</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="80" t="s">
         <v>2327</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="80" t="s">
         <v>2328</v>
       </c>
       <c r="I27" s="21" t="s">
@@ -75293,16 +75262,16 @@
       <c r="J27" s="21" t="s">
         <v>2330</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="80" t="s">
         <v>2331</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L27" s="80" t="s">
         <v>2162</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="80" t="s">
         <v>2332</v>
       </c>
-      <c r="N27" s="81" t="s">
+      <c r="N27" s="80" t="s">
         <v>2333</v>
       </c>
     </row>
@@ -75319,16 +75288,16 @@
       <c r="D28" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="80" t="s">
         <v>2336</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="80" t="s">
         <v>2337</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="80" t="s">
         <v>2338</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="80" t="s">
         <v>2339</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -75337,16 +75306,16 @@
       <c r="J28" s="21" t="s">
         <v>2341</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="80" t="s">
         <v>2342</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="80" t="s">
         <v>2140</v>
       </c>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="80" t="s">
         <v>2343</v>
       </c>
-      <c r="N28" s="81" t="s">
+      <c r="N28" s="80" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -75363,16 +75332,16 @@
       <c r="D29" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="80" t="s">
         <v>2347</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="80" t="s">
         <v>2348</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="80" t="s">
         <v>2349</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="80" t="s">
         <v>2350</v>
       </c>
       <c r="I29" s="21" t="s">
@@ -75381,16 +75350,16 @@
       <c r="J29" s="21" t="s">
         <v>2352</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="80" t="s">
         <v>2353</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="80" t="s">
         <v>2354</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="80" t="s">
         <v>2355</v>
       </c>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="80" t="s">
         <v>2356</v>
       </c>
     </row>
@@ -75407,16 +75376,16 @@
       <c r="D30" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="80" t="s">
         <v>2359</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="80" t="s">
         <v>2360</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="80" t="s">
         <v>2361</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="80" t="s">
         <v>2362</v>
       </c>
       <c r="I30" s="21" t="s">
@@ -75425,16 +75394,16 @@
       <c r="J30" s="21" t="s">
         <v>2364</v>
       </c>
-      <c r="K30" s="81" t="s">
+      <c r="K30" s="80" t="s">
         <v>2365</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="80" t="s">
         <v>2366</v>
       </c>
-      <c r="M30" s="81" t="s">
+      <c r="M30" s="80" t="s">
         <v>2367</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="80" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -75451,16 +75420,16 @@
       <c r="D31" s="21" t="s">
         <v>2077</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="80" t="s">
         <v>2371</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="80" t="s">
         <v>2372</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="80" t="s">
         <v>2373</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="80" t="s">
         <v>2374</v>
       </c>
       <c r="I31" s="21" t="s">
@@ -75469,32 +75438,32 @@
       <c r="J31" s="21" t="s">
         <v>2376</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="80" t="s">
         <v>2377</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="80" t="s">
         <v>2378</v>
       </c>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="80" t="s">
         <v>2379</v>
       </c>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="80" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
@@ -75506,16 +75475,16 @@
       <c r="C33" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="80" t="s">
         <v>2383</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="80" t="s">
         <v>2384</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="80" t="s">
         <v>2385</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="80" t="s">
         <v>2386</v>
       </c>
       <c r="I33" s="21" t="n">
@@ -75524,16 +75493,16 @@
       <c r="J33" s="21" t="s">
         <v>2387</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="80" t="s">
         <v>2388</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="80" t="s">
         <v>2389</v>
       </c>
-      <c r="M33" s="81" t="s">
+      <c r="M33" s="80" t="s">
         <v>2390</v>
       </c>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="80" t="s">
         <v>2391</v>
       </c>
     </row>
@@ -75547,16 +75516,16 @@
       <c r="C34" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="80" t="s">
         <v>2394</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="80" t="s">
         <v>2395</v>
       </c>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="80" t="s">
         <v>2396</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="80" t="s">
         <v>2397</v>
       </c>
       <c r="I34" s="21" t="n">
@@ -75565,16 +75534,16 @@
       <c r="J34" s="21" t="s">
         <v>2398</v>
       </c>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="80" t="s">
         <v>2399</v>
       </c>
-      <c r="L34" s="81" t="s">
+      <c r="L34" s="80" t="s">
         <v>2400</v>
       </c>
-      <c r="M34" s="81" t="s">
+      <c r="M34" s="80" t="s">
         <v>2401</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="80" t="s">
         <v>2402</v>
       </c>
     </row>
@@ -75588,16 +75557,16 @@
       <c r="C35" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="80" t="s">
         <v>2405</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="80" t="s">
         <v>2406</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="80" t="s">
         <v>2407</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="80" t="s">
         <v>2408</v>
       </c>
       <c r="I35" s="21" t="n">
@@ -75606,32 +75575,32 @@
       <c r="J35" s="21" t="s">
         <v>2409</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="80" t="s">
         <v>2410</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="80" t="s">
         <v>2411</v>
       </c>
-      <c r="M35" s="81" t="s">
+      <c r="M35" s="80" t="s">
         <v>2412</v>
       </c>
-      <c r="N35" s="81" t="s">
+      <c r="N35" s="80" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
@@ -75643,12 +75612,12 @@
       <c r="C37" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="81" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="80" t="s">
         <v>2415</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="80" t="s">
         <v>2415</v>
       </c>
       <c r="I37" s="21" t="s">
@@ -75657,12 +75626,12 @@
       <c r="J37" s="21" t="s">
         <v>2417</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="81" t="s">
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="80" t="s">
         <v>2418</v>
       </c>
-      <c r="N37" s="81" t="s">
+      <c r="N37" s="80" t="s">
         <v>2419</v>
       </c>
     </row>
@@ -75676,16 +75645,16 @@
       <c r="C38" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="80" t="s">
         <v>2421</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="80" t="s">
         <v>2421</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="80" t="s">
         <v>2422</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="80" t="s">
         <v>2423</v>
       </c>
       <c r="I38" s="21" t="s">
@@ -75694,16 +75663,16 @@
       <c r="J38" s="21" t="s">
         <v>2425</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="80" t="s">
         <v>2426</v>
       </c>
-      <c r="L38" s="81" t="s">
+      <c r="L38" s="80" t="s">
         <v>2426</v>
       </c>
-      <c r="M38" s="81" t="s">
+      <c r="M38" s="80" t="s">
         <v>2427</v>
       </c>
-      <c r="N38" s="81" t="s">
+      <c r="N38" s="80" t="s">
         <v>2428</v>
       </c>
     </row>
@@ -75717,16 +75686,16 @@
       <c r="C39" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="80" t="s">
         <v>2431</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="80" t="s">
         <v>2431</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="80" t="s">
         <v>2432</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="80" t="s">
         <v>2433</v>
       </c>
       <c r="I39" s="21" t="s">
@@ -75735,16 +75704,16 @@
       <c r="J39" s="21" t="s">
         <v>2435</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="80" t="s">
         <v>2436</v>
       </c>
-      <c r="L39" s="81" t="s">
+      <c r="L39" s="80" t="s">
         <v>2436</v>
       </c>
-      <c r="M39" s="81" t="s">
+      <c r="M39" s="80" t="s">
         <v>2437</v>
       </c>
-      <c r="N39" s="81" t="s">
+      <c r="N39" s="80" t="s">
         <v>2438</v>
       </c>
     </row>
@@ -75752,16 +75721,16 @@
       <c r="C40" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
@@ -75773,16 +75742,16 @@
       <c r="C41" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="80" t="s">
         <v>2441</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="80" t="s">
         <v>2441</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="80" t="s">
         <v>2442</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="80" t="s">
         <v>2443</v>
       </c>
       <c r="I41" s="21" t="s">
@@ -75791,14 +75760,14 @@
       <c r="J41" s="21" t="s">
         <v>2445</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="80" t="s">
         <v>2446</v>
       </c>
-      <c r="L41" s="79"/>
-      <c r="M41" s="81" t="s">
+      <c r="L41" s="78"/>
+      <c r="M41" s="80" t="s">
         <v>2447</v>
       </c>
-      <c r="N41" s="81" t="s">
+      <c r="N41" s="80" t="s">
         <v>2448</v>
       </c>
     </row>
@@ -75812,16 +75781,16 @@
       <c r="C42" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="80" t="s">
         <v>2451</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="80" t="s">
         <v>2451</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="80" t="s">
         <v>2452</v>
       </c>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="80" t="s">
         <v>2453</v>
       </c>
       <c r="I42" s="21" t="s">
@@ -75830,16 +75799,16 @@
       <c r="J42" s="21" t="s">
         <v>2455</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="80" t="s">
         <v>2456</v>
       </c>
-      <c r="L42" s="81" t="s">
+      <c r="L42" s="80" t="s">
         <v>2457</v>
       </c>
-      <c r="M42" s="81" t="s">
+      <c r="M42" s="80" t="s">
         <v>2458</v>
       </c>
-      <c r="N42" s="81" t="s">
+      <c r="N42" s="80" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -75853,16 +75822,16 @@
       <c r="C43" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="80" t="s">
         <v>2462</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="80" t="s">
         <v>2463</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="80" t="s">
         <v>2464</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="80" t="s">
         <v>2465</v>
       </c>
       <c r="I43" s="21" t="s">
@@ -75871,12 +75840,12 @@
       <c r="J43" s="21" t="s">
         <v>2467</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="81" t="s">
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="80" t="s">
         <v>2468</v>
       </c>
-      <c r="N43" s="81" t="s">
+      <c r="N43" s="80" t="s">
         <v>2469</v>
       </c>
     </row>
@@ -75890,14 +75859,14 @@
       <c r="C44" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="80" t="s">
         <v>2471</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="81" t="s">
+      <c r="F44" s="78"/>
+      <c r="G44" s="80" t="s">
         <v>2472</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="80" t="s">
         <v>2472</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -75906,16 +75875,16 @@
       <c r="J44" s="21" t="s">
         <v>2474</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="80" t="s">
         <v>2475</v>
       </c>
-      <c r="L44" s="81" t="s">
+      <c r="L44" s="80" t="s">
         <v>2475</v>
       </c>
-      <c r="M44" s="81" t="s">
+      <c r="M44" s="80" t="s">
         <v>2476</v>
       </c>
-      <c r="N44" s="81" t="s">
+      <c r="N44" s="80" t="s">
         <v>2477</v>
       </c>
     </row>
@@ -75929,16 +75898,16 @@
       <c r="C45" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="80" t="s">
         <v>2480</v>
       </c>
-      <c r="F45" s="81" t="s">
+      <c r="F45" s="80" t="s">
         <v>2481</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="80" t="s">
         <v>2482</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="80" t="s">
         <v>2483</v>
       </c>
       <c r="I45" s="21" t="s">
@@ -75947,16 +75916,16 @@
       <c r="J45" s="21" t="s">
         <v>2485</v>
       </c>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="80" t="s">
         <v>2486</v>
       </c>
-      <c r="L45" s="81" t="s">
+      <c r="L45" s="80" t="s">
         <v>2486</v>
       </c>
-      <c r="M45" s="81" t="s">
+      <c r="M45" s="80" t="s">
         <v>2487</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="N45" s="80" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -75970,16 +75939,16 @@
       <c r="C46" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="80" t="s">
         <v>2491</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="80" t="s">
         <v>2492</v>
       </c>
       <c r="I46" s="21" t="s">
@@ -75988,16 +75957,16 @@
       <c r="J46" s="21" t="s">
         <v>2494</v>
       </c>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="L46" s="81" t="s">
+      <c r="L46" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="M46" s="81" t="s">
+      <c r="M46" s="80" t="s">
         <v>2496</v>
       </c>
-      <c r="N46" s="81" t="s">
+      <c r="N46" s="80" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -76011,16 +75980,16 @@
       <c r="C47" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="80" t="s">
         <v>2499</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="80" t="s">
         <v>2500</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="80" t="s">
         <v>2178</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="80" t="s">
         <v>2501</v>
       </c>
       <c r="I47" s="21" t="s">
@@ -76029,16 +75998,16 @@
       <c r="J47" s="21" t="s">
         <v>2503</v>
       </c>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="80" t="s">
         <v>2504</v>
       </c>
-      <c r="L47" s="81" t="s">
+      <c r="L47" s="80" t="s">
         <v>2504</v>
       </c>
-      <c r="M47" s="81" t="s">
+      <c r="M47" s="80" t="s">
         <v>2183</v>
       </c>
-      <c r="N47" s="81" t="s">
+      <c r="N47" s="80" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -76052,16 +76021,16 @@
       <c r="C48" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="80" t="s">
         <v>2508</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="80" t="s">
         <v>2508</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="80" t="s">
         <v>2509</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="80" t="s">
         <v>2509</v>
       </c>
       <c r="I48" s="21" t="s">
@@ -76070,16 +76039,16 @@
       <c r="J48" s="21" t="s">
         <v>2511</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="K48" s="80" t="s">
         <v>2512</v>
       </c>
-      <c r="L48" s="81" t="s">
+      <c r="L48" s="80" t="s">
         <v>2512</v>
       </c>
-      <c r="M48" s="81" t="s">
+      <c r="M48" s="80" t="s">
         <v>2513</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="80" t="s">
         <v>2513</v>
       </c>
     </row>
@@ -76093,16 +76062,16 @@
       <c r="C49" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="80" t="s">
         <v>2516</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="80" t="s">
         <v>2516</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="80" t="s">
         <v>2442</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="80" t="s">
         <v>2443</v>
       </c>
       <c r="I49" s="21" t="s">
@@ -76111,16 +76080,16 @@
       <c r="J49" s="21" t="s">
         <v>2518</v>
       </c>
-      <c r="K49" s="81" t="s">
+      <c r="K49" s="80" t="s">
         <v>2519</v>
       </c>
-      <c r="L49" s="81" t="s">
+      <c r="L49" s="80" t="s">
         <v>2519</v>
       </c>
-      <c r="M49" s="81" t="s">
+      <c r="M49" s="80" t="s">
         <v>2520</v>
       </c>
-      <c r="N49" s="81" t="s">
+      <c r="N49" s="80" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -76134,12 +76103,12 @@
       <c r="C50" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="81" t="s">
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80" t="s">
         <v>2523</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="80" t="s">
         <v>2523</v>
       </c>
       <c r="I50" s="21" t="s">
@@ -76148,12 +76117,12 @@
       <c r="J50" s="21" t="s">
         <v>2524</v>
       </c>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="81" t="s">
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="80" t="s">
         <v>2525</v>
       </c>
-      <c r="N50" s="81" t="s">
+      <c r="N50" s="80" t="s">
         <v>2526</v>
       </c>
     </row>
@@ -76167,16 +76136,16 @@
       <c r="C51" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="80" t="s">
         <v>2529</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="80" t="s">
         <v>2529</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="80" t="s">
         <v>2530</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="80" t="s">
         <v>2530</v>
       </c>
       <c r="I51" s="21" t="s">
@@ -76185,16 +76154,16 @@
       <c r="J51" s="21" t="s">
         <v>2532</v>
       </c>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="80" t="s">
         <v>2533</v>
       </c>
-      <c r="L51" s="81" t="s">
+      <c r="L51" s="80" t="s">
         <v>2534</v>
       </c>
-      <c r="M51" s="81" t="s">
+      <c r="M51" s="80" t="s">
         <v>2535</v>
       </c>
-      <c r="N51" s="81" t="s">
+      <c r="N51" s="80" t="s">
         <v>2536</v>
       </c>
     </row>
@@ -76208,16 +76177,16 @@
       <c r="C52" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="80" t="s">
         <v>2537</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="80" t="s">
         <v>2538</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="80" t="s">
         <v>2539</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="80" t="s">
         <v>2539</v>
       </c>
       <c r="I52" s="21" t="s">
@@ -76226,16 +76195,16 @@
       <c r="J52" s="21" t="s">
         <v>2540</v>
       </c>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="80" t="s">
         <v>2541</v>
       </c>
-      <c r="L52" s="81" t="s">
+      <c r="L52" s="80" t="s">
         <v>2541</v>
       </c>
-      <c r="M52" s="81" t="s">
+      <c r="M52" s="80" t="s">
         <v>2542</v>
       </c>
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="80" t="s">
         <v>2543</v>
       </c>
     </row>
@@ -76249,12 +76218,12 @@
       <c r="C53" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="81" t="s">
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="80" t="s">
         <v>2546</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="80" t="s">
         <v>2547</v>
       </c>
       <c r="I53" s="21" t="s">
@@ -76263,16 +76232,16 @@
       <c r="J53" s="21" t="s">
         <v>2549</v>
       </c>
-      <c r="K53" s="81" t="s">
+      <c r="K53" s="80" t="s">
         <v>2550</v>
       </c>
-      <c r="L53" s="81" t="s">
+      <c r="L53" s="80" t="s">
         <v>2550</v>
       </c>
-      <c r="M53" s="81" t="s">
+      <c r="M53" s="80" t="s">
         <v>2551</v>
       </c>
-      <c r="N53" s="81" t="s">
+      <c r="N53" s="80" t="s">
         <v>2552</v>
       </c>
     </row>
@@ -76286,16 +76255,16 @@
       <c r="C54" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="80" t="s">
         <v>2187</v>
       </c>
-      <c r="F54" s="81" t="s">
+      <c r="F54" s="80" t="s">
         <v>2187</v>
       </c>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="80" t="s">
         <v>2554</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="80" t="s">
         <v>2554</v>
       </c>
       <c r="I54" s="21" t="s">
@@ -76304,16 +76273,16 @@
       <c r="J54" s="21" t="s">
         <v>2555</v>
       </c>
-      <c r="K54" s="81" t="s">
+      <c r="K54" s="80" t="s">
         <v>2556</v>
       </c>
-      <c r="L54" s="81" t="s">
+      <c r="L54" s="80" t="s">
         <v>2556</v>
       </c>
-      <c r="M54" s="81" t="s">
+      <c r="M54" s="80" t="s">
         <v>2557</v>
       </c>
-      <c r="N54" s="81" t="s">
+      <c r="N54" s="80" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -76327,16 +76296,16 @@
       <c r="C55" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="80" t="s">
         <v>2561</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="80" t="s">
         <v>2561</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="80" t="s">
         <v>2562</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="80" t="s">
         <v>2563</v>
       </c>
       <c r="I55" s="21" t="s">
@@ -76345,16 +76314,16 @@
       <c r="J55" s="21" t="s">
         <v>2565</v>
       </c>
-      <c r="K55" s="81" t="s">
+      <c r="K55" s="80" t="s">
         <v>2566</v>
       </c>
-      <c r="L55" s="81" t="s">
+      <c r="L55" s="80" t="s">
         <v>2566</v>
       </c>
-      <c r="M55" s="81" t="s">
+      <c r="M55" s="80" t="s">
         <v>2567</v>
       </c>
-      <c r="N55" s="81" t="s">
+      <c r="N55" s="80" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -76368,16 +76337,16 @@
       <c r="C56" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E56" s="81" t="s">
+      <c r="E56" s="80" t="s">
         <v>2569</v>
       </c>
-      <c r="F56" s="81" t="s">
+      <c r="F56" s="80" t="s">
         <v>2569</v>
       </c>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="80" t="s">
         <v>2570</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="80" t="s">
         <v>2571</v>
       </c>
       <c r="I56" s="21" t="s">
@@ -76386,16 +76355,16 @@
       <c r="J56" s="21" t="s">
         <v>2573</v>
       </c>
-      <c r="K56" s="81" t="s">
+      <c r="K56" s="80" t="s">
         <v>2574</v>
       </c>
-      <c r="L56" s="81" t="s">
+      <c r="L56" s="80" t="s">
         <v>2574</v>
       </c>
-      <c r="M56" s="81" t="s">
+      <c r="M56" s="80" t="s">
         <v>2575</v>
       </c>
-      <c r="N56" s="81" t="s">
+      <c r="N56" s="80" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -76409,16 +76378,16 @@
       <c r="C57" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E57" s="81" t="s">
+      <c r="E57" s="80" t="s">
         <v>2579</v>
       </c>
-      <c r="F57" s="81" t="s">
+      <c r="F57" s="80" t="s">
         <v>2579</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="80" t="s">
         <v>2580</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="80" t="s">
         <v>2581</v>
       </c>
       <c r="I57" s="21" t="s">
@@ -76427,16 +76396,16 @@
       <c r="J57" s="21" t="s">
         <v>2583</v>
       </c>
-      <c r="K57" s="81" t="s">
+      <c r="K57" s="80" t="s">
         <v>2584</v>
       </c>
-      <c r="L57" s="81" t="s">
+      <c r="L57" s="80" t="s">
         <v>2584</v>
       </c>
-      <c r="M57" s="81" t="s">
+      <c r="M57" s="80" t="s">
         <v>2585</v>
       </c>
-      <c r="N57" s="81" t="s">
+      <c r="N57" s="80" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -76450,16 +76419,16 @@
       <c r="C58" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="80" t="s">
         <v>2589</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="80" t="s">
         <v>2590</v>
       </c>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="80" t="s">
         <v>2591</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="80" t="s">
         <v>2592</v>
       </c>
       <c r="I58" s="21" t="s">
@@ -76468,16 +76437,16 @@
       <c r="J58" s="21" t="s">
         <v>2594</v>
       </c>
-      <c r="K58" s="81" t="s">
+      <c r="K58" s="80" t="s">
         <v>2595</v>
       </c>
-      <c r="L58" s="81" t="s">
+      <c r="L58" s="80" t="s">
         <v>2595</v>
       </c>
-      <c r="M58" s="81" t="s">
+      <c r="M58" s="80" t="s">
         <v>2596</v>
       </c>
-      <c r="N58" s="81" t="s">
+      <c r="N58" s="80" t="s">
         <v>2596</v>
       </c>
     </row>
@@ -76491,12 +76460,12 @@
       <c r="C59" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="81" t="s">
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="80" t="s">
         <v>2599</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="80" t="s">
         <v>2600</v>
       </c>
       <c r="I59" s="21" t="s">
@@ -76505,16 +76474,16 @@
       <c r="J59" s="21" t="s">
         <v>2602</v>
       </c>
-      <c r="K59" s="81" t="s">
+      <c r="K59" s="80" t="s">
         <v>2603</v>
       </c>
-      <c r="L59" s="81" t="s">
+      <c r="L59" s="80" t="s">
         <v>2603</v>
       </c>
-      <c r="M59" s="81" t="s">
+      <c r="M59" s="80" t="s">
         <v>2604</v>
       </c>
-      <c r="N59" s="81" t="s">
+      <c r="N59" s="80" t="s">
         <v>2604</v>
       </c>
     </row>
@@ -76528,16 +76497,16 @@
       <c r="C60" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="80" t="s">
         <v>2606</v>
       </c>
-      <c r="F60" s="81" t="s">
+      <c r="F60" s="80" t="s">
         <v>2606</v>
       </c>
-      <c r="G60" s="81" t="s">
+      <c r="G60" s="80" t="s">
         <v>2607</v>
       </c>
-      <c r="H60" s="81" t="s">
+      <c r="H60" s="80" t="s">
         <v>2608</v>
       </c>
       <c r="I60" s="21" t="s">
@@ -76546,16 +76515,16 @@
       <c r="J60" s="21" t="s">
         <v>2609</v>
       </c>
-      <c r="K60" s="81" t="s">
+      <c r="K60" s="80" t="s">
         <v>2610</v>
       </c>
-      <c r="L60" s="81" t="s">
+      <c r="L60" s="80" t="s">
         <v>2610</v>
       </c>
-      <c r="M60" s="81" t="s">
+      <c r="M60" s="80" t="s">
         <v>2611</v>
       </c>
-      <c r="N60" s="81" t="s">
+      <c r="N60" s="80" t="s">
         <v>2612</v>
       </c>
     </row>
@@ -76569,16 +76538,16 @@
       <c r="C61" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E61" s="81" t="s">
+      <c r="E61" s="80" t="s">
         <v>2614</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="80" t="s">
         <v>2614</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="80" t="s">
         <v>2615</v>
       </c>
-      <c r="H61" s="81" t="s">
+      <c r="H61" s="80" t="s">
         <v>2615</v>
       </c>
       <c r="I61" s="21" t="s">
@@ -76587,16 +76556,16 @@
       <c r="J61" s="21" t="s">
         <v>2616</v>
       </c>
-      <c r="K61" s="81" t="s">
+      <c r="K61" s="80" t="s">
         <v>2617</v>
       </c>
-      <c r="L61" s="81" t="s">
+      <c r="L61" s="80" t="s">
         <v>2617</v>
       </c>
-      <c r="M61" s="81" t="s">
+      <c r="M61" s="80" t="s">
         <v>2618</v>
       </c>
-      <c r="N61" s="81" t="s">
+      <c r="N61" s="80" t="s">
         <v>2618</v>
       </c>
     </row>
@@ -76610,16 +76579,16 @@
       <c r="C62" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="80" t="s">
         <v>2620</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="80" t="s">
         <v>2620</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="80" t="s">
         <v>2621</v>
       </c>
-      <c r="H62" s="81" t="s">
+      <c r="H62" s="80" t="s">
         <v>2621</v>
       </c>
       <c r="I62" s="21" t="s">
@@ -76628,16 +76597,16 @@
       <c r="J62" s="21" t="s">
         <v>2623</v>
       </c>
-      <c r="K62" s="81" t="s">
+      <c r="K62" s="80" t="s">
         <v>2624</v>
       </c>
-      <c r="L62" s="81" t="s">
+      <c r="L62" s="80" t="s">
         <v>2624</v>
       </c>
-      <c r="M62" s="81" t="s">
+      <c r="M62" s="80" t="s">
         <v>2625</v>
       </c>
-      <c r="N62" s="81" t="s">
+      <c r="N62" s="80" t="s">
         <v>2626</v>
       </c>
     </row>
@@ -76651,16 +76620,16 @@
       <c r="C63" s="21" t="s">
         <v>2076</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="F63" s="81" t="s">
+      <c r="F63" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="G63" s="81" t="s">
+      <c r="G63" s="80" t="s">
         <v>2491</v>
       </c>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="80" t="s">
         <v>2492</v>
       </c>
       <c r="I63" s="21" t="s">
@@ -76669,16 +76638,16 @@
       <c r="J63" s="21" t="s">
         <v>2630</v>
       </c>
-      <c r="K63" s="81" t="s">
+      <c r="K63" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="L63" s="81" t="s">
+      <c r="L63" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="M63" s="81" t="s">
+      <c r="M63" s="80" t="s">
         <v>2496</v>
       </c>
-      <c r="N63" s="81" t="s">
+      <c r="N63" s="80" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -76725,7 +76694,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="AZ90 B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76735,154 +76704,154 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>2634</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>2084</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>2636</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>2637</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>2638</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>2082</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>2639</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>2080</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>2640</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>2641</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>2642</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>2643</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>2644</v>
       </c>
       <c r="C7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="81" t="s">
         <v>2645</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>2646</v>
       </c>
       <c r="C8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>2647</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>2648</v>
       </c>
       <c r="C9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>2649</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>2650</v>
       </c>
       <c r="C10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>2651</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>2652</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>2653</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>2634</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>2654</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>2655</v>
       </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="81" t="s">
         <v>2656</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="81" t="s">
         <v>2657</v>
       </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="81" t="s">
         <v>2078</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="81" t="s">
         <v>2658</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="81" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="81" t="s">
         <v>2086</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>2659</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -76890,19 +76859,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>2660</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="81" t="s">
         <v>2661</v>
       </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="81" t="s">
         <v>2662</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="81" t="s">
         <v>2663</v>
       </c>
       <c r="C18" s="20"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9979" uniqueCount="2664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9988" uniqueCount="2665">
   <si>
     <t xml:space="preserve">inflection name</t>
   </si>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">esi aor</t>
   </si>
   <si>
-    <t xml:space="preserve">CI69:CM72</t>
+    <t xml:space="preserve">CI69:CQ72</t>
   </si>
   <si>
     <t xml:space="preserve">āmantesi</t>
@@ -4044,7 +4044,8 @@
 a</t>
   </si>
   <si>
-    <t xml:space="preserve">ā
+    <t xml:space="preserve">ara
+ā
 u</t>
   </si>
   <si>
@@ -6273,6 +6274,10 @@
     <t xml:space="preserve">santāni</t>
   </si>
   <si>
+    <t xml:space="preserve">ā
+u</t>
+  </si>
+  <si>
     <t xml:space="preserve">parisa
 parisā</t>
   </si>
@@ -9114,7 +9119,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9209,6 +9214,13 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Crimson Pro"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -9422,7 +9434,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9711,6 +9723,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9743,7 +9759,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9837,12 +9853,12 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="B50" activeCellId="1" sqref="AZ90 B50"/>
+      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39145,8 +39161,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ90" activeCellId="0" sqref="AZ90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CE67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CI69" activeCellId="0" sqref="CI69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39242,7 +39258,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="21" width="16.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="90" min="90" style="21" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="21" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="21" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="21" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="21" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="21" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="21" width="22.42"/>
@@ -50122,7 +50138,7 @@
       <c r="CZ55" s="20"/>
       <c r="DA55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="49"/>
@@ -51950,7 +51966,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
         <v>625</v>
       </c>
@@ -52622,6 +52638,14 @@
         <v>413</v>
       </c>
       <c r="CM69" s="30"/>
+      <c r="CN69" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="CO69" s="46"/>
+      <c r="CP69" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="CQ69" s="46"/>
       <c r="CS69" s="47" t="s">
         <v>363</v>
       </c>
@@ -52824,6 +52848,16 @@
       </c>
       <c r="CM70" s="71" t="s">
         <v>675</v>
+      </c>
+      <c r="CN70" s="57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="CO70" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="CP70" s="57"/>
+      <c r="CQ70" s="58" t="s">
+        <v>945</v>
       </c>
       <c r="CS70" s="68" t="s">
         <v>1282</v>
@@ -52988,6 +53022,14 @@
       </c>
       <c r="CM71" s="71" t="s">
         <v>701</v>
+      </c>
+      <c r="CN71" s="72"/>
+      <c r="CO71" s="58" t="s">
+        <v>957</v>
+      </c>
+      <c r="CP71" s="57"/>
+      <c r="CQ71" s="58" t="s">
+        <v>959</v>
       </c>
       <c r="CS71" s="68" t="s">
         <v>1290</v>
@@ -53111,6 +53153,14 @@
       </c>
       <c r="CM72" s="71" t="s">
         <v>735</v>
+      </c>
+      <c r="CN72" s="72"/>
+      <c r="CO72" s="58" t="s">
+        <v>972</v>
+      </c>
+      <c r="CP72" s="57"/>
+      <c r="CQ72" s="58" t="s">
+        <v>974</v>
       </c>
       <c r="CS72" s="68" t="s">
         <v>1295</v>
@@ -54721,13 +54771,13 @@
       <c r="CT82" s="68" t="s">
         <v>1337</v>
       </c>
-      <c r="CU82" s="72" t="s">
+      <c r="CU82" s="73" t="s">
         <v>618</v>
       </c>
       <c r="CV82" s="68" t="s">
         <v>1338</v>
       </c>
-      <c r="CW82" s="72" t="s">
+      <c r="CW82" s="73" t="s">
         <v>620</v>
       </c>
       <c r="CX82" s="68"/>
@@ -54916,13 +54966,13 @@
       <c r="CT83" s="68" t="s">
         <v>1344</v>
       </c>
-      <c r="CU83" s="72" t="s">
+      <c r="CU83" s="73" t="s">
         <v>642</v>
       </c>
       <c r="CV83" s="68" t="s">
         <v>1345</v>
       </c>
-      <c r="CW83" s="72" t="s">
+      <c r="CW83" s="73" t="s">
         <v>644</v>
       </c>
       <c r="CX83" s="68"/>
@@ -55135,13 +55185,13 @@
       <c r="CT84" s="68" t="s">
         <v>1361</v>
       </c>
-      <c r="CU84" s="72" t="s">
+      <c r="CU84" s="73" t="s">
         <v>652</v>
       </c>
       <c r="CV84" s="68" t="s">
         <v>1362</v>
       </c>
-      <c r="CW84" s="72" t="s">
+      <c r="CW84" s="73" t="s">
         <v>654</v>
       </c>
       <c r="CX84" s="68" t="s">
@@ -58277,17 +58327,17 @@
         <v>405</v>
       </c>
       <c r="BI102" s="42"/>
-      <c r="BQ102" s="73" t="s">
+      <c r="BQ102" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="BR102" s="73" t="s">
+      <c r="BR102" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="BS102" s="74"/>
-      <c r="BT102" s="73" t="s">
+      <c r="BS102" s="75"/>
+      <c r="BT102" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="BU102" s="74"/>
+      <c r="BU102" s="75"/>
       <c r="CC102" s="23"/>
       <c r="CD102" s="23"/>
       <c r="CF102" s="23"/>
@@ -58429,19 +58479,19 @@
       <c r="BI103" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="BQ103" s="73" t="s">
+      <c r="BQ103" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="BR103" s="73" t="s">
+      <c r="BR103" s="74" t="s">
         <v>1517</v>
       </c>
-      <c r="BS103" s="74" t="s">
+      <c r="BS103" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="BT103" s="73" t="s">
+      <c r="BT103" s="74" t="s">
         <v>1518</v>
       </c>
-      <c r="BU103" s="74" t="s">
+      <c r="BU103" s="75" t="s">
         <v>424</v>
       </c>
       <c r="CC103" s="23"/>
@@ -58569,19 +58619,19 @@
       <c r="BI104" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="BQ104" s="73" t="s">
+      <c r="BQ104" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="BR104" s="73" t="s">
+      <c r="BR104" s="74" t="s">
         <v>1521</v>
       </c>
-      <c r="BS104" s="74" t="s">
+      <c r="BS104" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="BT104" s="73" t="s">
+      <c r="BT104" s="74" t="s">
         <v>1518</v>
       </c>
-      <c r="BU104" s="74" t="s">
+      <c r="BU104" s="75" t="s">
         <v>459</v>
       </c>
       <c r="CC104" s="23"/>
@@ -58700,19 +58750,19 @@
       <c r="BI105" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="BQ105" s="73" t="s">
+      <c r="BQ105" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="BR105" s="73" t="s">
+      <c r="BR105" s="74" t="s">
         <v>1524</v>
       </c>
-      <c r="BS105" s="74" t="s">
+      <c r="BS105" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="BT105" s="73" t="s">
+      <c r="BT105" s="74" t="s">
         <v>1525</v>
       </c>
-      <c r="BU105" s="74" t="s">
+      <c r="BU105" s="75" t="s">
         <v>488</v>
       </c>
       <c r="CC105" s="23"/>
@@ -58864,19 +58914,19 @@
       <c r="BI106" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="BQ106" s="73" t="s">
+      <c r="BQ106" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="BR106" s="73" t="s">
+      <c r="BR106" s="74" t="s">
         <v>1524</v>
       </c>
-      <c r="BS106" s="74" t="s">
+      <c r="BS106" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="BT106" s="73" t="s">
+      <c r="BT106" s="74" t="s">
         <v>1528</v>
       </c>
-      <c r="BU106" s="74" t="s">
+      <c r="BU106" s="75" t="s">
         <v>524</v>
       </c>
       <c r="CC106" s="23"/>
@@ -59044,19 +59094,19 @@
       <c r="BI107" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="BQ107" s="73" t="s">
+      <c r="BQ107" s="74" t="s">
         <v>547</v>
       </c>
-      <c r="BR107" s="73" t="s">
+      <c r="BR107" s="74" t="s">
         <v>1524</v>
       </c>
-      <c r="BS107" s="74" t="s">
+      <c r="BS107" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="BT107" s="73" t="s">
+      <c r="BT107" s="74" t="s">
         <v>1525</v>
       </c>
-      <c r="BU107" s="74" t="s">
+      <c r="BU107" s="75" t="s">
         <v>552</v>
       </c>
       <c r="CC107" s="23"/>
@@ -59224,19 +59274,19 @@
       <c r="BI108" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="BQ108" s="73" t="s">
+      <c r="BQ108" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="BR108" s="73" t="s">
+      <c r="BR108" s="74" t="s">
         <v>1524</v>
       </c>
-      <c r="BS108" s="74" t="s">
+      <c r="BS108" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="BT108" s="73" t="s">
+      <c r="BT108" s="74" t="s">
         <v>1528</v>
       </c>
-      <c r="BU108" s="74" t="s">
+      <c r="BU108" s="75" t="s">
         <v>579</v>
       </c>
       <c r="CC108" s="23"/>
@@ -59404,19 +59454,19 @@
       <c r="BI109" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="BQ109" s="73" t="s">
+      <c r="BQ109" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="BR109" s="73" t="s">
+      <c r="BR109" s="74" t="s">
         <v>1558</v>
       </c>
-      <c r="BS109" s="74" t="s">
+      <c r="BS109" s="75" t="s">
         <v>600</v>
       </c>
-      <c r="BT109" s="73" t="s">
+      <c r="BT109" s="74" t="s">
         <v>1559</v>
       </c>
-      <c r="BU109" s="74" t="s">
+      <c r="BU109" s="75" t="s">
         <v>602</v>
       </c>
       <c r="CC109" s="23"/>
@@ -59566,19 +59616,19 @@
       <c r="BI110" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="BQ110" s="73" t="s">
+      <c r="BQ110" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="BR110" s="73" t="s">
+      <c r="BR110" s="74" t="s">
         <v>1517</v>
       </c>
-      <c r="BS110" s="74" t="s">
+      <c r="BS110" s="75" t="s">
         <v>629</v>
       </c>
-      <c r="BT110" s="73" t="s">
+      <c r="BT110" s="74" t="s">
         <v>1563</v>
       </c>
-      <c r="BU110" s="74" t="s">
+      <c r="BU110" s="75" t="s">
         <v>630</v>
       </c>
       <c r="CC110" s="23"/>
@@ -59680,17 +59730,17 @@
       </c>
       <c r="BH111" s="42"/>
       <c r="BI111" s="56"/>
-      <c r="BQ111" s="73" t="s">
+      <c r="BQ111" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="BR111" s="73" t="s">
+      <c r="BR111" s="74" t="s">
         <v>1517</v>
       </c>
       <c r="BS111" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="BT111" s="73"/>
-      <c r="BU111" s="74"/>
+      <c r="BT111" s="74"/>
+      <c r="BU111" s="75"/>
       <c r="CC111" s="23"/>
       <c r="CD111" s="23"/>
       <c r="CF111" s="23"/>
@@ -59911,17 +59961,17 @@
         <v>405</v>
       </c>
       <c r="BI113" s="42"/>
-      <c r="BQ113" s="73" t="s">
+      <c r="BQ113" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="BR113" s="73" t="s">
+      <c r="BR113" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="BS113" s="74"/>
-      <c r="BT113" s="73" t="s">
+      <c r="BS113" s="75"/>
+      <c r="BT113" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="BU113" s="74"/>
+      <c r="BU113" s="75"/>
       <c r="CC113" s="23"/>
       <c r="CD113" s="23"/>
       <c r="CF113" s="23"/>
@@ -60087,25 +60137,25 @@
       <c r="BI114" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="BQ114" s="73" t="s">
+      <c r="BQ114" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="BR114" s="73" t="s">
+      <c r="BR114" s="74" t="s">
         <v>1590</v>
       </c>
-      <c r="BS114" s="74" t="s">
+      <c r="BS114" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="BT114" s="73" t="s">
+      <c r="BT114" s="74" t="s">
         <v>1591</v>
       </c>
-      <c r="BU114" s="74" t="s">
+      <c r="BU114" s="75" t="s">
         <v>424</v>
       </c>
       <c r="CC114" s="23"/>
       <c r="CD114" s="23"/>
       <c r="CF114" s="23"/>
-      <c r="CI114" s="75" t="s">
+      <c r="CI114" s="76" t="s">
         <v>731</v>
       </c>
       <c r="CJ114" s="57" t="s">
@@ -60267,19 +60317,19 @@
       <c r="BI115" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="BQ115" s="73" t="s">
+      <c r="BQ115" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="BR115" s="73" t="s">
+      <c r="BR115" s="74" t="s">
         <v>1603</v>
       </c>
-      <c r="BS115" s="74" t="s">
+      <c r="BS115" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="BT115" s="73" t="s">
+      <c r="BT115" s="74" t="s">
         <v>1591</v>
       </c>
-      <c r="BU115" s="74" t="s">
+      <c r="BU115" s="75" t="s">
         <v>459</v>
       </c>
       <c r="CC115" s="23"/>
@@ -60429,19 +60479,19 @@
       <c r="BI116" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="BQ116" s="73" t="s">
+      <c r="BQ116" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="BR116" s="73" t="s">
+      <c r="BR116" s="74" t="s">
         <v>1617</v>
       </c>
-      <c r="BS116" s="74" t="s">
+      <c r="BS116" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="BT116" s="73" t="s">
+      <c r="BT116" s="74" t="s">
         <v>1618</v>
       </c>
-      <c r="BU116" s="74" t="s">
+      <c r="BU116" s="75" t="s">
         <v>488</v>
       </c>
       <c r="CC116" s="23"/>
@@ -60587,25 +60637,25 @@
       <c r="BI117" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="BQ117" s="73" t="s">
+      <c r="BQ117" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="BR117" s="73" t="s">
+      <c r="BR117" s="74" t="s">
         <v>1617</v>
       </c>
-      <c r="BS117" s="74" t="s">
+      <c r="BS117" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="BT117" s="73" t="s">
+      <c r="BT117" s="74" t="s">
         <v>1630</v>
       </c>
-      <c r="BU117" s="74" t="s">
+      <c r="BU117" s="75" t="s">
         <v>524</v>
       </c>
       <c r="CC117" s="23"/>
       <c r="CD117" s="23"/>
       <c r="CF117" s="23"/>
-      <c r="CI117" s="76" t="s">
+      <c r="CI117" s="77" t="s">
         <v>317</v>
       </c>
       <c r="CJ117" s="30" t="s">
@@ -60759,25 +60809,25 @@
       <c r="BI118" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="BQ118" s="73" t="s">
+      <c r="BQ118" s="74" t="s">
         <v>547</v>
       </c>
-      <c r="BR118" s="73" t="s">
+      <c r="BR118" s="74" t="s">
         <v>1617</v>
       </c>
-      <c r="BS118" s="74" t="s">
+      <c r="BS118" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="BT118" s="73" t="s">
+      <c r="BT118" s="74" t="s">
         <v>1618</v>
       </c>
-      <c r="BU118" s="74" t="s">
+      <c r="BU118" s="75" t="s">
         <v>552</v>
       </c>
       <c r="CC118" s="23"/>
       <c r="CD118" s="23"/>
       <c r="CF118" s="23"/>
-      <c r="CI118" s="75" t="s">
+      <c r="CI118" s="76" t="s">
         <v>1637</v>
       </c>
       <c r="CJ118" s="57" t="s">
@@ -60921,25 +60971,25 @@
       <c r="BI119" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="BQ119" s="73" t="s">
+      <c r="BQ119" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="BR119" s="73" t="s">
+      <c r="BR119" s="74" t="s">
         <v>1617</v>
       </c>
-      <c r="BS119" s="74" t="s">
+      <c r="BS119" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="BT119" s="73" t="s">
+      <c r="BT119" s="74" t="s">
         <v>1630</v>
       </c>
-      <c r="BU119" s="74" t="s">
+      <c r="BU119" s="75" t="s">
         <v>579</v>
       </c>
       <c r="CC119" s="23"/>
       <c r="CD119" s="23"/>
       <c r="CF119" s="23"/>
-      <c r="CI119" s="75" t="s">
+      <c r="CI119" s="76" t="s">
         <v>1645</v>
       </c>
       <c r="CJ119" s="57" t="s">
@@ -61074,19 +61124,19 @@
       <c r="BI120" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="BQ120" s="73" t="s">
+      <c r="BQ120" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="BR120" s="73" t="s">
+      <c r="BR120" s="74" t="s">
         <v>1659</v>
       </c>
-      <c r="BS120" s="74" t="s">
+      <c r="BS120" s="75" t="s">
         <v>600</v>
       </c>
-      <c r="BT120" s="73" t="s">
+      <c r="BT120" s="74" t="s">
         <v>1660</v>
       </c>
-      <c r="BU120" s="74" t="s">
+      <c r="BU120" s="75" t="s">
         <v>602</v>
       </c>
       <c r="CC120" s="23"/>
@@ -61226,19 +61276,19 @@
       <c r="BI121" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="BQ121" s="73" t="s">
+      <c r="BQ121" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="BR121" s="73" t="s">
+      <c r="BR121" s="74" t="s">
         <v>1673</v>
       </c>
-      <c r="BS121" s="74" t="s">
+      <c r="BS121" s="75" t="s">
         <v>629</v>
       </c>
-      <c r="BT121" s="73" t="s">
+      <c r="BT121" s="74" t="s">
         <v>1591</v>
       </c>
-      <c r="BU121" s="74" t="s">
+      <c r="BU121" s="75" t="s">
         <v>630</v>
       </c>
       <c r="CC121" s="23"/>
@@ -61332,17 +61382,17 @@
       </c>
       <c r="BH122" s="42"/>
       <c r="BI122" s="56"/>
-      <c r="BQ122" s="73" t="s">
+      <c r="BQ122" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="BR122" s="73" t="s">
+      <c r="BR122" s="74" t="s">
         <v>1673</v>
       </c>
       <c r="BS122" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="BT122" s="73"/>
-      <c r="BU122" s="74"/>
+      <c r="BT122" s="74"/>
+      <c r="BU122" s="75"/>
       <c r="CC122" s="23"/>
       <c r="CD122" s="23"/>
       <c r="CF122" s="23"/>
@@ -61547,17 +61597,17 @@
         <v>405</v>
       </c>
       <c r="BI124" s="42"/>
-      <c r="BQ124" s="73" t="s">
+      <c r="BQ124" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="BR124" s="73" t="s">
+      <c r="BR124" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="BS124" s="74"/>
-      <c r="BT124" s="73" t="s">
+      <c r="BS124" s="75"/>
+      <c r="BT124" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="BU124" s="74"/>
+      <c r="BU124" s="75"/>
       <c r="CC124" s="23"/>
       <c r="CD124" s="23"/>
       <c r="CF124" s="23"/>
@@ -61711,19 +61761,19 @@
       <c r="BI125" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="BQ125" s="73" t="s">
+      <c r="BQ125" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="BR125" s="73" t="s">
+      <c r="BR125" s="74" t="s">
         <v>1700</v>
       </c>
-      <c r="BS125" s="74" t="s">
+      <c r="BS125" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="BT125" s="73" t="s">
+      <c r="BT125" s="74" t="s">
         <v>1701</v>
       </c>
-      <c r="BU125" s="74" t="s">
+      <c r="BU125" s="75" t="s">
         <v>424</v>
       </c>
       <c r="CC125" s="23"/>
@@ -61891,19 +61941,19 @@
       <c r="BI126" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="BQ126" s="73" t="s">
+      <c r="BQ126" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="BR126" s="73" t="s">
+      <c r="BR126" s="74" t="s">
         <v>1716</v>
       </c>
-      <c r="BS126" s="74" t="s">
+      <c r="BS126" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="BT126" s="73" t="s">
+      <c r="BT126" s="74" t="s">
         <v>1701</v>
       </c>
-      <c r="BU126" s="74" t="s">
+      <c r="BU126" s="75" t="s">
         <v>459</v>
       </c>
       <c r="CC126" s="23"/>
@@ -62071,19 +62121,19 @@
       <c r="BI127" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="BQ127" s="73" t="s">
+      <c r="BQ127" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="BR127" s="73" t="s">
+      <c r="BR127" s="74" t="s">
         <v>1729</v>
       </c>
-      <c r="BS127" s="74" t="s">
+      <c r="BS127" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="BT127" s="73" t="s">
+      <c r="BT127" s="74" t="s">
         <v>1730</v>
       </c>
-      <c r="BU127" s="74" t="s">
+      <c r="BU127" s="75" t="s">
         <v>488</v>
       </c>
       <c r="CC127" s="23"/>
@@ -62231,19 +62281,19 @@
       <c r="BI128" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="BQ128" s="73" t="s">
+      <c r="BQ128" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="BR128" s="73" t="s">
+      <c r="BR128" s="74" t="s">
         <v>1729</v>
       </c>
-      <c r="BS128" s="74" t="s">
+      <c r="BS128" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="BT128" s="73" t="s">
+      <c r="BT128" s="74" t="s">
         <v>1741</v>
       </c>
-      <c r="BU128" s="74" t="s">
+      <c r="BU128" s="75" t="s">
         <v>524</v>
       </c>
       <c r="CC128" s="23"/>
@@ -62380,19 +62430,19 @@
       <c r="BI129" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="BQ129" s="73" t="s">
+      <c r="BQ129" s="74" t="s">
         <v>547</v>
       </c>
-      <c r="BR129" s="73" t="s">
+      <c r="BR129" s="74" t="s">
         <v>1750</v>
       </c>
-      <c r="BS129" s="74" t="s">
+      <c r="BS129" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="BT129" s="73" t="s">
+      <c r="BT129" s="74" t="s">
         <v>1730</v>
       </c>
-      <c r="BU129" s="74" t="s">
+      <c r="BU129" s="75" t="s">
         <v>552</v>
       </c>
       <c r="CC129" s="23"/>
@@ -62552,19 +62602,19 @@
       <c r="BI130" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="BQ130" s="73" t="s">
+      <c r="BQ130" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="BR130" s="73" t="s">
+      <c r="BR130" s="74" t="s">
         <v>1729</v>
       </c>
-      <c r="BS130" s="74" t="s">
+      <c r="BS130" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="BT130" s="73" t="s">
+      <c r="BT130" s="74" t="s">
         <v>1741</v>
       </c>
-      <c r="BU130" s="74" t="s">
+      <c r="BU130" s="75" t="s">
         <v>579</v>
       </c>
       <c r="CC130" s="23"/>
@@ -62712,19 +62762,19 @@
       <c r="BI131" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="BQ131" s="73" t="s">
+      <c r="BQ131" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="BR131" s="73" t="s">
+      <c r="BR131" s="74" t="s">
         <v>1767</v>
       </c>
-      <c r="BS131" s="74" t="s">
+      <c r="BS131" s="75" t="s">
         <v>600</v>
       </c>
-      <c r="BT131" s="73" t="s">
+      <c r="BT131" s="74" t="s">
         <v>1768</v>
       </c>
-      <c r="BU131" s="74" t="s">
+      <c r="BU131" s="75" t="s">
         <v>602</v>
       </c>
       <c r="CC131" s="23"/>
@@ -62860,19 +62910,19 @@
       <c r="BI132" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="BQ132" s="73" t="s">
+      <c r="BQ132" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="BR132" s="73" t="s">
+      <c r="BR132" s="74" t="s">
         <v>1776</v>
       </c>
-      <c r="BS132" s="74" t="s">
+      <c r="BS132" s="75" t="s">
         <v>629</v>
       </c>
-      <c r="BT132" s="73" t="s">
+      <c r="BT132" s="74" t="s">
         <v>1701</v>
       </c>
-      <c r="BU132" s="74" t="s">
+      <c r="BU132" s="75" t="s">
         <v>630</v>
       </c>
       <c r="CC132" s="23"/>
@@ -62997,24 +63047,24 @@
         <v>634</v>
       </c>
       <c r="BF133" s="42" t="s">
-        <v>1178</v>
+        <v>1785</v>
       </c>
       <c r="BG133" s="56" t="s">
         <v>634</v>
       </c>
       <c r="BH133" s="42"/>
       <c r="BI133" s="56"/>
-      <c r="BQ133" s="73" t="s">
+      <c r="BQ133" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="BR133" s="73" t="s">
-        <v>1785</v>
+      <c r="BR133" s="74" t="s">
+        <v>1786</v>
       </c>
       <c r="BS133" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="BT133" s="73"/>
-      <c r="BU133" s="74"/>
+      <c r="BT133" s="74"/>
+      <c r="BU133" s="75"/>
       <c r="CC133" s="23"/>
       <c r="CD133" s="23"/>
       <c r="CF133" s="23"/>
@@ -63222,13 +63272,13 @@
         <v>416</v>
       </c>
       <c r="BF136" s="42" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="BG136" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH136" s="42" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="BI136" s="56" t="s">
         <v>420</v>
@@ -63237,13 +63287,13 @@
         <v>416</v>
       </c>
       <c r="BR136" s="28" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="BS136" s="43" t="s">
         <v>422</v>
       </c>
       <c r="BT136" s="28" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="BU136" s="43" t="s">
         <v>424</v>
@@ -63261,7 +63311,7 @@
         <v>673</v>
       </c>
       <c r="CL136" s="57" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="CM136" s="58" t="s">
         <v>675</v>
@@ -63282,13 +63332,13 @@
         <v>671</v>
       </c>
       <c r="CT136" s="68" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="CU136" s="69" t="s">
         <v>673</v>
       </c>
       <c r="CV136" s="68" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="CW136" s="69" t="s">
         <v>675</v>
@@ -63358,13 +63408,13 @@
         <v>454</v>
       </c>
       <c r="BF137" s="42" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="BG137" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH137" s="42" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="BI137" s="56" t="s">
         <v>457</v>
@@ -63373,13 +63423,13 @@
         <v>454</v>
       </c>
       <c r="BR137" s="28" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="BS137" s="43" t="s">
         <v>458</v>
       </c>
       <c r="BT137" s="28" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="BU137" s="43" t="s">
         <v>459</v>
@@ -63403,7 +63453,7 @@
         <v>701</v>
       </c>
       <c r="CN137" s="57" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="CO137" s="58" t="s">
         <v>957</v>
@@ -63418,13 +63468,13 @@
         <v>698</v>
       </c>
       <c r="CT137" s="68" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="CU137" s="69" t="s">
         <v>699</v>
       </c>
       <c r="CV137" s="68" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="CW137" s="69" t="s">
         <v>701</v>
@@ -63494,13 +63544,13 @@
         <v>480</v>
       </c>
       <c r="BF138" s="42" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="BG138" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH138" s="42" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="BI138" s="56" t="s">
         <v>484</v>
@@ -63509,13 +63559,13 @@
         <v>480</v>
       </c>
       <c r="BR138" s="28" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="BS138" s="43" t="s">
         <v>486</v>
       </c>
       <c r="BT138" s="28" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="BU138" s="43" t="s">
         <v>488</v>
@@ -63554,13 +63604,13 @@
         <v>731</v>
       </c>
       <c r="CT138" s="68" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="CU138" s="69" t="s">
         <v>733</v>
       </c>
       <c r="CV138" s="68" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="CW138" s="69" t="s">
         <v>735</v>
@@ -63589,7 +63639,7 @@
         <v>486</v>
       </c>
       <c r="H139" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I139" s="50" t="s">
         <v>488</v>
@@ -63630,13 +63680,13 @@
         <v>517</v>
       </c>
       <c r="BF139" s="42" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="BG139" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH139" s="42" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="BI139" s="56" t="s">
         <v>521</v>
@@ -63645,13 +63695,13 @@
         <v>517</v>
       </c>
       <c r="BR139" s="28" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="BS139" s="43" t="s">
         <v>522</v>
       </c>
       <c r="BT139" s="28" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="BU139" s="43" t="s">
         <v>524</v>
@@ -63679,7 +63729,7 @@
         <v>517</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C140" s="49" t="s">
         <v>519</v>
@@ -63703,7 +63753,7 @@
         <v>524</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="K140" s="49" t="s">
         <v>525</v>
@@ -63738,13 +63788,13 @@
         <v>547</v>
       </c>
       <c r="BF140" s="42" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="BG140" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH140" s="42" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="BI140" s="56" t="s">
         <v>550</v>
@@ -63753,13 +63803,13 @@
         <v>547</v>
       </c>
       <c r="BR140" s="28" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="BS140" s="43" t="s">
         <v>551</v>
       </c>
       <c r="BT140" s="28" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="BU140" s="43" t="s">
         <v>552</v>
@@ -63791,7 +63841,7 @@
         <v>551</v>
       </c>
       <c r="H141" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I141" s="50" t="s">
         <v>552</v>
@@ -63832,13 +63882,13 @@
         <v>574</v>
       </c>
       <c r="BF141" s="42" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="BG141" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH141" s="42" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="BI141" s="56" t="s">
         <v>577</v>
@@ -63847,13 +63897,13 @@
         <v>574</v>
       </c>
       <c r="BR141" s="28" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="BS141" s="43" t="s">
         <v>578</v>
       </c>
       <c r="BT141" s="28" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="BU141" s="43" t="s">
         <v>579</v>
@@ -63964,28 +64014,28 @@
         <v>594</v>
       </c>
       <c r="BF142" s="42" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="BG142" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH142" s="42" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="BI142" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="BQ142" s="77" t="s">
+      <c r="BQ142" s="78" t="s">
         <v>594</v>
       </c>
       <c r="BR142" s="28" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="BS142" s="43" t="s">
         <v>600</v>
       </c>
       <c r="BT142" s="28" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="BU142" s="43" t="s">
         <v>602</v>
@@ -64003,7 +64053,7 @@
         <v>673</v>
       </c>
       <c r="CL142" s="57" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="CM142" s="58" t="s">
         <v>675</v>
@@ -64024,25 +64074,25 @@
         <v>442</v>
       </c>
       <c r="CT142" s="68" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="CU142" s="69" t="s">
         <v>444</v>
       </c>
       <c r="CV142" s="68" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="CW142" s="69" t="s">
         <v>446</v>
       </c>
       <c r="CX142" s="68" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="CY142" s="69" t="s">
         <v>448</v>
       </c>
       <c r="CZ142" s="68" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="DA142" s="69" t="s">
         <v>450</v>
@@ -64071,7 +64121,7 @@
         <v>600</v>
       </c>
       <c r="H143" s="38" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I143" s="50" t="s">
         <v>602</v>
@@ -64112,13 +64162,13 @@
         <v>625</v>
       </c>
       <c r="BF143" s="42" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="BG143" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH143" s="42" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="BI143" s="56" t="s">
         <v>628</v>
@@ -64127,13 +64177,13 @@
         <v>625</v>
       </c>
       <c r="BR143" s="28" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="BS143" s="43" t="s">
         <v>629</v>
       </c>
       <c r="BT143" s="28" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="BU143" s="43" t="s">
         <v>630</v>
@@ -64157,7 +64207,7 @@
         <v>701</v>
       </c>
       <c r="CN143" s="57" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="CO143" s="58" t="s">
         <v>957</v>
@@ -64172,25 +64222,25 @@
         <v>468</v>
       </c>
       <c r="CT143" s="68" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="CU143" s="69" t="s">
         <v>470</v>
       </c>
       <c r="CV143" s="68" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="CW143" s="69" t="s">
         <v>472</v>
       </c>
       <c r="CX143" s="68" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="CY143" s="69" t="s">
         <v>474</v>
       </c>
       <c r="CZ143" s="68" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="DA143" s="69" t="s">
         <v>476</v>
@@ -64260,7 +64310,7 @@
         <v>634</v>
       </c>
       <c r="BF144" s="42" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="BG144" s="56" t="s">
         <v>634</v>
@@ -64271,7 +64321,7 @@
         <v>634</v>
       </c>
       <c r="BR144" s="28" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="BS144" s="43" t="s">
         <v>634</v>
@@ -64281,7 +64331,7 @@
       <c r="CC144" s="23"/>
       <c r="CD144" s="23"/>
       <c r="CF144" s="23"/>
-      <c r="CI144" s="75" t="s">
+      <c r="CI144" s="76" t="s">
         <v>731</v>
       </c>
       <c r="CJ144" s="57" t="s">
@@ -64312,25 +64362,25 @@
         <v>505</v>
       </c>
       <c r="CT144" s="68" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="CU144" s="69" t="s">
         <v>507</v>
       </c>
       <c r="CV144" s="68" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="CW144" s="69" t="s">
         <v>509</v>
       </c>
       <c r="CX144" s="68" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="CY144" s="69" t="s">
         <v>510</v>
       </c>
       <c r="CZ144" s="68" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="DA144" s="69" t="s">
         <v>512</v>
@@ -64398,25 +64448,25 @@
         <v>536</v>
       </c>
       <c r="CT145" s="47" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="CU145" s="19" t="s">
         <v>538</v>
       </c>
       <c r="CV145" s="47" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="CW145" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CX145" s="47" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="CY145" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CZ145" s="47" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="DA145" s="19" t="s">
         <v>544</v>
@@ -64474,7 +64524,7 @@
       <c r="CC146" s="23"/>
       <c r="CD146" s="23"/>
       <c r="CF146" s="23"/>
-      <c r="CI146" s="76" t="s">
+      <c r="CI146" s="77" t="s">
         <v>332</v>
       </c>
       <c r="CJ146" s="30" t="s">
@@ -64497,25 +64547,25 @@
         <v>565</v>
       </c>
       <c r="CT146" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="CU146" s="19" t="s">
         <v>567</v>
       </c>
       <c r="CV146" s="47" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="CW146" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CX146" s="47" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="CY146" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CZ146" s="47" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="DA146" s="19" t="s">
         <v>572</v>
@@ -64602,29 +64652,29 @@
       <c r="CC147" s="23"/>
       <c r="CD147" s="23"/>
       <c r="CF147" s="23"/>
-      <c r="CI147" s="75" t="s">
+      <c r="CI147" s="76" t="s">
         <v>1637</v>
       </c>
       <c r="CJ147" s="57" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="CK147" s="58" t="s">
         <v>1639</v>
       </c>
       <c r="CL147" s="57" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="CM147" s="58" t="s">
         <v>1641</v>
       </c>
       <c r="CN147" s="57" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="CO147" s="71" t="s">
         <v>1642</v>
       </c>
       <c r="CP147" s="57" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="CQ147" s="71" t="s">
         <v>1644</v>
@@ -64633,25 +64683,25 @@
         <v>587</v>
       </c>
       <c r="CT147" s="47" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="CU147" s="19" t="s">
         <v>588</v>
       </c>
       <c r="CV147" s="47" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="CW147" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CX147" s="47" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="CY147" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CZ147" s="47" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="DA147" s="19" t="s">
         <v>592</v>
@@ -64668,7 +64718,7 @@
         <v>418</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E148" s="49" t="s">
         <v>420</v>
@@ -64692,7 +64742,7 @@
         <v>426</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="M148" s="49" t="s">
         <v>428</v>
@@ -64736,7 +64786,7 @@
         <v>454</v>
       </c>
       <c r="BL148" s="42" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="BM148" s="56" t="s">
         <v>455</v>
@@ -64750,17 +64800,17 @@
       <c r="CC148" s="23"/>
       <c r="CD148" s="23"/>
       <c r="CF148" s="23"/>
-      <c r="CI148" s="75" t="s">
+      <c r="CI148" s="76" t="s">
         <v>1645</v>
       </c>
       <c r="CJ148" s="57" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="CK148" s="58" t="s">
         <v>1647</v>
       </c>
       <c r="CL148" s="57" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="CM148" s="58" t="s">
         <v>1648</v>
@@ -64781,25 +64831,25 @@
         <v>616</v>
       </c>
       <c r="CT148" s="68" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="CU148" s="69" t="s">
         <v>618</v>
       </c>
       <c r="CV148" s="68" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="CW148" s="69" t="s">
         <v>620</v>
       </c>
       <c r="CX148" s="68" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="CY148" s="69" t="s">
         <v>622</v>
       </c>
       <c r="CZ148" s="68" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="DA148" s="69" t="s">
         <v>624</v>
@@ -64816,7 +64866,7 @@
         <v>455</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E149" s="49" t="s">
         <v>457</v>
@@ -64840,7 +64890,7 @@
         <v>460</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="M149" s="49" t="s">
         <v>461</v>
@@ -64908,19 +64958,19 @@
         <v>1662</v>
       </c>
       <c r="CL149" s="57" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="CM149" s="58" t="s">
         <v>1664</v>
       </c>
       <c r="CN149" s="57" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="CO149" s="71" t="s">
         <v>1666</v>
       </c>
       <c r="CP149" s="57" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="CQ149" s="71" t="s">
         <v>1668</v>
@@ -64929,25 +64979,25 @@
         <v>640</v>
       </c>
       <c r="CT149" s="68" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="CU149" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV149" s="68" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="CW149" s="69" t="s">
         <v>644</v>
       </c>
       <c r="CX149" s="68" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="CY149" s="69" t="s">
         <v>646</v>
       </c>
       <c r="CZ149" s="68" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="DA149" s="69" t="s">
         <v>648</v>
@@ -64964,7 +65014,7 @@
         <v>482</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E150" s="49" t="s">
         <v>484</v>
@@ -64976,7 +65026,7 @@
         <v>486</v>
       </c>
       <c r="H150" s="38" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I150" s="50" t="s">
         <v>488</v>
@@ -64988,7 +65038,7 @@
         <v>489</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M150" s="49" t="s">
         <v>490</v>
@@ -65032,7 +65082,7 @@
         <v>517</v>
       </c>
       <c r="BL150" s="42" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="BM150" s="56" t="s">
         <v>519</v>
@@ -65050,25 +65100,25 @@
         <v>650</v>
       </c>
       <c r="CT150" s="68" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="CU150" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV150" s="68" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="CW150" s="69" t="s">
         <v>654</v>
       </c>
       <c r="CX150" s="68" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="CY150" s="69" t="s">
         <v>656</v>
       </c>
       <c r="CZ150" s="68" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="DA150" s="69" t="s">
         <v>658</v>
@@ -65085,7 +65135,7 @@
         <v>519</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E151" s="49" t="s">
         <v>521</v>
@@ -65097,7 +65147,7 @@
         <v>522</v>
       </c>
       <c r="H151" s="38" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="I151" s="50" t="s">
         <v>524</v>
@@ -65109,7 +65159,7 @@
         <v>525</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="M151" s="49" t="s">
         <v>526</v>
@@ -65153,7 +65203,7 @@
         <v>547</v>
       </c>
       <c r="BL151" s="42" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="BM151" s="56" t="s">
         <v>549</v>
@@ -65171,25 +65221,25 @@
         <v>662</v>
       </c>
       <c r="CT151" s="47" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="CU151" s="19" t="s">
         <v>664</v>
       </c>
       <c r="CV151" s="47" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="CW151" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CX151" s="47" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="CY151" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CZ151" s="47" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="DA151" s="19" t="s">
         <v>670</v>
@@ -65200,13 +65250,13 @@
         <v>547</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C152" s="49" t="s">
         <v>549</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E152" s="49" t="s">
         <v>550</v>
@@ -65218,19 +65268,19 @@
         <v>551</v>
       </c>
       <c r="H152" s="38" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I152" s="50" t="s">
         <v>552</v>
       </c>
       <c r="J152" s="22" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="K152" s="49" t="s">
         <v>554</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M152" s="49" t="s">
         <v>555</v>
@@ -65274,7 +65324,7 @@
         <v>574</v>
       </c>
       <c r="BL152" s="42" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="BM152" s="56" t="s">
         <v>576</v>
@@ -65292,25 +65342,25 @@
         <v>689</v>
       </c>
       <c r="CT152" s="47" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="CU152" s="19" t="s">
         <v>691</v>
       </c>
       <c r="CV152" s="47" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="CW152" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CX152" s="47" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="CY152" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CZ152" s="47" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="DA152" s="19" t="s">
         <v>697</v>
@@ -65327,7 +65377,7 @@
         <v>576</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E153" s="49" t="s">
         <v>577</v>
@@ -65339,7 +65389,7 @@
         <v>578</v>
       </c>
       <c r="H153" s="38" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="I153" s="50" t="s">
         <v>579</v>
@@ -65351,7 +65401,7 @@
         <v>580</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="M153" s="49" t="s">
         <v>581</v>
@@ -65395,7 +65445,7 @@
         <v>594</v>
       </c>
       <c r="BL153" s="42" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="BM153" s="56" t="s">
         <v>596</v>
@@ -65413,25 +65463,25 @@
         <v>722</v>
       </c>
       <c r="CT153" s="47" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="CU153" s="19" t="s">
         <v>724</v>
       </c>
       <c r="CV153" s="47" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="CW153" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CX153" s="47" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="CY153" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CZ153" s="47" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="DA153" s="19" t="s">
         <v>730</v>
@@ -65448,7 +65498,7 @@
         <v>596</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E154" s="49" t="s">
         <v>598</v>
@@ -65460,7 +65510,7 @@
         <v>600</v>
       </c>
       <c r="H154" s="38" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="I154" s="50" t="s">
         <v>602</v>
@@ -65472,7 +65522,7 @@
         <v>603</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="M154" s="49" t="s">
         <v>604</v>
@@ -65772,13 +65822,13 @@
         <v>671</v>
       </c>
       <c r="CT158" s="68" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="CU158" s="69" t="s">
         <v>673</v>
       </c>
       <c r="CV158" s="68" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="CW158" s="69" t="s">
         <v>675</v>
@@ -65789,37 +65839,37 @@
         <v>416</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C159" s="49" t="s">
         <v>418</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E159" s="49" t="s">
         <v>420</v>
       </c>
       <c r="F159" s="38" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G159" s="50" t="s">
         <v>422</v>
       </c>
       <c r="H159" s="38" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I159" s="50" t="s">
         <v>424</v>
       </c>
       <c r="J159" s="22" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="K159" s="49" t="s">
         <v>426</v>
       </c>
       <c r="L159" s="22" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="M159" s="49" t="s">
         <v>428</v>
@@ -65848,13 +65898,13 @@
         <v>416</v>
       </c>
       <c r="BF159" s="42" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="BG159" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH159" s="42" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="BI159" s="56" t="s">
         <v>420</v>
@@ -65869,13 +65919,13 @@
         <v>698</v>
       </c>
       <c r="CT159" s="68" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="CU159" s="69" t="s">
         <v>699</v>
       </c>
       <c r="CV159" s="68" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="CW159" s="69" t="s">
         <v>701</v>
@@ -65886,37 +65936,37 @@
         <v>454</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C160" s="49" t="s">
         <v>455</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E160" s="49" t="s">
         <v>457</v>
       </c>
       <c r="F160" s="38" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G160" s="50" t="s">
         <v>458</v>
       </c>
       <c r="H160" s="38" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I160" s="50" t="s">
         <v>459</v>
       </c>
       <c r="J160" s="22" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="K160" s="49" t="s">
         <v>460</v>
       </c>
       <c r="L160" s="22" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="M160" s="49" t="s">
         <v>461</v>
@@ -65945,7 +65995,7 @@
         <v>454</v>
       </c>
       <c r="BF160" s="42" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="BG160" s="56" t="s">
         <v>455</v>
@@ -65966,13 +66016,13 @@
         <v>731</v>
       </c>
       <c r="CT160" s="68" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="CU160" s="69" t="s">
         <v>733</v>
       </c>
       <c r="CV160" s="68" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="CW160" s="69" t="s">
         <v>735</v>
@@ -65983,37 +66033,37 @@
         <v>480</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C161" s="49" t="s">
         <v>482</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E161" s="49" t="s">
         <v>484</v>
       </c>
       <c r="F161" s="38" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="G161" s="50" t="s">
         <v>486</v>
       </c>
       <c r="H161" s="38" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="I161" s="50" t="s">
         <v>488</v>
       </c>
       <c r="J161" s="22" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="K161" s="49" t="s">
         <v>489</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="M161" s="49" t="s">
         <v>490</v>
@@ -66070,37 +66120,37 @@
         <v>517</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C162" s="49" t="s">
         <v>519</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E162" s="49" t="s">
         <v>521</v>
       </c>
       <c r="F162" s="38" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="G162" s="50" t="s">
         <v>522</v>
       </c>
       <c r="H162" s="38" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="I162" s="50" t="s">
         <v>524</v>
       </c>
       <c r="J162" s="22" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="K162" s="49" t="s">
         <v>525</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M162" s="49" t="s">
         <v>526</v>
@@ -66135,7 +66185,7 @@
         <v>519</v>
       </c>
       <c r="BH162" s="42" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="BI162" s="56" t="s">
         <v>521</v>
@@ -66152,37 +66202,37 @@
         <v>547</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C163" s="49" t="s">
         <v>549</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E163" s="49" t="s">
         <v>550</v>
       </c>
       <c r="F163" s="38" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="G163" s="50" t="s">
         <v>551</v>
       </c>
       <c r="H163" s="38" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="I163" s="50" t="s">
         <v>552</v>
       </c>
       <c r="J163" s="22" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="K163" s="49" t="s">
         <v>554</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="M163" s="49" t="s">
         <v>555</v>
@@ -66211,7 +66261,7 @@
         <v>547</v>
       </c>
       <c r="BF163" s="42" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="BG163" s="56" t="s">
         <v>549</v>
@@ -66253,37 +66303,37 @@
         <v>574</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C164" s="49" t="s">
         <v>576</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E164" s="49" t="s">
         <v>577</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="G164" s="50" t="s">
         <v>578</v>
       </c>
       <c r="H164" s="38" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="I164" s="50" t="s">
         <v>579</v>
       </c>
       <c r="J164" s="22" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="K164" s="49" t="s">
         <v>580</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M164" s="49" t="s">
         <v>581</v>
@@ -66318,7 +66368,7 @@
         <v>576</v>
       </c>
       <c r="BH164" s="42" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="BI164" s="56" t="s">
         <v>577</v>
@@ -66354,37 +66404,37 @@
         <v>594</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C165" s="49" t="s">
         <v>596</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>598</v>
       </c>
       <c r="F165" s="38" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G165" s="50" t="s">
         <v>600</v>
       </c>
       <c r="H165" s="38" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="I165" s="50" t="s">
         <v>602</v>
       </c>
       <c r="J165" s="22" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="K165" s="49" t="s">
         <v>603</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="M165" s="49" t="s">
         <v>604</v>
@@ -66413,7 +66463,7 @@
         <v>594</v>
       </c>
       <c r="BF165" s="42" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="BG165" s="56" t="s">
         <v>596</v>
@@ -66455,7 +66505,7 @@
         <v>634</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C166" s="49" t="s">
         <v>634</v>
@@ -66500,7 +66550,7 @@
         <v>627</v>
       </c>
       <c r="BH166" s="42" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="BI166" s="56" t="s">
         <v>628</v>
@@ -66662,13 +66712,13 @@
         <v>568</v>
       </c>
       <c r="CX168" s="47" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="CY168" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CZ168" s="47" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="DA168" s="19" t="s">
         <v>572</v>
@@ -66761,7 +66811,7 @@
         <v>590</v>
       </c>
       <c r="CZ169" s="47" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="DA169" s="19" t="s">
         <v>592</v>
@@ -66831,13 +66881,13 @@
         <v>416</v>
       </c>
       <c r="BF170" s="42" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="BG170" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH170" s="42" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="BI170" s="56" t="s">
         <v>420</v>
@@ -66852,7 +66902,7 @@
         <v>616</v>
       </c>
       <c r="CT170" s="68" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="CU170" s="69" t="s">
         <v>618</v>
@@ -66940,13 +66990,13 @@
         <v>454</v>
       </c>
       <c r="BF171" s="42" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="BG171" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH171" s="42" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="BI171" s="56" t="s">
         <v>457</v>
@@ -66961,13 +67011,13 @@
         <v>640</v>
       </c>
       <c r="CT171" s="68" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="CU171" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV171" s="68" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="CW171" s="69" t="s">
         <v>644</v>
@@ -67049,13 +67099,13 @@
         <v>480</v>
       </c>
       <c r="BF172" s="42" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="BG172" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH172" s="42" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="BI172" s="56" t="s">
         <v>484</v>
@@ -67070,13 +67120,13 @@
         <v>650</v>
       </c>
       <c r="CT172" s="68" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="CU172" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV172" s="68" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="CW172" s="69" t="s">
         <v>654</v>
@@ -67158,13 +67208,13 @@
         <v>517</v>
       </c>
       <c r="BF173" s="42" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="BG173" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH173" s="42" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="BI173" s="56" t="s">
         <v>521</v>
@@ -67179,25 +67229,25 @@
         <v>662</v>
       </c>
       <c r="CT173" s="47" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="CU173" s="19" t="s">
         <v>664</v>
       </c>
       <c r="CV173" s="47" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="CW173" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CX173" s="47" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="CY173" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CZ173" s="47" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="DA173" s="19" t="s">
         <v>670</v>
@@ -67267,13 +67317,13 @@
         <v>547</v>
       </c>
       <c r="BF174" s="42" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="BG174" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH174" s="42" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="BI174" s="56" t="s">
         <v>550</v>
@@ -67288,25 +67338,25 @@
         <v>689</v>
       </c>
       <c r="CT174" s="47" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="CU174" s="19" t="s">
         <v>691</v>
       </c>
       <c r="CV174" s="47" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="CW174" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CX174" s="47" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="CY174" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CZ174" s="47" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="DA174" s="19" t="s">
         <v>697</v>
@@ -67376,13 +67426,13 @@
         <v>574</v>
       </c>
       <c r="BF175" s="42" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="BG175" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH175" s="42" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="BI175" s="56" t="s">
         <v>577</v>
@@ -67397,25 +67447,25 @@
         <v>722</v>
       </c>
       <c r="CT175" s="47" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="CU175" s="19" t="s">
         <v>724</v>
       </c>
       <c r="CV175" s="47" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="CW175" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CX175" s="47" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="CY175" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CZ175" s="47" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="DA175" s="19" t="s">
         <v>730</v>
@@ -67485,13 +67535,13 @@
         <v>594</v>
       </c>
       <c r="BF176" s="42" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="BG176" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH176" s="42" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="BI176" s="56" t="s">
         <v>598</v>
@@ -67576,13 +67626,13 @@
         <v>625</v>
       </c>
       <c r="BF177" s="42" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="BG177" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH177" s="42" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="BI177" s="56" t="s">
         <v>628</v>
@@ -67638,7 +67688,7 @@
         <v>634</v>
       </c>
       <c r="BF178" s="42" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="BG178" s="56" t="s">
         <v>634</v>
@@ -67703,13 +67753,13 @@
         <v>671</v>
       </c>
       <c r="CT179" s="68" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="CU179" s="69" t="s">
         <v>673</v>
       </c>
       <c r="CV179" s="68" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="CW179" s="69" t="s">
         <v>675</v>
@@ -67788,7 +67838,7 @@
         <v>699</v>
       </c>
       <c r="CV180" s="68" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="CW180" s="69" t="s">
         <v>701</v>
@@ -67879,7 +67929,7 @@
         <v>731</v>
       </c>
       <c r="CT181" s="68" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="CU181" s="69" t="s">
         <v>733</v>
@@ -67999,7 +68049,7 @@
         <v>486</v>
       </c>
       <c r="H183" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I183" s="50" t="s">
         <v>488</v>
@@ -68040,7 +68090,7 @@
         <v>480</v>
       </c>
       <c r="BF183" s="42" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="BG183" s="56" t="s">
         <v>482</v>
@@ -68122,7 +68172,7 @@
         <v>517</v>
       </c>
       <c r="BF184" s="42" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="BG184" s="56" t="s">
         <v>519</v>
@@ -68182,7 +68232,7 @@
         <v>551</v>
       </c>
       <c r="H185" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I185" s="50" t="s">
         <v>552</v>
@@ -68223,7 +68273,7 @@
         <v>547</v>
       </c>
       <c r="BF185" s="42" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="BG185" s="56" t="s">
         <v>549</v>
@@ -68249,13 +68299,13 @@
         <v>616</v>
       </c>
       <c r="CT185" s="60" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="CU185" s="61" t="s">
         <v>618</v>
       </c>
       <c r="CV185" s="60" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="CW185" s="61" t="s">
         <v>620</v>
@@ -68335,7 +68385,7 @@
         <v>574</v>
       </c>
       <c r="BF186" s="42" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="BG186" s="56" t="s">
         <v>576</v>
@@ -68361,7 +68411,7 @@
         <v>640</v>
       </c>
       <c r="CT186" s="60" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="CU186" s="61" t="s">
         <v>642</v>
@@ -68404,7 +68454,7 @@
         <v>600</v>
       </c>
       <c r="H187" s="38" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I187" s="50" t="s">
         <v>602</v>
@@ -68445,7 +68495,7 @@
         <v>594</v>
       </c>
       <c r="BF187" s="42" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="BG187" s="56" t="s">
         <v>596</v>
@@ -68471,13 +68521,13 @@
         <v>650</v>
       </c>
       <c r="CT187" s="60" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="CU187" s="61" t="s">
         <v>652</v>
       </c>
       <c r="CV187" s="60" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="CW187" s="61" t="s">
         <v>654</v>
@@ -68555,13 +68605,13 @@
         <v>625</v>
       </c>
       <c r="BF188" s="42" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="BG188" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH188" s="42" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="BI188" s="56" t="s">
         <v>628</v>
@@ -68631,7 +68681,7 @@
         <v>634</v>
       </c>
       <c r="BF189" s="42" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="BG189" s="56" t="s">
         <v>634</v>
@@ -68794,25 +68844,25 @@
         <v>442</v>
       </c>
       <c r="CT191" s="68" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="CU191" s="69" t="s">
         <v>444</v>
       </c>
       <c r="CV191" s="68" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="CW191" s="69" t="s">
         <v>446</v>
       </c>
       <c r="CX191" s="68" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="CY191" s="69" t="s">
         <v>448</v>
       </c>
       <c r="CZ191" s="68" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="DA191" s="69" t="s">
         <v>450</v>
@@ -68882,7 +68932,7 @@
         <v>416</v>
       </c>
       <c r="BF192" s="42" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="BG192" s="56" t="s">
         <v>418</v>
@@ -68906,25 +68956,25 @@
         <v>468</v>
       </c>
       <c r="CT192" s="68" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="CU192" s="69" t="s">
         <v>470</v>
       </c>
       <c r="CV192" s="68" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="CW192" s="69" t="s">
         <v>472</v>
       </c>
       <c r="CX192" s="68" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="CY192" s="69" t="s">
         <v>474</v>
       </c>
       <c r="CZ192" s="68" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="DA192" s="69" t="s">
         <v>476</v>
@@ -68994,7 +69044,7 @@
         <v>454</v>
       </c>
       <c r="BF193" s="42" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="BG193" s="56" t="s">
         <v>455</v>
@@ -69018,25 +69068,25 @@
         <v>505</v>
       </c>
       <c r="CT193" s="68" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="CU193" s="69" t="s">
         <v>507</v>
       </c>
       <c r="CV193" s="68" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="CW193" s="69" t="s">
         <v>509</v>
       </c>
       <c r="CX193" s="68" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="CY193" s="69" t="s">
         <v>510</v>
       </c>
       <c r="CZ193" s="68" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="DA193" s="69" t="s">
         <v>512</v>
@@ -69065,7 +69115,7 @@
         <v>486</v>
       </c>
       <c r="H194" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I194" s="50" t="s">
         <v>488</v>
@@ -69128,25 +69178,25 @@
         <v>536</v>
       </c>
       <c r="CT194" s="47" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="CU194" s="19" t="s">
         <v>538</v>
       </c>
       <c r="CV194" s="47" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="CW194" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CX194" s="47" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="CY194" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CZ194" s="47" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="DA194" s="19" t="s">
         <v>544</v>
@@ -69157,7 +69207,7 @@
         <v>517</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C195" s="49" t="s">
         <v>519</v>
@@ -69181,7 +69231,7 @@
         <v>524</v>
       </c>
       <c r="J195" s="22" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="K195" s="49" t="s">
         <v>525</v>
@@ -69238,25 +69288,25 @@
         <v>565</v>
       </c>
       <c r="CT195" s="47" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CU195" s="19" t="s">
         <v>567</v>
       </c>
       <c r="CV195" s="47" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="CW195" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CX195" s="47" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="CY195" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CZ195" s="47" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="DA195" s="19" t="s">
         <v>572</v>
@@ -69285,7 +69335,7 @@
         <v>551</v>
       </c>
       <c r="H196" s="38" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I196" s="50" t="s">
         <v>552</v>
@@ -69348,25 +69398,25 @@
         <v>587</v>
       </c>
       <c r="CT196" s="47" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="CU196" s="19" t="s">
         <v>588</v>
       </c>
       <c r="CV196" s="47" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="CW196" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CX196" s="47" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="CY196" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CZ196" s="47" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="DA196" s="19" t="s">
         <v>592</v>
@@ -69458,25 +69508,25 @@
         <v>616</v>
       </c>
       <c r="CT197" s="68" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="CU197" s="69" t="s">
         <v>618</v>
       </c>
       <c r="CV197" s="68" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="CW197" s="69" t="s">
         <v>620</v>
       </c>
       <c r="CX197" s="68" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="CY197" s="69" t="s">
         <v>622</v>
       </c>
       <c r="CZ197" s="68" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="DA197" s="69" t="s">
         <v>624</v>
@@ -69505,7 +69555,7 @@
         <v>600</v>
       </c>
       <c r="H198" s="38" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I198" s="50" t="s">
         <v>602</v>
@@ -69568,25 +69618,25 @@
         <v>640</v>
       </c>
       <c r="CT198" s="68" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="CU198" s="69" t="s">
         <v>642</v>
       </c>
       <c r="CV198" s="68" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="CW198" s="69" t="s">
         <v>644</v>
       </c>
       <c r="CX198" s="68" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="CY198" s="69" t="s">
         <v>646</v>
       </c>
       <c r="CZ198" s="68" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="DA198" s="69" t="s">
         <v>648</v>
@@ -69678,25 +69728,25 @@
         <v>650</v>
       </c>
       <c r="CT199" s="68" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="CU199" s="69" t="s">
         <v>652</v>
       </c>
       <c r="CV199" s="68" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="CW199" s="69" t="s">
         <v>654</v>
       </c>
       <c r="CX199" s="68" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="CY199" s="69" t="s">
         <v>656</v>
       </c>
       <c r="CZ199" s="68" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="DA199" s="69" t="s">
         <v>658</v>
@@ -69877,25 +69927,25 @@
         <v>671</v>
       </c>
       <c r="CT202" s="68" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="CU202" s="69" t="s">
         <v>673</v>
       </c>
       <c r="CV202" s="68" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="CW202" s="69" t="s">
         <v>675</v>
       </c>
       <c r="CX202" s="68" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="CY202" s="69" t="s">
         <v>943</v>
       </c>
       <c r="CZ202" s="68" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="DA202" s="69" t="s">
         <v>945</v>
@@ -69958,25 +70008,25 @@
         <v>698</v>
       </c>
       <c r="CT203" s="68" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="CU203" s="69" t="s">
         <v>699</v>
       </c>
       <c r="CV203" s="68" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="CW203" s="69" t="s">
         <v>701</v>
       </c>
       <c r="CX203" s="68" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="CY203" s="69" t="s">
         <v>957</v>
       </c>
       <c r="CZ203" s="68" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="DA203" s="69" t="s">
         <v>959</v>
@@ -70039,25 +70089,25 @@
         <v>731</v>
       </c>
       <c r="CT204" s="68" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="CU204" s="69" t="s">
         <v>733</v>
       </c>
       <c r="CV204" s="68" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="CW204" s="69" t="s">
         <v>735</v>
       </c>
       <c r="CX204" s="68" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="CY204" s="69" t="s">
         <v>972</v>
       </c>
       <c r="CZ204" s="68" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="DA204" s="69" t="s">
         <v>974</v>
@@ -70632,13 +70682,13 @@
         <v>416</v>
       </c>
       <c r="BF214" s="42" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="BG214" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH214" s="42" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BI214" s="56" t="s">
         <v>420</v>
@@ -70686,13 +70736,13 @@
         <v>454</v>
       </c>
       <c r="BF215" s="42" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BG215" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH215" s="42" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="BI215" s="56" t="s">
         <v>457</v>
@@ -70740,13 +70790,13 @@
         <v>480</v>
       </c>
       <c r="BF216" s="42" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="BG216" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH216" s="42" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="BI216" s="56" t="s">
         <v>484</v>
@@ -70794,13 +70844,13 @@
         <v>517</v>
       </c>
       <c r="BF217" s="42" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="BG217" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH217" s="42" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="BI217" s="56" t="s">
         <v>521</v>
@@ -70848,13 +70898,13 @@
         <v>547</v>
       </c>
       <c r="BF218" s="42" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="BG218" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH218" s="42" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="BI218" s="56" t="s">
         <v>550</v>
@@ -70902,13 +70952,13 @@
         <v>574</v>
       </c>
       <c r="BF219" s="42" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="BG219" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH219" s="42" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="BI219" s="56" t="s">
         <v>577</v>
@@ -70951,13 +71001,13 @@
         <v>594</v>
       </c>
       <c r="BF220" s="42" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="BG220" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH220" s="42" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="BI220" s="56" t="s">
         <v>598</v>
@@ -71000,13 +71050,13 @@
         <v>625</v>
       </c>
       <c r="BF221" s="42" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="BG221" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH221" s="42" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="BI221" s="56" t="s">
         <v>628</v>
@@ -71049,7 +71099,7 @@
         <v>634</v>
       </c>
       <c r="BF222" s="42" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="BG222" s="56" t="s">
         <v>634</v>
@@ -71176,13 +71226,13 @@
         <v>416</v>
       </c>
       <c r="BF225" s="42" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="BG225" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH225" s="42" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="BI225" s="56" t="s">
         <v>420</v>
@@ -71225,13 +71275,13 @@
         <v>454</v>
       </c>
       <c r="BF226" s="42" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG226" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH226" s="42" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="BI226" s="56" t="s">
         <v>457</v>
@@ -71274,13 +71324,13 @@
         <v>480</v>
       </c>
       <c r="BF227" s="42" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="BG227" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH227" s="42" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="BI227" s="56" t="s">
         <v>484</v>
@@ -71323,13 +71373,13 @@
         <v>517</v>
       </c>
       <c r="BF228" s="42" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="BG228" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH228" s="42" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="BI228" s="56" t="s">
         <v>521</v>
@@ -71372,13 +71422,13 @@
         <v>547</v>
       </c>
       <c r="BF229" s="42" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="BG229" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH229" s="42" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="BI229" s="56" t="s">
         <v>550</v>
@@ -71421,13 +71471,13 @@
         <v>574</v>
       </c>
       <c r="BF230" s="42" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="BG230" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH230" s="42" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="BI230" s="56" t="s">
         <v>577</v>
@@ -71470,13 +71520,13 @@
         <v>594</v>
       </c>
       <c r="BF231" s="42" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="BG231" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH231" s="42" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="BI231" s="56" t="s">
         <v>598</v>
@@ -71519,13 +71569,13 @@
         <v>625</v>
       </c>
       <c r="BF232" s="42" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="BG232" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH232" s="42" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="BI232" s="56" t="s">
         <v>628</v>
@@ -71568,7 +71618,7 @@
         <v>634</v>
       </c>
       <c r="BF233" s="42" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="BG233" s="56" t="s">
         <v>634</v>
@@ -71695,13 +71745,13 @@
         <v>416</v>
       </c>
       <c r="BF236" s="42" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="BG236" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH236" s="42" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="BI236" s="56" t="s">
         <v>420</v>
@@ -71744,13 +71794,13 @@
         <v>454</v>
       </c>
       <c r="BF237" s="42" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="BG237" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH237" s="42" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="BI237" s="56" t="s">
         <v>457</v>
@@ -71793,13 +71843,13 @@
         <v>480</v>
       </c>
       <c r="BF238" s="42" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="BG238" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH238" s="42" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="BI238" s="56" t="s">
         <v>484</v>
@@ -71842,13 +71892,13 @@
         <v>517</v>
       </c>
       <c r="BF239" s="42" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="BG239" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH239" s="42" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="BI239" s="56" t="s">
         <v>521</v>
@@ -71891,13 +71941,13 @@
         <v>547</v>
       </c>
       <c r="BF240" s="42" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="BG240" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH240" s="42" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="BI240" s="56" t="s">
         <v>550</v>
@@ -71940,13 +71990,13 @@
         <v>574</v>
       </c>
       <c r="BF241" s="42" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="BG241" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH241" s="42" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="BI241" s="56" t="s">
         <v>577</v>
@@ -71989,13 +72039,13 @@
         <v>594</v>
       </c>
       <c r="BF242" s="42" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="BG242" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH242" s="42" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="BI242" s="56" t="s">
         <v>598</v>
@@ -72038,13 +72088,13 @@
         <v>625</v>
       </c>
       <c r="BF243" s="42" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="BG243" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH243" s="42" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="BI243" s="56" t="s">
         <v>628</v>
@@ -72087,7 +72137,7 @@
         <v>634</v>
       </c>
       <c r="BF244" s="42" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="BG244" s="56" t="s">
         <v>634</v>
@@ -72557,7 +72607,7 @@
         <v>625</v>
       </c>
       <c r="BF254" s="42" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="BG254" s="56" t="s">
         <v>627</v>
@@ -72780,7 +72830,7 @@
         <v>454</v>
       </c>
       <c r="BF259" s="42" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="BG259" s="56" t="s">
         <v>455</v>
@@ -72872,7 +72922,7 @@
         <v>517</v>
       </c>
       <c r="BF261" s="42" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="BG261" s="56" t="s">
         <v>519</v>
@@ -72951,7 +73001,7 @@
         <v>574</v>
       </c>
       <c r="BF263" s="42" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="BG263" s="56" t="s">
         <v>576</v>
@@ -72988,7 +73038,7 @@
         <v>594</v>
       </c>
       <c r="BF264" s="42" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="BG264" s="56" t="s">
         <v>596</v>
@@ -73159,13 +73209,13 @@
         <v>416</v>
       </c>
       <c r="BF269" s="42" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="BG269" s="56" t="s">
         <v>418</v>
       </c>
       <c r="BH269" s="42" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BI269" s="56" t="s">
         <v>420</v>
@@ -73198,13 +73248,13 @@
         <v>454</v>
       </c>
       <c r="BF270" s="42" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="BG270" s="56" t="s">
         <v>455</v>
       </c>
       <c r="BH270" s="42" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BI270" s="56" t="s">
         <v>457</v>
@@ -73237,13 +73287,13 @@
         <v>480</v>
       </c>
       <c r="BF271" s="42" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="BG271" s="56" t="s">
         <v>482</v>
       </c>
       <c r="BH271" s="42" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="BI271" s="56" t="s">
         <v>484</v>
@@ -73276,13 +73326,13 @@
         <v>517</v>
       </c>
       <c r="BF272" s="42" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="BG272" s="56" t="s">
         <v>519</v>
       </c>
       <c r="BH272" s="42" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="BI272" s="56" t="s">
         <v>521</v>
@@ -73315,13 +73365,13 @@
         <v>547</v>
       </c>
       <c r="BF273" s="42" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="BG273" s="56" t="s">
         <v>549</v>
       </c>
       <c r="BH273" s="42" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="BI273" s="56" t="s">
         <v>550</v>
@@ -73354,13 +73404,13 @@
         <v>574</v>
       </c>
       <c r="BF274" s="42" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="BG274" s="56" t="s">
         <v>576</v>
       </c>
       <c r="BH274" s="42" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="BI274" s="56" t="s">
         <v>577</v>
@@ -73393,13 +73443,13 @@
         <v>594</v>
       </c>
       <c r="BF275" s="42" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="BG275" s="56" t="s">
         <v>596</v>
       </c>
       <c r="BH275" s="42" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="BI275" s="56" t="s">
         <v>598</v>
@@ -73432,13 +73482,13 @@
         <v>625</v>
       </c>
       <c r="BF276" s="42" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="BG276" s="56" t="s">
         <v>627</v>
       </c>
       <c r="BH276" s="42" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BI276" s="56" t="s">
         <v>628</v>
@@ -73471,7 +73521,7 @@
         <v>634</v>
       </c>
       <c r="BF277" s="42" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="BG277" s="56" t="s">
         <v>634</v>
@@ -74244,7 +74294,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="AZ90 A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -74259,94 +74309,94 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="19.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="21" width="48.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="21" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="78" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="79" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="79" t="s">
-        <v>2074</v>
-      </c>
-      <c r="B1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>2075</v>
       </c>
+      <c r="B1" s="80" t="s">
+        <v>2076</v>
+      </c>
       <c r="C1" s="23" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E1" s="79" t="s">
         <v>2078</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="80" t="s">
         <v>2079</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="F1" s="80" t="s">
         <v>2080</v>
       </c>
+      <c r="G1" s="80" t="s">
+        <v>2081</v>
+      </c>
       <c r="H1" s="23" t="s">
-        <v>2081</v>
-      </c>
-      <c r="I1" s="79" t="s">
         <v>2082</v>
       </c>
+      <c r="I1" s="80" t="s">
+        <v>2083</v>
+      </c>
       <c r="J1" s="23" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>2087</v>
-      </c>
-      <c r="AMI1" s="78"/>
-      <c r="AMJ1" s="78"/>
+        <v>2088</v>
+      </c>
+      <c r="AMI1" s="79"/>
+      <c r="AMJ1" s="79"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
         <v>416</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F2" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>2090</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>2091</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>2092</v>
       </c>
+      <c r="H2" s="81" t="s">
+        <v>2093</v>
+      </c>
       <c r="I2" s="21" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>2094</v>
-      </c>
-      <c r="K2" s="80" t="s">
         <v>2095</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="K2" s="81" t="s">
         <v>2096</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="L2" s="81" t="s">
         <v>2097</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="81" t="s">
         <v>2098</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74354,40 +74404,40 @@
         <v>454</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F3" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>2101</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="81" t="s">
         <v>2102</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="81" t="s">
         <v>2103</v>
       </c>
+      <c r="H3" s="81" t="s">
+        <v>2104</v>
+      </c>
       <c r="I3" s="21" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>2105</v>
-      </c>
-      <c r="K3" s="80" t="s">
         <v>2106</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="K3" s="81" t="s">
         <v>2107</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="L3" s="81" t="s">
         <v>2108</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="M3" s="81" t="s">
         <v>2109</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74395,40 +74445,40 @@
         <v>480</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>2111</v>
-      </c>
-      <c r="F4" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E4" s="81" t="s">
         <v>2112</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="F4" s="81" t="s">
         <v>2113</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="81" t="s">
         <v>2114</v>
       </c>
+      <c r="H4" s="81" t="s">
+        <v>2115</v>
+      </c>
       <c r="I4" s="21" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>2116</v>
-      </c>
-      <c r="K4" s="80" t="s">
         <v>2117</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="81" t="s">
         <v>2118</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="81" t="s">
         <v>2119</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="M4" s="81" t="s">
         <v>2120</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74436,40 +74486,40 @@
         <v>517</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>2122</v>
-      </c>
-      <c r="F5" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E5" s="81" t="s">
         <v>2123</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="81" t="s">
         <v>2124</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>2125</v>
       </c>
+      <c r="H5" s="81" t="s">
+        <v>2126</v>
+      </c>
       <c r="I5" s="21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>2127</v>
-      </c>
-      <c r="K5" s="80" t="s">
         <v>2128</v>
       </c>
-      <c r="L5" s="80" t="s">
+      <c r="K5" s="81" t="s">
         <v>2129</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="L5" s="81" t="s">
         <v>2130</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="M5" s="81" t="s">
         <v>2131</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74477,40 +74527,40 @@
         <v>547</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F6" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E6" s="81" t="s">
         <v>2134</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="81" t="s">
         <v>2135</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="G6" s="81" t="s">
         <v>2136</v>
       </c>
+      <c r="H6" s="81" t="s">
+        <v>2137</v>
+      </c>
       <c r="I6" s="21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>2138</v>
-      </c>
-      <c r="K6" s="80" t="s">
         <v>2139</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="K6" s="81" t="s">
         <v>2140</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="L6" s="81" t="s">
         <v>2141</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="81" t="s">
         <v>2142</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74518,40 +74568,40 @@
         <v>574</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>2144</v>
-      </c>
-      <c r="F7" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E7" s="81" t="s">
         <v>2145</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="F7" s="81" t="s">
         <v>2146</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="81" t="s">
         <v>2147</v>
       </c>
+      <c r="H7" s="81" t="s">
+        <v>2148</v>
+      </c>
       <c r="I7" s="21" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>2149</v>
-      </c>
-      <c r="K7" s="80" t="s">
         <v>2150</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="K7" s="81" t="s">
         <v>2151</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="L7" s="81" t="s">
         <v>2152</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="M7" s="81" t="s">
         <v>2153</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>2154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74559,40 +74609,40 @@
         <v>594</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>2155</v>
-      </c>
-      <c r="F8" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>2156</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="81" t="s">
         <v>2157</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="81" t="s">
         <v>2158</v>
       </c>
+      <c r="H8" s="81" t="s">
+        <v>2159</v>
+      </c>
       <c r="I8" s="21" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>2160</v>
-      </c>
-      <c r="K8" s="80" t="s">
         <v>2161</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="K8" s="81" t="s">
         <v>2162</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="L8" s="81" t="s">
         <v>2163</v>
       </c>
-      <c r="N8" s="80" t="s">
+      <c r="M8" s="81" t="s">
         <v>2164</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>2165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74600,40 +74650,40 @@
         <v>625</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F9" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E9" s="81" t="s">
         <v>2167</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="81" t="s">
         <v>2168</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="81" t="s">
         <v>2169</v>
       </c>
+      <c r="H9" s="81" t="s">
+        <v>2170</v>
+      </c>
       <c r="I9" s="21" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>2171</v>
-      </c>
-      <c r="K9" s="80" t="s">
         <v>2172</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="K9" s="81" t="s">
         <v>2173</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="L9" s="81" t="s">
         <v>2174</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="M9" s="81" t="s">
         <v>2175</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>2176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74641,270 +74691,270 @@
         <v>634</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>2176</v>
-      </c>
-      <c r="E10" s="80" t="s">
         <v>2177</v>
       </c>
-      <c r="F10" s="80" t="s">
-        <v>2177</v>
-      </c>
-      <c r="G10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>2178</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="F10" s="81" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G10" s="81" t="s">
         <v>2179</v>
       </c>
+      <c r="H10" s="81" t="s">
+        <v>2180</v>
+      </c>
       <c r="I10" s="21" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>2181</v>
-      </c>
-      <c r="K10" s="80" t="s">
         <v>2182</v>
       </c>
-      <c r="L10" s="80" t="s">
-        <v>2182</v>
-      </c>
-      <c r="M10" s="80" t="s">
+      <c r="K10" s="81" t="s">
         <v>2183</v>
       </c>
-      <c r="N10" s="80" t="s">
+      <c r="L10" s="81" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M10" s="81" t="s">
         <v>2184</v>
       </c>
+      <c r="N10" s="81" t="s">
+        <v>2185</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>2187</v>
-      </c>
-      <c r="F12" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>2188</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="F12" s="81" t="s">
         <v>2189</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="81" t="s">
         <v>2190</v>
       </c>
+      <c r="H12" s="81" t="s">
+        <v>2191</v>
+      </c>
       <c r="I12" s="21" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>2192</v>
-      </c>
-      <c r="K12" s="80" t="s">
         <v>2193</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="K12" s="81" t="s">
         <v>2194</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="L12" s="81" t="s">
         <v>2195</v>
       </c>
-      <c r="N12" s="80" t="s">
+      <c r="M12" s="81" t="s">
         <v>2196</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>2199</v>
-      </c>
-      <c r="F13" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E13" s="81" t="s">
         <v>2200</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="F13" s="81" t="s">
         <v>2201</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="G13" s="81" t="s">
         <v>2202</v>
       </c>
+      <c r="H13" s="81" t="s">
+        <v>2203</v>
+      </c>
       <c r="I13" s="21" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>2204</v>
-      </c>
-      <c r="K13" s="80" t="s">
         <v>2205</v>
       </c>
-      <c r="L13" s="80" t="s">
+      <c r="K13" s="81" t="s">
         <v>2206</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="L13" s="81" t="s">
         <v>2207</v>
       </c>
-      <c r="N13" s="80" t="s">
+      <c r="M13" s="81" t="s">
         <v>2208</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>2209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F14" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E14" s="81" t="s">
         <v>2212</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="81" t="s">
         <v>2213</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="G14" s="81" t="s">
         <v>2214</v>
       </c>
+      <c r="H14" s="81" t="s">
+        <v>2215</v>
+      </c>
       <c r="I14" s="21" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>2216</v>
-      </c>
-      <c r="K14" s="80" t="s">
         <v>2217</v>
       </c>
-      <c r="L14" s="80" t="s">
+      <c r="K14" s="81" t="s">
         <v>2218</v>
       </c>
-      <c r="M14" s="80" t="s">
+      <c r="L14" s="81" t="s">
         <v>2219</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="M14" s="81" t="s">
         <v>2220</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>2221</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>2223</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>2223</v>
-      </c>
-      <c r="G15" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>2224</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="F15" s="81" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G15" s="81" t="s">
         <v>2225</v>
       </c>
+      <c r="H15" s="81" t="s">
+        <v>2226</v>
+      </c>
       <c r="I15" s="21" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>2227</v>
-      </c>
-      <c r="K15" s="80" t="s">
         <v>2228</v>
       </c>
-      <c r="L15" s="80" t="s">
-        <v>2228</v>
-      </c>
-      <c r="M15" s="80" t="s">
+      <c r="K15" s="81" t="s">
         <v>2229</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="L15" s="81" t="s">
+        <v>2229</v>
+      </c>
+      <c r="M15" s="81" t="s">
         <v>2230</v>
       </c>
+      <c r="N15" s="81" t="s">
+        <v>2231</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
         <v>412</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>2232</v>
-      </c>
-      <c r="F17" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E17" s="81" t="s">
         <v>2233</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="F17" s="81" t="s">
         <v>2234</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="G17" s="81" t="s">
         <v>2235</v>
       </c>
+      <c r="H17" s="81" t="s">
+        <v>2236</v>
+      </c>
       <c r="I17" s="21" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>2237</v>
-      </c>
-      <c r="K17" s="80" t="s">
         <v>2238</v>
       </c>
-      <c r="L17" s="80" t="s">
+      <c r="K17" s="81" t="s">
         <v>2239</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="L17" s="81" t="s">
         <v>2240</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="M17" s="81" t="s">
         <v>2241</v>
+      </c>
+      <c r="N17" s="81" t="s">
+        <v>2242</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74912,40 +74962,40 @@
         <v>413</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>2243</v>
-      </c>
-      <c r="F18" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E18" s="81" t="s">
         <v>2244</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="F18" s="81" t="s">
         <v>2245</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="G18" s="81" t="s">
         <v>2246</v>
       </c>
+      <c r="H18" s="81" t="s">
+        <v>2247</v>
+      </c>
       <c r="I18" s="21" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>2248</v>
-      </c>
-      <c r="K18" s="80" t="s">
         <v>2249</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="K18" s="81" t="s">
         <v>2250</v>
       </c>
-      <c r="M18" s="80" t="s">
+      <c r="L18" s="81" t="s">
         <v>2251</v>
       </c>
-      <c r="N18" s="80" t="s">
+      <c r="M18" s="81" t="s">
         <v>2252</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>2253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -74956,1215 +75006,1215 @@
         <v>1296</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>2253</v>
-      </c>
-      <c r="F19" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E19" s="81" t="s">
         <v>2254</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="F19" s="81" t="s">
         <v>2255</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="G19" s="81" t="s">
         <v>2256</v>
       </c>
+      <c r="H19" s="81" t="s">
+        <v>2257</v>
+      </c>
       <c r="I19" s="21" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>2258</v>
-      </c>
-      <c r="K19" s="80" t="s">
         <v>2259</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="K19" s="81" t="s">
         <v>2260</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="L19" s="81" t="s">
         <v>2261</v>
       </c>
-      <c r="N19" s="80" t="s">
+      <c r="M19" s="81" t="s">
         <v>2262</v>
       </c>
+      <c r="N19" s="81" t="s">
+        <v>2263</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>2265</v>
-      </c>
-      <c r="F21" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>2266</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="F21" s="81" t="s">
         <v>2267</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="G21" s="81" t="s">
         <v>2268</v>
       </c>
+      <c r="H21" s="81" t="s">
+        <v>2269</v>
+      </c>
       <c r="I21" s="21" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>2270</v>
-      </c>
-      <c r="K21" s="80" t="s">
         <v>2271</v>
       </c>
-      <c r="L21" s="80" t="s">
+      <c r="K21" s="81" t="s">
         <v>2272</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="L21" s="81" t="s">
         <v>2273</v>
       </c>
-      <c r="N21" s="80" t="s">
+      <c r="M21" s="81" t="s">
         <v>2274</v>
+      </c>
+      <c r="N21" s="81" t="s">
+        <v>2275</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>2277</v>
-      </c>
-      <c r="F22" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E22" s="81" t="s">
         <v>2278</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="F22" s="81" t="s">
         <v>2279</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="G22" s="81" t="s">
         <v>2280</v>
       </c>
+      <c r="H22" s="81" t="s">
+        <v>2281</v>
+      </c>
       <c r="I22" s="21" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>2282</v>
-      </c>
-      <c r="K22" s="80" t="s">
         <v>2283</v>
       </c>
-      <c r="L22" s="80" t="s">
+      <c r="K22" s="81" t="s">
         <v>2284</v>
       </c>
-      <c r="M22" s="80" t="s">
+      <c r="L22" s="81" t="s">
         <v>2285</v>
       </c>
-      <c r="N22" s="80" t="s">
+      <c r="M22" s="81" t="s">
         <v>2286</v>
       </c>
+      <c r="N22" s="81" t="s">
+        <v>2287</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E24" s="80" t="s">
-        <v>2289</v>
-      </c>
-      <c r="F24" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E24" s="81" t="s">
         <v>2290</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="F24" s="81" t="s">
         <v>2291</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="G24" s="81" t="s">
         <v>2292</v>
       </c>
+      <c r="H24" s="81" t="s">
+        <v>2293</v>
+      </c>
       <c r="I24" s="21" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>2294</v>
-      </c>
-      <c r="K24" s="80" t="s">
         <v>2295</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="K24" s="81" t="s">
         <v>2296</v>
       </c>
-      <c r="M24" s="80" t="s">
+      <c r="L24" s="81" t="s">
         <v>2297</v>
       </c>
-      <c r="N24" s="80" t="s">
+      <c r="M24" s="81" t="s">
         <v>2298</v>
+      </c>
+      <c r="N24" s="81" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F25" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E25" s="81" t="s">
         <v>2302</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="F25" s="81" t="s">
         <v>2303</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="G25" s="81" t="s">
         <v>2304</v>
       </c>
+      <c r="H25" s="81" t="s">
+        <v>2305</v>
+      </c>
       <c r="I25" s="21" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>2306</v>
-      </c>
-      <c r="K25" s="80" t="s">
         <v>2307</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="K25" s="81" t="s">
         <v>2308</v>
       </c>
-      <c r="M25" s="80" t="s">
+      <c r="L25" s="81" t="s">
         <v>2309</v>
       </c>
-      <c r="N25" s="80" t="s">
+      <c r="M25" s="81" t="s">
         <v>2310</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>2311</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>2313</v>
-      </c>
-      <c r="F26" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>2314</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="F26" s="81" t="s">
         <v>2315</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="G26" s="81" t="s">
         <v>2316</v>
       </c>
+      <c r="H26" s="81" t="s">
+        <v>2317</v>
+      </c>
       <c r="I26" s="21" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>2318</v>
-      </c>
-      <c r="K26" s="80" t="s">
         <v>2319</v>
       </c>
-      <c r="L26" s="80" t="s">
+      <c r="K26" s="81" t="s">
         <v>2320</v>
       </c>
-      <c r="M26" s="80" t="s">
+      <c r="L26" s="81" t="s">
         <v>2321</v>
       </c>
-      <c r="N26" s="80" t="s">
+      <c r="M26" s="81" t="s">
         <v>2322</v>
+      </c>
+      <c r="N26" s="81" t="s">
+        <v>2323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E27" s="80" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F27" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E27" s="81" t="s">
         <v>2326</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="F27" s="81" t="s">
         <v>2327</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>2328</v>
       </c>
+      <c r="H27" s="81" t="s">
+        <v>2329</v>
+      </c>
       <c r="I27" s="21" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>2330</v>
-      </c>
-      <c r="K27" s="80" t="s">
         <v>2331</v>
       </c>
-      <c r="L27" s="80" t="s">
-        <v>2162</v>
-      </c>
-      <c r="M27" s="80" t="s">
+      <c r="K27" s="81" t="s">
         <v>2332</v>
       </c>
-      <c r="N27" s="80" t="s">
+      <c r="L27" s="81" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M27" s="81" t="s">
         <v>2333</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>2334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E28" s="80" t="s">
-        <v>2336</v>
-      </c>
-      <c r="F28" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E28" s="81" t="s">
         <v>2337</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="F28" s="81" t="s">
         <v>2338</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="G28" s="81" t="s">
         <v>2339</v>
       </c>
+      <c r="H28" s="81" t="s">
+        <v>2340</v>
+      </c>
       <c r="I28" s="21" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>2341</v>
-      </c>
-      <c r="K28" s="80" t="s">
         <v>2342</v>
       </c>
-      <c r="L28" s="80" t="s">
-        <v>2140</v>
-      </c>
-      <c r="M28" s="80" t="s">
+      <c r="K28" s="81" t="s">
         <v>2343</v>
       </c>
-      <c r="N28" s="80" t="s">
+      <c r="L28" s="81" t="s">
+        <v>2141</v>
+      </c>
+      <c r="M28" s="81" t="s">
         <v>2344</v>
+      </c>
+      <c r="N28" s="81" t="s">
+        <v>2345</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E29" s="80" t="s">
-        <v>2347</v>
-      </c>
-      <c r="F29" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E29" s="81" t="s">
         <v>2348</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="F29" s="81" t="s">
         <v>2349</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="G29" s="81" t="s">
         <v>2350</v>
       </c>
+      <c r="H29" s="81" t="s">
+        <v>2351</v>
+      </c>
       <c r="I29" s="21" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>2352</v>
-      </c>
-      <c r="K29" s="80" t="s">
         <v>2353</v>
       </c>
-      <c r="L29" s="80" t="s">
+      <c r="K29" s="81" t="s">
         <v>2354</v>
       </c>
-      <c r="M29" s="80" t="s">
+      <c r="L29" s="81" t="s">
         <v>2355</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="M29" s="81" t="s">
         <v>2356</v>
+      </c>
+      <c r="N29" s="81" t="s">
+        <v>2357</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E30" s="80" t="s">
-        <v>2359</v>
-      </c>
-      <c r="F30" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E30" s="81" t="s">
         <v>2360</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="F30" s="81" t="s">
         <v>2361</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="G30" s="81" t="s">
         <v>2362</v>
       </c>
+      <c r="H30" s="81" t="s">
+        <v>2363</v>
+      </c>
       <c r="I30" s="21" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>2364</v>
-      </c>
-      <c r="K30" s="80" t="s">
         <v>2365</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="K30" s="81" t="s">
         <v>2366</v>
       </c>
-      <c r="M30" s="80" t="s">
+      <c r="L30" s="81" t="s">
         <v>2367</v>
       </c>
-      <c r="N30" s="80" t="s">
+      <c r="M30" s="81" t="s">
         <v>2368</v>
+      </c>
+      <c r="N30" s="81" t="s">
+        <v>2369</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E31" s="80" t="s">
-        <v>2371</v>
-      </c>
-      <c r="F31" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E31" s="81" t="s">
         <v>2372</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="F31" s="81" t="s">
         <v>2373</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="G31" s="81" t="s">
         <v>2374</v>
       </c>
+      <c r="H31" s="81" t="s">
+        <v>2375</v>
+      </c>
       <c r="I31" s="21" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>2376</v>
-      </c>
-      <c r="K31" s="80" t="s">
         <v>2377</v>
       </c>
-      <c r="L31" s="80" t="s">
+      <c r="K31" s="81" t="s">
         <v>2378</v>
       </c>
-      <c r="M31" s="80" t="s">
+      <c r="L31" s="81" t="s">
         <v>2379</v>
       </c>
-      <c r="N31" s="80" t="s">
+      <c r="M31" s="81" t="s">
         <v>2380</v>
       </c>
+      <c r="N31" s="81" t="s">
+        <v>2381</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>2383</v>
-      </c>
-      <c r="F33" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>2384</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="F33" s="81" t="s">
         <v>2385</v>
       </c>
-      <c r="H33" s="80" t="s">
+      <c r="G33" s="81" t="s">
         <v>2386</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>2387</v>
       </c>
       <c r="I33" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>2387</v>
-      </c>
-      <c r="K33" s="80" t="s">
         <v>2388</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="K33" s="81" t="s">
         <v>2389</v>
       </c>
-      <c r="M33" s="80" t="s">
+      <c r="L33" s="81" t="s">
         <v>2390</v>
       </c>
-      <c r="N33" s="80" t="s">
+      <c r="M33" s="81" t="s">
         <v>2391</v>
+      </c>
+      <c r="N33" s="81" t="s">
+        <v>2392</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F34" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E34" s="81" t="s">
         <v>2395</v>
       </c>
-      <c r="G34" s="80" t="s">
+      <c r="F34" s="81" t="s">
         <v>2396</v>
       </c>
-      <c r="H34" s="80" t="s">
+      <c r="G34" s="81" t="s">
         <v>2397</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>2398</v>
       </c>
       <c r="I34" s="21" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>2398</v>
-      </c>
-      <c r="K34" s="80" t="s">
         <v>2399</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="K34" s="81" t="s">
         <v>2400</v>
       </c>
-      <c r="M34" s="80" t="s">
+      <c r="L34" s="81" t="s">
         <v>2401</v>
       </c>
-      <c r="N34" s="80" t="s">
+      <c r="M34" s="81" t="s">
         <v>2402</v>
+      </c>
+      <c r="N34" s="81" t="s">
+        <v>2403</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>2405</v>
-      </c>
-      <c r="F35" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E35" s="81" t="s">
         <v>2406</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="F35" s="81" t="s">
         <v>2407</v>
       </c>
-      <c r="H35" s="80" t="s">
+      <c r="G35" s="81" t="s">
         <v>2408</v>
+      </c>
+      <c r="H35" s="81" t="s">
+        <v>2409</v>
       </c>
       <c r="I35" s="21" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>2409</v>
-      </c>
-      <c r="K35" s="80" t="s">
         <v>2410</v>
       </c>
-      <c r="L35" s="80" t="s">
+      <c r="K35" s="81" t="s">
         <v>2411</v>
       </c>
-      <c r="M35" s="80" t="s">
+      <c r="L35" s="81" t="s">
         <v>2412</v>
       </c>
-      <c r="N35" s="80" t="s">
+      <c r="M35" s="81" t="s">
         <v>2413</v>
       </c>
+      <c r="N35" s="81" t="s">
+        <v>2414</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="80" t="s">
-        <v>2415</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>2415</v>
+        <v>2077</v>
+      </c>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="81" t="s">
+        <v>2416</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>2416</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>2417</v>
-      </c>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="80" t="s">
         <v>2418</v>
       </c>
-      <c r="N37" s="80" t="s">
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="81" t="s">
         <v>2419</v>
+      </c>
+      <c r="N37" s="81" t="s">
+        <v>2420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F38" s="80" t="s">
-        <v>2421</v>
-      </c>
-      <c r="G38" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E38" s="81" t="s">
         <v>2422</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="F38" s="81" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G38" s="81" t="s">
         <v>2423</v>
       </c>
+      <c r="H38" s="81" t="s">
+        <v>2424</v>
+      </c>
       <c r="I38" s="21" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>2425</v>
-      </c>
-      <c r="K38" s="80" t="s">
         <v>2426</v>
       </c>
-      <c r="L38" s="80" t="s">
-        <v>2426</v>
-      </c>
-      <c r="M38" s="80" t="s">
+      <c r="K38" s="81" t="s">
         <v>2427</v>
       </c>
-      <c r="N38" s="80" t="s">
+      <c r="L38" s="81" t="s">
+        <v>2427</v>
+      </c>
+      <c r="M38" s="81" t="s">
         <v>2428</v>
+      </c>
+      <c r="N38" s="81" t="s">
+        <v>2429</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E39" s="80" t="s">
-        <v>2431</v>
-      </c>
-      <c r="F39" s="80" t="s">
-        <v>2431</v>
-      </c>
-      <c r="G39" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E39" s="81" t="s">
         <v>2432</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="F39" s="81" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G39" s="81" t="s">
         <v>2433</v>
       </c>
+      <c r="H39" s="81" t="s">
+        <v>2434</v>
+      </c>
       <c r="I39" s="21" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>2435</v>
-      </c>
-      <c r="K39" s="80" t="s">
         <v>2436</v>
       </c>
-      <c r="L39" s="80" t="s">
-        <v>2436</v>
-      </c>
-      <c r="M39" s="80" t="s">
+      <c r="K39" s="81" t="s">
         <v>2437</v>
       </c>
-      <c r="N39" s="80" t="s">
+      <c r="L39" s="81" t="s">
+        <v>2437</v>
+      </c>
+      <c r="M39" s="81" t="s">
         <v>2438</v>
+      </c>
+      <c r="N39" s="81" t="s">
+        <v>2439</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
+        <v>2077</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E41" s="80" t="s">
-        <v>2441</v>
-      </c>
-      <c r="F41" s="80" t="s">
-        <v>2441</v>
-      </c>
-      <c r="G41" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E41" s="81" t="s">
         <v>2442</v>
       </c>
-      <c r="H41" s="80" t="s">
+      <c r="F41" s="81" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G41" s="81" t="s">
         <v>2443</v>
       </c>
+      <c r="H41" s="81" t="s">
+        <v>2444</v>
+      </c>
       <c r="I41" s="21" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>2445</v>
-      </c>
-      <c r="K41" s="80" t="s">
         <v>2446</v>
       </c>
-      <c r="L41" s="78"/>
-      <c r="M41" s="80" t="s">
+      <c r="K41" s="81" t="s">
         <v>2447</v>
       </c>
-      <c r="N41" s="80" t="s">
+      <c r="L41" s="79"/>
+      <c r="M41" s="81" t="s">
         <v>2448</v>
+      </c>
+      <c r="N41" s="81" t="s">
+        <v>2449</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E42" s="80" t="s">
-        <v>2451</v>
-      </c>
-      <c r="F42" s="80" t="s">
-        <v>2451</v>
-      </c>
-      <c r="G42" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E42" s="81" t="s">
         <v>2452</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="F42" s="81" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G42" s="81" t="s">
         <v>2453</v>
       </c>
+      <c r="H42" s="81" t="s">
+        <v>2454</v>
+      </c>
       <c r="I42" s="21" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>2455</v>
-      </c>
-      <c r="K42" s="80" t="s">
         <v>2456</v>
       </c>
-      <c r="L42" s="80" t="s">
+      <c r="K42" s="81" t="s">
         <v>2457</v>
       </c>
-      <c r="M42" s="80" t="s">
+      <c r="L42" s="81" t="s">
         <v>2458</v>
       </c>
-      <c r="N42" s="80" t="s">
+      <c r="M42" s="81" t="s">
         <v>2459</v>
+      </c>
+      <c r="N42" s="81" t="s">
+        <v>2460</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F43" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E43" s="81" t="s">
         <v>2463</v>
       </c>
-      <c r="G43" s="80" t="s">
+      <c r="F43" s="81" t="s">
         <v>2464</v>
       </c>
-      <c r="H43" s="80" t="s">
+      <c r="G43" s="81" t="s">
         <v>2465</v>
       </c>
+      <c r="H43" s="81" t="s">
+        <v>2466</v>
+      </c>
       <c r="I43" s="21" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>2467</v>
-      </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="80" t="s">
         <v>2468</v>
       </c>
-      <c r="N43" s="80" t="s">
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="81" t="s">
         <v>2469</v>
+      </c>
+      <c r="N43" s="81" t="s">
+        <v>2470</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E44" s="80" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E44" s="81" t="s">
         <v>2472</v>
       </c>
-      <c r="H44" s="80" t="s">
-        <v>2472</v>
+      <c r="F44" s="79"/>
+      <c r="G44" s="81" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H44" s="81" t="s">
+        <v>2473</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>2474</v>
-      </c>
-      <c r="K44" s="80" t="s">
         <v>2475</v>
       </c>
-      <c r="L44" s="80" t="s">
-        <v>2475</v>
-      </c>
-      <c r="M44" s="80" t="s">
+      <c r="K44" s="81" t="s">
         <v>2476</v>
       </c>
-      <c r="N44" s="80" t="s">
+      <c r="L44" s="81" t="s">
+        <v>2476</v>
+      </c>
+      <c r="M44" s="81" t="s">
         <v>2477</v>
+      </c>
+      <c r="N44" s="81" t="s">
+        <v>2478</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E45" s="80" t="s">
-        <v>2480</v>
-      </c>
-      <c r="F45" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E45" s="81" t="s">
         <v>2481</v>
       </c>
-      <c r="G45" s="80" t="s">
+      <c r="F45" s="81" t="s">
         <v>2482</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="G45" s="81" t="s">
         <v>2483</v>
       </c>
+      <c r="H45" s="81" t="s">
+        <v>2484</v>
+      </c>
       <c r="I45" s="21" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>2485</v>
-      </c>
-      <c r="K45" s="80" t="s">
         <v>2486</v>
       </c>
-      <c r="L45" s="80" t="s">
-        <v>2486</v>
-      </c>
-      <c r="M45" s="80" t="s">
+      <c r="K45" s="81" t="s">
         <v>2487</v>
       </c>
-      <c r="N45" s="80" t="s">
+      <c r="L45" s="81" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M45" s="81" t="s">
         <v>2488</v>
+      </c>
+      <c r="N45" s="81" t="s">
+        <v>2489</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E46" s="80" t="s">
-        <v>2490</v>
-      </c>
-      <c r="F46" s="80" t="s">
-        <v>2490</v>
-      </c>
-      <c r="G46" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E46" s="81" t="s">
         <v>2491</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="F46" s="81" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G46" s="81" t="s">
         <v>2492</v>
       </c>
+      <c r="H46" s="81" t="s">
+        <v>2493</v>
+      </c>
       <c r="I46" s="21" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>2494</v>
-      </c>
-      <c r="K46" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="L46" s="80" t="s">
-        <v>2495</v>
-      </c>
-      <c r="M46" s="80" t="s">
+      <c r="K46" s="81" t="s">
         <v>2496</v>
       </c>
-      <c r="N46" s="80" t="s">
+      <c r="L46" s="81" t="s">
+        <v>2496</v>
+      </c>
+      <c r="M46" s="81" t="s">
         <v>2497</v>
+      </c>
+      <c r="N46" s="81" t="s">
+        <v>2498</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>2499</v>
-      </c>
-      <c r="F47" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E47" s="81" t="s">
         <v>2500</v>
       </c>
-      <c r="G47" s="80" t="s">
-        <v>2178</v>
-      </c>
-      <c r="H47" s="80" t="s">
+      <c r="F47" s="81" t="s">
         <v>2501</v>
       </c>
+      <c r="G47" s="81" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>2502</v>
+      </c>
       <c r="I47" s="21" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K47" s="80" t="s">
         <v>2504</v>
       </c>
-      <c r="L47" s="80" t="s">
-        <v>2504</v>
-      </c>
-      <c r="M47" s="80" t="s">
-        <v>2183</v>
-      </c>
-      <c r="N47" s="80" t="s">
+      <c r="K47" s="81" t="s">
         <v>2505</v>
+      </c>
+      <c r="L47" s="81" t="s">
+        <v>2505</v>
+      </c>
+      <c r="M47" s="81" t="s">
+        <v>2184</v>
+      </c>
+      <c r="N47" s="81" t="s">
+        <v>2506</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E48" s="80" t="s">
-        <v>2508</v>
-      </c>
-      <c r="F48" s="80" t="s">
-        <v>2508</v>
-      </c>
-      <c r="G48" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E48" s="81" t="s">
         <v>2509</v>
       </c>
-      <c r="H48" s="80" t="s">
+      <c r="F48" s="81" t="s">
         <v>2509</v>
       </c>
+      <c r="G48" s="81" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H48" s="81" t="s">
+        <v>2510</v>
+      </c>
       <c r="I48" s="21" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>2511</v>
-      </c>
-      <c r="K48" s="80" t="s">
         <v>2512</v>
       </c>
-      <c r="L48" s="80" t="s">
-        <v>2512</v>
-      </c>
-      <c r="M48" s="80" t="s">
+      <c r="K48" s="81" t="s">
         <v>2513</v>
       </c>
-      <c r="N48" s="80" t="s">
+      <c r="L48" s="81" t="s">
         <v>2513</v>
+      </c>
+      <c r="M48" s="81" t="s">
+        <v>2514</v>
+      </c>
+      <c r="N48" s="81" t="s">
+        <v>2514</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E49" s="80" t="s">
-        <v>2516</v>
-      </c>
-      <c r="F49" s="80" t="s">
-        <v>2516</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>2442</v>
-      </c>
-      <c r="H49" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F49" s="81" t="s">
+        <v>2517</v>
+      </c>
+      <c r="G49" s="81" t="s">
         <v>2443</v>
       </c>
+      <c r="H49" s="81" t="s">
+        <v>2444</v>
+      </c>
       <c r="I49" s="21" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>2518</v>
-      </c>
-      <c r="K49" s="80" t="s">
         <v>2519</v>
       </c>
-      <c r="L49" s="80" t="s">
-        <v>2519</v>
-      </c>
-      <c r="M49" s="80" t="s">
+      <c r="K49" s="81" t="s">
         <v>2520</v>
       </c>
-      <c r="N49" s="80" t="s">
+      <c r="L49" s="81" t="s">
+        <v>2520</v>
+      </c>
+      <c r="M49" s="81" t="s">
         <v>2521</v>
+      </c>
+      <c r="N49" s="81" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="80" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H50" s="80" t="s">
-        <v>2523</v>
+        <v>2077</v>
+      </c>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="81" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H50" s="81" t="s">
+        <v>2524</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>2524</v>
-      </c>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="80" t="s">
         <v>2525</v>
       </c>
-      <c r="N50" s="80" t="s">
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="81" t="s">
         <v>2526</v>
+      </c>
+      <c r="N50" s="81" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E51" s="80" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F51" s="80" t="s">
-        <v>2529</v>
-      </c>
-      <c r="G51" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E51" s="81" t="s">
         <v>2530</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="F51" s="81" t="s">
         <v>2530</v>
       </c>
+      <c r="G51" s="81" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>2531</v>
+      </c>
       <c r="I51" s="21" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>2532</v>
-      </c>
-      <c r="K51" s="80" t="s">
         <v>2533</v>
       </c>
-      <c r="L51" s="80" t="s">
+      <c r="K51" s="81" t="s">
         <v>2534</v>
       </c>
-      <c r="M51" s="80" t="s">
+      <c r="L51" s="81" t="s">
         <v>2535</v>
       </c>
-      <c r="N51" s="80" t="s">
+      <c r="M51" s="81" t="s">
         <v>2536</v>
+      </c>
+      <c r="N51" s="81" t="s">
+        <v>2537</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -76175,502 +76225,502 @@
         <v>2</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E52" s="80" t="s">
-        <v>2537</v>
-      </c>
-      <c r="F52" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E52" s="81" t="s">
         <v>2538</v>
       </c>
-      <c r="G52" s="80" t="s">
+      <c r="F52" s="81" t="s">
         <v>2539</v>
       </c>
-      <c r="H52" s="80" t="s">
-        <v>2539</v>
+      <c r="G52" s="81" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H52" s="81" t="s">
+        <v>2540</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>2540</v>
-      </c>
-      <c r="K52" s="80" t="s">
         <v>2541</v>
       </c>
-      <c r="L52" s="80" t="s">
-        <v>2541</v>
-      </c>
-      <c r="M52" s="80" t="s">
+      <c r="K52" s="81" t="s">
         <v>2542</v>
       </c>
-      <c r="N52" s="80" t="s">
+      <c r="L52" s="81" t="s">
+        <v>2542</v>
+      </c>
+      <c r="M52" s="81" t="s">
         <v>2543</v>
+      </c>
+      <c r="N52" s="81" t="s">
+        <v>2544</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="80" t="s">
-        <v>2546</v>
-      </c>
-      <c r="H53" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="81" t="s">
         <v>2547</v>
       </c>
+      <c r="H53" s="81" t="s">
+        <v>2548</v>
+      </c>
       <c r="I53" s="21" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K53" s="80" t="s">
         <v>2550</v>
       </c>
-      <c r="L53" s="80" t="s">
-        <v>2550</v>
-      </c>
-      <c r="M53" s="80" t="s">
+      <c r="K53" s="81" t="s">
         <v>2551</v>
       </c>
-      <c r="N53" s="80" t="s">
+      <c r="L53" s="81" t="s">
+        <v>2551</v>
+      </c>
+      <c r="M53" s="81" t="s">
         <v>2552</v>
+      </c>
+      <c r="N53" s="81" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E54" s="80" t="s">
-        <v>2187</v>
-      </c>
-      <c r="F54" s="80" t="s">
-        <v>2187</v>
-      </c>
-      <c r="G54" s="80" t="s">
-        <v>2554</v>
-      </c>
-      <c r="H54" s="80" t="s">
-        <v>2554</v>
+        <v>2077</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F54" s="81" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G54" s="81" t="s">
+        <v>2555</v>
+      </c>
+      <c r="H54" s="81" t="s">
+        <v>2555</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>2555</v>
-      </c>
-      <c r="K54" s="80" t="s">
         <v>2556</v>
       </c>
-      <c r="L54" s="80" t="s">
-        <v>2556</v>
-      </c>
-      <c r="M54" s="80" t="s">
+      <c r="K54" s="81" t="s">
         <v>2557</v>
       </c>
-      <c r="N54" s="80" t="s">
+      <c r="L54" s="81" t="s">
+        <v>2557</v>
+      </c>
+      <c r="M54" s="81" t="s">
         <v>2558</v>
+      </c>
+      <c r="N54" s="81" t="s">
+        <v>2559</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E55" s="80" t="s">
-        <v>2561</v>
-      </c>
-      <c r="F55" s="80" t="s">
-        <v>2561</v>
-      </c>
-      <c r="G55" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E55" s="81" t="s">
         <v>2562</v>
       </c>
-      <c r="H55" s="80" t="s">
+      <c r="F55" s="81" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G55" s="81" t="s">
         <v>2563</v>
       </c>
+      <c r="H55" s="81" t="s">
+        <v>2564</v>
+      </c>
       <c r="I55" s="21" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>2565</v>
-      </c>
-      <c r="K55" s="80" t="s">
         <v>2566</v>
       </c>
-      <c r="L55" s="80" t="s">
-        <v>2566</v>
-      </c>
-      <c r="M55" s="80" t="s">
+      <c r="K55" s="81" t="s">
         <v>2567</v>
       </c>
-      <c r="N55" s="80" t="s">
+      <c r="L55" s="81" t="s">
         <v>2567</v>
+      </c>
+      <c r="M55" s="81" t="s">
+        <v>2568</v>
+      </c>
+      <c r="N55" s="81" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E56" s="80" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F56" s="80" t="s">
-        <v>2569</v>
-      </c>
-      <c r="G56" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E56" s="81" t="s">
         <v>2570</v>
       </c>
-      <c r="H56" s="80" t="s">
+      <c r="F56" s="81" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G56" s="81" t="s">
         <v>2571</v>
       </c>
+      <c r="H56" s="81" t="s">
+        <v>2572</v>
+      </c>
       <c r="I56" s="21" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>2573</v>
-      </c>
-      <c r="K56" s="80" t="s">
         <v>2574</v>
       </c>
-      <c r="L56" s="80" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M56" s="80" t="s">
+      <c r="K56" s="81" t="s">
         <v>2575</v>
       </c>
-      <c r="N56" s="80" t="s">
+      <c r="L56" s="81" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M56" s="81" t="s">
         <v>2576</v>
+      </c>
+      <c r="N56" s="81" t="s">
+        <v>2577</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E57" s="80" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F57" s="80" t="s">
-        <v>2579</v>
-      </c>
-      <c r="G57" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E57" s="81" t="s">
         <v>2580</v>
       </c>
-      <c r="H57" s="80" t="s">
+      <c r="F57" s="81" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G57" s="81" t="s">
         <v>2581</v>
       </c>
+      <c r="H57" s="81" t="s">
+        <v>2582</v>
+      </c>
       <c r="I57" s="21" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="K57" s="80" t="s">
         <v>2584</v>
       </c>
-      <c r="L57" s="80" t="s">
-        <v>2584</v>
-      </c>
-      <c r="M57" s="80" t="s">
+      <c r="K57" s="81" t="s">
         <v>2585</v>
       </c>
-      <c r="N57" s="80" t="s">
+      <c r="L57" s="81" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M57" s="81" t="s">
         <v>2586</v>
+      </c>
+      <c r="N57" s="81" t="s">
+        <v>2587</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E58" s="80" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F58" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E58" s="81" t="s">
         <v>2590</v>
       </c>
-      <c r="G58" s="80" t="s">
+      <c r="F58" s="81" t="s">
         <v>2591</v>
       </c>
-      <c r="H58" s="80" t="s">
+      <c r="G58" s="81" t="s">
         <v>2592</v>
       </c>
+      <c r="H58" s="81" t="s">
+        <v>2593</v>
+      </c>
       <c r="I58" s="21" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K58" s="80" t="s">
         <v>2595</v>
       </c>
-      <c r="L58" s="80" t="s">
-        <v>2595</v>
-      </c>
-      <c r="M58" s="80" t="s">
+      <c r="K58" s="81" t="s">
         <v>2596</v>
       </c>
-      <c r="N58" s="80" t="s">
+      <c r="L58" s="81" t="s">
         <v>2596</v>
+      </c>
+      <c r="M58" s="81" t="s">
+        <v>2597</v>
+      </c>
+      <c r="N58" s="81" t="s">
+        <v>2597</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="80" t="s">
-        <v>2599</v>
-      </c>
-      <c r="H59" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="81" t="s">
         <v>2600</v>
       </c>
+      <c r="H59" s="81" t="s">
+        <v>2601</v>
+      </c>
       <c r="I59" s="21" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="K59" s="80" t="s">
         <v>2603</v>
       </c>
-      <c r="L59" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="M59" s="80" t="s">
+      <c r="K59" s="81" t="s">
         <v>2604</v>
       </c>
-      <c r="N59" s="80" t="s">
+      <c r="L59" s="81" t="s">
         <v>2604</v>
+      </c>
+      <c r="M59" s="81" t="s">
+        <v>2605</v>
+      </c>
+      <c r="N59" s="81" t="s">
+        <v>2605</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E60" s="80" t="s">
-        <v>2606</v>
-      </c>
-      <c r="F60" s="80" t="s">
-        <v>2606</v>
-      </c>
-      <c r="G60" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E60" s="81" t="s">
         <v>2607</v>
       </c>
-      <c r="H60" s="80" t="s">
+      <c r="F60" s="81" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G60" s="81" t="s">
         <v>2608</v>
       </c>
+      <c r="H60" s="81" t="s">
+        <v>2609</v>
+      </c>
       <c r="I60" s="21" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="K60" s="80" t="s">
         <v>2610</v>
       </c>
-      <c r="L60" s="80" t="s">
-        <v>2610</v>
-      </c>
-      <c r="M60" s="80" t="s">
+      <c r="K60" s="81" t="s">
         <v>2611</v>
       </c>
-      <c r="N60" s="80" t="s">
+      <c r="L60" s="81" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M60" s="81" t="s">
         <v>2612</v>
+      </c>
+      <c r="N60" s="81" t="s">
+        <v>2613</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E61" s="80" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F61" s="80" t="s">
-        <v>2614</v>
-      </c>
-      <c r="G61" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E61" s="81" t="s">
         <v>2615</v>
       </c>
-      <c r="H61" s="80" t="s">
+      <c r="F61" s="81" t="s">
         <v>2615</v>
       </c>
+      <c r="G61" s="81" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H61" s="81" t="s">
+        <v>2616</v>
+      </c>
       <c r="I61" s="21" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>2616</v>
-      </c>
-      <c r="K61" s="80" t="s">
         <v>2617</v>
       </c>
-      <c r="L61" s="80" t="s">
-        <v>2617</v>
-      </c>
-      <c r="M61" s="80" t="s">
+      <c r="K61" s="81" t="s">
         <v>2618</v>
       </c>
-      <c r="N61" s="80" t="s">
+      <c r="L61" s="81" t="s">
         <v>2618</v>
+      </c>
+      <c r="M61" s="81" t="s">
+        <v>2619</v>
+      </c>
+      <c r="N61" s="81" t="s">
+        <v>2619</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>2620</v>
-      </c>
-      <c r="F62" s="80" t="s">
-        <v>2620</v>
-      </c>
-      <c r="G62" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E62" s="81" t="s">
         <v>2621</v>
       </c>
-      <c r="H62" s="80" t="s">
+      <c r="F62" s="81" t="s">
         <v>2621</v>
       </c>
+      <c r="G62" s="81" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H62" s="81" t="s">
+        <v>2622</v>
+      </c>
       <c r="I62" s="21" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>2623</v>
-      </c>
-      <c r="K62" s="80" t="s">
         <v>2624</v>
       </c>
-      <c r="L62" s="80" t="s">
-        <v>2624</v>
-      </c>
-      <c r="M62" s="80" t="s">
+      <c r="K62" s="81" t="s">
         <v>2625</v>
       </c>
-      <c r="N62" s="80" t="s">
+      <c r="L62" s="81" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M62" s="81" t="s">
         <v>2626</v>
+      </c>
+      <c r="N62" s="81" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E63" s="80" t="s">
-        <v>2490</v>
-      </c>
-      <c r="F63" s="80" t="s">
-        <v>2490</v>
-      </c>
-      <c r="G63" s="80" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E63" s="81" t="s">
         <v>2491</v>
       </c>
-      <c r="H63" s="80" t="s">
+      <c r="F63" s="81" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G63" s="81" t="s">
         <v>2492</v>
       </c>
+      <c r="H63" s="81" t="s">
+        <v>2493</v>
+      </c>
       <c r="I63" s="21" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>2630</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>2495</v>
-      </c>
-      <c r="L63" s="80" t="s">
-        <v>2495</v>
-      </c>
-      <c r="M63" s="80" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K63" s="81" t="s">
         <v>2496</v>
       </c>
-      <c r="N63" s="80" t="s">
+      <c r="L63" s="81" t="s">
+        <v>2496</v>
+      </c>
+      <c r="M63" s="81" t="s">
         <v>2497</v>
+      </c>
+      <c r="N63" s="81" t="s">
+        <v>2498</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
   </sheetData>
@@ -76694,7 +76744,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="AZ90 B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76704,175 +76754,175 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20"/>
-      <c r="B1" s="81" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>2635</v>
       </c>
+      <c r="C1" s="82" t="s">
+        <v>2636</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="82" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C2" s="82" t="s">
         <v>2636</v>
       </c>
-      <c r="C2" s="81" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="82" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="82" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="82" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="82" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="82" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="82" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="82" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="82" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="82" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="82" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B12" s="82" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>2638</v>
-      </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="81" t="s">
-        <v>2082</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="81" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="81" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>2646</v>
-      </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="81" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>2648</v>
-      </c>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="81" t="s">
-        <v>2649</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="81" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>2652</v>
-      </c>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="81" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>2635</v>
+      <c r="C12" s="82" t="s">
+        <v>2636</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="81" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>2655</v>
       </c>
+      <c r="B13" s="82" t="s">
+        <v>2656</v>
+      </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="81" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>2657</v>
       </c>
+      <c r="B14" s="82" t="s">
+        <v>2658</v>
+      </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="81" t="s">
-        <v>2078</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>2658</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>2635</v>
+      <c r="A15" s="82" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>2636</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="81" t="s">
-        <v>2086</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>2659</v>
+      <c r="A16" s="82" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>2660</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="81" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>2661</v>
       </c>
+      <c r="B17" s="82" t="s">
+        <v>2662</v>
+      </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="81" t="s">
-        <v>2662</v>
-      </c>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="82" t="s">
         <v>2663</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>2664</v>
       </c>
       <c r="C18" s="20"/>
     </row>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="declensions" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="abbreviations" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="scripts" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="declensions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="abbreviations" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="scripts" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9967" uniqueCount="2672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9967" uniqueCount="2673">
   <si>
     <t xml:space="preserve">inflection name</t>
   </si>
@@ -4899,7 +4899,28 @@
 sante</t>
   </si>
   <si>
-    <t xml:space="preserve">santesu</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Crimson Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">santesu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Crimson Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">sati</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">santiyaṃ
@@ -6254,6 +6275,9 @@
     <t xml:space="preserve">karissavhe</t>
   </si>
   <si>
+    <t xml:space="preserve">santesu</t>
+  </si>
+  <si>
     <t xml:space="preserve">santiyā
 santiyāṃ</t>
   </si>
@@ -9151,7 +9175,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9246,6 +9270,13 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Crimson Pro"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -9792,7 +9823,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9879,114 +9910,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -36200,14 +36125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH105" activeCellId="0" sqref="BH105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT90" activeCellId="0" sqref="AT90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53196,7 +53121,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="54.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="22"/>
       <c r="D90" s="22"/>
       <c r="F90" s="22"/>
@@ -59891,31 +59816,31 @@
         <v>597</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>1406</v>
+        <v>1778</v>
       </c>
       <c r="E132" s="48" t="s">
         <v>599</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="G132" s="49" t="s">
         <v>601</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="I132" s="49" t="s">
         <v>603</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K132" s="48" t="s">
         <v>604</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>1406</v>
+        <v>1778</v>
       </c>
       <c r="M132" s="48" t="s">
         <v>605</v>
@@ -59959,7 +59884,7 @@
         <v>626</v>
       </c>
       <c r="BR132" s="75" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="BS132" s="77" t="s">
         <v>630</v>
@@ -60004,25 +59929,25 @@
         <v>723</v>
       </c>
       <c r="CT132" s="46" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="CU132" s="19" t="s">
         <v>725</v>
       </c>
       <c r="CV132" s="46" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="CW132" s="19" t="s">
         <v>727</v>
       </c>
       <c r="CX132" s="46" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="CY132" s="19" t="s">
         <v>729</v>
       </c>
       <c r="CZ132" s="46" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="DA132" s="19" t="s">
         <v>731</v>
@@ -60033,7 +59958,7 @@
         <v>626</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C133" s="48" t="s">
         <v>628</v>
@@ -60045,7 +59970,7 @@
         <v>629</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="G133" s="49" t="s">
         <v>630</v>
@@ -60057,13 +59982,13 @@
         <v>631</v>
       </c>
       <c r="J133" s="21" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="K133" s="48" t="s">
         <v>632</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="M133" s="48" t="s">
         <v>634</v>
@@ -60092,7 +60017,7 @@
         <v>635</v>
       </c>
       <c r="BF133" s="41" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="BG133" s="56" t="s">
         <v>635</v>
@@ -60103,7 +60028,7 @@
         <v>635</v>
       </c>
       <c r="BR133" s="75" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="BS133" s="57" t="s">
         <v>635</v>
@@ -60137,7 +60062,7 @@
         <v>635</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C134" s="48" t="s">
         <v>635</v>
@@ -60317,13 +60242,13 @@
         <v>417</v>
       </c>
       <c r="BF136" s="41" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="BG136" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH136" s="41" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="BI136" s="56" t="s">
         <v>421</v>
@@ -60332,13 +60257,13 @@
         <v>417</v>
       </c>
       <c r="BR136" s="27" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="BS136" s="57" t="s">
         <v>423</v>
       </c>
       <c r="BT136" s="27" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="BU136" s="57" t="s">
         <v>425</v>
@@ -60356,7 +60281,7 @@
         <v>674</v>
       </c>
       <c r="CL136" s="59" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="CM136" s="60" t="s">
         <v>676</v>
@@ -60377,13 +60302,13 @@
         <v>672</v>
       </c>
       <c r="CT136" s="70" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="CU136" s="71" t="s">
         <v>674</v>
       </c>
       <c r="CV136" s="70" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="CW136" s="71" t="s">
         <v>676</v>
@@ -60453,13 +60378,13 @@
         <v>455</v>
       </c>
       <c r="BF137" s="41" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="BG137" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH137" s="41" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="BI137" s="56" t="s">
         <v>458</v>
@@ -60468,13 +60393,13 @@
         <v>455</v>
       </c>
       <c r="BR137" s="27" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="BS137" s="57" t="s">
         <v>459</v>
       </c>
       <c r="BT137" s="27" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="BU137" s="57" t="s">
         <v>460</v>
@@ -60498,7 +60423,7 @@
         <v>702</v>
       </c>
       <c r="CN137" s="59" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="CO137" s="60" t="s">
         <v>958</v>
@@ -60513,13 +60438,13 @@
         <v>699</v>
       </c>
       <c r="CT137" s="70" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="CU137" s="71" t="s">
         <v>700</v>
       </c>
       <c r="CV137" s="70" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="CW137" s="71" t="s">
         <v>702</v>
@@ -60589,13 +60514,13 @@
         <v>481</v>
       </c>
       <c r="BF138" s="41" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="BG138" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH138" s="41" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="BI138" s="56" t="s">
         <v>485</v>
@@ -60604,13 +60529,13 @@
         <v>481</v>
       </c>
       <c r="BR138" s="27" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="BS138" s="57" t="s">
         <v>487</v>
       </c>
       <c r="BT138" s="27" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="BU138" s="57" t="s">
         <v>489</v>
@@ -60649,13 +60574,13 @@
         <v>732</v>
       </c>
       <c r="CT138" s="70" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="CU138" s="71" t="s">
         <v>734</v>
       </c>
       <c r="CV138" s="70" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="CW138" s="71" t="s">
         <v>736</v>
@@ -60684,7 +60609,7 @@
         <v>487</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I139" s="49" t="s">
         <v>489</v>
@@ -60725,13 +60650,13 @@
         <v>518</v>
       </c>
       <c r="BF139" s="41" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="BG139" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH139" s="41" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="BI139" s="56" t="s">
         <v>522</v>
@@ -60740,13 +60665,13 @@
         <v>518</v>
       </c>
       <c r="BR139" s="27" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="BS139" s="57" t="s">
         <v>523</v>
       </c>
       <c r="BT139" s="27" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="BU139" s="57" t="s">
         <v>525</v>
@@ -60774,7 +60699,7 @@
         <v>518</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C140" s="48" t="s">
         <v>520</v>
@@ -60798,7 +60723,7 @@
         <v>525</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="K140" s="48" t="s">
         <v>526</v>
@@ -60833,13 +60758,13 @@
         <v>548</v>
       </c>
       <c r="BF140" s="41" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="BG140" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH140" s="41" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="BI140" s="56" t="s">
         <v>551</v>
@@ -60848,13 +60773,13 @@
         <v>548</v>
       </c>
       <c r="BR140" s="27" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="BS140" s="57" t="s">
         <v>552</v>
       </c>
       <c r="BT140" s="27" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="BU140" s="57" t="s">
         <v>553</v>
@@ -60886,7 +60811,7 @@
         <v>552</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I141" s="49" t="s">
         <v>553</v>
@@ -60927,13 +60852,13 @@
         <v>575</v>
       </c>
       <c r="BF141" s="41" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="BG141" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH141" s="41" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="BI141" s="56" t="s">
         <v>578</v>
@@ -60942,13 +60867,13 @@
         <v>575</v>
       </c>
       <c r="BR141" s="27" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="BS141" s="57" t="s">
         <v>579</v>
       </c>
       <c r="BT141" s="27" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="BU141" s="57" t="s">
         <v>580</v>
@@ -61059,13 +60984,13 @@
         <v>595</v>
       </c>
       <c r="BF142" s="41" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="BG142" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH142" s="41" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="BI142" s="56" t="s">
         <v>599</v>
@@ -61074,13 +60999,13 @@
         <v>595</v>
       </c>
       <c r="BR142" s="27" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="BS142" s="57" t="s">
         <v>601</v>
       </c>
       <c r="BT142" s="27" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="BU142" s="57" t="s">
         <v>603</v>
@@ -61098,7 +61023,7 @@
         <v>674</v>
       </c>
       <c r="CL142" s="59" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="CM142" s="60" t="s">
         <v>676</v>
@@ -61119,25 +61044,25 @@
         <v>443</v>
       </c>
       <c r="CT142" s="70" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="CU142" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV142" s="70" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="CW142" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX142" s="70" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="CY142" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ142" s="70" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="DA142" s="71" t="s">
         <v>451</v>
@@ -61166,7 +61091,7 @@
         <v>601</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I143" s="49" t="s">
         <v>603</v>
@@ -61207,13 +61132,13 @@
         <v>626</v>
       </c>
       <c r="BF143" s="41" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="BG143" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH143" s="41" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="BI143" s="56" t="s">
         <v>629</v>
@@ -61222,13 +61147,13 @@
         <v>626</v>
       </c>
       <c r="BR143" s="27" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="BS143" s="57" t="s">
         <v>630</v>
       </c>
       <c r="BT143" s="27" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="BU143" s="57" t="s">
         <v>631</v>
@@ -61252,7 +61177,7 @@
         <v>702</v>
       </c>
       <c r="CN143" s="59" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="CO143" s="60" t="s">
         <v>958</v>
@@ -61267,25 +61192,25 @@
         <v>469</v>
       </c>
       <c r="CT143" s="70" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="CU143" s="71" t="s">
         <v>471</v>
       </c>
       <c r="CV143" s="70" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="CW143" s="71" t="s">
         <v>473</v>
       </c>
       <c r="CX143" s="70" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="CY143" s="71" t="s">
         <v>475</v>
       </c>
       <c r="CZ143" s="70" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="DA143" s="71" t="s">
         <v>477</v>
@@ -61355,7 +61280,7 @@
         <v>635</v>
       </c>
       <c r="BF144" s="41" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="BG144" s="56" t="s">
         <v>635</v>
@@ -61366,7 +61291,7 @@
         <v>635</v>
       </c>
       <c r="BR144" s="27" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="BS144" s="57" t="s">
         <v>635</v>
@@ -61407,25 +61332,25 @@
         <v>506</v>
       </c>
       <c r="CT144" s="70" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="CU144" s="71" t="s">
         <v>508</v>
       </c>
       <c r="CV144" s="70" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="CW144" s="71" t="s">
         <v>510</v>
       </c>
       <c r="CX144" s="70" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="CY144" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CZ144" s="70" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="DA144" s="71" t="s">
         <v>513</v>
@@ -61493,25 +61418,25 @@
         <v>537</v>
       </c>
       <c r="CT145" s="46" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="CU145" s="19" t="s">
         <v>539</v>
       </c>
       <c r="CV145" s="46" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="CW145" s="19" t="s">
         <v>541</v>
       </c>
       <c r="CX145" s="46" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="CY145" s="19" t="s">
         <v>543</v>
       </c>
       <c r="CZ145" s="46" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="DA145" s="19" t="s">
         <v>545</v>
@@ -61592,25 +61517,25 @@
         <v>566</v>
       </c>
       <c r="CT146" s="46" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="CU146" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CV146" s="46" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="CW146" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CX146" s="46" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="CY146" s="19" t="s">
         <v>571</v>
       </c>
       <c r="CZ146" s="46" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="DA146" s="19" t="s">
         <v>573</v>
@@ -61701,25 +61626,25 @@
         <v>1642</v>
       </c>
       <c r="CJ147" s="59" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="CK147" s="60" t="s">
         <v>1644</v>
       </c>
       <c r="CL147" s="59" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="CM147" s="60" t="s">
         <v>1646</v>
       </c>
       <c r="CN147" s="59" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="CO147" s="73" t="s">
         <v>1647</v>
       </c>
       <c r="CP147" s="59" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="CQ147" s="73" t="s">
         <v>1649</v>
@@ -61728,25 +61653,25 @@
         <v>588</v>
       </c>
       <c r="CT147" s="46" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="CU147" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CV147" s="46" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="CW147" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CX147" s="46" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="CY147" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CZ147" s="46" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="DA147" s="19" t="s">
         <v>593</v>
@@ -61763,7 +61688,7 @@
         <v>419</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>421</v>
@@ -61787,7 +61712,7 @@
         <v>427</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="M148" s="48" t="s">
         <v>429</v>
@@ -61831,7 +61756,7 @@
         <v>455</v>
       </c>
       <c r="BL148" s="41" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="BM148" s="56" t="s">
         <v>456</v>
@@ -61849,13 +61774,13 @@
         <v>1650</v>
       </c>
       <c r="CJ148" s="59" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="CK148" s="60" t="s">
         <v>1652</v>
       </c>
       <c r="CL148" s="59" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="CM148" s="60" t="s">
         <v>1653</v>
@@ -61876,25 +61801,25 @@
         <v>617</v>
       </c>
       <c r="CT148" s="70" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="CU148" s="71" t="s">
         <v>619</v>
       </c>
       <c r="CV148" s="70" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="CW148" s="71" t="s">
         <v>621</v>
       </c>
       <c r="CX148" s="70" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="CY148" s="71" t="s">
         <v>623</v>
       </c>
       <c r="CZ148" s="70" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="DA148" s="71" t="s">
         <v>625</v>
@@ -61911,7 +61836,7 @@
         <v>456</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>458</v>
@@ -61935,7 +61860,7 @@
         <v>461</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="M149" s="48" t="s">
         <v>462</v>
@@ -62003,19 +61928,19 @@
         <v>1667</v>
       </c>
       <c r="CL149" s="59" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="CM149" s="60" t="s">
         <v>1669</v>
       </c>
       <c r="CN149" s="59" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="CO149" s="73" t="s">
         <v>1671</v>
       </c>
       <c r="CP149" s="59" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="CQ149" s="73" t="s">
         <v>1673</v>
@@ -62024,25 +61949,25 @@
         <v>641</v>
       </c>
       <c r="CT149" s="70" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="CU149" s="71" t="s">
         <v>643</v>
       </c>
       <c r="CV149" s="70" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="CW149" s="71" t="s">
         <v>645</v>
       </c>
       <c r="CX149" s="70" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="CY149" s="71" t="s">
         <v>647</v>
       </c>
       <c r="CZ149" s="70" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="DA149" s="71" t="s">
         <v>649</v>
@@ -62059,7 +61984,7 @@
         <v>483</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>485</v>
@@ -62071,7 +61996,7 @@
         <v>487</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="I150" s="49" t="s">
         <v>489</v>
@@ -62083,7 +62008,7 @@
         <v>490</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M150" s="48" t="s">
         <v>491</v>
@@ -62112,7 +62037,7 @@
         <v>518</v>
       </c>
       <c r="BF150" s="41" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="BG150" s="56" t="s">
         <v>520</v>
@@ -62127,7 +62052,7 @@
         <v>518</v>
       </c>
       <c r="BL150" s="41" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="BM150" s="56" t="s">
         <v>520</v>
@@ -62145,25 +62070,25 @@
         <v>651</v>
       </c>
       <c r="CT150" s="70" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="CU150" s="71" t="s">
         <v>653</v>
       </c>
       <c r="CV150" s="70" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="CW150" s="71" t="s">
         <v>655</v>
       </c>
       <c r="CX150" s="70" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="CY150" s="71" t="s">
         <v>657</v>
       </c>
       <c r="CZ150" s="70" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="DA150" s="71" t="s">
         <v>659</v>
@@ -62180,7 +62105,7 @@
         <v>520</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>522</v>
@@ -62192,7 +62117,7 @@
         <v>523</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="I151" s="49" t="s">
         <v>525</v>
@@ -62204,7 +62129,7 @@
         <v>526</v>
       </c>
       <c r="L151" s="21" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="M151" s="48" t="s">
         <v>527</v>
@@ -62233,7 +62158,7 @@
         <v>548</v>
       </c>
       <c r="BF151" s="41" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="BG151" s="56" t="s">
         <v>550</v>
@@ -62248,7 +62173,7 @@
         <v>548</v>
       </c>
       <c r="BL151" s="41" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="BM151" s="56" t="s">
         <v>550</v>
@@ -62266,25 +62191,25 @@
         <v>663</v>
       </c>
       <c r="CT151" s="46" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="CU151" s="19" t="s">
         <v>665</v>
       </c>
       <c r="CV151" s="46" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="CW151" s="19" t="s">
         <v>667</v>
       </c>
       <c r="CX151" s="46" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="CY151" s="19" t="s">
         <v>669</v>
       </c>
       <c r="CZ151" s="46" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="DA151" s="19" t="s">
         <v>671</v>
@@ -62295,13 +62220,13 @@
         <v>548</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C152" s="48" t="s">
         <v>550</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>551</v>
@@ -62313,19 +62238,19 @@
         <v>552</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="I152" s="49" t="s">
         <v>553</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="K152" s="48" t="s">
         <v>555</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M152" s="48" t="s">
         <v>556</v>
@@ -62354,7 +62279,7 @@
         <v>575</v>
       </c>
       <c r="BF152" s="41" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="BG152" s="56" t="s">
         <v>577</v>
@@ -62369,7 +62294,7 @@
         <v>575</v>
       </c>
       <c r="BL152" s="41" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="BM152" s="56" t="s">
         <v>577</v>
@@ -62387,25 +62312,25 @@
         <v>690</v>
       </c>
       <c r="CT152" s="46" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="CU152" s="19" t="s">
         <v>692</v>
       </c>
       <c r="CV152" s="46" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="CW152" s="19" t="s">
         <v>694</v>
       </c>
       <c r="CX152" s="46" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="CY152" s="19" t="s">
         <v>696</v>
       </c>
       <c r="CZ152" s="46" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="DA152" s="19" t="s">
         <v>698</v>
@@ -62422,7 +62347,7 @@
         <v>577</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>578</v>
@@ -62434,7 +62359,7 @@
         <v>579</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="I153" s="49" t="s">
         <v>580</v>
@@ -62446,7 +62371,7 @@
         <v>581</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="M153" s="48" t="s">
         <v>582</v>
@@ -62490,7 +62415,7 @@
         <v>595</v>
       </c>
       <c r="BL153" s="41" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="BM153" s="56" t="s">
         <v>597</v>
@@ -62508,25 +62433,25 @@
         <v>723</v>
       </c>
       <c r="CT153" s="46" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="CU153" s="19" t="s">
         <v>725</v>
       </c>
       <c r="CV153" s="46" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="CW153" s="19" t="s">
         <v>727</v>
       </c>
       <c r="CX153" s="46" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="CY153" s="19" t="s">
         <v>729</v>
       </c>
       <c r="CZ153" s="46" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="DA153" s="19" t="s">
         <v>731</v>
@@ -62543,7 +62468,7 @@
         <v>597</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>599</v>
@@ -62555,7 +62480,7 @@
         <v>601</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="I154" s="49" t="s">
         <v>603</v>
@@ -62567,7 +62492,7 @@
         <v>604</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="M154" s="48" t="s">
         <v>605</v>
@@ -62867,13 +62792,13 @@
         <v>672</v>
       </c>
       <c r="CT158" s="70" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="CU158" s="71" t="s">
         <v>674</v>
       </c>
       <c r="CV158" s="70" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="CW158" s="71" t="s">
         <v>676</v>
@@ -62884,37 +62809,37 @@
         <v>417</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C159" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E159" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G159" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="I159" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="K159" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L159" s="21" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="M159" s="48" t="s">
         <v>429</v>
@@ -62943,13 +62868,13 @@
         <v>417</v>
       </c>
       <c r="BF159" s="41" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="BG159" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH159" s="41" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="BI159" s="56" t="s">
         <v>421</v>
@@ -62964,13 +62889,13 @@
         <v>699</v>
       </c>
       <c r="CT159" s="70" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="CU159" s="71" t="s">
         <v>700</v>
       </c>
       <c r="CV159" s="70" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="CW159" s="71" t="s">
         <v>702</v>
@@ -62981,37 +62906,37 @@
         <v>455</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C160" s="48" t="s">
         <v>456</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E160" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="G160" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="I160" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="K160" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="M160" s="48" t="s">
         <v>462</v>
@@ -63040,7 +62965,7 @@
         <v>455</v>
       </c>
       <c r="BF160" s="41" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="BG160" s="56" t="s">
         <v>456</v>
@@ -63061,13 +62986,13 @@
         <v>732</v>
       </c>
       <c r="CT160" s="70" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="CU160" s="71" t="s">
         <v>734</v>
       </c>
       <c r="CV160" s="70" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="CW160" s="71" t="s">
         <v>736</v>
@@ -63078,37 +63003,37 @@
         <v>481</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C161" s="48" t="s">
         <v>483</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E161" s="48" t="s">
         <v>485</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="G161" s="49" t="s">
         <v>487</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I161" s="49" t="s">
         <v>489</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="K161" s="48" t="s">
         <v>490</v>
       </c>
       <c r="L161" s="21" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="M161" s="48" t="s">
         <v>491</v>
@@ -63165,37 +63090,37 @@
         <v>518</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C162" s="48" t="s">
         <v>520</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E162" s="48" t="s">
         <v>522</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G162" s="49" t="s">
         <v>523</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="I162" s="49" t="s">
         <v>525</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="K162" s="48" t="s">
         <v>526</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="M162" s="48" t="s">
         <v>527</v>
@@ -63230,7 +63155,7 @@
         <v>520</v>
       </c>
       <c r="BH162" s="41" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="BI162" s="56" t="s">
         <v>522</v>
@@ -63247,37 +63172,37 @@
         <v>548</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C163" s="48" t="s">
         <v>550</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E163" s="48" t="s">
         <v>551</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="G163" s="49" t="s">
         <v>552</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I163" s="49" t="s">
         <v>553</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="K163" s="48" t="s">
         <v>555</v>
       </c>
       <c r="L163" s="21" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="M163" s="48" t="s">
         <v>556</v>
@@ -63306,7 +63231,7 @@
         <v>548</v>
       </c>
       <c r="BF163" s="41" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="BG163" s="56" t="s">
         <v>550</v>
@@ -63348,37 +63273,37 @@
         <v>575</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C164" s="48" t="s">
         <v>577</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E164" s="48" t="s">
         <v>578</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G164" s="49" t="s">
         <v>579</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="I164" s="49" t="s">
         <v>580</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="K164" s="48" t="s">
         <v>581</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="M164" s="48" t="s">
         <v>582</v>
@@ -63413,7 +63338,7 @@
         <v>577</v>
       </c>
       <c r="BH164" s="41" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="BI164" s="56" t="s">
         <v>578</v>
@@ -63449,37 +63374,37 @@
         <v>595</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C165" s="48" t="s">
         <v>597</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>599</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="G165" s="49" t="s">
         <v>601</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="I165" s="49" t="s">
         <v>603</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="K165" s="48" t="s">
         <v>604</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="M165" s="48" t="s">
         <v>605</v>
@@ -63508,13 +63433,13 @@
         <v>595</v>
       </c>
       <c r="BF165" s="41" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="BG165" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH165" s="41" t="s">
-        <v>1406</v>
+        <v>1778</v>
       </c>
       <c r="BI165" s="56" t="s">
         <v>599</v>
@@ -63550,7 +63475,7 @@
         <v>635</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C166" s="48" t="s">
         <v>635</v>
@@ -63589,13 +63514,13 @@
         <v>626</v>
       </c>
       <c r="BF166" s="41" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="BG166" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH166" s="41" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="BI166" s="56" t="s">
         <v>629</v>
@@ -63664,7 +63589,7 @@
         <v>635</v>
       </c>
       <c r="BF167" s="41" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="BG167" s="56" t="s">
         <v>635</v>
@@ -63757,13 +63682,13 @@
         <v>569</v>
       </c>
       <c r="CX168" s="46" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="CY168" s="19" t="s">
         <v>571</v>
       </c>
       <c r="CZ168" s="46" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="DA168" s="19" t="s">
         <v>573</v>
@@ -63856,7 +63781,7 @@
         <v>591</v>
       </c>
       <c r="CZ169" s="46" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="DA169" s="19" t="s">
         <v>593</v>
@@ -63926,13 +63851,13 @@
         <v>417</v>
       </c>
       <c r="BF170" s="41" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="BG170" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH170" s="41" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="BI170" s="56" t="s">
         <v>421</v>
@@ -63947,7 +63872,7 @@
         <v>617</v>
       </c>
       <c r="CT170" s="70" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="CU170" s="71" t="s">
         <v>619</v>
@@ -64035,13 +63960,13 @@
         <v>455</v>
       </c>
       <c r="BF171" s="41" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="BG171" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH171" s="41" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="BI171" s="56" t="s">
         <v>458</v>
@@ -64056,13 +63981,13 @@
         <v>641</v>
       </c>
       <c r="CT171" s="70" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="CU171" s="71" t="s">
         <v>643</v>
       </c>
       <c r="CV171" s="70" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="CW171" s="71" t="s">
         <v>645</v>
@@ -64144,13 +64069,13 @@
         <v>481</v>
       </c>
       <c r="BF172" s="41" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="BG172" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH172" s="41" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="BI172" s="56" t="s">
         <v>485</v>
@@ -64165,13 +64090,13 @@
         <v>651</v>
       </c>
       <c r="CT172" s="70" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="CU172" s="71" t="s">
         <v>653</v>
       </c>
       <c r="CV172" s="70" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="CW172" s="71" t="s">
         <v>655</v>
@@ -64253,13 +64178,13 @@
         <v>518</v>
       </c>
       <c r="BF173" s="41" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="BG173" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH173" s="41" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="BI173" s="56" t="s">
         <v>522</v>
@@ -64274,25 +64199,25 @@
         <v>663</v>
       </c>
       <c r="CT173" s="46" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="CU173" s="19" t="s">
         <v>665</v>
       </c>
       <c r="CV173" s="46" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="CW173" s="19" t="s">
         <v>667</v>
       </c>
       <c r="CX173" s="46" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="CY173" s="19" t="s">
         <v>669</v>
       </c>
       <c r="CZ173" s="46" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="DA173" s="19" t="s">
         <v>671</v>
@@ -64362,13 +64287,13 @@
         <v>548</v>
       </c>
       <c r="BF174" s="41" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="BG174" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH174" s="41" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="BI174" s="56" t="s">
         <v>551</v>
@@ -64383,25 +64308,25 @@
         <v>690</v>
       </c>
       <c r="CT174" s="46" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="CU174" s="19" t="s">
         <v>692</v>
       </c>
       <c r="CV174" s="46" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="CW174" s="19" t="s">
         <v>694</v>
       </c>
       <c r="CX174" s="46" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="CY174" s="19" t="s">
         <v>696</v>
       </c>
       <c r="CZ174" s="46" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="DA174" s="19" t="s">
         <v>698</v>
@@ -64471,13 +64396,13 @@
         <v>575</v>
       </c>
       <c r="BF175" s="41" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="BG175" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH175" s="41" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="BI175" s="56" t="s">
         <v>578</v>
@@ -64492,25 +64417,25 @@
         <v>723</v>
       </c>
       <c r="CT175" s="46" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="CU175" s="19" t="s">
         <v>725</v>
       </c>
       <c r="CV175" s="46" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="CW175" s="19" t="s">
         <v>727</v>
       </c>
       <c r="CX175" s="46" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="CY175" s="19" t="s">
         <v>729</v>
       </c>
       <c r="CZ175" s="46" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="DA175" s="19" t="s">
         <v>731</v>
@@ -64580,13 +64505,13 @@
         <v>595</v>
       </c>
       <c r="BF176" s="41" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="BG176" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH176" s="41" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="BI176" s="56" t="s">
         <v>599</v>
@@ -64671,13 +64596,13 @@
         <v>626</v>
       </c>
       <c r="BF177" s="41" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="BG177" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH177" s="41" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="BI177" s="56" t="s">
         <v>629</v>
@@ -64733,7 +64658,7 @@
         <v>635</v>
       </c>
       <c r="BF178" s="41" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="BG178" s="56" t="s">
         <v>635</v>
@@ -64798,13 +64723,13 @@
         <v>672</v>
       </c>
       <c r="CT179" s="70" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="CU179" s="71" t="s">
         <v>674</v>
       </c>
       <c r="CV179" s="70" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="CW179" s="71" t="s">
         <v>676</v>
@@ -64883,7 +64808,7 @@
         <v>700</v>
       </c>
       <c r="CV180" s="70" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="CW180" s="71" t="s">
         <v>702</v>
@@ -64974,7 +64899,7 @@
         <v>732</v>
       </c>
       <c r="CT181" s="70" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="CU181" s="71" t="s">
         <v>734</v>
@@ -65094,7 +65019,7 @@
         <v>487</v>
       </c>
       <c r="H183" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I183" s="49" t="s">
         <v>489</v>
@@ -65135,7 +65060,7 @@
         <v>481</v>
       </c>
       <c r="BF183" s="41" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="BG183" s="56" t="s">
         <v>483</v>
@@ -65217,7 +65142,7 @@
         <v>518</v>
       </c>
       <c r="BF184" s="41" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="BG184" s="56" t="s">
         <v>520</v>
@@ -65277,7 +65202,7 @@
         <v>552</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I185" s="49" t="s">
         <v>553</v>
@@ -65318,7 +65243,7 @@
         <v>548</v>
       </c>
       <c r="BF185" s="41" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="BG185" s="56" t="s">
         <v>550</v>
@@ -65344,13 +65269,13 @@
         <v>617</v>
       </c>
       <c r="CT185" s="62" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="CU185" s="63" t="s">
         <v>619</v>
       </c>
       <c r="CV185" s="62" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="CW185" s="63" t="s">
         <v>621</v>
@@ -65430,7 +65355,7 @@
         <v>575</v>
       </c>
       <c r="BF186" s="41" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="BG186" s="56" t="s">
         <v>577</v>
@@ -65456,7 +65381,7 @@
         <v>641</v>
       </c>
       <c r="CT186" s="62" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="CU186" s="63" t="s">
         <v>643</v>
@@ -65499,7 +65424,7 @@
         <v>601</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I187" s="49" t="s">
         <v>603</v>
@@ -65540,7 +65465,7 @@
         <v>595</v>
       </c>
       <c r="BF187" s="41" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="BG187" s="56" t="s">
         <v>597</v>
@@ -65566,13 +65491,13 @@
         <v>651</v>
       </c>
       <c r="CT187" s="62" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="CU187" s="63" t="s">
         <v>653</v>
       </c>
       <c r="CV187" s="62" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="CW187" s="63" t="s">
         <v>655</v>
@@ -65650,13 +65575,13 @@
         <v>626</v>
       </c>
       <c r="BF188" s="41" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="BG188" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH188" s="41" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="BI188" s="56" t="s">
         <v>629</v>
@@ -65726,7 +65651,7 @@
         <v>635</v>
       </c>
       <c r="BF189" s="41" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="BG189" s="56" t="s">
         <v>635</v>
@@ -65889,25 +65814,25 @@
         <v>443</v>
       </c>
       <c r="CT191" s="70" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="CU191" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV191" s="70" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="CW191" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX191" s="70" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="CY191" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ191" s="70" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="DA191" s="71" t="s">
         <v>451</v>
@@ -65977,7 +65902,7 @@
         <v>417</v>
       </c>
       <c r="BF192" s="41" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="BG192" s="56" t="s">
         <v>419</v>
@@ -66001,25 +65926,25 @@
         <v>469</v>
       </c>
       <c r="CT192" s="70" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="CU192" s="71" t="s">
         <v>471</v>
       </c>
       <c r="CV192" s="70" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="CW192" s="71" t="s">
         <v>473</v>
       </c>
       <c r="CX192" s="70" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="CY192" s="71" t="s">
         <v>475</v>
       </c>
       <c r="CZ192" s="70" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="DA192" s="71" t="s">
         <v>477</v>
@@ -66089,7 +66014,7 @@
         <v>455</v>
       </c>
       <c r="BF193" s="41" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="BG193" s="56" t="s">
         <v>456</v>
@@ -66113,25 +66038,25 @@
         <v>506</v>
       </c>
       <c r="CT193" s="70" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="CU193" s="71" t="s">
         <v>508</v>
       </c>
       <c r="CV193" s="70" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CW193" s="71" t="s">
         <v>510</v>
       </c>
       <c r="CX193" s="70" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="CY193" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CZ193" s="70" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="DA193" s="71" t="s">
         <v>513</v>
@@ -66160,7 +66085,7 @@
         <v>487</v>
       </c>
       <c r="H194" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I194" s="49" t="s">
         <v>489</v>
@@ -66223,25 +66148,25 @@
         <v>537</v>
       </c>
       <c r="CT194" s="46" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="CU194" s="19" t="s">
         <v>539</v>
       </c>
       <c r="CV194" s="46" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="CW194" s="19" t="s">
         <v>541</v>
       </c>
       <c r="CX194" s="46" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="CY194" s="19" t="s">
         <v>543</v>
       </c>
       <c r="CZ194" s="46" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="DA194" s="19" t="s">
         <v>545</v>
@@ -66252,7 +66177,7 @@
         <v>518</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C195" s="48" t="s">
         <v>520</v>
@@ -66276,7 +66201,7 @@
         <v>525</v>
       </c>
       <c r="J195" s="21" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="K195" s="48" t="s">
         <v>526</v>
@@ -66333,25 +66258,25 @@
         <v>566</v>
       </c>
       <c r="CT195" s="46" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="CU195" s="19" t="s">
         <v>568</v>
       </c>
       <c r="CV195" s="46" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="CW195" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CX195" s="46" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="CY195" s="19" t="s">
         <v>571</v>
       </c>
       <c r="CZ195" s="46" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="DA195" s="19" t="s">
         <v>573</v>
@@ -66380,7 +66305,7 @@
         <v>552</v>
       </c>
       <c r="H196" s="37" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I196" s="49" t="s">
         <v>553</v>
@@ -66443,25 +66368,25 @@
         <v>588</v>
       </c>
       <c r="CT196" s="46" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="CU196" s="19" t="s">
         <v>589</v>
       </c>
       <c r="CV196" s="46" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CW196" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CX196" s="46" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="CY196" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CZ196" s="46" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="DA196" s="19" t="s">
         <v>593</v>
@@ -66553,25 +66478,25 @@
         <v>617</v>
       </c>
       <c r="CT197" s="70" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="CU197" s="71" t="s">
         <v>619</v>
       </c>
       <c r="CV197" s="70" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="CW197" s="71" t="s">
         <v>621</v>
       </c>
       <c r="CX197" s="70" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="CY197" s="71" t="s">
         <v>623</v>
       </c>
       <c r="CZ197" s="70" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="DA197" s="71" t="s">
         <v>625</v>
@@ -66600,7 +66525,7 @@
         <v>601</v>
       </c>
       <c r="H198" s="37" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I198" s="49" t="s">
         <v>603</v>
@@ -66663,25 +66588,25 @@
         <v>641</v>
       </c>
       <c r="CT198" s="70" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="CU198" s="71" t="s">
         <v>643</v>
       </c>
       <c r="CV198" s="70" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="CW198" s="71" t="s">
         <v>645</v>
       </c>
       <c r="CX198" s="70" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="CY198" s="71" t="s">
         <v>647</v>
       </c>
       <c r="CZ198" s="70" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="DA198" s="71" t="s">
         <v>649</v>
@@ -66773,25 +66698,25 @@
         <v>651</v>
       </c>
       <c r="CT199" s="70" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="CU199" s="71" t="s">
         <v>653</v>
       </c>
       <c r="CV199" s="70" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="CW199" s="71" t="s">
         <v>655</v>
       </c>
       <c r="CX199" s="70" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="CY199" s="71" t="s">
         <v>657</v>
       </c>
       <c r="CZ199" s="70" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="DA199" s="71" t="s">
         <v>659</v>
@@ -66972,25 +66897,25 @@
         <v>672</v>
       </c>
       <c r="CT202" s="70" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="CU202" s="71" t="s">
         <v>674</v>
       </c>
       <c r="CV202" s="70" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="CW202" s="71" t="s">
         <v>676</v>
       </c>
       <c r="CX202" s="70" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="CY202" s="71" t="s">
         <v>944</v>
       </c>
       <c r="CZ202" s="70" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="DA202" s="71" t="s">
         <v>946</v>
@@ -67053,25 +66978,25 @@
         <v>699</v>
       </c>
       <c r="CT203" s="70" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="CU203" s="71" t="s">
         <v>700</v>
       </c>
       <c r="CV203" s="70" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="CW203" s="71" t="s">
         <v>702</v>
       </c>
       <c r="CX203" s="70" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="CY203" s="71" t="s">
         <v>958</v>
       </c>
       <c r="CZ203" s="70" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="DA203" s="71" t="s">
         <v>960</v>
@@ -67134,25 +67059,25 @@
         <v>732</v>
       </c>
       <c r="CT204" s="70" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="CU204" s="71" t="s">
         <v>734</v>
       </c>
       <c r="CV204" s="70" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="CW204" s="71" t="s">
         <v>736</v>
       </c>
       <c r="CX204" s="70" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="CY204" s="71" t="s">
         <v>973</v>
       </c>
       <c r="CZ204" s="70" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="DA204" s="71" t="s">
         <v>975</v>
@@ -67727,13 +67652,13 @@
         <v>417</v>
       </c>
       <c r="BF214" s="41" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="BG214" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH214" s="41" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="BI214" s="56" t="s">
         <v>421</v>
@@ -67781,13 +67706,13 @@
         <v>455</v>
       </c>
       <c r="BF215" s="41" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="BG215" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH215" s="41" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="BI215" s="56" t="s">
         <v>458</v>
@@ -67835,13 +67760,13 @@
         <v>481</v>
       </c>
       <c r="BF216" s="41" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="BG216" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH216" s="41" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="BI216" s="56" t="s">
         <v>485</v>
@@ -67889,13 +67814,13 @@
         <v>518</v>
       </c>
       <c r="BF217" s="41" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG217" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH217" s="41" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="BI217" s="56" t="s">
         <v>522</v>
@@ -67943,13 +67868,13 @@
         <v>548</v>
       </c>
       <c r="BF218" s="41" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="BG218" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH218" s="41" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="BI218" s="56" t="s">
         <v>551</v>
@@ -67997,13 +67922,13 @@
         <v>575</v>
       </c>
       <c r="BF219" s="41" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG219" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH219" s="41" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="BI219" s="56" t="s">
         <v>578</v>
@@ -68046,13 +67971,13 @@
         <v>595</v>
       </c>
       <c r="BF220" s="41" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="BG220" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH220" s="41" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="BI220" s="56" t="s">
         <v>599</v>
@@ -68095,13 +68020,13 @@
         <v>626</v>
       </c>
       <c r="BF221" s="41" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="BG221" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH221" s="41" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="BI221" s="56" t="s">
         <v>629</v>
@@ -68144,7 +68069,7 @@
         <v>635</v>
       </c>
       <c r="BF222" s="41" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="BG222" s="56" t="s">
         <v>635</v>
@@ -68271,13 +68196,13 @@
         <v>417</v>
       </c>
       <c r="BF225" s="41" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="BG225" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH225" s="41" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="BI225" s="56" t="s">
         <v>421</v>
@@ -68320,13 +68245,13 @@
         <v>455</v>
       </c>
       <c r="BF226" s="41" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="BG226" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH226" s="41" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="BI226" s="56" t="s">
         <v>458</v>
@@ -68369,13 +68294,13 @@
         <v>481</v>
       </c>
       <c r="BF227" s="41" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="BG227" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH227" s="41" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="BI227" s="56" t="s">
         <v>485</v>
@@ -68418,13 +68343,13 @@
         <v>518</v>
       </c>
       <c r="BF228" s="41" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="BG228" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH228" s="41" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="BI228" s="56" t="s">
         <v>522</v>
@@ -68467,13 +68392,13 @@
         <v>548</v>
       </c>
       <c r="BF229" s="41" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="BG229" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH229" s="41" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="BI229" s="56" t="s">
         <v>551</v>
@@ -68516,13 +68441,13 @@
         <v>575</v>
       </c>
       <c r="BF230" s="41" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="BG230" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH230" s="41" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="BI230" s="56" t="s">
         <v>578</v>
@@ -68565,13 +68490,13 @@
         <v>595</v>
       </c>
       <c r="BF231" s="41" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="BG231" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH231" s="41" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="BI231" s="56" t="s">
         <v>599</v>
@@ -68614,13 +68539,13 @@
         <v>626</v>
       </c>
       <c r="BF232" s="41" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="BG232" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH232" s="41" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="BI232" s="56" t="s">
         <v>629</v>
@@ -68663,7 +68588,7 @@
         <v>635</v>
       </c>
       <c r="BF233" s="41" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="BG233" s="56" t="s">
         <v>635</v>
@@ -68790,13 +68715,13 @@
         <v>417</v>
       </c>
       <c r="BF236" s="41" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="BG236" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH236" s="41" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="BI236" s="56" t="s">
         <v>421</v>
@@ -68839,13 +68764,13 @@
         <v>455</v>
       </c>
       <c r="BF237" s="41" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="BG237" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH237" s="41" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="BI237" s="56" t="s">
         <v>458</v>
@@ -68888,13 +68813,13 @@
         <v>481</v>
       </c>
       <c r="BF238" s="41" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="BG238" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH238" s="41" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="BI238" s="56" t="s">
         <v>485</v>
@@ -68937,13 +68862,13 @@
         <v>518</v>
       </c>
       <c r="BF239" s="41" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="BG239" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH239" s="41" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="BI239" s="56" t="s">
         <v>522</v>
@@ -68986,13 +68911,13 @@
         <v>548</v>
       </c>
       <c r="BF240" s="41" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="BG240" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH240" s="41" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="BI240" s="56" t="s">
         <v>551</v>
@@ -69035,13 +68960,13 @@
         <v>575</v>
       </c>
       <c r="BF241" s="41" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="BG241" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH241" s="41" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="BI241" s="56" t="s">
         <v>578</v>
@@ -69084,13 +69009,13 @@
         <v>595</v>
       </c>
       <c r="BF242" s="41" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="BG242" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH242" s="41" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="BI242" s="56" t="s">
         <v>599</v>
@@ -69133,13 +69058,13 @@
         <v>626</v>
       </c>
       <c r="BF243" s="41" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="BG243" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH243" s="41" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BI243" s="56" t="s">
         <v>629</v>
@@ -69182,7 +69107,7 @@
         <v>635</v>
       </c>
       <c r="BF244" s="41" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="BG244" s="56" t="s">
         <v>635</v>
@@ -69652,7 +69577,7 @@
         <v>626</v>
       </c>
       <c r="BF254" s="41" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="BG254" s="56" t="s">
         <v>628</v>
@@ -69875,7 +69800,7 @@
         <v>455</v>
       </c>
       <c r="BF259" s="41" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="BG259" s="56" t="s">
         <v>456</v>
@@ -69967,7 +69892,7 @@
         <v>518</v>
       </c>
       <c r="BF261" s="41" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="BG261" s="56" t="s">
         <v>520</v>
@@ -70046,7 +69971,7 @@
         <v>575</v>
       </c>
       <c r="BF263" s="41" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="BG263" s="56" t="s">
         <v>577</v>
@@ -70083,7 +70008,7 @@
         <v>595</v>
       </c>
       <c r="BF264" s="41" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="BG264" s="56" t="s">
         <v>597</v>
@@ -70254,13 +70179,13 @@
         <v>417</v>
       </c>
       <c r="BF269" s="41" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="BG269" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH269" s="41" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="BI269" s="56" t="s">
         <v>421</v>
@@ -70293,13 +70218,13 @@
         <v>455</v>
       </c>
       <c r="BF270" s="41" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="BG270" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH270" s="41" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="BI270" s="56" t="s">
         <v>458</v>
@@ -70332,13 +70257,13 @@
         <v>481</v>
       </c>
       <c r="BF271" s="41" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="BG271" s="56" t="s">
         <v>483</v>
       </c>
       <c r="BH271" s="41" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="BI271" s="56" t="s">
         <v>485</v>
@@ -70371,13 +70296,13 @@
         <v>518</v>
       </c>
       <c r="BF272" s="41" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="BG272" s="56" t="s">
         <v>520</v>
       </c>
       <c r="BH272" s="41" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="BI272" s="56" t="s">
         <v>522</v>
@@ -70410,13 +70335,13 @@
         <v>548</v>
       </c>
       <c r="BF273" s="41" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BG273" s="56" t="s">
         <v>550</v>
       </c>
       <c r="BH273" s="41" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="BI273" s="56" t="s">
         <v>551</v>
@@ -70449,13 +70374,13 @@
         <v>575</v>
       </c>
       <c r="BF274" s="41" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="BG274" s="56" t="s">
         <v>577</v>
       </c>
       <c r="BH274" s="41" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="BI274" s="56" t="s">
         <v>578</v>
@@ -70488,13 +70413,13 @@
         <v>595</v>
       </c>
       <c r="BF275" s="41" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="BG275" s="56" t="s">
         <v>597</v>
       </c>
       <c r="BH275" s="41" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="BI275" s="56" t="s">
         <v>599</v>
@@ -70527,13 +70452,13 @@
         <v>626</v>
       </c>
       <c r="BF276" s="41" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="BG276" s="56" t="s">
         <v>628</v>
       </c>
       <c r="BH276" s="41" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="BI276" s="56" t="s">
         <v>629</v>
@@ -70566,7 +70491,7 @@
         <v>635</v>
       </c>
       <c r="BF277" s="41" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="BG277" s="56" t="s">
         <v>635</v>
@@ -70759,7 +70684,7 @@
         <v>518</v>
       </c>
       <c r="BF283" s="41" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="BG283" s="56" t="s">
         <v>520</v>
@@ -70805,7 +70730,7 @@
         <v>575</v>
       </c>
       <c r="BF285" s="41" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="BG285" s="56" t="s">
         <v>577</v>
@@ -71440,7 +71365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -71457,7 +71382,7 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="26.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="20" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="22.76"/>
@@ -71471,46 +71396,46 @@
   <sheetData>
     <row r="1" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="H1" s="81" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="M1" s="81" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="AMI1" s="20"/>
       <c r="AMJ1" s="20"/>
@@ -71520,40 +71445,40 @@
         <v>417</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71561,40 +71486,40 @@
         <v>455</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71602,40 +71527,40 @@
         <v>481</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="J4" s="82" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M4" s="83" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71643,40 +71568,40 @@
         <v>518</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="I5" s="82" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="M5" s="83" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71684,40 +71609,40 @@
         <v>548</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71725,40 +71650,40 @@
         <v>575</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71766,40 +71691,40 @@
         <v>595</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71807,40 +71732,40 @@
         <v>626</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71848,202 +71773,202 @@
         <v>635</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="J10" s="82" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="N10" s="83" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="L12" s="83" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="N12" s="83" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="I13" s="82" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J13" s="82" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="K13" s="83" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="L13" s="83" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="N13" s="83" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="I14" s="82" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="K14" s="83" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="I15" s="82" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="J15" s="82" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="K15" s="83" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="L15" s="83" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="N15" s="83" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72052,40 +71977,40 @@
         <v>413</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72093,40 +72018,40 @@
         <v>414</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72137,597 +72062,597 @@
         <v>1298</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="J19" s="82" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="N19" s="83" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="G21" s="83" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="L21" s="83" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="N21" s="83" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="J22" s="82" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="L22" s="83" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="83" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="J24" s="82" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="K24" s="83" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="L24" s="83" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="M24" s="83" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="N24" s="83" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="K25" s="83" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="L25" s="83" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="M25" s="83" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="N25" s="83" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="J26" s="82" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="F27" s="83" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="I27" s="82" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J27" s="82" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="K27" s="83" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="L27" s="83" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M27" s="83" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="N27" s="83" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G28" s="83" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="I28" s="82" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="J28" s="82" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="K28" s="83" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="N28" s="83" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="J29" s="82" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="K29" s="83" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="L29" s="83" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="M29" s="83" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="N29" s="83" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="J30" s="82" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="K30" s="83" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="L30" s="83" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M30" s="83" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="I31" s="82" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="J31" s="82" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="K31" s="83" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="M31" s="83" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="N31" s="83" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="F33" s="83" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="I33" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="82" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="K33" s="83" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="L33" s="83" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="M33" s="83" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="N33" s="83" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="I34" s="20" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="82" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="G35" s="83" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="I35" s="20" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="82" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="K35" s="83" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="L35" s="83" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="M35" s="83" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="N35" s="83" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72736,542 +72661,542 @@
         <v>32</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="G37" s="83" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="I37" s="82" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="J37" s="82" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="M37" s="83" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="N37" s="83" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="I38" s="82" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="82" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="F39" s="83" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="G39" s="83" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="H39" s="83" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="I39" s="82" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="J39" s="82" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="K39" s="83" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="L39" s="83" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="N39" s="83" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="82" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="B41" s="82" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="G41" s="83" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="H41" s="83" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="I41" s="82" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="J41" s="82" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="K41" s="83" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="M41" s="83" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="N41" s="83" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="82" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="B42" s="82" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="J42" s="82" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="K42" s="83" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="L42" s="83" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="N42" s="83" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="82" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="B43" s="82" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="G43" s="83" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="H43" s="83" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="I43" s="82" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="J43" s="82" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="M43" s="83" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="N43" s="83" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="82" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="G44" s="83" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="H44" s="83" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="K44" s="83" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="L44" s="83" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="M44" s="83" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="N44" s="83" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="82" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B45" s="82" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="F45" s="83" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="G45" s="83" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="I45" s="82" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="J45" s="82" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="K45" s="83" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="L45" s="83" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="M45" s="83" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="N45" s="83" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="82" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="J46" s="82" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="82" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B47" s="82" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="F47" s="83" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="I47" s="82" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="J47" s="82" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="L47" s="83" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="M47" s="83" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="N47" s="83" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="82" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="F48" s="83" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="G48" s="83" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="J48" s="82" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="K48" s="83" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="L48" s="83" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="M48" s="83" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="N48" s="83" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="82" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="F49" s="83" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="G49" s="83" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="I49" s="82" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="J49" s="82" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="K49" s="83" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="L49" s="83" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="M49" s="83" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="N49" s="83" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="82" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="G50" s="83" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="I50" s="82" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="J50" s="82" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="M50" s="83" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="82" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="F51" s="83" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="J51" s="82" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="K51" s="83" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="L51" s="83" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="M51" s="83" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="N51" s="83" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -73282,498 +73207,498 @@
         <v>2</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E52" s="83" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="F52" s="83" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="G52" s="83" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="K52" s="83" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="L52" s="83" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="N52" s="83" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="82" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B53" s="82" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="G53" s="83" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="H53" s="83" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="I53" s="82" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="J53" s="82" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="K53" s="83" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="L53" s="83" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="M53" s="83" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="N53" s="83" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="82" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B54" s="82" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="I54" s="82" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="N54" s="83" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="82" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B55" s="82" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E55" s="83" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="H55" s="83" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="I55" s="82" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="J55" s="82" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="K55" s="83" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="L55" s="83" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="M55" s="83" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="N55" s="83" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="82" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="F56" s="83" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="G56" s="83" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="H56" s="83" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="I56" s="82" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="J56" s="82" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="K56" s="83" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="L56" s="83" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="M56" s="83" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="N56" s="83" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="82" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="F57" s="83" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="G57" s="83" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="H57" s="83" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="I57" s="82" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="J57" s="82" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="K57" s="83" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="L57" s="83" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="M57" s="83" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="N57" s="83" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="82" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="I58" s="82" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="J58" s="82" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="N58" s="83" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="82" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="B59" s="82" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="G59" s="83" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="H59" s="83" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="I59" s="82" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="J59" s="82" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="K59" s="83" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="L59" s="83" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="M59" s="83" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="N59" s="83" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="82" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="F60" s="83" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="G60" s="83" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="H60" s="83" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="I60" s="82" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="J60" s="82" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="K60" s="83" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="L60" s="83" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="M60" s="83" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="N60" s="83" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="82" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="B61" s="82" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F61" s="83" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="H61" s="83" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="I61" s="82" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="J61" s="82" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="K61" s="83" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="L61" s="83" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="M61" s="83" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="N61" s="83" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="82" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="B62" s="82" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="F62" s="83" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="G62" s="83" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="I62" s="82" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="J62" s="82" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K62" s="83" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="L62" s="83" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="M62" s="83" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="N62" s="83" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="82" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="B63" s="82" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="F63" s="83" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G63" s="83" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="I63" s="82" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="J63" s="82" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="K63" s="83" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="L63" s="83" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="M63" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N63" s="83" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="82" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C64" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="82" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
   </sheetData>
@@ -73788,7 +73713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -73808,174 +73733,174 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="84" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="84" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B2" s="84" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>2644</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>2643</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="84" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="84" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="84" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="84" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="84" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="84" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="84" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="84" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="84" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="84" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="84" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="84" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="84" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="84" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="84" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="C18" s="2"/>
     </row>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -36232,8 +36232,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY92" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF97" activeCellId="0" sqref="BF97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J104" activeCellId="0" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55618,7 +55618,7 @@
         <v>461</v>
       </c>
       <c r="L104" s="21" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="M104" s="48" t="s">
         <v>463</v>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -4470,7 +4470,8 @@
     <t xml:space="preserve">ū</t>
   </si>
   <si>
-    <t xml:space="preserve">esuṃ</t>
+    <t xml:space="preserve">esiṃsu
+esuṃ</t>
   </si>
   <si>
     <t xml:space="preserve">perf 3rd</t>
@@ -36232,8 +36233,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J104" activeCellId="0" sqref="J104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD66" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CL70" activeCellId="0" sqref="CL70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -2703,7 +2703,8 @@
 usmiṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">ūsu</t>
+    <t xml:space="preserve">usu
+ūsu</t>
   </si>
   <si>
     <t xml:space="preserve">emi</t>
@@ -3592,8 +3593,7 @@
     <t xml:space="preserve">atīsu</t>
   </si>
   <si>
-    <t xml:space="preserve">usu
-ūsu</t>
+    <t xml:space="preserve">ūsu</t>
   </si>
   <si>
     <t xml:space="preserve">uyā
@@ -36233,8 +36233,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD66" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CL70" activeCellId="0" sqref="CL70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BW16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CF21" activeCellId="0" sqref="CF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44843,7 +44843,7 @@
         <v>598</v>
       </c>
       <c r="BH43" s="41" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="BI43" s="56" t="s">
         <v>600</v>
@@ -44852,7 +44852,7 @@
         <v>596</v>
       </c>
       <c r="BL43" s="41" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="BM43" s="56" t="s">
         <v>600</v>
@@ -44867,7 +44867,7 @@
         <v>602</v>
       </c>
       <c r="BT43" s="27" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="BU43" s="57" t="s">
         <v>604</v>
@@ -44876,7 +44876,7 @@
         <v>602</v>
       </c>
       <c r="BX43" s="27" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="BY43" s="57" t="s">
         <v>604</v>
@@ -48821,7 +48821,7 @@
         <v>598</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="E65" s="48" t="s">
         <v>600</v>
@@ -48833,7 +48833,7 @@
         <v>602</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="I65" s="49" t="s">
         <v>604</v>
@@ -48845,7 +48845,7 @@
         <v>605</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="M65" s="48" t="s">
         <v>606</v>
@@ -50868,7 +50868,7 @@
         <v>602</v>
       </c>
       <c r="BT76" s="27" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="BU76" s="57" t="s">
         <v>604</v>
@@ -52647,7 +52647,7 @@
         <v>598</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="E87" s="48" t="s">
         <v>600</v>
@@ -52671,7 +52671,7 @@
         <v>605</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="M87" s="48" t="s">
         <v>606</v>
@@ -52771,7 +52771,7 @@
         <v>598</v>
       </c>
       <c r="BH87" s="41" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="BI87" s="56" t="s">
         <v>600</v>
@@ -67474,7 +67474,7 @@
         <v>598</v>
       </c>
       <c r="BH209" s="41" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
       <c r="BI209" s="56" t="s">
         <v>600</v>
@@ -70858,7 +70858,7 @@
         <v>598</v>
       </c>
       <c r="BH286" s="41" t="s">
-        <v>1056</v>
+        <v>825</v>
       </c>
       <c r="BI286" s="56" t="s">
         <v>600</v>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -2609,7 +2609,8 @@
 siyaṃsu</t>
   </si>
   <si>
-    <t xml:space="preserve">dvīsu
+    <t xml:space="preserve">dvisu
+dvīsu
 duvesu</t>
   </si>
   <si>
@@ -36233,8 +36234,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BW16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CF21" activeCellId="0" sqref="CF21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -7126,8 +7126,7 @@
 kubbaye</t>
   </si>
   <si>
-    <t xml:space="preserve">kareyyuṃ
-kubbeyyuṃ
+    <t xml:space="preserve">kubbeyyuṃ
 kayiruṃ</t>
   </si>
   <si>
@@ -36234,8 +36233,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ186" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV197" activeCellId="0" sqref="CV197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -7095,12 +7095,10 @@
     <t xml:space="preserve">kubbamhe</t>
   </si>
   <si>
-    <t xml:space="preserve">karotu
-kubbatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karontu
-kubbantu</t>
+    <t xml:space="preserve">kubbatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubbantu</t>
   </si>
   <si>
     <t xml:space="preserve">kubbataṃ</t>
@@ -36233,8 +36231,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ186" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CV197" activeCellId="0" sqref="CV197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ183" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV195" activeCellId="0" sqref="CV195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66164,7 +66162,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="41.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
         <v>482</v>
       </c>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -7199,7 +7199,9 @@
     <t xml:space="preserve">karaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">karimhe</t>
+    <t xml:space="preserve">karimhe
+karamhasa
+karamhase</t>
   </si>
   <si>
     <t xml:space="preserve">jantu</t>
@@ -36231,8 +36233,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ183" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CV195" activeCellId="0" sqref="CV195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CR192" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CZ204" activeCellId="0" sqref="CZ204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66162,7 +66164,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="41.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
         <v>482</v>
       </c>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -4233,11 +4233,6 @@
     <t xml:space="preserve">nadīnaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">unā
-umhā
-usmā</t>
-  </si>
-  <si>
     <t xml:space="preserve">ūhi
 ubhi</t>
   </si>
@@ -5371,7 +5366,8 @@
   </si>
   <si>
     <t xml:space="preserve">raññā
-rājena</t>
+rājena
+rājinā</t>
   </si>
   <si>
     <t xml:space="preserve">rājubhi
@@ -7202,6 +7198,11 @@
     <t xml:space="preserve">karimhe
 karamhasa
 karamhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unā
+umhā
+usmā</t>
   </si>
   <si>
     <t xml:space="preserve">jantu</t>
@@ -36233,8 +36234,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CR192" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CZ204" activeCellId="0" sqref="CZ204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY103" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF106" activeCellId="0" sqref="BF106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48403,13 +48404,13 @@
         <v>549</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>1231</v>
+        <v>1040</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>552</v>
@@ -48421,19 +48422,19 @@
         <v>553</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I63" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>1231</v>
+        <v>1040</v>
       </c>
       <c r="K63" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="M63" s="48" t="s">
         <v>557</v>
@@ -48509,7 +48510,7 @@
         <v>549</v>
       </c>
       <c r="BF63" s="41" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BG63" s="56" t="s">
         <v>551</v>
@@ -48643,37 +48644,37 @@
         <v>417</v>
       </c>
       <c r="AD64" s="24" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE64" s="53" t="s">
         <v>419</v>
       </c>
       <c r="AF64" s="24" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AG64" s="53" t="s">
         <v>421</v>
       </c>
       <c r="AH64" s="67" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AI64" s="69" t="s">
         <v>423</v>
       </c>
       <c r="AJ64" s="67" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AK64" s="69" t="s">
         <v>425</v>
       </c>
       <c r="AL64" s="24" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AM64" s="53" t="s">
         <v>427</v>
       </c>
       <c r="AN64" s="24" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AO64" s="53" t="s">
         <v>429</v>
@@ -48762,19 +48763,19 @@
         <v>675</v>
       </c>
       <c r="CL64" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="CM64" s="60" t="s">
         <v>677</v>
       </c>
       <c r="CN64" s="59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="CO64" s="60" t="s">
         <v>945</v>
       </c>
       <c r="CP64" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="CQ64" s="60" t="s">
         <v>947</v>
@@ -48783,13 +48784,13 @@
         <v>673</v>
       </c>
       <c r="CT64" s="70" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="CU64" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV64" s="70" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="CW64" s="71" t="s">
         <v>677</v>
@@ -48798,13 +48799,13 @@
         <v>1188</v>
       </c>
       <c r="CZ64" s="70" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="DA64" s="71" t="s">
         <v>1190</v>
       </c>
       <c r="DB64" s="70" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="DC64" s="71" t="s">
         <v>1192</v>
@@ -48827,7 +48828,7 @@
         <v>600</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G65" s="49" t="s">
         <v>602</v>
@@ -48871,37 +48872,37 @@
         <v>455</v>
       </c>
       <c r="AD65" s="24" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AE65" s="53" t="s">
         <v>456</v>
       </c>
       <c r="AF65" s="24" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AG65" s="53" t="s">
         <v>458</v>
       </c>
       <c r="AH65" s="67" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AI65" s="69" t="s">
         <v>459</v>
       </c>
       <c r="AJ65" s="67" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AK65" s="69" t="s">
         <v>460</v>
       </c>
       <c r="AL65" s="24" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AM65" s="53" t="s">
         <v>461</v>
       </c>
       <c r="AN65" s="24" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AO65" s="53" t="s">
         <v>463</v>
@@ -48949,7 +48950,7 @@
         <v>596</v>
       </c>
       <c r="BF65" s="41" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="BG65" s="56" t="s">
         <v>598</v>
@@ -48964,13 +48965,13 @@
         <v>596</v>
       </c>
       <c r="BR65" s="27" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="BS65" s="57" t="s">
         <v>602</v>
       </c>
       <c r="BT65" s="27" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="BU65" s="57" t="s">
         <v>604</v>
@@ -48984,25 +48985,25 @@
         <v>700</v>
       </c>
       <c r="CJ65" s="59" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="CK65" s="60" t="s">
         <v>701</v>
       </c>
       <c r="CL65" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CM65" s="60" t="s">
         <v>703</v>
       </c>
       <c r="CN65" s="59" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="CO65" s="60" t="s">
         <v>959</v>
       </c>
       <c r="CP65" s="59" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="CQ65" s="60" t="s">
         <v>961</v>
@@ -49011,13 +49012,13 @@
         <v>700</v>
       </c>
       <c r="CT65" s="70" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="CU65" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV65" s="70" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="CW65" s="71" t="s">
         <v>703</v>
@@ -49026,13 +49027,13 @@
         <v>1202</v>
       </c>
       <c r="CZ65" s="70" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="DA65" s="71" t="s">
         <v>1204</v>
       </c>
       <c r="DB65" s="70" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="DC65" s="71" t="s">
         <v>1205</v>
@@ -49099,37 +49100,37 @@
         <v>482</v>
       </c>
       <c r="AD66" s="24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AE66" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AF66" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AG66" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AH66" s="67" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AI66" s="69" t="s">
         <v>488</v>
       </c>
       <c r="AJ66" s="67" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AK66" s="69" t="s">
         <v>490</v>
       </c>
       <c r="AL66" s="24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AM66" s="53" t="s">
         <v>491</v>
       </c>
       <c r="AN66" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AO66" s="53" t="s">
         <v>492</v>
@@ -49192,13 +49193,13 @@
         <v>627</v>
       </c>
       <c r="BR66" s="27" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="BS66" s="57" t="s">
         <v>631</v>
       </c>
       <c r="BT66" s="27" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="BU66" s="57" t="s">
         <v>632</v>
@@ -49218,19 +49219,19 @@
         <v>735</v>
       </c>
       <c r="CL66" s="59" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="CM66" s="60" t="s">
         <v>737</v>
       </c>
       <c r="CN66" s="59" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="CO66" s="60" t="s">
         <v>974</v>
       </c>
       <c r="CP66" s="59" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="CQ66" s="60" t="s">
         <v>976</v>
@@ -49239,13 +49240,13 @@
         <v>733</v>
       </c>
       <c r="CT66" s="70" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="CU66" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV66" s="70" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="CW66" s="71" t="s">
         <v>737</v>
@@ -49254,13 +49255,13 @@
         <v>1215</v>
       </c>
       <c r="CZ66" s="70" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="DA66" s="71" t="s">
         <v>1217</v>
       </c>
       <c r="DB66" s="70" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="DC66" s="71" t="s">
         <v>1219</v>
@@ -49307,37 +49308,37 @@
         <v>519</v>
       </c>
       <c r="AD67" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AE67" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AF67" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AG67" s="53" t="s">
         <v>523</v>
       </c>
       <c r="AH67" s="67" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AI67" s="69" t="s">
         <v>524</v>
       </c>
       <c r="AJ67" s="67" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AK67" s="69" t="s">
         <v>526</v>
       </c>
       <c r="AL67" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AM67" s="53" t="s">
         <v>527</v>
       </c>
       <c r="AN67" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AO67" s="53" t="s">
         <v>528</v>
@@ -49385,7 +49386,7 @@
         <v>636</v>
       </c>
       <c r="BF67" s="41" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="BG67" s="56" t="s">
         <v>636</v>
@@ -49439,7 +49440,7 @@
         <v>549</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q68" s="50" t="s">
         <v>553</v>
@@ -49456,37 +49457,37 @@
         <v>549</v>
       </c>
       <c r="AD68" s="24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AE68" s="53" t="s">
         <v>551</v>
       </c>
       <c r="AF68" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AG68" s="53" t="s">
         <v>552</v>
       </c>
       <c r="AH68" s="67" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AI68" s="69" t="s">
         <v>553</v>
       </c>
       <c r="AJ68" s="67" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AK68" s="69" t="s">
         <v>554</v>
       </c>
       <c r="AL68" s="24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AM68" s="53" t="s">
         <v>556</v>
       </c>
       <c r="AN68" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AO68" s="53" t="s">
         <v>557</v>
@@ -49594,37 +49595,37 @@
         <v>576</v>
       </c>
       <c r="AD69" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AE69" s="53" t="s">
         <v>578</v>
       </c>
       <c r="AF69" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AG69" s="53" t="s">
         <v>579</v>
       </c>
       <c r="AH69" s="67" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AI69" s="69" t="s">
         <v>580</v>
       </c>
       <c r="AJ69" s="67" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AK69" s="69" t="s">
         <v>581</v>
       </c>
       <c r="AL69" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AM69" s="53" t="s">
         <v>582</v>
       </c>
       <c r="AN69" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AO69" s="53" t="s">
         <v>583</v>
@@ -49753,7 +49754,7 @@
         <v>423</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I70" s="49" t="s">
         <v>425</v>
@@ -49774,7 +49775,7 @@
         <v>596</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q70" s="50" t="s">
         <v>602</v>
@@ -49791,37 +49792,37 @@
         <v>596</v>
       </c>
       <c r="AD70" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AE70" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AF70" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AG70" s="53" t="s">
         <v>600</v>
       </c>
       <c r="AH70" s="67" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AI70" s="69" t="s">
         <v>602</v>
       </c>
       <c r="AJ70" s="67" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AK70" s="69" t="s">
         <v>604</v>
       </c>
       <c r="AL70" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AM70" s="53" t="s">
         <v>605</v>
       </c>
       <c r="AN70" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AO70" s="53" t="s">
         <v>606</v>
@@ -49884,7 +49885,7 @@
         <v>417</v>
       </c>
       <c r="BR70" s="27" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BS70" s="57" t="s">
         <v>423</v>
@@ -49916,13 +49917,13 @@
         <v>675</v>
       </c>
       <c r="CL70" s="59" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="CM70" s="73" t="s">
         <v>677</v>
       </c>
       <c r="CN70" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CO70" s="60" t="s">
         <v>945</v>
@@ -49932,19 +49933,19 @@
         <v>947</v>
       </c>
       <c r="CS70" s="70" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CT70" s="70" t="s">
         <v>1286</v>
       </c>
-      <c r="CT70" s="70" t="s">
+      <c r="CU70" s="71" t="s">
         <v>1287</v>
       </c>
-      <c r="CU70" s="71" t="s">
+      <c r="CV70" s="70" t="s">
         <v>1288</v>
       </c>
-      <c r="CV70" s="70" t="s">
+      <c r="CW70" s="71" t="s">
         <v>1289</v>
-      </c>
-      <c r="CW70" s="71" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -49958,7 +49959,7 @@
         <v>456</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E71" s="48" t="s">
         <v>458</v>
@@ -49970,7 +49971,7 @@
         <v>459</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I71" s="49" t="s">
         <v>460</v>
@@ -50043,7 +50044,7 @@
         <v>455</v>
       </c>
       <c r="BF71" s="41" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="BG71" s="56" t="s">
         <v>456</v>
@@ -50090,7 +50091,7 @@
         <v>701</v>
       </c>
       <c r="CL71" s="59" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="CM71" s="73" t="s">
         <v>703</v>
@@ -50104,7 +50105,7 @@
         <v>961</v>
       </c>
       <c r="CS71" s="70" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="CT71" s="70"/>
       <c r="CU71" s="71"/>
@@ -50134,7 +50135,7 @@
         <v>488</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I72" s="49" t="s">
         <v>490</v>
@@ -50174,13 +50175,13 @@
         <v>482</v>
       </c>
       <c r="BF72" s="41" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="BG72" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH72" s="41" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="BI72" s="56" t="s">
         <v>486</v>
@@ -50215,13 +50216,13 @@
         <v>733</v>
       </c>
       <c r="CJ72" s="59" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="CK72" s="60" t="s">
         <v>735</v>
       </c>
       <c r="CL72" s="59" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="CM72" s="73" t="s">
         <v>737</v>
@@ -50235,7 +50236,7 @@
         <v>976</v>
       </c>
       <c r="CS72" s="70" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="CT72" s="70"/>
       <c r="CU72" s="71"/>
@@ -50301,7 +50302,7 @@
         <v>89</v>
       </c>
       <c r="AD73" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AE73" s="24"/>
       <c r="AF73" s="22"/>
@@ -50340,7 +50341,7 @@
         <v>519</v>
       </c>
       <c r="BF73" s="41" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BG73" s="56" t="s">
         <v>521</v>
@@ -50393,7 +50394,7 @@
         <v>549</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C74" s="48" t="s">
         <v>551</v>
@@ -50411,13 +50412,13 @@
         <v>553</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I74" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K74" s="48" t="s">
         <v>556</v>
@@ -50432,7 +50433,7 @@
         <v>417</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q74" s="50" t="s">
         <v>427</v>
@@ -50451,10 +50452,10 @@
         <v>417</v>
       </c>
       <c r="AD74" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AE74" s="53" t="s">
         <v>1304</v>
-      </c>
-      <c r="AE74" s="53" t="s">
-        <v>1305</v>
       </c>
       <c r="AF74" s="22"/>
       <c r="AH74" s="22"/>
@@ -50465,7 +50466,7 @@
         <v>417</v>
       </c>
       <c r="AR74" s="25" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AS74" s="54" t="s">
         <v>419</v>
@@ -50504,13 +50505,13 @@
         <v>549</v>
       </c>
       <c r="BF74" s="41" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="BG74" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH74" s="41" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="BI74" s="56" t="s">
         <v>552</v>
@@ -50610,10 +50611,10 @@
         <v>455</v>
       </c>
       <c r="AD75" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AE75" s="53" t="s">
         <v>1308</v>
-      </c>
-      <c r="AE75" s="53" t="s">
-        <v>1309</v>
       </c>
       <c r="AF75" s="22"/>
       <c r="AH75" s="22"/>
@@ -50663,7 +50664,7 @@
         <v>576</v>
       </c>
       <c r="BF75" s="41" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BG75" s="56" t="s">
         <v>578</v>
@@ -50748,7 +50749,7 @@
         <v>600</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G76" s="49" t="s">
         <v>602</v>
@@ -50794,10 +50795,10 @@
         <v>482</v>
       </c>
       <c r="AD76" s="24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AE76" s="53" t="s">
         <v>1310</v>
-      </c>
-      <c r="AE76" s="53" t="s">
-        <v>1311</v>
       </c>
       <c r="AF76" s="22"/>
       <c r="AH76" s="22"/>
@@ -50847,13 +50848,13 @@
         <v>596</v>
       </c>
       <c r="BF76" s="41" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="BG76" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH76" s="41" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BI76" s="56" t="s">
         <v>600</v>
@@ -50900,7 +50901,7 @@
         <v>677</v>
       </c>
       <c r="CN76" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="CO76" s="60" t="s">
         <v>945</v>
@@ -50913,13 +50914,13 @@
         <v>673</v>
       </c>
       <c r="CT76" s="70" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="CU76" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV76" s="70" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="CW76" s="71" t="s">
         <v>677</v>
@@ -50936,7 +50937,7 @@
         <v>629</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E77" s="48" t="s">
         <v>630</v>
@@ -50948,7 +50949,7 @@
         <v>631</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I77" s="49" t="s">
         <v>632</v>
@@ -50988,10 +50989,10 @@
         <v>519</v>
       </c>
       <c r="AD77" s="24" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AE77" s="53" t="s">
         <v>1317</v>
-      </c>
-      <c r="AE77" s="53" t="s">
-        <v>1318</v>
       </c>
       <c r="AF77" s="22"/>
       <c r="AH77" s="22"/>
@@ -51041,7 +51042,7 @@
         <v>627</v>
       </c>
       <c r="BF77" s="41" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="BG77" s="56" t="s">
         <v>629</v>
@@ -51094,7 +51095,7 @@
         <v>703</v>
       </c>
       <c r="CN77" s="59" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="CO77" s="60" t="s">
         <v>959</v>
@@ -51107,7 +51108,7 @@
         <v>700</v>
       </c>
       <c r="CT77" s="70" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="CU77" s="71" t="s">
         <v>701</v>
@@ -51158,10 +51159,10 @@
         <v>549</v>
       </c>
       <c r="AD78" s="24" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AE78" s="53" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AF78" s="22"/>
       <c r="AH78" s="22"/>
@@ -51256,7 +51257,7 @@
         <v>737</v>
       </c>
       <c r="CN78" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="CO78" s="60" t="s">
         <v>974</v>
@@ -51269,13 +51270,13 @@
         <v>733</v>
       </c>
       <c r="CT78" s="70" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="CU78" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV78" s="70" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="CW78" s="71" t="s">
         <v>737</v>
@@ -51311,10 +51312,10 @@
         <v>576</v>
       </c>
       <c r="AD79" s="24" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AE79" s="53" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AF79" s="22"/>
       <c r="AH79" s="22"/>
@@ -51435,10 +51436,10 @@
         <v>596</v>
       </c>
       <c r="AD80" s="24" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AE80" s="53" t="s">
         <v>1326</v>
-      </c>
-      <c r="AE80" s="53" t="s">
-        <v>1327</v>
       </c>
       <c r="AF80" s="22"/>
       <c r="AH80" s="22"/>
@@ -51526,25 +51527,25 @@
         <v>417</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C81" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E81" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G81" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I81" s="49" t="s">
         <v>425</v>
@@ -51556,7 +51557,7 @@
         <v>427</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="M81" s="48" t="s">
         <v>429</v>
@@ -51580,7 +51581,7 @@
         <v>636</v>
       </c>
       <c r="AD81" s="24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AE81" s="53" t="s">
         <v>636</v>
@@ -51633,13 +51634,13 @@
         <v>417</v>
       </c>
       <c r="BF81" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BG81" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH81" s="41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="BI81" s="56" t="s">
         <v>421</v>
@@ -51648,13 +51649,13 @@
         <v>417</v>
       </c>
       <c r="BR81" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="BS81" s="57" t="s">
         <v>423</v>
       </c>
       <c r="BT81" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="BU81" s="57" t="s">
         <v>425</v>
@@ -51720,19 +51721,19 @@
         <v>456</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E82" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G82" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I82" s="49" t="s">
         <v>460</v>
@@ -51744,7 +51745,7 @@
         <v>461</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="M82" s="48" t="s">
         <v>463</v>
@@ -51773,13 +51774,13 @@
         <v>455</v>
       </c>
       <c r="BF82" s="41" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="BG82" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH82" s="41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="BI82" s="56" t="s">
         <v>458</v>
@@ -51788,13 +51789,13 @@
         <v>455</v>
       </c>
       <c r="BR82" s="27" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="BS82" s="57" t="s">
         <v>459</v>
       </c>
       <c r="BT82" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="BU82" s="57" t="s">
         <v>460</v>
@@ -51820,19 +51821,19 @@
         <v>1190</v>
       </c>
       <c r="CL82" s="59" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="CM82" s="60" t="s">
         <v>1192</v>
       </c>
       <c r="CN82" s="59" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="CO82" s="60" t="s">
         <v>1194</v>
       </c>
       <c r="CP82" s="59" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="CQ82" s="73" t="s">
         <v>1196</v>
@@ -51841,13 +51842,13 @@
         <v>618</v>
       </c>
       <c r="CT82" s="70" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="CU82" s="74" t="s">
         <v>620</v>
       </c>
       <c r="CV82" s="70" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="CW82" s="74" t="s">
         <v>622</v>
@@ -51878,13 +51879,13 @@
         <v>486</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G83" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I83" s="49" t="s">
         <v>490</v>
@@ -51983,13 +51984,13 @@
         <v>482</v>
       </c>
       <c r="BR83" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BS83" s="57" t="s">
         <v>488</v>
       </c>
       <c r="BT83" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BU83" s="57" t="s">
         <v>490</v>
@@ -52009,7 +52010,7 @@
         <v>1202</v>
       </c>
       <c r="CJ83" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="CK83" s="60" t="s">
         <v>1204</v>
@@ -52027,7 +52028,7 @@
         <v>1207</v>
       </c>
       <c r="CP83" s="59" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="CQ83" s="73" t="s">
         <v>1209</v>
@@ -52036,13 +52037,13 @@
         <v>642</v>
       </c>
       <c r="CT83" s="70" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="CU83" s="74" t="s">
         <v>644</v>
       </c>
       <c r="CV83" s="70" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="CW83" s="74" t="s">
         <v>646</v>
@@ -52052,7 +52053,7 @@
         <v>648</v>
       </c>
       <c r="CZ83" s="70" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="DA83" s="71" t="s">
         <v>650</v>
@@ -52063,7 +52064,7 @@
         <v>519</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C84" s="48" t="s">
         <v>521</v>
@@ -52075,19 +52076,19 @@
         <v>523</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G84" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I84" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="K84" s="48" t="s">
         <v>527</v>
@@ -52121,19 +52122,19 @@
         <v>417</v>
       </c>
       <c r="AD84" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AE84" s="53" t="s">
         <v>421</v>
       </c>
       <c r="AF84" s="67" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AG84" s="69" t="s">
         <v>425</v>
       </c>
       <c r="AH84" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AI84" s="53" t="s">
         <v>429</v>
@@ -52148,37 +52149,37 @@
         <v>417</v>
       </c>
       <c r="AR84" s="25" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AS84" s="54" t="s">
         <v>419</v>
       </c>
       <c r="AT84" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AU84" s="54" t="s">
         <v>421</v>
       </c>
       <c r="AV84" s="40" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AW84" s="55" t="s">
         <v>423</v>
       </c>
       <c r="AX84" s="40" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AY84" s="55" t="s">
         <v>425</v>
       </c>
       <c r="AZ84" s="25" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="BA84" s="54" t="s">
         <v>427</v>
       </c>
       <c r="BB84" s="25" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="BC84" s="54" t="s">
         <v>429</v>
@@ -52187,13 +52188,13 @@
         <v>519</v>
       </c>
       <c r="BF84" s="41" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BG84" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH84" s="41" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="BI84" s="56" t="s">
         <v>523</v>
@@ -52202,13 +52203,13 @@
         <v>519</v>
       </c>
       <c r="BR84" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BS84" s="57" t="s">
         <v>524</v>
       </c>
       <c r="BT84" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="BU84" s="57" t="s">
         <v>526</v>
@@ -52228,13 +52229,13 @@
         <v>1215</v>
       </c>
       <c r="CJ84" s="59" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="CK84" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="CL84" s="59" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="CM84" s="60" t="s">
         <v>1219</v>
@@ -52246,7 +52247,7 @@
         <v>1221</v>
       </c>
       <c r="CP84" s="59" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="CQ84" s="73" t="s">
         <v>1223</v>
@@ -52255,25 +52256,25 @@
         <v>652</v>
       </c>
       <c r="CT84" s="70" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="CU84" s="74" t="s">
         <v>654</v>
       </c>
       <c r="CV84" s="70" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="CW84" s="74" t="s">
         <v>656</v>
       </c>
       <c r="CX84" s="70" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="CY84" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ84" s="70" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="DA84" s="71" t="s">
         <v>660</v>
@@ -52296,13 +52297,13 @@
         <v>552</v>
       </c>
       <c r="F85" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G85" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I85" s="49" t="s">
         <v>554</v>
@@ -52342,19 +52343,19 @@
         <v>455</v>
       </c>
       <c r="AD85" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AE85" s="53" t="s">
         <v>458</v>
       </c>
       <c r="AF85" s="67" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AG85" s="69" t="s">
         <v>460</v>
       </c>
       <c r="AH85" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AI85" s="53" t="s">
         <v>463</v>
@@ -52369,37 +52370,37 @@
         <v>455</v>
       </c>
       <c r="AR85" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AS85" s="54" t="s">
         <v>456</v>
       </c>
       <c r="AT85" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="AU85" s="54" t="s">
         <v>458</v>
       </c>
       <c r="AV85" s="40" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="AW85" s="55" t="s">
         <v>459</v>
       </c>
       <c r="AX85" s="40" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AY85" s="55" t="s">
         <v>460</v>
       </c>
       <c r="AZ85" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="BA85" s="54" t="s">
         <v>461</v>
       </c>
       <c r="BB85" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="BC85" s="54" t="s">
         <v>463</v>
@@ -52408,7 +52409,7 @@
         <v>549</v>
       </c>
       <c r="BF85" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="BG85" s="56" t="s">
         <v>551</v>
@@ -52423,13 +52424,13 @@
         <v>549</v>
       </c>
       <c r="BR85" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="BS85" s="57" t="s">
         <v>553</v>
       </c>
       <c r="BT85" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BU85" s="57" t="s">
         <v>554</v>
@@ -52481,13 +52482,13 @@
         <v>579</v>
       </c>
       <c r="F86" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G86" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I86" s="49" t="s">
         <v>581</v>
@@ -52514,7 +52515,7 @@
         <v>488</v>
       </c>
       <c r="R86" s="27" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S86" s="57" t="s">
         <v>490</v>
@@ -52527,19 +52528,19 @@
         <v>482</v>
       </c>
       <c r="AD86" s="24" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AE86" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AF86" s="67" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AG86" s="69" t="s">
         <v>490</v>
       </c>
       <c r="AH86" s="24" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AI86" s="53" t="s">
         <v>492</v>
@@ -52554,37 +52555,37 @@
         <v>482</v>
       </c>
       <c r="AR86" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AS86" s="54" t="s">
         <v>484</v>
       </c>
       <c r="AT86" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="AU86" s="54" t="s">
         <v>486</v>
       </c>
       <c r="AV86" s="40" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AW86" s="55" t="s">
         <v>488</v>
       </c>
       <c r="AX86" s="40" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AY86" s="55" t="s">
         <v>490</v>
       </c>
       <c r="AZ86" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="BA86" s="54" t="s">
         <v>491</v>
       </c>
       <c r="BB86" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="BC86" s="54" t="s">
         <v>492</v>
@@ -52599,7 +52600,7 @@
         <v>578</v>
       </c>
       <c r="BH86" s="41" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="BI86" s="56" t="s">
         <v>579</v>
@@ -52608,13 +52609,13 @@
         <v>576</v>
       </c>
       <c r="BR86" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BS86" s="57" t="s">
         <v>580</v>
       </c>
       <c r="BT86" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="BU86" s="57" t="s">
         <v>581</v>
@@ -52653,13 +52654,13 @@
         <v>600</v>
       </c>
       <c r="F87" s="37" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G87" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I87" s="49" t="s">
         <v>604</v>
@@ -52686,7 +52687,7 @@
         <v>524</v>
       </c>
       <c r="R87" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="S87" s="57" t="s">
         <v>526</v>
@@ -52699,19 +52700,19 @@
         <v>519</v>
       </c>
       <c r="AD87" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AE87" s="53" t="s">
         <v>523</v>
       </c>
       <c r="AF87" s="67" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AG87" s="69" t="s">
         <v>526</v>
       </c>
       <c r="AH87" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AI87" s="53" t="s">
         <v>528</v>
@@ -52726,37 +52727,37 @@
         <v>519</v>
       </c>
       <c r="AR87" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AS87" s="54" t="s">
         <v>521</v>
       </c>
       <c r="AT87" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AU87" s="54" t="s">
         <v>523</v>
       </c>
       <c r="AV87" s="40" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AW87" s="55" t="s">
         <v>524</v>
       </c>
       <c r="AX87" s="40" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AY87" s="55" t="s">
         <v>526</v>
       </c>
       <c r="AZ87" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BA87" s="54" t="s">
         <v>527</v>
       </c>
       <c r="BB87" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="BC87" s="54" t="s">
         <v>528</v>
@@ -52780,13 +52781,13 @@
         <v>596</v>
       </c>
       <c r="BR87" s="27" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="BS87" s="57" t="s">
         <v>602</v>
       </c>
       <c r="BT87" s="27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="BU87" s="57" t="s">
         <v>604</v>
@@ -52838,37 +52839,37 @@
         <v>627</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C88" s="48" t="s">
         <v>629</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E88" s="48" t="s">
         <v>630</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G88" s="49" t="s">
         <v>631</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I88" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J88" s="21" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K88" s="48" t="s">
         <v>633</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="M88" s="48" t="s">
         <v>635</v>
@@ -52883,7 +52884,7 @@
         <v>553</v>
       </c>
       <c r="R88" s="27" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S88" s="57" t="s">
         <v>554</v>
@@ -52896,19 +52897,19 @@
         <v>549</v>
       </c>
       <c r="AD88" s="24" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AE88" s="53" t="s">
         <v>552</v>
       </c>
       <c r="AF88" s="67" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AG88" s="69" t="s">
         <v>554</v>
       </c>
       <c r="AH88" s="24" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AI88" s="53" t="s">
         <v>557</v>
@@ -52923,37 +52924,37 @@
         <v>549</v>
       </c>
       <c r="AR88" s="25" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AS88" s="54" t="s">
         <v>551</v>
       </c>
       <c r="AT88" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="AU88" s="54" t="s">
         <v>552</v>
       </c>
       <c r="AV88" s="40" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AW88" s="55" t="s">
         <v>553</v>
       </c>
       <c r="AX88" s="40" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AY88" s="55" t="s">
         <v>554</v>
       </c>
       <c r="AZ88" s="25" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="BA88" s="54" t="s">
         <v>556</v>
       </c>
       <c r="BB88" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="BC88" s="54" t="s">
         <v>557</v>
@@ -52962,13 +52963,13 @@
         <v>627</v>
       </c>
       <c r="BF88" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BG88" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH88" s="41" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="BI88" s="56" t="s">
         <v>630</v>
@@ -52977,13 +52978,13 @@
         <v>627</v>
       </c>
       <c r="BR88" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="BS88" s="57" t="s">
         <v>631</v>
       </c>
       <c r="BT88" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="BU88" s="57" t="s">
         <v>632</v>
@@ -53003,25 +53004,25 @@
         <v>664</v>
       </c>
       <c r="CJ88" s="59" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="CK88" s="60" t="s">
         <v>666</v>
       </c>
       <c r="CL88" s="59" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="CM88" s="60" t="s">
         <v>668</v>
       </c>
       <c r="CN88" s="59" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="CO88" s="60" t="s">
         <v>670</v>
       </c>
       <c r="CP88" s="59" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="CQ88" s="60" t="s">
         <v>672</v>
@@ -53030,13 +53031,13 @@
         <v>443</v>
       </c>
       <c r="CT88" s="70" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="CU88" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV88" s="70" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="CW88" s="71" t="s">
         <v>447</v>
@@ -53047,7 +53048,7 @@
         <v>636</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C89" s="48" t="s">
         <v>636</v>
@@ -53072,7 +53073,7 @@
         <v>580</v>
       </c>
       <c r="R89" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="S89" s="57" t="s">
         <v>581</v>
@@ -53085,19 +53086,19 @@
         <v>576</v>
       </c>
       <c r="AD89" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AE89" s="53" t="s">
         <v>579</v>
       </c>
       <c r="AF89" s="67" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AG89" s="69" t="s">
         <v>581</v>
       </c>
       <c r="AH89" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AI89" s="53" t="s">
         <v>583</v>
@@ -53112,37 +53113,37 @@
         <v>576</v>
       </c>
       <c r="AR89" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AS89" s="54" t="s">
         <v>578</v>
       </c>
       <c r="AT89" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AU89" s="54" t="s">
         <v>579</v>
       </c>
       <c r="AV89" s="40" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AW89" s="55" t="s">
         <v>580</v>
       </c>
       <c r="AX89" s="40" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AY89" s="55" t="s">
         <v>581</v>
       </c>
       <c r="AZ89" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BA89" s="54" t="s">
         <v>582</v>
       </c>
       <c r="BB89" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="BC89" s="54" t="s">
         <v>583</v>
@@ -53151,7 +53152,7 @@
         <v>636</v>
       </c>
       <c r="BF89" s="41" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BG89" s="56" t="s">
         <v>636</v>
@@ -53162,7 +53163,7 @@
         <v>636</v>
       </c>
       <c r="BR89" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="BS89" s="57" t="s">
         <v>636</v>
@@ -53184,7 +53185,7 @@
         <v>691</v>
       </c>
       <c r="CJ89" s="59" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="CK89" s="60" t="s">
         <v>693</v>
@@ -53196,13 +53197,13 @@
         <v>695</v>
       </c>
       <c r="CN89" s="59" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="CO89" s="60" t="s">
         <v>697</v>
       </c>
       <c r="CP89" s="59" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="CQ89" s="60" t="s">
         <v>699</v>
@@ -53211,13 +53212,13 @@
         <v>470</v>
       </c>
       <c r="CT89" s="70" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="CU89" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV89" s="70" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="CW89" s="71" t="s">
         <v>474</v>
@@ -53253,19 +53254,19 @@
         <v>596</v>
       </c>
       <c r="AD90" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AE90" s="53" t="s">
         <v>600</v>
       </c>
       <c r="AF90" s="67" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AG90" s="69" t="s">
         <v>604</v>
       </c>
       <c r="AH90" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AI90" s="53" t="s">
         <v>606</v>
@@ -53280,37 +53281,37 @@
         <v>596</v>
       </c>
       <c r="AR90" s="25" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AS90" s="54" t="s">
         <v>598</v>
       </c>
       <c r="AT90" s="25" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AU90" s="54" t="s">
         <v>600</v>
       </c>
       <c r="AV90" s="40" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AW90" s="55" t="s">
         <v>602</v>
       </c>
       <c r="AX90" s="40" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AY90" s="55" t="s">
         <v>604</v>
       </c>
       <c r="AZ90" s="25" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="BA90" s="54" t="s">
         <v>605</v>
       </c>
       <c r="BB90" s="25" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="BC90" s="54" t="s">
         <v>606</v>
@@ -53328,7 +53329,7 @@
         <v>724</v>
       </c>
       <c r="CJ90" s="59" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="CK90" s="60" t="s">
         <v>726</v>
@@ -53346,7 +53347,7 @@
         <v>730</v>
       </c>
       <c r="CP90" s="59" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="CQ90" s="60" t="s">
         <v>732</v>
@@ -53355,13 +53356,13 @@
         <v>507</v>
       </c>
       <c r="CT90" s="70" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="CU90" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV90" s="70" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="CW90" s="71" t="s">
         <v>511</v>
@@ -53418,7 +53419,7 @@
         <v>636</v>
       </c>
       <c r="AD91" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AE91" s="53" t="s">
         <v>636</v>
@@ -53437,37 +53438,37 @@
         <v>627</v>
       </c>
       <c r="AR91" s="25" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AS91" s="54" t="s">
         <v>629</v>
       </c>
       <c r="AT91" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AU91" s="54" t="s">
         <v>630</v>
       </c>
       <c r="AV91" s="40" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AW91" s="55" t="s">
         <v>631</v>
       </c>
       <c r="AX91" s="40" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AY91" s="55" t="s">
         <v>632</v>
       </c>
       <c r="AZ91" s="25" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="BA91" s="54" t="s">
         <v>633</v>
       </c>
       <c r="BB91" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BC91" s="54" t="s">
         <v>635</v>
@@ -53519,37 +53520,37 @@
         <v>417</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C92" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E92" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G92" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I92" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J92" s="21" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K92" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="M92" s="48" t="s">
         <v>429</v>
@@ -53587,13 +53588,13 @@
         <v>417</v>
       </c>
       <c r="BF92" s="41" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="BG92" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH92" s="41" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BI92" s="56" t="s">
         <v>421</v>
@@ -53607,7 +53608,7 @@
         <v>417</v>
       </c>
       <c r="CD92" s="28" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="CE92" s="58" t="s">
         <v>427</v>
@@ -53629,37 +53630,37 @@
         <v>455</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C93" s="48" t="s">
         <v>456</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G93" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I93" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K93" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L93" s="21" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="M93" s="48" t="s">
         <v>463</v>
@@ -53803,37 +53804,37 @@
         <v>482</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C94" s="48" t="s">
         <v>484</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E94" s="48" t="s">
         <v>486</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G94" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I94" s="49" t="s">
         <v>490</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K94" s="48" t="s">
         <v>491</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="M94" s="48" t="s">
         <v>492</v>
@@ -53854,37 +53855,37 @@
         <v>417</v>
       </c>
       <c r="AD94" s="24" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AE94" s="53" t="s">
         <v>419</v>
       </c>
       <c r="AF94" s="24" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AG94" s="53" t="s">
         <v>421</v>
       </c>
       <c r="AH94" s="67" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AI94" s="69" t="s">
         <v>423</v>
       </c>
       <c r="AJ94" s="67" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="AK94" s="69" t="s">
         <v>425</v>
       </c>
       <c r="AL94" s="24" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AM94" s="53" t="s">
         <v>427</v>
       </c>
       <c r="AN94" s="24" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AO94" s="53" t="s">
         <v>429</v>
@@ -53893,25 +53894,25 @@
         <v>417</v>
       </c>
       <c r="AR94" s="25" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AS94" s="54" t="s">
         <v>419</v>
       </c>
       <c r="AT94" s="25" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="AU94" s="54" t="s">
         <v>421</v>
       </c>
       <c r="AV94" s="40" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="AW94" s="55" t="s">
         <v>423</v>
       </c>
       <c r="AX94" s="40" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AY94" s="55" t="s">
         <v>425</v>
@@ -53923,7 +53924,7 @@
         <v>427</v>
       </c>
       <c r="BB94" s="25" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="BC94" s="54" t="s">
         <v>429</v>
@@ -53994,25 +53995,25 @@
         <v>618</v>
       </c>
       <c r="CT94" s="70" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="CU94" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV94" s="70" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="CW94" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX94" s="70" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="CY94" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ94" s="70" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="DA94" s="71" t="s">
         <v>626</v>
@@ -54023,37 +54024,37 @@
         <v>519</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C95" s="48" t="s">
         <v>521</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E95" s="48" t="s">
         <v>523</v>
       </c>
       <c r="F95" s="37" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G95" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I95" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="K95" s="48" t="s">
         <v>527</v>
       </c>
       <c r="L95" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="M95" s="48" t="s">
         <v>528</v>
@@ -54062,7 +54063,7 @@
         <v>417</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q95" s="50" t="s">
         <v>681</v>
@@ -54076,37 +54077,37 @@
         <v>455</v>
       </c>
       <c r="AD95" s="24" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AE95" s="53" t="s">
         <v>456</v>
       </c>
       <c r="AF95" s="24" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AG95" s="53" t="s">
         <v>458</v>
       </c>
       <c r="AH95" s="67" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AI95" s="69" t="s">
         <v>459</v>
       </c>
       <c r="AJ95" s="67" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="AK95" s="69" t="s">
         <v>460</v>
       </c>
       <c r="AL95" s="24" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AM95" s="53" t="s">
         <v>461</v>
       </c>
       <c r="AN95" s="24" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AO95" s="53" t="s">
         <v>463</v>
@@ -54115,37 +54116,37 @@
         <v>455</v>
       </c>
       <c r="AR95" s="25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS95" s="54" t="s">
         <v>456</v>
       </c>
       <c r="AT95" s="25" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="AU95" s="54" t="s">
         <v>458</v>
       </c>
       <c r="AV95" s="40" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="AW95" s="55" t="s">
         <v>459</v>
       </c>
       <c r="AX95" s="40" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AY95" s="55" t="s">
         <v>460</v>
       </c>
       <c r="AZ95" s="25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="BA95" s="54" t="s">
         <v>461</v>
       </c>
       <c r="BB95" s="25" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="BC95" s="54" t="s">
         <v>463</v>
@@ -54216,25 +54217,25 @@
         <v>642</v>
       </c>
       <c r="CT95" s="70" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="CU95" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV95" s="70" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="CW95" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX95" s="70" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="CY95" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ95" s="70" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="DA95" s="71" t="s">
         <v>650</v>
@@ -54245,37 +54246,37 @@
         <v>549</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C96" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>552</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G96" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I96" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K96" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="M96" s="48" t="s">
         <v>557</v>
@@ -54284,7 +54285,7 @@
         <v>455</v>
       </c>
       <c r="P96" s="23" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q96" s="50" t="s">
         <v>710</v>
@@ -54298,37 +54299,37 @@
         <v>482</v>
       </c>
       <c r="AD96" s="24" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AE96" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AF96" s="24" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AG96" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AH96" s="67" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AI96" s="69" t="s">
         <v>488</v>
       </c>
       <c r="AJ96" s="67" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AK96" s="69" t="s">
         <v>490</v>
       </c>
       <c r="AL96" s="24" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AM96" s="53" t="s">
         <v>491</v>
       </c>
       <c r="AN96" s="24" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AO96" s="53" t="s">
         <v>492</v>
@@ -54337,37 +54338,37 @@
         <v>482</v>
       </c>
       <c r="AR96" s="25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="AS96" s="54" t="s">
         <v>484</v>
       </c>
       <c r="AT96" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AU96" s="54" t="s">
         <v>486</v>
       </c>
       <c r="AV96" s="40" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="AW96" s="55" t="s">
         <v>488</v>
       </c>
       <c r="AX96" s="40" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="AY96" s="55" t="s">
         <v>490</v>
       </c>
       <c r="AZ96" s="25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="BA96" s="54" t="s">
         <v>491</v>
       </c>
       <c r="BB96" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BC96" s="54" t="s">
         <v>492</v>
@@ -54376,7 +54377,7 @@
         <v>549</v>
       </c>
       <c r="BF96" s="41" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="BG96" s="56" t="s">
         <v>551</v>
@@ -54429,7 +54430,7 @@
         <v>730</v>
       </c>
       <c r="CP96" s="59" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="CQ96" s="60" t="s">
         <v>732</v>
@@ -54438,25 +54439,25 @@
         <v>652</v>
       </c>
       <c r="CT96" s="70" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="CU96" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV96" s="70" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="CW96" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX96" s="70" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="CY96" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ96" s="70" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="DA96" s="71" t="s">
         <v>660</v>
@@ -54467,37 +54468,37 @@
         <v>576</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C97" s="48" t="s">
         <v>578</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>579</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G97" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I97" s="49" t="s">
         <v>581</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="K97" s="48" t="s">
         <v>582</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="M97" s="48" t="s">
         <v>583</v>
@@ -54506,7 +54507,7 @@
         <v>482</v>
       </c>
       <c r="P97" s="23" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="Q97" s="50" t="s">
         <v>743</v>
@@ -54520,37 +54521,37 @@
         <v>519</v>
       </c>
       <c r="AD97" s="24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AE97" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AF97" s="24" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AG97" s="53" t="s">
         <v>523</v>
       </c>
       <c r="AH97" s="67" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="AI97" s="69" t="s">
         <v>524</v>
       </c>
       <c r="AJ97" s="67" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AK97" s="69" t="s">
         <v>526</v>
       </c>
       <c r="AL97" s="24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AM97" s="53" t="s">
         <v>527</v>
       </c>
       <c r="AN97" s="24" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AO97" s="53" t="s">
         <v>528</v>
@@ -54559,37 +54560,37 @@
         <v>519</v>
       </c>
       <c r="AR97" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AS97" s="54" t="s">
         <v>521</v>
       </c>
       <c r="AT97" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="AU97" s="54" t="s">
         <v>523</v>
       </c>
       <c r="AV97" s="40" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="AW97" s="55" t="s">
         <v>524</v>
       </c>
       <c r="AX97" s="40" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY97" s="55" t="s">
         <v>526</v>
       </c>
       <c r="AZ97" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BA97" s="54" t="s">
         <v>527</v>
       </c>
       <c r="BB97" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="BC97" s="54" t="s">
         <v>528</v>
@@ -54598,7 +54599,7 @@
         <v>576</v>
       </c>
       <c r="BF97" s="41" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BG97" s="56" t="s">
         <v>578</v>
@@ -54653,37 +54654,37 @@
         <v>596</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C98" s="48" t="s">
         <v>598</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E98" s="48" t="s">
         <v>600</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G98" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H98" s="37" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I98" s="49" t="s">
         <v>604</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="K98" s="48" t="s">
         <v>605</v>
       </c>
       <c r="L98" s="21" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="M98" s="48" t="s">
         <v>606</v>
@@ -54692,7 +54693,7 @@
         <v>519</v>
       </c>
       <c r="P98" s="23" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="Q98" s="50" t="s">
         <v>759</v>
@@ -54706,37 +54707,37 @@
         <v>549</v>
       </c>
       <c r="AD98" s="24" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AE98" s="53" t="s">
         <v>551</v>
       </c>
       <c r="AF98" s="24" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AG98" s="53" t="s">
         <v>552</v>
       </c>
       <c r="AH98" s="67" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AI98" s="69" t="s">
         <v>553</v>
       </c>
       <c r="AJ98" s="67" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AK98" s="69" t="s">
         <v>554</v>
       </c>
       <c r="AL98" s="24" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AM98" s="53" t="s">
         <v>556</v>
       </c>
       <c r="AN98" s="24" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AO98" s="53" t="s">
         <v>557</v>
@@ -54745,37 +54746,37 @@
         <v>549</v>
       </c>
       <c r="AR98" s="25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AS98" s="54" t="s">
         <v>551</v>
       </c>
       <c r="AT98" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AU98" s="54" t="s">
         <v>552</v>
       </c>
       <c r="AV98" s="40" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="AW98" s="55" t="s">
         <v>553</v>
       </c>
       <c r="AX98" s="40" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="AY98" s="55" t="s">
         <v>554</v>
       </c>
       <c r="AZ98" s="25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="BA98" s="54" t="s">
         <v>556</v>
       </c>
       <c r="BB98" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BC98" s="54" t="s">
         <v>557</v>
@@ -54784,7 +54785,7 @@
         <v>596</v>
       </c>
       <c r="BF98" s="41" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="BG98" s="56" t="s">
         <v>598</v>
@@ -54826,37 +54827,37 @@
         <v>627</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C99" s="48" t="s">
         <v>629</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>630</v>
       </c>
       <c r="F99" s="37" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G99" s="49" t="s">
         <v>631</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I99" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K99" s="48" t="s">
         <v>633</v>
       </c>
       <c r="L99" s="21" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="M99" s="48" t="s">
         <v>635</v>
@@ -54865,7 +54866,7 @@
         <v>549</v>
       </c>
       <c r="P99" s="23" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="Q99" s="50" t="s">
         <v>777</v>
@@ -54879,37 +54880,37 @@
         <v>576</v>
       </c>
       <c r="AD99" s="24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AE99" s="53" t="s">
         <v>578</v>
       </c>
       <c r="AF99" s="24" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AG99" s="53" t="s">
         <v>579</v>
       </c>
       <c r="AH99" s="67" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="AI99" s="69" t="s">
         <v>580</v>
       </c>
       <c r="AJ99" s="67" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AK99" s="69" t="s">
         <v>581</v>
       </c>
       <c r="AL99" s="24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AM99" s="53" t="s">
         <v>582</v>
       </c>
       <c r="AN99" s="24" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AO99" s="53" t="s">
         <v>583</v>
@@ -54918,37 +54919,37 @@
         <v>576</v>
       </c>
       <c r="AR99" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AS99" s="54" t="s">
         <v>578</v>
       </c>
       <c r="AT99" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="AU99" s="54" t="s">
         <v>579</v>
       </c>
       <c r="AV99" s="40" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="AW99" s="55" t="s">
         <v>580</v>
       </c>
       <c r="AX99" s="40" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY99" s="55" t="s">
         <v>581</v>
       </c>
       <c r="AZ99" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BA99" s="54" t="s">
         <v>582</v>
       </c>
       <c r="BB99" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="BC99" s="54" t="s">
         <v>583</v>
@@ -54957,13 +54958,13 @@
         <v>627</v>
       </c>
       <c r="BF99" s="41" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BG99" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH99" s="41" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="BI99" s="56" t="s">
         <v>630</v>
@@ -54977,7 +54978,7 @@
         <v>627</v>
       </c>
       <c r="CD99" s="28" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="CE99" s="58" t="s">
         <v>633</v>
@@ -55024,7 +55025,7 @@
         <v>636</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C100" s="48" t="s">
         <v>636</v>
@@ -55043,7 +55044,7 @@
         <v>576</v>
       </c>
       <c r="P100" s="23" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="Q100" s="50" t="s">
         <v>789</v>
@@ -55057,37 +55058,37 @@
         <v>596</v>
       </c>
       <c r="AD100" s="24" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AE100" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AF100" s="24" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AG100" s="53" t="s">
         <v>600</v>
       </c>
       <c r="AH100" s="67" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AI100" s="69" t="s">
         <v>602</v>
       </c>
       <c r="AJ100" s="67" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AK100" s="69" t="s">
         <v>604</v>
       </c>
       <c r="AL100" s="24" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AM100" s="53" t="s">
         <v>605</v>
       </c>
       <c r="AN100" s="24" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AO100" s="53" t="s">
         <v>606</v>
@@ -55096,37 +55097,37 @@
         <v>596</v>
       </c>
       <c r="AR100" s="25" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AS100" s="54" t="s">
         <v>598</v>
       </c>
       <c r="AT100" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AU100" s="54" t="s">
         <v>600</v>
       </c>
       <c r="AV100" s="40" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AW100" s="55" t="s">
         <v>602</v>
       </c>
       <c r="AX100" s="40" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY100" s="55" t="s">
         <v>604</v>
       </c>
       <c r="AZ100" s="25" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="BA100" s="54" t="s">
         <v>605</v>
       </c>
       <c r="BB100" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="BC100" s="54" t="s">
         <v>606</v>
@@ -55135,7 +55136,7 @@
         <v>636</v>
       </c>
       <c r="BF100" s="41" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="BG100" s="56" t="s">
         <v>636</v>
@@ -55189,13 +55190,13 @@
         <v>673</v>
       </c>
       <c r="CT100" s="70" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="CU100" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV100" s="70" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="CW100" s="71" t="s">
         <v>677</v>
@@ -55212,7 +55213,7 @@
         <v>596</v>
       </c>
       <c r="P101" s="23" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="Q101" s="50" t="s">
         <v>802</v>
@@ -55226,7 +55227,7 @@
         <v>636</v>
       </c>
       <c r="AD101" s="24" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AE101" s="53" t="s">
         <v>636</v>
@@ -55245,37 +55246,37 @@
         <v>627</v>
       </c>
       <c r="AR101" s="25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="AS101" s="54" t="s">
         <v>629</v>
       </c>
       <c r="AT101" s="25" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="AU101" s="54" t="s">
         <v>630</v>
       </c>
       <c r="AV101" s="40" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AW101" s="55" t="s">
         <v>631</v>
       </c>
       <c r="AX101" s="40" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AY101" s="55" t="s">
         <v>632</v>
       </c>
       <c r="AZ101" s="25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="BA101" s="54" t="s">
         <v>633</v>
       </c>
       <c r="BB101" s="25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BC101" s="54" t="s">
         <v>635</v>
@@ -55320,13 +55321,13 @@
         <v>700</v>
       </c>
       <c r="CT101" s="70" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CU101" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV101" s="70" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="CW101" s="71" t="s">
         <v>703</v>
@@ -55364,7 +55365,7 @@
         <v>636</v>
       </c>
       <c r="P102" s="23" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q102" s="50" t="s">
         <v>636</v>
@@ -55444,13 +55445,13 @@
         <v>733</v>
       </c>
       <c r="CT102" s="70" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="CU102" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV102" s="70" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="CW102" s="71" t="s">
         <v>737</v>
@@ -55540,13 +55541,13 @@
         <v>417</v>
       </c>
       <c r="BF103" s="41" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="BG103" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH103" s="41" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="BI103" s="56" t="s">
         <v>421</v>
@@ -55555,13 +55556,13 @@
         <v>417</v>
       </c>
       <c r="BR103" s="75" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS103" s="77" t="s">
         <v>423</v>
       </c>
       <c r="BT103" s="75" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BU103" s="77" t="s">
         <v>425</v>
@@ -55634,7 +55635,7 @@
         <v>417</v>
       </c>
       <c r="AD104" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AE104" s="53" t="s">
         <v>419</v>
@@ -55680,13 +55681,13 @@
         <v>455</v>
       </c>
       <c r="BF104" s="41" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="BG104" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH104" s="41" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="BI104" s="56" t="s">
         <v>458</v>
@@ -55695,13 +55696,13 @@
         <v>455</v>
       </c>
       <c r="BR104" s="75" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="BS104" s="77" t="s">
         <v>459</v>
       </c>
       <c r="BT104" s="75" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BU104" s="77" t="s">
         <v>460</v>
@@ -55811,13 +55812,13 @@
         <v>482</v>
       </c>
       <c r="BF105" s="41" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="BG105" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH105" s="41" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="BI105" s="56" t="s">
         <v>486</v>
@@ -55826,13 +55827,13 @@
         <v>482</v>
       </c>
       <c r="BR105" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="BS105" s="77" t="s">
         <v>488</v>
       </c>
       <c r="BT105" s="75" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="BU105" s="77" t="s">
         <v>490</v>
@@ -55975,13 +55976,13 @@
         <v>519</v>
       </c>
       <c r="BF106" s="41" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="BG106" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH106" s="41" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="BI106" s="56" t="s">
         <v>523</v>
@@ -55990,13 +55991,13 @@
         <v>519</v>
       </c>
       <c r="BR106" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="BS106" s="77" t="s">
         <v>524</v>
       </c>
       <c r="BT106" s="75" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="BU106" s="77" t="s">
         <v>526</v>
@@ -56008,25 +56009,25 @@
         <v>664</v>
       </c>
       <c r="CJ106" s="59" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="CK106" s="60" t="s">
         <v>666</v>
       </c>
       <c r="CL106" s="59" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="CM106" s="60" t="s">
         <v>668</v>
       </c>
       <c r="CN106" s="59" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="CO106" s="60" t="s">
         <v>670</v>
       </c>
       <c r="CP106" s="59" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="CQ106" s="60" t="s">
         <v>672</v>
@@ -56035,25 +56036,25 @@
         <v>443</v>
       </c>
       <c r="CT106" s="70" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="CU106" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV106" s="70" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="CW106" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX106" s="70" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="CY106" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ106" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="DA106" s="71" t="s">
         <v>451</v>
@@ -56155,13 +56156,13 @@
         <v>549</v>
       </c>
       <c r="BF107" s="41" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="BG107" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH107" s="41" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="BI107" s="56" t="s">
         <v>552</v>
@@ -56170,13 +56171,13 @@
         <v>549</v>
       </c>
       <c r="BR107" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="BS107" s="77" t="s">
         <v>553</v>
       </c>
       <c r="BT107" s="75" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="BU107" s="77" t="s">
         <v>554</v>
@@ -56188,25 +56189,25 @@
         <v>691</v>
       </c>
       <c r="CJ107" s="59" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="CK107" s="60" t="s">
         <v>693</v>
       </c>
       <c r="CL107" s="59" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="CM107" s="60" t="s">
         <v>695</v>
       </c>
       <c r="CN107" s="59" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="CO107" s="60" t="s">
         <v>697</v>
       </c>
       <c r="CP107" s="59" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="CQ107" s="60" t="s">
         <v>699</v>
@@ -56215,25 +56216,25 @@
         <v>470</v>
       </c>
       <c r="CT107" s="70" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="CU107" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV107" s="70" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="CW107" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX107" s="70" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="CY107" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ107" s="70" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="DA107" s="71" t="s">
         <v>478</v>
@@ -56335,13 +56336,13 @@
         <v>576</v>
       </c>
       <c r="BF108" s="41" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="BG108" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH108" s="41" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="BI108" s="56" t="s">
         <v>579</v>
@@ -56350,13 +56351,13 @@
         <v>576</v>
       </c>
       <c r="BR108" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="BS108" s="77" t="s">
         <v>580</v>
       </c>
       <c r="BT108" s="75" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="BU108" s="77" t="s">
         <v>581</v>
@@ -56368,25 +56369,25 @@
         <v>724</v>
       </c>
       <c r="CJ108" s="59" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="CK108" s="60" t="s">
         <v>726</v>
       </c>
       <c r="CL108" s="59" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="CM108" s="60" t="s">
         <v>728</v>
       </c>
       <c r="CN108" s="59" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="CO108" s="60" t="s">
         <v>730</v>
       </c>
       <c r="CP108" s="59" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="CQ108" s="60" t="s">
         <v>732</v>
@@ -56395,25 +56396,25 @@
         <v>507</v>
       </c>
       <c r="CT108" s="70" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="CU108" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV108" s="70" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="CW108" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX108" s="70" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="CY108" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ108" s="70" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="DA108" s="71" t="s">
         <v>514</v>
@@ -56515,13 +56516,13 @@
         <v>596</v>
       </c>
       <c r="BF109" s="41" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="BG109" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH109" s="41" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="BI109" s="56" t="s">
         <v>600</v>
@@ -56530,13 +56531,13 @@
         <v>596</v>
       </c>
       <c r="BR109" s="75" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="BS109" s="77" t="s">
         <v>602</v>
       </c>
       <c r="BT109" s="75" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="BU109" s="77" t="s">
         <v>604</v>
@@ -56557,25 +56558,25 @@
         <v>538</v>
       </c>
       <c r="CT109" s="46" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="CU109" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV109" s="46" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="CW109" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX109" s="46" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="CY109" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ109" s="46" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="DA109" s="19" t="s">
         <v>546</v>
@@ -56677,13 +56678,13 @@
         <v>627</v>
       </c>
       <c r="BF110" s="41" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="BG110" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH110" s="41" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="BI110" s="56" t="s">
         <v>630</v>
@@ -56692,13 +56693,13 @@
         <v>627</v>
       </c>
       <c r="BR110" s="75" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS110" s="77" t="s">
         <v>631</v>
       </c>
       <c r="BT110" s="75" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="BU110" s="77" t="s">
         <v>632</v>
@@ -56715,25 +56716,25 @@
         <v>567</v>
       </c>
       <c r="CT110" s="46" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="CU110" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV110" s="46" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="CW110" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX110" s="46" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="CY110" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ110" s="46" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="DA110" s="19" t="s">
         <v>574</v>
@@ -56795,7 +56796,7 @@
         <v>636</v>
       </c>
       <c r="BF111" s="41" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="BG111" s="56" t="s">
         <v>636</v>
@@ -56806,7 +56807,7 @@
         <v>636</v>
       </c>
       <c r="BR111" s="75" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BS111" s="57" t="s">
         <v>636</v>
@@ -56839,25 +56840,25 @@
         <v>589</v>
       </c>
       <c r="CT111" s="46" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="CU111" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV111" s="46" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="CW111" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX111" s="46" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="CY111" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ111" s="46" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="DA111" s="19" t="s">
         <v>594</v>
@@ -56909,19 +56910,19 @@
         <v>675</v>
       </c>
       <c r="CL112" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="CM112" s="60" t="s">
         <v>677</v>
       </c>
       <c r="CN112" s="59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="CO112" s="60" t="s">
         <v>945</v>
       </c>
       <c r="CP112" s="59" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="CQ112" s="60" t="s">
         <v>947</v>
@@ -56930,25 +56931,25 @@
         <v>618</v>
       </c>
       <c r="CT112" s="70" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="CU112" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV112" s="70" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="CW112" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX112" s="70" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="CY112" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ112" s="70" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="DA112" s="71" t="s">
         <v>626</v>
@@ -57051,25 +57052,25 @@
         <v>700</v>
       </c>
       <c r="CJ113" s="59" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="CK113" s="60" t="s">
         <v>701</v>
       </c>
       <c r="CL113" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CM113" s="60" t="s">
         <v>703</v>
       </c>
       <c r="CN113" s="59" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="CO113" s="60" t="s">
         <v>959</v>
       </c>
       <c r="CP113" s="59" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="CQ113" s="60" t="s">
         <v>961</v>
@@ -57078,25 +57079,25 @@
         <v>642</v>
       </c>
       <c r="CT113" s="70" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="CU113" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV113" s="70" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="CW113" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX113" s="70" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="CY113" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ113" s="70" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="DA113" s="71" t="s">
         <v>650</v>
@@ -57107,7 +57108,7 @@
         <v>417</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C114" s="48" t="s">
         <v>419</v>
@@ -57119,25 +57120,25 @@
         <v>421</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G114" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I114" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K114" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="M114" s="48" t="s">
         <v>429</v>
@@ -57152,37 +57153,37 @@
         <v>417</v>
       </c>
       <c r="AD114" s="24" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="AE114" s="53" t="s">
         <v>419</v>
       </c>
       <c r="AF114" s="24" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AG114" s="53" t="s">
         <v>421</v>
       </c>
       <c r="AH114" s="67" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AI114" s="69" t="s">
         <v>423</v>
       </c>
       <c r="AJ114" s="67" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AK114" s="69" t="s">
         <v>425</v>
       </c>
       <c r="AL114" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AM114" s="53" t="s">
         <v>427</v>
       </c>
       <c r="AN114" s="24" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="AO114" s="53" t="s">
         <v>429</v>
@@ -57198,13 +57199,13 @@
         <v>417</v>
       </c>
       <c r="BF114" s="41" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="BG114" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH114" s="41" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="BI114" s="56" t="s">
         <v>421</v>
@@ -57213,13 +57214,13 @@
         <v>417</v>
       </c>
       <c r="BR114" s="75" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="BS114" s="77" t="s">
         <v>423</v>
       </c>
       <c r="BT114" s="75" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="BU114" s="77" t="s">
         <v>425</v>
@@ -57231,25 +57232,25 @@
         <v>733</v>
       </c>
       <c r="CJ114" s="59" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="CK114" s="60" t="s">
         <v>735</v>
       </c>
       <c r="CL114" s="59" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="CM114" s="60" t="s">
         <v>737</v>
       </c>
       <c r="CN114" s="59" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="CO114" s="60" t="s">
         <v>974</v>
       </c>
       <c r="CP114" s="59" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="CQ114" s="60" t="s">
         <v>976</v>
@@ -57258,25 +57259,25 @@
         <v>652</v>
       </c>
       <c r="CT114" s="70" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="CU114" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV114" s="70" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="CW114" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX114" s="70" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="CY114" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ114" s="70" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="DA114" s="71" t="s">
         <v>660</v>
@@ -57293,31 +57294,31 @@
         <v>456</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G115" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I115" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J115" s="21" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K115" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="M115" s="48" t="s">
         <v>463</v>
@@ -57332,37 +57333,37 @@
         <v>455</v>
       </c>
       <c r="AD115" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AE115" s="53" t="s">
         <v>456</v>
       </c>
       <c r="AF115" s="24" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AG115" s="53" t="s">
         <v>458</v>
       </c>
       <c r="AH115" s="67" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AI115" s="69" t="s">
         <v>459</v>
       </c>
       <c r="AJ115" s="67" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AK115" s="69" t="s">
         <v>460</v>
       </c>
       <c r="AL115" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AM115" s="53" t="s">
         <v>461</v>
       </c>
       <c r="AN115" s="24" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="AO115" s="53" t="s">
         <v>463</v>
@@ -57378,13 +57379,13 @@
         <v>455</v>
       </c>
       <c r="BF115" s="41" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="BG115" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH115" s="41" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="BI115" s="56" t="s">
         <v>458</v>
@@ -57393,13 +57394,13 @@
         <v>455</v>
       </c>
       <c r="BR115" s="75" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="BS115" s="77" t="s">
         <v>459</v>
       </c>
       <c r="BT115" s="75" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="BU115" s="77" t="s">
         <v>460</v>
@@ -57420,25 +57421,25 @@
         <v>664</v>
       </c>
       <c r="CT115" s="46" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="CU115" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV115" s="46" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="CW115" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX115" s="46" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="CY115" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ115" s="46" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="DA115" s="19" t="s">
         <v>672</v>
@@ -57461,19 +57462,19 @@
         <v>486</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G116" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I116" s="49" t="s">
         <v>490</v>
       </c>
       <c r="J116" s="21" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K116" s="48" t="s">
         <v>491</v>
@@ -57494,37 +57495,37 @@
         <v>482</v>
       </c>
       <c r="AD116" s="24" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AE116" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AF116" s="24" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AG116" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AH116" s="67" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AI116" s="69" t="s">
         <v>488</v>
       </c>
       <c r="AJ116" s="67" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AK116" s="69" t="s">
         <v>490</v>
       </c>
       <c r="AL116" s="24" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AM116" s="53" t="s">
         <v>491</v>
       </c>
       <c r="AN116" s="24" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AO116" s="53" t="s">
         <v>492</v>
@@ -57540,13 +57541,13 @@
         <v>482</v>
       </c>
       <c r="BF116" s="41" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="BG116" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH116" s="41" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="BI116" s="56" t="s">
         <v>486</v>
@@ -57555,13 +57556,13 @@
         <v>482</v>
       </c>
       <c r="BR116" s="75" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BS116" s="77" t="s">
         <v>488</v>
       </c>
       <c r="BT116" s="75" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="BU116" s="77" t="s">
         <v>490</v>
@@ -57578,25 +57579,25 @@
         <v>691</v>
       </c>
       <c r="CT116" s="46" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="CU116" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV116" s="46" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="CW116" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX116" s="46" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="CY116" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ116" s="46" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="DA116" s="19" t="s">
         <v>699</v>
@@ -57607,7 +57608,7 @@
         <v>519</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C117" s="48" t="s">
         <v>521</v>
@@ -57619,25 +57620,25 @@
         <v>523</v>
       </c>
       <c r="F117" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G117" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I117" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J117" s="21" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K117" s="48" t="s">
         <v>527</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="M117" s="48" t="s">
         <v>528</v>
@@ -57652,37 +57653,37 @@
         <v>519</v>
       </c>
       <c r="AD117" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AE117" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AF117" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AG117" s="53" t="s">
         <v>523</v>
       </c>
       <c r="AH117" s="67" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AI117" s="69" t="s">
         <v>524</v>
       </c>
       <c r="AJ117" s="67" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AK117" s="69" t="s">
         <v>526</v>
       </c>
       <c r="AL117" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AM117" s="53" t="s">
         <v>527</v>
       </c>
       <c r="AN117" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AO117" s="53" t="s">
         <v>528</v>
@@ -57698,13 +57699,13 @@
         <v>519</v>
       </c>
       <c r="BF117" s="41" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="BG117" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH117" s="41" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="BI117" s="56" t="s">
         <v>523</v>
@@ -57713,13 +57714,13 @@
         <v>519</v>
       </c>
       <c r="BR117" s="75" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BS117" s="77" t="s">
         <v>524</v>
       </c>
       <c r="BT117" s="75" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="BU117" s="77" t="s">
         <v>526</v>
@@ -57750,25 +57751,25 @@
         <v>724</v>
       </c>
       <c r="CT117" s="46" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="CU117" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV117" s="46" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="CW117" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX117" s="46" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="CY117" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ117" s="46" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="DA117" s="19" t="s">
         <v>732</v>
@@ -57791,19 +57792,19 @@
         <v>552</v>
       </c>
       <c r="F118" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G118" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I118" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J118" s="21" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K118" s="48" t="s">
         <v>556</v>
@@ -57824,37 +57825,37 @@
         <v>549</v>
       </c>
       <c r="AD118" s="24" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AE118" s="53" t="s">
         <v>551</v>
       </c>
       <c r="AF118" s="24" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AG118" s="53" t="s">
         <v>552</v>
       </c>
       <c r="AH118" s="67" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AI118" s="69" t="s">
         <v>553</v>
       </c>
       <c r="AJ118" s="67" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AK118" s="69" t="s">
         <v>554</v>
       </c>
       <c r="AL118" s="24" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AM118" s="53" t="s">
         <v>556</v>
       </c>
       <c r="AN118" s="24" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AO118" s="53" t="s">
         <v>557</v>
@@ -57870,13 +57871,13 @@
         <v>549</v>
       </c>
       <c r="BF118" s="41" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="BG118" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH118" s="41" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="BI118" s="56" t="s">
         <v>552</v>
@@ -57885,13 +57886,13 @@
         <v>549</v>
       </c>
       <c r="BR118" s="75" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BS118" s="77" t="s">
         <v>553</v>
       </c>
       <c r="BT118" s="75" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="BU118" s="77" t="s">
         <v>554</v>
@@ -57900,31 +57901,31 @@
       <c r="CD118" s="22"/>
       <c r="CF118" s="22"/>
       <c r="CI118" s="78" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CJ118" s="59" t="s">
         <v>1646</v>
       </c>
-      <c r="CJ118" s="59" t="s">
+      <c r="CK118" s="60" t="s">
         <v>1647</v>
       </c>
-      <c r="CK118" s="60" t="s">
+      <c r="CL118" s="59" t="s">
         <v>1648</v>
       </c>
-      <c r="CL118" s="59" t="s">
+      <c r="CM118" s="60" t="s">
         <v>1649</v>
-      </c>
-      <c r="CM118" s="60" t="s">
-        <v>1650</v>
       </c>
       <c r="CN118" s="59" t="s">
         <v>694</v>
       </c>
       <c r="CO118" s="73" t="s">
+        <v>1650</v>
+      </c>
+      <c r="CP118" s="59" t="s">
         <v>1651</v>
       </c>
-      <c r="CP118" s="59" t="s">
+      <c r="CQ118" s="73" t="s">
         <v>1652</v>
-      </c>
-      <c r="CQ118" s="73" t="s">
-        <v>1653</v>
       </c>
       <c r="CS118" s="2"/>
       <c r="CT118" s="2"/>
@@ -57953,25 +57954,25 @@
         <v>579</v>
       </c>
       <c r="F119" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G119" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I119" s="49" t="s">
         <v>581</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K119" s="48" t="s">
         <v>582</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="M119" s="48" t="s">
         <v>583</v>
@@ -57986,37 +57987,37 @@
         <v>576</v>
       </c>
       <c r="AD119" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AE119" s="53" t="s">
         <v>578</v>
       </c>
       <c r="AF119" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AG119" s="53" t="s">
         <v>579</v>
       </c>
       <c r="AH119" s="67" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AI119" s="69" t="s">
         <v>580</v>
       </c>
       <c r="AJ119" s="67" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AK119" s="69" t="s">
         <v>581</v>
       </c>
       <c r="AL119" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AM119" s="53" t="s">
         <v>582</v>
       </c>
       <c r="AN119" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AO119" s="53" t="s">
         <v>583</v>
@@ -58032,13 +58033,13 @@
         <v>576</v>
       </c>
       <c r="BF119" s="41" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="BG119" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH119" s="41" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="BI119" s="56" t="s">
         <v>579</v>
@@ -58047,13 +58048,13 @@
         <v>576</v>
       </c>
       <c r="BR119" s="75" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BS119" s="77" t="s">
         <v>580</v>
       </c>
       <c r="BT119" s="75" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="BU119" s="77" t="s">
         <v>581</v>
@@ -58062,31 +58063,31 @@
       <c r="CD119" s="22"/>
       <c r="CF119" s="22"/>
       <c r="CI119" s="78" t="s">
+        <v>1653</v>
+      </c>
+      <c r="CJ119" s="59" t="s">
         <v>1654</v>
       </c>
-      <c r="CJ119" s="59" t="s">
+      <c r="CK119" s="60" t="s">
         <v>1655</v>
-      </c>
-      <c r="CK119" s="60" t="s">
-        <v>1656</v>
       </c>
       <c r="CL119" s="59" t="s">
         <v>694</v>
       </c>
       <c r="CM119" s="60" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="CN119" s="59" t="s">
         <v>696</v>
       </c>
       <c r="CO119" s="73" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="CP119" s="59" t="s">
         <v>698</v>
       </c>
       <c r="CQ119" s="73" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -58106,13 +58107,13 @@
         <v>600</v>
       </c>
       <c r="F120" s="37" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G120" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I120" s="49" t="s">
         <v>604</v>
@@ -58139,37 +58140,37 @@
         <v>596</v>
       </c>
       <c r="AD120" s="24" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="AE120" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AF120" s="24" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="AG120" s="53" t="s">
         <v>600</v>
       </c>
       <c r="AH120" s="67" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="AI120" s="69" t="s">
         <v>602</v>
       </c>
       <c r="AJ120" s="67" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AK120" s="69" t="s">
         <v>604</v>
       </c>
       <c r="AL120" s="24" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="AM120" s="53" t="s">
         <v>605</v>
       </c>
       <c r="AN120" s="24" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="AO120" s="53" t="s">
         <v>606</v>
@@ -58185,13 +58186,13 @@
         <v>596</v>
       </c>
       <c r="BF120" s="41" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="BG120" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH120" s="41" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="BI120" s="56" t="s">
         <v>600</v>
@@ -58200,13 +58201,13 @@
         <v>596</v>
       </c>
       <c r="BR120" s="75" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="BS120" s="77" t="s">
         <v>602</v>
       </c>
       <c r="BT120" s="75" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="BU120" s="77" t="s">
         <v>604</v>
@@ -58215,31 +58216,31 @@
       <c r="CD120" s="22"/>
       <c r="CF120" s="22"/>
       <c r="CI120" s="59" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="CJ120" s="59" t="s">
         <v>729</v>
       </c>
       <c r="CK120" s="60" t="s">
+        <v>1670</v>
+      </c>
+      <c r="CL120" s="59" t="s">
         <v>1671</v>
       </c>
-      <c r="CL120" s="59" t="s">
+      <c r="CM120" s="60" t="s">
         <v>1672</v>
       </c>
-      <c r="CM120" s="60" t="s">
+      <c r="CN120" s="59" t="s">
         <v>1673</v>
       </c>
-      <c r="CN120" s="59" t="s">
+      <c r="CO120" s="73" t="s">
         <v>1674</v>
       </c>
-      <c r="CO120" s="73" t="s">
+      <c r="CP120" s="59" t="s">
         <v>1675</v>
       </c>
-      <c r="CP120" s="59" t="s">
+      <c r="CQ120" s="73" t="s">
         <v>1676</v>
-      </c>
-      <c r="CQ120" s="73" t="s">
-        <v>1677</v>
       </c>
       <c r="CS120" s="46" t="s">
         <v>378</v>
@@ -58272,31 +58273,31 @@
         <v>629</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>630</v>
       </c>
       <c r="F121" s="37" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G121" s="49" t="s">
         <v>631</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I121" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K121" s="48" t="s">
         <v>633</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="M121" s="48" t="s">
         <v>635</v>
@@ -58311,7 +58312,7 @@
         <v>636</v>
       </c>
       <c r="AD121" s="24" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="AE121" s="53" t="s">
         <v>636</v>
@@ -58337,13 +58338,13 @@
         <v>627</v>
       </c>
       <c r="BF121" s="41" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="BG121" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH121" s="41" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="BI121" s="56" t="s">
         <v>630</v>
@@ -58352,13 +58353,13 @@
         <v>627</v>
       </c>
       <c r="BR121" s="75" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="BS121" s="77" t="s">
         <v>631</v>
       </c>
       <c r="BT121" s="75" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="BU121" s="77" t="s">
         <v>632</v>
@@ -58379,25 +58380,25 @@
         <v>443</v>
       </c>
       <c r="CT121" s="70" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="CU121" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV121" s="70" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="CW121" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX121" s="70" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="CY121" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ121" s="70" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="DA121" s="71" t="s">
         <v>451</v>
@@ -58447,7 +58448,7 @@
         <v>636</v>
       </c>
       <c r="BF122" s="41" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="BG122" s="56" t="s">
         <v>636</v>
@@ -58458,7 +58459,7 @@
         <v>636</v>
       </c>
       <c r="BR122" s="75" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="BS122" s="57" t="s">
         <v>636</v>
@@ -58472,25 +58473,25 @@
         <v>470</v>
       </c>
       <c r="CT122" s="70" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="CU122" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV122" s="70" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="CW122" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX122" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="CY122" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ122" s="70" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="DA122" s="71" t="s">
         <v>478</v>
@@ -58575,25 +58576,25 @@
         <v>507</v>
       </c>
       <c r="CT123" s="70" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="CU123" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV123" s="70" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="CW123" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX123" s="70" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="CY123" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ123" s="70" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="DA123" s="71" t="s">
         <v>514</v>
@@ -58616,7 +58617,7 @@
         <v>417</v>
       </c>
       <c r="AD124" s="24" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AE124" s="53" t="s">
         <v>419</v>
@@ -58628,25 +58629,25 @@
         <v>421</v>
       </c>
       <c r="AH124" s="67" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AI124" s="69" t="s">
         <v>423</v>
       </c>
       <c r="AJ124" s="67" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AK124" s="69" t="s">
         <v>425</v>
       </c>
       <c r="AL124" s="24" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AM124" s="53" t="s">
         <v>427</v>
       </c>
       <c r="AN124" s="24" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AO124" s="53" t="s">
         <v>429</v>
@@ -58684,55 +58685,55 @@
       <c r="CD124" s="22"/>
       <c r="CF124" s="22"/>
       <c r="CI124" s="59" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="CJ124" s="59" t="s">
         <v>651</v>
       </c>
       <c r="CK124" s="60" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="CL124" s="59" t="s">
         <v>835</v>
       </c>
       <c r="CM124" s="60" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="CN124" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CO124" s="60" t="s">
+        <v>1700</v>
+      </c>
+      <c r="CP124" s="59" t="s">
         <v>1701</v>
       </c>
-      <c r="CP124" s="59" t="s">
+      <c r="CQ124" s="60" t="s">
         <v>1702</v>
-      </c>
-      <c r="CQ124" s="60" t="s">
-        <v>1703</v>
       </c>
       <c r="CS124" s="46" t="s">
         <v>538</v>
       </c>
       <c r="CT124" s="46" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="CU124" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV124" s="46" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="CW124" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX124" s="46" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="CY124" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ124" s="46" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="DA124" s="19" t="s">
         <v>546</v>
@@ -58776,7 +58777,7 @@
         <v>455</v>
       </c>
       <c r="AD125" s="24" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AE125" s="53" t="s">
         <v>456</v>
@@ -58788,25 +58789,25 @@
         <v>458</v>
       </c>
       <c r="AH125" s="67" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AI125" s="69" t="s">
         <v>459</v>
       </c>
       <c r="AJ125" s="67" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AK125" s="69" t="s">
         <v>460</v>
       </c>
       <c r="AL125" s="24" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AM125" s="53" t="s">
         <v>461</v>
       </c>
       <c r="AN125" s="24" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AO125" s="53" t="s">
         <v>463</v>
@@ -58837,13 +58838,13 @@
         <v>417</v>
       </c>
       <c r="BR125" s="75" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="BS125" s="77" t="s">
         <v>423</v>
       </c>
       <c r="BT125" s="75" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="BU125" s="77" t="s">
         <v>425</v>
@@ -58852,55 +58853,55 @@
       <c r="CD125" s="22"/>
       <c r="CF125" s="22"/>
       <c r="CI125" s="59" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="CJ125" s="59" t="s">
         <v>457</v>
       </c>
       <c r="CK125" s="60" t="s">
+        <v>1710</v>
+      </c>
+      <c r="CL125" s="59" t="s">
+        <v>1253</v>
+      </c>
+      <c r="CM125" s="60" t="s">
         <v>1711</v>
       </c>
-      <c r="CL125" s="59" t="s">
-        <v>1254</v>
-      </c>
-      <c r="CM125" s="60" t="s">
+      <c r="CN125" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="CN125" s="59" t="s">
+      <c r="CO125" s="60" t="s">
         <v>1713</v>
       </c>
-      <c r="CO125" s="60" t="s">
+      <c r="CP125" s="59" t="s">
         <v>1714</v>
       </c>
-      <c r="CP125" s="59" t="s">
+      <c r="CQ125" s="60" t="s">
         <v>1715</v>
-      </c>
-      <c r="CQ125" s="60" t="s">
-        <v>1716</v>
       </c>
       <c r="CS125" s="46" t="s">
         <v>567</v>
       </c>
       <c r="CT125" s="46" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="CU125" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV125" s="46" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="CW125" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX125" s="46" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="CY125" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ125" s="46" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="DA125" s="19" t="s">
         <v>574</v>
@@ -58911,37 +58912,37 @@
         <v>417</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C126" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E126" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G126" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I126" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="K126" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="M126" s="48" t="s">
         <v>429</v>
@@ -58956,37 +58957,37 @@
         <v>482</v>
       </c>
       <c r="AD126" s="24" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AE126" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AF126" s="24" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AG126" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AH126" s="67" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AI126" s="69" t="s">
         <v>488</v>
       </c>
       <c r="AJ126" s="67" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AK126" s="69" t="s">
         <v>490</v>
       </c>
       <c r="AL126" s="24" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AM126" s="53" t="s">
         <v>491</v>
       </c>
       <c r="AN126" s="24" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AO126" s="53" t="s">
         <v>492</v>
@@ -59017,13 +59018,13 @@
         <v>455</v>
       </c>
       <c r="BR126" s="75" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="BS126" s="77" t="s">
         <v>459</v>
       </c>
       <c r="BT126" s="75" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="BU126" s="77" t="s">
         <v>460</v>
@@ -59032,55 +59033,55 @@
       <c r="CD126" s="22"/>
       <c r="CF126" s="22"/>
       <c r="CI126" s="59" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="CJ126" s="59" t="s">
         <v>426</v>
       </c>
       <c r="CK126" s="60" t="s">
+        <v>1725</v>
+      </c>
+      <c r="CL126" s="59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="CM126" s="60" t="s">
         <v>1726</v>
-      </c>
-      <c r="CL126" s="59" t="s">
-        <v>1266</v>
-      </c>
-      <c r="CM126" s="60" t="s">
-        <v>1727</v>
       </c>
       <c r="CN126" s="59" t="s">
         <v>194</v>
       </c>
       <c r="CO126" s="60" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CP126" s="59" t="s">
+        <v>1602</v>
+      </c>
+      <c r="CQ126" s="60" t="s">
         <v>1728</v>
-      </c>
-      <c r="CP126" s="59" t="s">
-        <v>1603</v>
-      </c>
-      <c r="CQ126" s="60" t="s">
-        <v>1729</v>
       </c>
       <c r="CS126" s="46" t="s">
         <v>589</v>
       </c>
       <c r="CT126" s="46" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="CU126" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV126" s="46" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="CW126" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX126" s="46" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="CY126" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ126" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="DA126" s="19" t="s">
         <v>594</v>
@@ -59091,37 +59092,37 @@
         <v>455</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C127" s="48" t="s">
         <v>456</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E127" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G127" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I127" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="K127" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="M127" s="48" t="s">
         <v>463</v>
@@ -59136,37 +59137,37 @@
         <v>519</v>
       </c>
       <c r="AD127" s="24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="AE127" s="53" t="s">
         <v>521</v>
       </c>
       <c r="AF127" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AG127" s="53" t="s">
         <v>523</v>
       </c>
       <c r="AH127" s="67" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="AI127" s="69" t="s">
         <v>524</v>
       </c>
       <c r="AJ127" s="67" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="AK127" s="69" t="s">
         <v>526</v>
       </c>
       <c r="AL127" s="24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="AM127" s="53" t="s">
         <v>527</v>
       </c>
       <c r="AN127" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AO127" s="53" t="s">
         <v>528</v>
@@ -59182,7 +59183,7 @@
         <v>482</v>
       </c>
       <c r="BF127" s="41" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="BG127" s="56" t="s">
         <v>484</v>
@@ -59197,13 +59198,13 @@
         <v>482</v>
       </c>
       <c r="BR127" s="75" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="BS127" s="77" t="s">
         <v>488</v>
       </c>
       <c r="BT127" s="75" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="BU127" s="77" t="s">
         <v>490</v>
@@ -59224,19 +59225,19 @@
         <v>618</v>
       </c>
       <c r="CT127" s="70" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="CU127" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV127" s="70" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="CW127" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX127" s="70" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="CY127" s="71" t="s">
         <v>624</v>
@@ -59251,37 +59252,37 @@
         <v>482</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C128" s="48" t="s">
         <v>484</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E128" s="48" t="s">
         <v>486</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G128" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I128" s="49" t="s">
         <v>490</v>
       </c>
       <c r="J128" s="21" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="K128" s="48" t="s">
         <v>491</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="M128" s="48" t="s">
         <v>492</v>
@@ -59296,37 +59297,37 @@
         <v>549</v>
       </c>
       <c r="AD128" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AE128" s="53" t="s">
         <v>551</v>
       </c>
       <c r="AF128" s="24" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AG128" s="53" t="s">
         <v>552</v>
       </c>
       <c r="AH128" s="67" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="AI128" s="69" t="s">
         <v>553</v>
       </c>
       <c r="AJ128" s="67" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AK128" s="69" t="s">
         <v>554</v>
       </c>
       <c r="AL128" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="AM128" s="53" t="s">
         <v>556</v>
       </c>
       <c r="AN128" s="24" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AO128" s="53" t="s">
         <v>557</v>
@@ -59348,7 +59349,7 @@
         <v>521</v>
       </c>
       <c r="BH128" s="41" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="BI128" s="56" t="s">
         <v>523</v>
@@ -59357,13 +59358,13 @@
         <v>519</v>
       </c>
       <c r="BR128" s="75" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="BS128" s="77" t="s">
         <v>524</v>
       </c>
       <c r="BT128" s="75" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="BU128" s="77" t="s">
         <v>526</v>
@@ -59375,13 +59376,13 @@
         <v>642</v>
       </c>
       <c r="CT128" s="70" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="CU128" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV128" s="70" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="CW128" s="71" t="s">
         <v>646</v>
@@ -59400,37 +59401,37 @@
         <v>519</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C129" s="48" t="s">
         <v>521</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E129" s="48" t="s">
         <v>523</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G129" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I129" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="K129" s="48" t="s">
         <v>527</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="M129" s="48" t="s">
         <v>528</v>
@@ -59445,37 +59446,37 @@
         <v>576</v>
       </c>
       <c r="AD129" s="24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="AE129" s="53" t="s">
         <v>578</v>
       </c>
       <c r="AF129" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AG129" s="53" t="s">
         <v>579</v>
       </c>
       <c r="AH129" s="67" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="AI129" s="69" t="s">
         <v>580</v>
       </c>
       <c r="AJ129" s="67" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="AK129" s="69" t="s">
         <v>581</v>
       </c>
       <c r="AL129" s="24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="AM129" s="53" t="s">
         <v>582</v>
       </c>
       <c r="AN129" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AO129" s="53" t="s">
         <v>583</v>
@@ -59491,7 +59492,7 @@
         <v>549</v>
       </c>
       <c r="BF129" s="41" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="BG129" s="56" t="s">
         <v>551</v>
@@ -59506,13 +59507,13 @@
         <v>549</v>
       </c>
       <c r="BR129" s="75" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="BS129" s="77" t="s">
         <v>553</v>
       </c>
       <c r="BT129" s="75" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="BU129" s="77" t="s">
         <v>554</v>
@@ -59543,25 +59544,25 @@
         <v>652</v>
       </c>
       <c r="CT129" s="70" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="CU129" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV129" s="70" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="CW129" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX129" s="70" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="CY129" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ129" s="70" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="DA129" s="71" t="s">
         <v>660</v>
@@ -59572,37 +59573,37 @@
         <v>549</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C130" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E130" s="48" t="s">
         <v>552</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G130" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I130" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J130" s="21" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K130" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="M130" s="48" t="s">
         <v>557</v>
@@ -59617,37 +59618,37 @@
         <v>596</v>
       </c>
       <c r="AD130" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AE130" s="53" t="s">
         <v>598</v>
       </c>
       <c r="AF130" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AG130" s="53" t="s">
         <v>600</v>
       </c>
       <c r="AH130" s="67" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AI130" s="69" t="s">
         <v>602</v>
       </c>
       <c r="AJ130" s="67" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AK130" s="69" t="s">
         <v>604</v>
       </c>
       <c r="AL130" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AM130" s="53" t="s">
         <v>605</v>
       </c>
       <c r="AN130" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AO130" s="53" t="s">
         <v>606</v>
@@ -59669,7 +59670,7 @@
         <v>578</v>
       </c>
       <c r="BH130" s="41" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="BI130" s="56" t="s">
         <v>579</v>
@@ -59678,13 +59679,13 @@
         <v>576</v>
       </c>
       <c r="BR130" s="75" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="BS130" s="77" t="s">
         <v>580</v>
       </c>
       <c r="BT130" s="75" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="BU130" s="77" t="s">
         <v>581</v>
@@ -59723,25 +59724,25 @@
         <v>664</v>
       </c>
       <c r="CT130" s="46" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="CU130" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV130" s="46" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="CW130" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX130" s="46" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="CY130" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ130" s="46" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="DA130" s="19" t="s">
         <v>672</v>
@@ -59752,37 +59753,37 @@
         <v>576</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C131" s="48" t="s">
         <v>578</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E131" s="48" t="s">
         <v>579</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G131" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H131" s="37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I131" s="49" t="s">
         <v>581</v>
       </c>
       <c r="J131" s="21" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="K131" s="48" t="s">
         <v>582</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="M131" s="48" t="s">
         <v>583</v>
@@ -59797,7 +59798,7 @@
         <v>636</v>
       </c>
       <c r="AD131" s="24" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AE131" s="53" t="s">
         <v>636</v>
@@ -59829,7 +59830,7 @@
         <v>598</v>
       </c>
       <c r="BH131" s="41" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="BI131" s="56" t="s">
         <v>600</v>
@@ -59838,13 +59839,13 @@
         <v>596</v>
       </c>
       <c r="BR131" s="75" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="BS131" s="77" t="s">
         <v>602</v>
       </c>
       <c r="BT131" s="75" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="BU131" s="77" t="s">
         <v>604</v>
@@ -59883,25 +59884,25 @@
         <v>691</v>
       </c>
       <c r="CT131" s="46" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="CU131" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV131" s="46" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="CW131" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX131" s="46" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="CY131" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ131" s="46" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="DA131" s="19" t="s">
         <v>699</v>
@@ -59912,37 +59913,37 @@
         <v>596</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C132" s="48" t="s">
         <v>598</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E132" s="48" t="s">
         <v>600</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G132" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I132" s="49" t="s">
         <v>604</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K132" s="48" t="s">
         <v>605</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="M132" s="48" t="s">
         <v>606</v>
@@ -59986,13 +59987,13 @@
         <v>627</v>
       </c>
       <c r="BR132" s="75" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="BS132" s="77" t="s">
         <v>631</v>
       </c>
       <c r="BT132" s="75" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="BU132" s="77" t="s">
         <v>632</v>
@@ -60031,25 +60032,25 @@
         <v>724</v>
       </c>
       <c r="CT132" s="46" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="CU132" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV132" s="46" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="CW132" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX132" s="46" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="CY132" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ132" s="46" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="DA132" s="19" t="s">
         <v>732</v>
@@ -60060,37 +60061,37 @@
         <v>627</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C133" s="48" t="s">
         <v>629</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E133" s="48" t="s">
         <v>630</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G133" s="49" t="s">
         <v>631</v>
       </c>
       <c r="H133" s="37" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I133" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J133" s="21" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K133" s="48" t="s">
         <v>633</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="M133" s="48" t="s">
         <v>635</v>
@@ -60119,7 +60120,7 @@
         <v>636</v>
       </c>
       <c r="BF133" s="41" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="BG133" s="56" t="s">
         <v>636</v>
@@ -60130,7 +60131,7 @@
         <v>636</v>
       </c>
       <c r="BR133" s="75" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="BS133" s="57" t="s">
         <v>636</v>
@@ -60164,7 +60165,7 @@
         <v>636</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C134" s="48" t="s">
         <v>636</v>
@@ -60344,13 +60345,13 @@
         <v>417</v>
       </c>
       <c r="BF136" s="41" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="BG136" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH136" s="41" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="BI136" s="56" t="s">
         <v>421</v>
@@ -60359,13 +60360,13 @@
         <v>417</v>
       </c>
       <c r="BR136" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="BS136" s="57" t="s">
         <v>423</v>
       </c>
       <c r="BT136" s="27" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="BU136" s="57" t="s">
         <v>425</v>
@@ -60383,7 +60384,7 @@
         <v>675</v>
       </c>
       <c r="CL136" s="59" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="CM136" s="60" t="s">
         <v>677</v>
@@ -60395,7 +60396,7 @@
         <v>945</v>
       </c>
       <c r="CP136" s="59" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="CQ136" s="60" t="s">
         <v>947</v>
@@ -60404,13 +60405,13 @@
         <v>673</v>
       </c>
       <c r="CT136" s="70" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="CU136" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV136" s="70" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="CW136" s="71" t="s">
         <v>677</v>
@@ -60480,13 +60481,13 @@
         <v>455</v>
       </c>
       <c r="BF137" s="41" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BG137" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH137" s="41" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="BI137" s="56" t="s">
         <v>458</v>
@@ -60495,13 +60496,13 @@
         <v>455</v>
       </c>
       <c r="BR137" s="27" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="BS137" s="57" t="s">
         <v>459</v>
       </c>
       <c r="BT137" s="27" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="BU137" s="57" t="s">
         <v>460</v>
@@ -60513,25 +60514,25 @@
         <v>700</v>
       </c>
       <c r="CJ137" s="59" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="CK137" s="60" t="s">
         <v>701</v>
       </c>
       <c r="CL137" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CM137" s="60" t="s">
         <v>703</v>
       </c>
       <c r="CN137" s="59" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="CO137" s="60" t="s">
         <v>959</v>
       </c>
       <c r="CP137" s="59" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="CQ137" s="60" t="s">
         <v>961</v>
@@ -60540,13 +60541,13 @@
         <v>700</v>
       </c>
       <c r="CT137" s="70" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="CU137" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV137" s="70" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="CW137" s="71" t="s">
         <v>703</v>
@@ -60616,13 +60617,13 @@
         <v>482</v>
       </c>
       <c r="BF138" s="41" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="BG138" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH138" s="41" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="BI138" s="56" t="s">
         <v>486</v>
@@ -60631,13 +60632,13 @@
         <v>482</v>
       </c>
       <c r="BR138" s="27" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="BS138" s="57" t="s">
         <v>488</v>
       </c>
       <c r="BT138" s="27" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="BU138" s="57" t="s">
         <v>490</v>
@@ -60655,19 +60656,19 @@
         <v>735</v>
       </c>
       <c r="CL138" s="59" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="CM138" s="60" t="s">
         <v>737</v>
       </c>
       <c r="CN138" s="59" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="CO138" s="60" t="s">
         <v>974</v>
       </c>
       <c r="CP138" s="59" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="CQ138" s="60" t="s">
         <v>976</v>
@@ -60676,13 +60677,13 @@
         <v>733</v>
       </c>
       <c r="CT138" s="70" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="CU138" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV138" s="70" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="CW138" s="71" t="s">
         <v>737</v>
@@ -60711,7 +60712,7 @@
         <v>488</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I139" s="49" t="s">
         <v>490</v>
@@ -60752,13 +60753,13 @@
         <v>519</v>
       </c>
       <c r="BF139" s="41" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="BG139" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH139" s="41" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="BI139" s="56" t="s">
         <v>523</v>
@@ -60767,13 +60768,13 @@
         <v>519</v>
       </c>
       <c r="BR139" s="27" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="BS139" s="57" t="s">
         <v>524</v>
       </c>
       <c r="BT139" s="27" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="BU139" s="57" t="s">
         <v>526</v>
@@ -60801,7 +60802,7 @@
         <v>519</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C140" s="48" t="s">
         <v>521</v>
@@ -60825,7 +60826,7 @@
         <v>526</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="K140" s="48" t="s">
         <v>527</v>
@@ -60860,13 +60861,13 @@
         <v>549</v>
       </c>
       <c r="BF140" s="41" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="BG140" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH140" s="41" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="BI140" s="56" t="s">
         <v>552</v>
@@ -60875,13 +60876,13 @@
         <v>549</v>
       </c>
       <c r="BR140" s="27" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="BS140" s="57" t="s">
         <v>553</v>
       </c>
       <c r="BT140" s="27" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="BU140" s="57" t="s">
         <v>554</v>
@@ -60913,7 +60914,7 @@
         <v>553</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I141" s="49" t="s">
         <v>554</v>
@@ -60954,13 +60955,13 @@
         <v>576</v>
       </c>
       <c r="BF141" s="41" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="BG141" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH141" s="41" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="BI141" s="56" t="s">
         <v>579</v>
@@ -60969,13 +60970,13 @@
         <v>576</v>
       </c>
       <c r="BR141" s="27" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="BS141" s="57" t="s">
         <v>580</v>
       </c>
       <c r="BT141" s="27" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="BU141" s="57" t="s">
         <v>581</v>
@@ -61086,13 +61087,13 @@
         <v>596</v>
       </c>
       <c r="BF142" s="41" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="BG142" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH142" s="41" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="BI142" s="56" t="s">
         <v>600</v>
@@ -61101,13 +61102,13 @@
         <v>596</v>
       </c>
       <c r="BR142" s="27" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="BS142" s="57" t="s">
         <v>602</v>
       </c>
       <c r="BT142" s="27" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="BU142" s="57" t="s">
         <v>604</v>
@@ -61125,19 +61126,19 @@
         <v>675</v>
       </c>
       <c r="CL142" s="59" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="CM142" s="60" t="s">
         <v>677</v>
       </c>
       <c r="CN142" s="59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="CO142" s="60" t="s">
         <v>945</v>
       </c>
       <c r="CP142" s="59" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="CQ142" s="60" t="s">
         <v>947</v>
@@ -61146,25 +61147,25 @@
         <v>443</v>
       </c>
       <c r="CT142" s="70" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="CU142" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV142" s="70" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="CW142" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX142" s="70" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="CY142" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ142" s="70" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="DA142" s="71" t="s">
         <v>451</v>
@@ -61187,13 +61188,13 @@
         <v>600</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G143" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I143" s="49" t="s">
         <v>604</v>
@@ -61234,13 +61235,13 @@
         <v>627</v>
       </c>
       <c r="BF143" s="41" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="BG143" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH143" s="41" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="BI143" s="56" t="s">
         <v>630</v>
@@ -61249,13 +61250,13 @@
         <v>627</v>
       </c>
       <c r="BR143" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="BS143" s="57" t="s">
         <v>631</v>
       </c>
       <c r="BT143" s="27" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="BU143" s="57" t="s">
         <v>632</v>
@@ -61267,25 +61268,25 @@
         <v>700</v>
       </c>
       <c r="CJ143" s="59" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="CK143" s="60" t="s">
         <v>701</v>
       </c>
       <c r="CL143" s="59" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="CM143" s="60" t="s">
         <v>703</v>
       </c>
       <c r="CN143" s="59" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="CO143" s="60" t="s">
         <v>959</v>
       </c>
       <c r="CP143" s="59" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="CQ143" s="60" t="s">
         <v>961</v>
@@ -61294,25 +61295,25 @@
         <v>470</v>
       </c>
       <c r="CT143" s="70" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="CU143" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV143" s="70" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="CW143" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX143" s="70" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="CY143" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ143" s="70" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="DA143" s="71" t="s">
         <v>478</v>
@@ -61382,7 +61383,7 @@
         <v>636</v>
       </c>
       <c r="BF144" s="41" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="BG144" s="56" t="s">
         <v>636</v>
@@ -61393,7 +61394,7 @@
         <v>636</v>
       </c>
       <c r="BR144" s="27" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="BS144" s="57" t="s">
         <v>636</v>
@@ -61413,19 +61414,19 @@
         <v>735</v>
       </c>
       <c r="CL144" s="59" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="CM144" s="60" t="s">
         <v>737</v>
       </c>
       <c r="CN144" s="59" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="CO144" s="60" t="s">
         <v>974</v>
       </c>
       <c r="CP144" s="59" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="CQ144" s="60" t="s">
         <v>976</v>
@@ -61434,25 +61435,25 @@
         <v>507</v>
       </c>
       <c r="CT144" s="70" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CU144" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV144" s="70" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="CW144" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX144" s="70" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="CY144" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ144" s="70" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="DA144" s="71" t="s">
         <v>514</v>
@@ -61520,25 +61521,25 @@
         <v>538</v>
       </c>
       <c r="CT145" s="46" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="CU145" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV145" s="46" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="CW145" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX145" s="46" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="CY145" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ145" s="46" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="DA145" s="19" t="s">
         <v>546</v>
@@ -61619,25 +61620,25 @@
         <v>567</v>
       </c>
       <c r="CT146" s="46" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="CU146" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV146" s="46" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="CW146" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX146" s="46" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="CY146" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ146" s="46" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="DA146" s="19" t="s">
         <v>574</v>
@@ -61725,55 +61726,55 @@
       <c r="CD147" s="22"/>
       <c r="CF147" s="22"/>
       <c r="CI147" s="78" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="CJ147" s="59" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CK147" s="60" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CL147" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="CK147" s="60" t="s">
-        <v>1648</v>
-      </c>
-      <c r="CL147" s="59" t="s">
+      <c r="CM147" s="60" t="s">
+        <v>1649</v>
+      </c>
+      <c r="CN147" s="59" t="s">
         <v>1860</v>
       </c>
-      <c r="CM147" s="60" t="s">
+      <c r="CO147" s="73" t="s">
         <v>1650</v>
       </c>
-      <c r="CN147" s="59" t="s">
+      <c r="CP147" s="59" t="s">
         <v>1861</v>
       </c>
-      <c r="CO147" s="73" t="s">
-        <v>1651</v>
-      </c>
-      <c r="CP147" s="59" t="s">
-        <v>1862</v>
-      </c>
       <c r="CQ147" s="73" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="CS147" s="46" t="s">
         <v>589</v>
       </c>
       <c r="CT147" s="46" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CU147" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV147" s="46" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="CW147" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX147" s="46" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="CY147" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ147" s="46" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="DA147" s="19" t="s">
         <v>594</v>
@@ -61790,7 +61791,7 @@
         <v>419</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>421</v>
@@ -61814,7 +61815,7 @@
         <v>427</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M148" s="48" t="s">
         <v>429</v>
@@ -61858,7 +61859,7 @@
         <v>455</v>
       </c>
       <c r="BL148" s="41" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="BM148" s="56" t="s">
         <v>456</v>
@@ -61873,55 +61874,55 @@
       <c r="CD148" s="22"/>
       <c r="CF148" s="22"/>
       <c r="CI148" s="78" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="CJ148" s="59" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="CK148" s="60" t="s">
+        <v>1655</v>
+      </c>
+      <c r="CL148" s="59" t="s">
+        <v>1860</v>
+      </c>
+      <c r="CM148" s="60" t="s">
         <v>1656</v>
-      </c>
-      <c r="CL148" s="59" t="s">
-        <v>1861</v>
-      </c>
-      <c r="CM148" s="60" t="s">
-        <v>1657</v>
       </c>
       <c r="CN148" s="59" t="s">
         <v>905</v>
       </c>
       <c r="CO148" s="73" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="CP148" s="59" t="s">
         <v>906</v>
       </c>
       <c r="CQ148" s="73" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="CS148" s="70" t="s">
         <v>618</v>
       </c>
       <c r="CT148" s="70" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="CU148" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV148" s="70" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="CW148" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX148" s="70" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="CY148" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ148" s="70" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="DA148" s="71" t="s">
         <v>626</v>
@@ -61938,7 +61939,7 @@
         <v>456</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>458</v>
@@ -61962,7 +61963,7 @@
         <v>461</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M149" s="48" t="s">
         <v>463</v>
@@ -62021,55 +62022,55 @@
       <c r="CD149" s="22"/>
       <c r="CF149" s="22"/>
       <c r="CI149" s="59" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="CJ149" s="59" t="s">
         <v>922</v>
       </c>
       <c r="CK149" s="60" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="CL149" s="59" t="s">
+        <v>1871</v>
+      </c>
+      <c r="CM149" s="60" t="s">
+        <v>1672</v>
+      </c>
+      <c r="CN149" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="CM149" s="60" t="s">
-        <v>1673</v>
-      </c>
-      <c r="CN149" s="59" t="s">
+      <c r="CO149" s="73" t="s">
+        <v>1674</v>
+      </c>
+      <c r="CP149" s="59" t="s">
         <v>1873</v>
       </c>
-      <c r="CO149" s="73" t="s">
-        <v>1675</v>
-      </c>
-      <c r="CP149" s="59" t="s">
-        <v>1874</v>
-      </c>
       <c r="CQ149" s="73" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="CS149" s="70" t="s">
         <v>642</v>
       </c>
       <c r="CT149" s="70" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CU149" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV149" s="70" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="CW149" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX149" s="70" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="CY149" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ149" s="70" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="DA149" s="71" t="s">
         <v>650</v>
@@ -62086,7 +62087,7 @@
         <v>484</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>486</v>
@@ -62098,7 +62099,7 @@
         <v>488</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="I150" s="49" t="s">
         <v>490</v>
@@ -62110,7 +62111,7 @@
         <v>491</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M150" s="48" t="s">
         <v>492</v>
@@ -62139,7 +62140,7 @@
         <v>519</v>
       </c>
       <c r="BF150" s="41" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BG150" s="56" t="s">
         <v>521</v>
@@ -62154,7 +62155,7 @@
         <v>519</v>
       </c>
       <c r="BL150" s="41" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BM150" s="56" t="s">
         <v>521</v>
@@ -62172,25 +62173,25 @@
         <v>652</v>
       </c>
       <c r="CT150" s="70" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="CU150" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV150" s="70" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="CW150" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX150" s="70" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="CY150" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ150" s="70" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="DA150" s="71" t="s">
         <v>660</v>
@@ -62207,7 +62208,7 @@
         <v>521</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>523</v>
@@ -62219,7 +62220,7 @@
         <v>524</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I151" s="49" t="s">
         <v>526</v>
@@ -62231,7 +62232,7 @@
         <v>527</v>
       </c>
       <c r="L151" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M151" s="48" t="s">
         <v>528</v>
@@ -62260,7 +62261,7 @@
         <v>549</v>
       </c>
       <c r="BF151" s="41" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="BG151" s="56" t="s">
         <v>551</v>
@@ -62275,7 +62276,7 @@
         <v>549</v>
       </c>
       <c r="BL151" s="41" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="BM151" s="56" t="s">
         <v>551</v>
@@ -62293,25 +62294,25 @@
         <v>664</v>
       </c>
       <c r="CT151" s="46" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="CU151" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV151" s="46" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="CW151" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX151" s="46" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="CY151" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ151" s="46" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="DA151" s="19" t="s">
         <v>672</v>
@@ -62322,13 +62323,13 @@
         <v>549</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C152" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>552</v>
@@ -62340,19 +62341,19 @@
         <v>553</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="I152" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K152" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M152" s="48" t="s">
         <v>557</v>
@@ -62381,7 +62382,7 @@
         <v>576</v>
       </c>
       <c r="BF152" s="41" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="BG152" s="56" t="s">
         <v>578</v>
@@ -62396,7 +62397,7 @@
         <v>576</v>
       </c>
       <c r="BL152" s="41" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="BM152" s="56" t="s">
         <v>578</v>
@@ -62414,25 +62415,25 @@
         <v>691</v>
       </c>
       <c r="CT152" s="46" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="CU152" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV152" s="46" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="CW152" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX152" s="46" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="CY152" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ152" s="46" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="DA152" s="19" t="s">
         <v>699</v>
@@ -62449,7 +62450,7 @@
         <v>578</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>579</v>
@@ -62461,7 +62462,7 @@
         <v>580</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I153" s="49" t="s">
         <v>581</v>
@@ -62473,7 +62474,7 @@
         <v>582</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M153" s="48" t="s">
         <v>583</v>
@@ -62517,7 +62518,7 @@
         <v>596</v>
       </c>
       <c r="BL153" s="41" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="BM153" s="56" t="s">
         <v>598</v>
@@ -62535,25 +62536,25 @@
         <v>724</v>
       </c>
       <c r="CT153" s="46" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="CU153" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV153" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="CW153" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX153" s="46" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="CY153" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ153" s="46" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="DA153" s="19" t="s">
         <v>732</v>
@@ -62570,7 +62571,7 @@
         <v>598</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>600</v>
@@ -62582,7 +62583,7 @@
         <v>602</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="I154" s="49" t="s">
         <v>604</v>
@@ -62594,7 +62595,7 @@
         <v>605</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="M154" s="48" t="s">
         <v>606</v>
@@ -62894,13 +62895,13 @@
         <v>673</v>
       </c>
       <c r="CT158" s="70" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="CU158" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV158" s="70" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="CW158" s="71" t="s">
         <v>677</v>
@@ -62911,37 +62912,37 @@
         <v>417</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C159" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E159" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G159" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I159" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K159" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L159" s="21" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M159" s="48" t="s">
         <v>429</v>
@@ -62970,13 +62971,13 @@
         <v>417</v>
       </c>
       <c r="BF159" s="41" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="BG159" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH159" s="41" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="BI159" s="56" t="s">
         <v>421</v>
@@ -62991,13 +62992,13 @@
         <v>700</v>
       </c>
       <c r="CT159" s="70" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="CU159" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV159" s="70" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="CW159" s="71" t="s">
         <v>703</v>
@@ -63008,37 +63009,37 @@
         <v>455</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C160" s="48" t="s">
         <v>456</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E160" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G160" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I160" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K160" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M160" s="48" t="s">
         <v>463</v>
@@ -63067,13 +63068,13 @@
         <v>455</v>
       </c>
       <c r="BF160" s="41" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="BG160" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH160" s="41" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="BI160" s="56" t="s">
         <v>458</v>
@@ -63088,13 +63089,13 @@
         <v>733</v>
       </c>
       <c r="CT160" s="70" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="CU160" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV160" s="70" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="CW160" s="71" t="s">
         <v>737</v>
@@ -63105,37 +63106,37 @@
         <v>482</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C161" s="48" t="s">
         <v>484</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E161" s="48" t="s">
         <v>486</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G161" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I161" s="49" t="s">
         <v>490</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="K161" s="48" t="s">
         <v>491</v>
       </c>
       <c r="L161" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M161" s="48" t="s">
         <v>492</v>
@@ -63164,13 +63165,13 @@
         <v>482</v>
       </c>
       <c r="BF161" s="41" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="BG161" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH161" s="41" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="BI161" s="56" t="s">
         <v>486</v>
@@ -63192,37 +63193,37 @@
         <v>519</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C162" s="48" t="s">
         <v>521</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E162" s="48" t="s">
         <v>523</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G162" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I162" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K162" s="48" t="s">
         <v>527</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M162" s="48" t="s">
         <v>528</v>
@@ -63251,13 +63252,13 @@
         <v>519</v>
       </c>
       <c r="BF162" s="41" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BG162" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH162" s="41" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="BI162" s="56" t="s">
         <v>523</v>
@@ -63274,37 +63275,37 @@
         <v>549</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C163" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E163" s="48" t="s">
         <v>552</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G163" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I163" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="K163" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L163" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M163" s="48" t="s">
         <v>557</v>
@@ -63333,13 +63334,13 @@
         <v>549</v>
       </c>
       <c r="BF163" s="41" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="BG163" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH163" s="41" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="BI163" s="56" t="s">
         <v>552</v>
@@ -63375,37 +63376,37 @@
         <v>576</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C164" s="48" t="s">
         <v>578</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E164" s="48" t="s">
         <v>579</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G164" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I164" s="49" t="s">
         <v>581</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K164" s="48" t="s">
         <v>582</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M164" s="48" t="s">
         <v>583</v>
@@ -63434,13 +63435,13 @@
         <v>576</v>
       </c>
       <c r="BF164" s="41" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BG164" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH164" s="41" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="BI164" s="56" t="s">
         <v>579</v>
@@ -63476,37 +63477,37 @@
         <v>596</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C165" s="48" t="s">
         <v>598</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>600</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G165" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="I165" s="49" t="s">
         <v>604</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K165" s="48" t="s">
         <v>605</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="M165" s="48" t="s">
         <v>606</v>
@@ -63535,13 +63536,13 @@
         <v>596</v>
       </c>
       <c r="BF165" s="41" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="BG165" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH165" s="41" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="BI165" s="56" t="s">
         <v>600</v>
@@ -63577,7 +63578,7 @@
         <v>636</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C166" s="48" t="s">
         <v>636</v>
@@ -63616,13 +63617,13 @@
         <v>627</v>
       </c>
       <c r="BF166" s="41" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="BG166" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH166" s="41" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="BI166" s="56" t="s">
         <v>630</v>
@@ -63691,7 +63692,7 @@
         <v>636</v>
       </c>
       <c r="BF167" s="41" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="BG167" s="56" t="s">
         <v>636</v>
@@ -63784,13 +63785,13 @@
         <v>570</v>
       </c>
       <c r="CX168" s="46" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="CY168" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ168" s="46" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="DA168" s="19" t="s">
         <v>574</v>
@@ -63883,7 +63884,7 @@
         <v>592</v>
       </c>
       <c r="CZ169" s="46" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="DA169" s="19" t="s">
         <v>594</v>
@@ -63894,7 +63895,7 @@
         <v>417</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C170" s="48" t="s">
         <v>419</v>
@@ -63918,7 +63919,7 @@
         <v>425</v>
       </c>
       <c r="J170" s="21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K170" s="48" t="s">
         <v>427</v>
@@ -63953,13 +63954,13 @@
         <v>417</v>
       </c>
       <c r="BF170" s="41" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="BG170" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH170" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI170" s="56" t="s">
         <v>421</v>
@@ -63974,7 +63975,7 @@
         <v>618</v>
       </c>
       <c r="CT170" s="70" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="CU170" s="71" t="s">
         <v>620</v>
@@ -64062,13 +64063,13 @@
         <v>455</v>
       </c>
       <c r="BF171" s="41" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="BG171" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH171" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI171" s="56" t="s">
         <v>458</v>
@@ -64083,13 +64084,13 @@
         <v>642</v>
       </c>
       <c r="CT171" s="70" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="CU171" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV171" s="70" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="CW171" s="71" t="s">
         <v>646</v>
@@ -64171,13 +64172,13 @@
         <v>482</v>
       </c>
       <c r="BF172" s="41" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="BG172" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH172" s="41" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="BI172" s="56" t="s">
         <v>486</v>
@@ -64192,13 +64193,13 @@
         <v>652</v>
       </c>
       <c r="CT172" s="70" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="CU172" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV172" s="70" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="CW172" s="71" t="s">
         <v>656</v>
@@ -64280,13 +64281,13 @@
         <v>519</v>
       </c>
       <c r="BF173" s="41" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="BG173" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH173" s="41" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="BI173" s="56" t="s">
         <v>523</v>
@@ -64301,25 +64302,25 @@
         <v>664</v>
       </c>
       <c r="CT173" s="46" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="CU173" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV173" s="46" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="CW173" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX173" s="46" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="CY173" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ173" s="46" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="DA173" s="19" t="s">
         <v>672</v>
@@ -64389,13 +64390,13 @@
         <v>549</v>
       </c>
       <c r="BF174" s="41" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="BG174" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH174" s="41" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="BI174" s="56" t="s">
         <v>552</v>
@@ -64410,25 +64411,25 @@
         <v>691</v>
       </c>
       <c r="CT174" s="46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="CU174" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV174" s="46" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="CW174" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX174" s="46" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="CY174" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ174" s="46" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="DA174" s="19" t="s">
         <v>699</v>
@@ -64498,13 +64499,13 @@
         <v>576</v>
       </c>
       <c r="BF175" s="41" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="BG175" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH175" s="41" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="BI175" s="56" t="s">
         <v>579</v>
@@ -64519,25 +64520,25 @@
         <v>724</v>
       </c>
       <c r="CT175" s="46" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CU175" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV175" s="46" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="CW175" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX175" s="46" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="CY175" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ175" s="46" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="DA175" s="19" t="s">
         <v>732</v>
@@ -64607,13 +64608,13 @@
         <v>596</v>
       </c>
       <c r="BF176" s="41" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BG176" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH176" s="41" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="BI176" s="56" t="s">
         <v>600</v>
@@ -64698,13 +64699,13 @@
         <v>627</v>
       </c>
       <c r="BF177" s="41" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="BG177" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH177" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI177" s="56" t="s">
         <v>630</v>
@@ -64760,7 +64761,7 @@
         <v>636</v>
       </c>
       <c r="BF178" s="41" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="BG178" s="56" t="s">
         <v>636</v>
@@ -64825,13 +64826,13 @@
         <v>673</v>
       </c>
       <c r="CT179" s="70" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="CU179" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV179" s="70" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="CW179" s="71" t="s">
         <v>677</v>
@@ -64910,7 +64911,7 @@
         <v>701</v>
       </c>
       <c r="CV180" s="70" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="CW180" s="71" t="s">
         <v>703</v>
@@ -64921,7 +64922,7 @@
         <v>417</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C181" s="48" t="s">
         <v>419</v>
@@ -64980,13 +64981,13 @@
         <v>417</v>
       </c>
       <c r="BF181" s="41" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="BG181" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH181" s="41" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="BI181" s="56" t="s">
         <v>421</v>
@@ -65001,7 +65002,7 @@
         <v>733</v>
       </c>
       <c r="CT181" s="70" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="CU181" s="71" t="s">
         <v>735</v>
@@ -65121,7 +65122,7 @@
         <v>488</v>
       </c>
       <c r="H183" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I183" s="49" t="s">
         <v>490</v>
@@ -65162,7 +65163,7 @@
         <v>482</v>
       </c>
       <c r="BF183" s="41" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="BG183" s="56" t="s">
         <v>484</v>
@@ -65244,13 +65245,13 @@
         <v>519</v>
       </c>
       <c r="BF184" s="41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="BG184" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH184" s="41" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="BI184" s="56" t="s">
         <v>523</v>
@@ -65304,7 +65305,7 @@
         <v>553</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I185" s="49" t="s">
         <v>554</v>
@@ -65345,7 +65346,7 @@
         <v>549</v>
       </c>
       <c r="BF185" s="41" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="BG185" s="56" t="s">
         <v>551</v>
@@ -65371,19 +65372,19 @@
         <v>618</v>
       </c>
       <c r="CT185" s="62" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="CU185" s="63" t="s">
         <v>620</v>
       </c>
       <c r="CV185" s="62" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="CW185" s="63" t="s">
         <v>622</v>
       </c>
       <c r="CX185" s="62" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="CY185" s="63" t="s">
         <v>624</v>
@@ -65457,13 +65458,13 @@
         <v>576</v>
       </c>
       <c r="BF186" s="41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="BG186" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH186" s="41" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="BI186" s="56" t="s">
         <v>579</v>
@@ -65483,13 +65484,13 @@
         <v>642</v>
       </c>
       <c r="CT186" s="62" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="CU186" s="63" t="s">
         <v>644</v>
       </c>
       <c r="CV186" s="62" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="CW186" s="63" t="s">
         <v>646</v>
@@ -65520,13 +65521,13 @@
         <v>600</v>
       </c>
       <c r="F187" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G187" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I187" s="49" t="s">
         <v>604</v>
@@ -65567,7 +65568,7 @@
         <v>596</v>
       </c>
       <c r="BF187" s="41" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="BG187" s="56" t="s">
         <v>598</v>
@@ -65593,13 +65594,13 @@
         <v>652</v>
       </c>
       <c r="CT187" s="62" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="CU187" s="63" t="s">
         <v>654</v>
       </c>
       <c r="CV187" s="62" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="CW187" s="63" t="s">
         <v>656</v>
@@ -65677,13 +65678,13 @@
         <v>627</v>
       </c>
       <c r="BF188" s="41" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="BG188" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH188" s="41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="BI188" s="56" t="s">
         <v>630</v>
@@ -65753,7 +65754,7 @@
         <v>636</v>
       </c>
       <c r="BF189" s="41" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="BG189" s="56" t="s">
         <v>636</v>
@@ -65916,25 +65917,25 @@
         <v>443</v>
       </c>
       <c r="CT191" s="70" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="CU191" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV191" s="70" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="CW191" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX191" s="70" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="CY191" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ191" s="70" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="DA191" s="71" t="s">
         <v>451</v>
@@ -66004,7 +66005,7 @@
         <v>417</v>
       </c>
       <c r="BF192" s="41" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="BG192" s="56" t="s">
         <v>419</v>
@@ -66028,25 +66029,25 @@
         <v>470</v>
       </c>
       <c r="CT192" s="70" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="CU192" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV192" s="70" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="CW192" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX192" s="70" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="CY192" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ192" s="70" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="DA192" s="71" t="s">
         <v>478</v>
@@ -66116,7 +66117,7 @@
         <v>455</v>
       </c>
       <c r="BF193" s="41" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="BG193" s="56" t="s">
         <v>456</v>
@@ -66140,25 +66141,25 @@
         <v>507</v>
       </c>
       <c r="CT193" s="70" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="CU193" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV193" s="70" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="CW193" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX193" s="70" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CY193" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ193" s="70" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="DA193" s="71" t="s">
         <v>514</v>
@@ -66187,7 +66188,7 @@
         <v>488</v>
       </c>
       <c r="H194" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I194" s="49" t="s">
         <v>490</v>
@@ -66250,25 +66251,25 @@
         <v>538</v>
       </c>
       <c r="CT194" s="46" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="CU194" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV194" s="46" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="CW194" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX194" s="46" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="CY194" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ194" s="46" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="DA194" s="19" t="s">
         <v>546</v>
@@ -66279,7 +66280,7 @@
         <v>519</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C195" s="48" t="s">
         <v>521</v>
@@ -66303,7 +66304,7 @@
         <v>526</v>
       </c>
       <c r="J195" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="K195" s="48" t="s">
         <v>527</v>
@@ -66360,25 +66361,25 @@
         <v>567</v>
       </c>
       <c r="CT195" s="46" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="CU195" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV195" s="46" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="CW195" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX195" s="46" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="CY195" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ195" s="46" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="DA195" s="19" t="s">
         <v>574</v>
@@ -66407,7 +66408,7 @@
         <v>553</v>
       </c>
       <c r="H196" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I196" s="49" t="s">
         <v>554</v>
@@ -66470,25 +66471,25 @@
         <v>589</v>
       </c>
       <c r="CT196" s="46" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="CU196" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV196" s="46" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="CW196" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX196" s="46" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CY196" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ196" s="46" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="DA196" s="19" t="s">
         <v>594</v>
@@ -66580,25 +66581,25 @@
         <v>618</v>
       </c>
       <c r="CT197" s="70" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="CU197" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV197" s="70" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="CW197" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX197" s="70" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="CY197" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ197" s="70" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="DA197" s="71" t="s">
         <v>626</v>
@@ -66621,13 +66622,13 @@
         <v>600</v>
       </c>
       <c r="F198" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G198" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H198" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I198" s="49" t="s">
         <v>604</v>
@@ -66690,25 +66691,25 @@
         <v>642</v>
       </c>
       <c r="CT198" s="70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="CU198" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV198" s="70" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="CW198" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX198" s="70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="CY198" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ198" s="70" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="DA198" s="71" t="s">
         <v>650</v>
@@ -66800,25 +66801,25 @@
         <v>652</v>
       </c>
       <c r="CT199" s="70" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="CU199" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV199" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="CW199" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX199" s="70" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="CY199" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ199" s="70" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="DA199" s="71" t="s">
         <v>660</v>
@@ -66999,25 +67000,25 @@
         <v>673</v>
       </c>
       <c r="CT202" s="70" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="CU202" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV202" s="70" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="CW202" s="71" t="s">
         <v>677</v>
       </c>
       <c r="CX202" s="70" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="CY202" s="71" t="s">
         <v>945</v>
       </c>
       <c r="CZ202" s="70" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="DA202" s="71" t="s">
         <v>947</v>
@@ -67060,7 +67061,7 @@
         <v>419</v>
       </c>
       <c r="BH203" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BI203" s="56" t="s">
         <v>421</v>
@@ -67080,25 +67081,25 @@
         <v>700</v>
       </c>
       <c r="CT203" s="70" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="CU203" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV203" s="70" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="CW203" s="71" t="s">
         <v>703</v>
       </c>
       <c r="CX203" s="70" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="CY203" s="71" t="s">
         <v>959</v>
       </c>
       <c r="CZ203" s="70" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="DA203" s="71" t="s">
         <v>961</v>
@@ -67141,7 +67142,7 @@
         <v>456</v>
       </c>
       <c r="BH204" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BI204" s="56" t="s">
         <v>458</v>
@@ -67161,25 +67162,25 @@
         <v>733</v>
       </c>
       <c r="CT204" s="70" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="CU204" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV204" s="70" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="CW204" s="71" t="s">
         <v>737</v>
       </c>
       <c r="CX204" s="70" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="CY204" s="71" t="s">
         <v>974</v>
       </c>
       <c r="CZ204" s="70" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="DA204" s="71" t="s">
         <v>976</v>
@@ -67342,7 +67343,7 @@
         <v>549</v>
       </c>
       <c r="BF207" s="41" t="s">
-        <v>1231</v>
+        <v>2032</v>
       </c>
       <c r="BG207" s="56" t="s">
         <v>551</v>
@@ -67537,7 +67538,7 @@
         <v>629</v>
       </c>
       <c r="BH210" s="41" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BI210" s="56" t="s">
         <v>630</v>
@@ -69336,7 +69337,7 @@
         <v>417</v>
       </c>
       <c r="BF247" s="41" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="BG247" s="56" t="s">
         <v>419</v>
@@ -72158,10 +72159,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>2090</v>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -1759,7 +1759,8 @@
 ekasmā</t>
   </si>
   <si>
-    <t xml:space="preserve">mayā</t>
+    <t xml:space="preserve">mayā
+mamato</t>
   </si>
   <si>
     <t xml:space="preserve">1st abl sg</t>
@@ -36238,8 +36239,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF33" activeCellId="0" sqref="BF33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD9" activeCellId="0" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42692,7 +42693,7 @@
       </c>
       <c r="DA33" s="47"/>
     </row>
-    <row r="34" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="48"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9967" uniqueCount="2679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9962" uniqueCount="2678">
   <si>
     <t xml:space="preserve">inflection name</t>
   </si>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">i2 card</t>
   </si>
   <si>
-    <t xml:space="preserve">O83:S92</t>
+    <t xml:space="preserve">O83:S91</t>
   </si>
   <si>
     <t xml:space="preserve">koṭi</t>
@@ -6396,7 +6396,6 @@
   </si>
   <si>
     <t xml:space="preserve">mātarā
-mātu
 mātuyā
 matyā</t>
   </si>
@@ -6444,11 +6443,6 @@
     <t xml:space="preserve">arahatā
 arahantamhā
 arahantasmā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mātarā
-mātuyā
-matyā</t>
   </si>
   <si>
     <t xml:space="preserve">arahato
@@ -10025,12 +10019,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
-      <selection pane="bottomRight" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36239,8 +36233,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD9" activeCellId="0" sqref="AD9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O91" activeCellId="0" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53402,20 +53396,16 @@
       </c>
       <c r="M91" s="21"/>
       <c r="O91" s="27" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="P91" s="27" t="s">
         <v>720</v>
       </c>
       <c r="Q91" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="R91" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="S91" s="57" t="s">
-        <v>632</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="R91" s="27"/>
+      <c r="S91" s="42"/>
       <c r="T91" s="22"/>
       <c r="V91" s="22"/>
       <c r="X91" s="22"/>
@@ -53560,17 +53550,8 @@
       <c r="M92" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="O92" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q92" s="57" t="s">
-        <v>636</v>
-      </c>
-      <c r="R92" s="27"/>
-      <c r="S92" s="42"/>
+      <c r="P92" s="22"/>
+      <c r="R92" s="22"/>
       <c r="T92" s="22"/>
       <c r="V92" s="22"/>
       <c r="X92" s="22"/>
@@ -60558,7 +60539,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="54.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
         <v>455</v>
       </c>
@@ -60881,7 +60862,7 @@
         <v>549</v>
       </c>
       <c r="BR140" s="27" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
       <c r="BS140" s="57" t="s">
         <v>553</v>
@@ -60960,7 +60941,7 @@
         <v>576</v>
       </c>
       <c r="BF141" s="41" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="BG141" s="56" t="s">
         <v>578</v>
@@ -60975,7 +60956,7 @@
         <v>576</v>
       </c>
       <c r="BR141" s="27" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="BS141" s="57" t="s">
         <v>580</v>
@@ -61092,13 +61073,13 @@
         <v>596</v>
       </c>
       <c r="BF142" s="41" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="BG142" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH142" s="41" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="BI142" s="56" t="s">
         <v>600</v>
@@ -61107,13 +61088,13 @@
         <v>596</v>
       </c>
       <c r="BR142" s="27" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="BS142" s="57" t="s">
         <v>602</v>
       </c>
       <c r="BT142" s="27" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="BU142" s="57" t="s">
         <v>604</v>
@@ -61131,7 +61112,7 @@
         <v>675</v>
       </c>
       <c r="CL142" s="59" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="CM142" s="60" t="s">
         <v>677</v>
@@ -61152,25 +61133,25 @@
         <v>443</v>
       </c>
       <c r="CT142" s="70" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="CU142" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV142" s="70" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="CW142" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX142" s="70" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="CY142" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ142" s="70" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="DA142" s="71" t="s">
         <v>451</v>
@@ -61199,7 +61180,7 @@
         <v>602</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I143" s="49" t="s">
         <v>604</v>
@@ -61240,13 +61221,13 @@
         <v>627</v>
       </c>
       <c r="BF143" s="41" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="BG143" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH143" s="41" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="BI143" s="56" t="s">
         <v>630</v>
@@ -61255,13 +61236,13 @@
         <v>627</v>
       </c>
       <c r="BR143" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="BS143" s="57" t="s">
         <v>631</v>
       </c>
       <c r="BT143" s="27" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="BU143" s="57" t="s">
         <v>632</v>
@@ -61300,25 +61281,25 @@
         <v>470</v>
       </c>
       <c r="CT143" s="70" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="CU143" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV143" s="70" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="CW143" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX143" s="70" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="CY143" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ143" s="70" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="DA143" s="71" t="s">
         <v>478</v>
@@ -61388,7 +61369,7 @@
         <v>636</v>
       </c>
       <c r="BF144" s="41" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="BG144" s="56" t="s">
         <v>636</v>
@@ -61399,7 +61380,7 @@
         <v>636</v>
       </c>
       <c r="BR144" s="27" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="BS144" s="57" t="s">
         <v>636</v>
@@ -61440,25 +61421,25 @@
         <v>507</v>
       </c>
       <c r="CT144" s="70" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CU144" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV144" s="70" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="CW144" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX144" s="70" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="CY144" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ144" s="70" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="DA144" s="71" t="s">
         <v>514</v>
@@ -61526,25 +61507,25 @@
         <v>538</v>
       </c>
       <c r="CT145" s="46" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="CU145" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV145" s="46" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="CW145" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX145" s="46" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="CY145" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ145" s="46" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="DA145" s="19" t="s">
         <v>546</v>
@@ -61625,25 +61606,25 @@
         <v>567</v>
       </c>
       <c r="CT146" s="46" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="CU146" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV146" s="46" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="CW146" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX146" s="46" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="CY146" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ146" s="46" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="DA146" s="19" t="s">
         <v>574</v>
@@ -61734,25 +61715,25 @@
         <v>1646</v>
       </c>
       <c r="CJ147" s="59" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="CK147" s="60" t="s">
         <v>1648</v>
       </c>
       <c r="CL147" s="59" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="CM147" s="60" t="s">
         <v>1650</v>
       </c>
       <c r="CN147" s="59" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="CO147" s="73" t="s">
         <v>1651</v>
       </c>
       <c r="CP147" s="59" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="CQ147" s="73" t="s">
         <v>1653</v>
@@ -61761,25 +61742,25 @@
         <v>589</v>
       </c>
       <c r="CT147" s="46" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CU147" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV147" s="46" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="CW147" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX147" s="46" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="CY147" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ147" s="46" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="DA147" s="19" t="s">
         <v>594</v>
@@ -61796,7 +61777,7 @@
         <v>419</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>421</v>
@@ -61820,7 +61801,7 @@
         <v>427</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M148" s="48" t="s">
         <v>429</v>
@@ -61864,7 +61845,7 @@
         <v>455</v>
       </c>
       <c r="BL148" s="41" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="BM148" s="56" t="s">
         <v>456</v>
@@ -61882,13 +61863,13 @@
         <v>1654</v>
       </c>
       <c r="CJ148" s="59" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="CK148" s="60" t="s">
         <v>1656</v>
       </c>
       <c r="CL148" s="59" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="CM148" s="60" t="s">
         <v>1657</v>
@@ -61909,25 +61890,25 @@
         <v>618</v>
       </c>
       <c r="CT148" s="70" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="CU148" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV148" s="70" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="CW148" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX148" s="70" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="CY148" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ148" s="70" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="DA148" s="71" t="s">
         <v>626</v>
@@ -61944,7 +61925,7 @@
         <v>456</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>458</v>
@@ -61968,7 +61949,7 @@
         <v>461</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M149" s="48" t="s">
         <v>463</v>
@@ -62036,19 +62017,19 @@
         <v>1671</v>
       </c>
       <c r="CL149" s="59" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="CM149" s="60" t="s">
         <v>1673</v>
       </c>
       <c r="CN149" s="59" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="CO149" s="73" t="s">
         <v>1675</v>
       </c>
       <c r="CP149" s="59" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ149" s="73" t="s">
         <v>1677</v>
@@ -62057,25 +62038,25 @@
         <v>642</v>
       </c>
       <c r="CT149" s="70" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CU149" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV149" s="70" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="CW149" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX149" s="70" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="CY149" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ149" s="70" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="DA149" s="71" t="s">
         <v>650</v>
@@ -62092,7 +62073,7 @@
         <v>484</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>486</v>
@@ -62104,7 +62085,7 @@
         <v>488</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="I150" s="49" t="s">
         <v>490</v>
@@ -62116,7 +62097,7 @@
         <v>491</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M150" s="48" t="s">
         <v>492</v>
@@ -62145,7 +62126,7 @@
         <v>519</v>
       </c>
       <c r="BF150" s="41" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BG150" s="56" t="s">
         <v>521</v>
@@ -62160,7 +62141,7 @@
         <v>519</v>
       </c>
       <c r="BL150" s="41" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BM150" s="56" t="s">
         <v>521</v>
@@ -62178,25 +62159,25 @@
         <v>652</v>
       </c>
       <c r="CT150" s="70" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="CU150" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV150" s="70" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="CW150" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX150" s="70" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="CY150" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ150" s="70" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="DA150" s="71" t="s">
         <v>660</v>
@@ -62213,7 +62194,7 @@
         <v>521</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>523</v>
@@ -62225,7 +62206,7 @@
         <v>524</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I151" s="49" t="s">
         <v>526</v>
@@ -62237,7 +62218,7 @@
         <v>527</v>
       </c>
       <c r="L151" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M151" s="48" t="s">
         <v>528</v>
@@ -62266,7 +62247,7 @@
         <v>549</v>
       </c>
       <c r="BF151" s="41" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="BG151" s="56" t="s">
         <v>551</v>
@@ -62281,7 +62262,7 @@
         <v>549</v>
       </c>
       <c r="BL151" s="41" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="BM151" s="56" t="s">
         <v>551</v>
@@ -62299,25 +62280,25 @@
         <v>664</v>
       </c>
       <c r="CT151" s="46" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="CU151" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV151" s="46" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="CW151" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX151" s="46" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="CY151" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ151" s="46" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="DA151" s="19" t="s">
         <v>672</v>
@@ -62328,13 +62309,13 @@
         <v>549</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C152" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>552</v>
@@ -62346,19 +62327,19 @@
         <v>553</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="I152" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K152" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M152" s="48" t="s">
         <v>557</v>
@@ -62387,7 +62368,7 @@
         <v>576</v>
       </c>
       <c r="BF152" s="41" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="BG152" s="56" t="s">
         <v>578</v>
@@ -62402,7 +62383,7 @@
         <v>576</v>
       </c>
       <c r="BL152" s="41" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="BM152" s="56" t="s">
         <v>578</v>
@@ -62420,25 +62401,25 @@
         <v>691</v>
       </c>
       <c r="CT152" s="46" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="CU152" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV152" s="46" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="CW152" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX152" s="46" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="CY152" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ152" s="46" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="DA152" s="19" t="s">
         <v>699</v>
@@ -62455,7 +62436,7 @@
         <v>578</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>579</v>
@@ -62467,7 +62448,7 @@
         <v>580</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I153" s="49" t="s">
         <v>581</v>
@@ -62479,7 +62460,7 @@
         <v>582</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M153" s="48" t="s">
         <v>583</v>
@@ -62523,7 +62504,7 @@
         <v>596</v>
       </c>
       <c r="BL153" s="41" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="BM153" s="56" t="s">
         <v>598</v>
@@ -62541,25 +62522,25 @@
         <v>724</v>
       </c>
       <c r="CT153" s="46" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="CU153" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV153" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="CW153" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX153" s="46" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="CY153" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ153" s="46" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="DA153" s="19" t="s">
         <v>732</v>
@@ -62576,7 +62557,7 @@
         <v>598</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>600</v>
@@ -62588,7 +62569,7 @@
         <v>602</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="I154" s="49" t="s">
         <v>604</v>
@@ -62600,7 +62581,7 @@
         <v>605</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="M154" s="48" t="s">
         <v>606</v>
@@ -62900,13 +62881,13 @@
         <v>673</v>
       </c>
       <c r="CT158" s="70" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="CU158" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV158" s="70" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="CW158" s="71" t="s">
         <v>677</v>
@@ -62917,37 +62898,37 @@
         <v>417</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C159" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E159" s="48" t="s">
         <v>421</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G159" s="49" t="s">
         <v>423</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I159" s="49" t="s">
         <v>425</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K159" s="48" t="s">
         <v>427</v>
       </c>
       <c r="L159" s="21" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M159" s="48" t="s">
         <v>429</v>
@@ -62976,13 +62957,13 @@
         <v>417</v>
       </c>
       <c r="BF159" s="41" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="BG159" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH159" s="41" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="BI159" s="56" t="s">
         <v>421</v>
@@ -62997,13 +62978,13 @@
         <v>700</v>
       </c>
       <c r="CT159" s="70" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="CU159" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV159" s="70" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="CW159" s="71" t="s">
         <v>703</v>
@@ -63014,37 +62995,37 @@
         <v>455</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C160" s="48" t="s">
         <v>456</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E160" s="48" t="s">
         <v>458</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G160" s="49" t="s">
         <v>459</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I160" s="49" t="s">
         <v>460</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K160" s="48" t="s">
         <v>461</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M160" s="48" t="s">
         <v>463</v>
@@ -63073,7 +63054,7 @@
         <v>455</v>
       </c>
       <c r="BF160" s="41" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="BG160" s="56" t="s">
         <v>456</v>
@@ -63094,13 +63075,13 @@
         <v>733</v>
       </c>
       <c r="CT160" s="70" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="CU160" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV160" s="70" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="CW160" s="71" t="s">
         <v>737</v>
@@ -63111,37 +63092,37 @@
         <v>482</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C161" s="48" t="s">
         <v>484</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E161" s="48" t="s">
         <v>486</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G161" s="49" t="s">
         <v>488</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I161" s="49" t="s">
         <v>490</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="K161" s="48" t="s">
         <v>491</v>
       </c>
       <c r="L161" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M161" s="48" t="s">
         <v>492</v>
@@ -63198,37 +63179,37 @@
         <v>519</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C162" s="48" t="s">
         <v>521</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E162" s="48" t="s">
         <v>523</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G162" s="49" t="s">
         <v>524</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I162" s="49" t="s">
         <v>526</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K162" s="48" t="s">
         <v>527</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M162" s="48" t="s">
         <v>528</v>
@@ -63263,7 +63244,7 @@
         <v>521</v>
       </c>
       <c r="BH162" s="41" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="BI162" s="56" t="s">
         <v>523</v>
@@ -63280,37 +63261,37 @@
         <v>549</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C163" s="48" t="s">
         <v>551</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E163" s="48" t="s">
         <v>552</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G163" s="49" t="s">
         <v>553</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I163" s="49" t="s">
         <v>554</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="K163" s="48" t="s">
         <v>556</v>
       </c>
       <c r="L163" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M163" s="48" t="s">
         <v>557</v>
@@ -63339,7 +63320,7 @@
         <v>549</v>
       </c>
       <c r="BF163" s="41" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="BG163" s="56" t="s">
         <v>551</v>
@@ -63381,37 +63362,37 @@
         <v>576</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C164" s="48" t="s">
         <v>578</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E164" s="48" t="s">
         <v>579</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G164" s="49" t="s">
         <v>580</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I164" s="49" t="s">
         <v>581</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K164" s="48" t="s">
         <v>582</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M164" s="48" t="s">
         <v>583</v>
@@ -63446,7 +63427,7 @@
         <v>578</v>
       </c>
       <c r="BH164" s="41" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="BI164" s="56" t="s">
         <v>579</v>
@@ -63482,37 +63463,37 @@
         <v>596</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C165" s="48" t="s">
         <v>598</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>600</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G165" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="I165" s="49" t="s">
         <v>604</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K165" s="48" t="s">
         <v>605</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="M165" s="48" t="s">
         <v>606</v>
@@ -63541,7 +63522,7 @@
         <v>596</v>
       </c>
       <c r="BF165" s="41" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="BG165" s="56" t="s">
         <v>598</v>
@@ -63583,7 +63564,7 @@
         <v>636</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C166" s="48" t="s">
         <v>636</v>
@@ -63628,7 +63609,7 @@
         <v>629</v>
       </c>
       <c r="BH166" s="41" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="BI166" s="56" t="s">
         <v>630</v>
@@ -63790,13 +63771,13 @@
         <v>570</v>
       </c>
       <c r="CX168" s="46" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="CY168" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ168" s="46" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="DA168" s="19" t="s">
         <v>574</v>
@@ -63889,7 +63870,7 @@
         <v>592</v>
       </c>
       <c r="CZ169" s="46" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="DA169" s="19" t="s">
         <v>594</v>
@@ -63959,13 +63940,13 @@
         <v>417</v>
       </c>
       <c r="BF170" s="41" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="BG170" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH170" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI170" s="56" t="s">
         <v>421</v>
@@ -63980,7 +63961,7 @@
         <v>618</v>
       </c>
       <c r="CT170" s="70" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="CU170" s="71" t="s">
         <v>620</v>
@@ -64068,13 +64049,13 @@
         <v>455</v>
       </c>
       <c r="BF171" s="41" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="BG171" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH171" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI171" s="56" t="s">
         <v>458</v>
@@ -64089,13 +64070,13 @@
         <v>642</v>
       </c>
       <c r="CT171" s="70" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="CU171" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV171" s="70" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="CW171" s="71" t="s">
         <v>646</v>
@@ -64177,13 +64158,13 @@
         <v>482</v>
       </c>
       <c r="BF172" s="41" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="BG172" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH172" s="41" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="BI172" s="56" t="s">
         <v>486</v>
@@ -64198,13 +64179,13 @@
         <v>652</v>
       </c>
       <c r="CT172" s="70" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="CU172" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV172" s="70" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="CW172" s="71" t="s">
         <v>656</v>
@@ -64286,13 +64267,13 @@
         <v>519</v>
       </c>
       <c r="BF173" s="41" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="BG173" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH173" s="41" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="BI173" s="56" t="s">
         <v>523</v>
@@ -64307,25 +64288,25 @@
         <v>664</v>
       </c>
       <c r="CT173" s="46" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="CU173" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV173" s="46" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="CW173" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX173" s="46" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="CY173" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ173" s="46" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="DA173" s="19" t="s">
         <v>672</v>
@@ -64395,13 +64376,13 @@
         <v>549</v>
       </c>
       <c r="BF174" s="41" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="BG174" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH174" s="41" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="BI174" s="56" t="s">
         <v>552</v>
@@ -64416,25 +64397,25 @@
         <v>691</v>
       </c>
       <c r="CT174" s="46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="CU174" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV174" s="46" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="CW174" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX174" s="46" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="CY174" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ174" s="46" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="DA174" s="19" t="s">
         <v>699</v>
@@ -64504,13 +64485,13 @@
         <v>576</v>
       </c>
       <c r="BF175" s="41" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="BG175" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH175" s="41" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="BI175" s="56" t="s">
         <v>579</v>
@@ -64525,25 +64506,25 @@
         <v>724</v>
       </c>
       <c r="CT175" s="46" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CU175" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV175" s="46" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="CW175" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX175" s="46" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="CY175" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ175" s="46" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="DA175" s="19" t="s">
         <v>732</v>
@@ -64613,13 +64594,13 @@
         <v>596</v>
       </c>
       <c r="BF176" s="41" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BG176" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH176" s="41" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="BI176" s="56" t="s">
         <v>600</v>
@@ -64704,13 +64685,13 @@
         <v>627</v>
       </c>
       <c r="BF177" s="41" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="BG177" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH177" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="BI177" s="56" t="s">
         <v>630</v>
@@ -64766,7 +64747,7 @@
         <v>636</v>
       </c>
       <c r="BF178" s="41" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="BG178" s="56" t="s">
         <v>636</v>
@@ -64831,13 +64812,13 @@
         <v>673</v>
       </c>
       <c r="CT179" s="70" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="CU179" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV179" s="70" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="CW179" s="71" t="s">
         <v>677</v>
@@ -64916,7 +64897,7 @@
         <v>701</v>
       </c>
       <c r="CV180" s="70" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="CW180" s="71" t="s">
         <v>703</v>
@@ -65007,7 +64988,7 @@
         <v>733</v>
       </c>
       <c r="CT181" s="70" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="CU181" s="71" t="s">
         <v>735</v>
@@ -65168,7 +65149,7 @@
         <v>482</v>
       </c>
       <c r="BF183" s="41" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="BG183" s="56" t="s">
         <v>484</v>
@@ -65250,7 +65231,7 @@
         <v>519</v>
       </c>
       <c r="BF184" s="41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="BG184" s="56" t="s">
         <v>521</v>
@@ -65351,7 +65332,7 @@
         <v>549</v>
       </c>
       <c r="BF185" s="41" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="BG185" s="56" t="s">
         <v>551</v>
@@ -65377,13 +65358,13 @@
         <v>618</v>
       </c>
       <c r="CT185" s="62" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="CU185" s="63" t="s">
         <v>620</v>
       </c>
       <c r="CV185" s="62" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="CW185" s="63" t="s">
         <v>622</v>
@@ -65463,7 +65444,7 @@
         <v>576</v>
       </c>
       <c r="BF186" s="41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="BG186" s="56" t="s">
         <v>578</v>
@@ -65489,7 +65470,7 @@
         <v>642</v>
       </c>
       <c r="CT186" s="62" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="CU186" s="63" t="s">
         <v>644</v>
@@ -65532,7 +65513,7 @@
         <v>602</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I187" s="49" t="s">
         <v>604</v>
@@ -65573,7 +65554,7 @@
         <v>596</v>
       </c>
       <c r="BF187" s="41" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="BG187" s="56" t="s">
         <v>598</v>
@@ -65599,13 +65580,13 @@
         <v>652</v>
       </c>
       <c r="CT187" s="62" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="CU187" s="63" t="s">
         <v>654</v>
       </c>
       <c r="CV187" s="62" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="CW187" s="63" t="s">
         <v>656</v>
@@ -65683,13 +65664,13 @@
         <v>627</v>
       </c>
       <c r="BF188" s="41" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="BG188" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH188" s="41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="BI188" s="56" t="s">
         <v>630</v>
@@ -65759,7 +65740,7 @@
         <v>636</v>
       </c>
       <c r="BF189" s="41" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="BG189" s="56" t="s">
         <v>636</v>
@@ -65922,25 +65903,25 @@
         <v>443</v>
       </c>
       <c r="CT191" s="70" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="CU191" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV191" s="70" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="CW191" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX191" s="70" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="CY191" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ191" s="70" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="DA191" s="71" t="s">
         <v>451</v>
@@ -66010,7 +65991,7 @@
         <v>417</v>
       </c>
       <c r="BF192" s="41" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="BG192" s="56" t="s">
         <v>419</v>
@@ -66034,25 +66015,25 @@
         <v>470</v>
       </c>
       <c r="CT192" s="70" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="CU192" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV192" s="70" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="CW192" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX192" s="70" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="CY192" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ192" s="70" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="DA192" s="71" t="s">
         <v>478</v>
@@ -66122,7 +66103,7 @@
         <v>455</v>
       </c>
       <c r="BF193" s="41" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="BG193" s="56" t="s">
         <v>456</v>
@@ -66146,25 +66127,25 @@
         <v>507</v>
       </c>
       <c r="CT193" s="70" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="CU193" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV193" s="70" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="CW193" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX193" s="70" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CY193" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ193" s="70" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="DA193" s="71" t="s">
         <v>514</v>
@@ -66256,25 +66237,25 @@
         <v>538</v>
       </c>
       <c r="CT194" s="46" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="CU194" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV194" s="46" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="CW194" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX194" s="46" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="CY194" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ194" s="46" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="DA194" s="19" t="s">
         <v>546</v>
@@ -66366,25 +66347,25 @@
         <v>567</v>
       </c>
       <c r="CT195" s="46" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="CU195" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV195" s="46" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="CW195" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX195" s="46" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="CY195" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ195" s="46" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="DA195" s="19" t="s">
         <v>574</v>
@@ -66476,25 +66457,25 @@
         <v>589</v>
       </c>
       <c r="CT196" s="46" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="CU196" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV196" s="46" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="CW196" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX196" s="46" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CY196" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ196" s="46" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="DA196" s="19" t="s">
         <v>594</v>
@@ -66586,25 +66567,25 @@
         <v>618</v>
       </c>
       <c r="CT197" s="70" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="CU197" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV197" s="70" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="CW197" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX197" s="70" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="CY197" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ197" s="70" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="DA197" s="71" t="s">
         <v>626</v>
@@ -66633,7 +66614,7 @@
         <v>602</v>
       </c>
       <c r="H198" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I198" s="49" t="s">
         <v>604</v>
@@ -66696,25 +66677,25 @@
         <v>642</v>
       </c>
       <c r="CT198" s="70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="CU198" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV198" s="70" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="CW198" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX198" s="70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="CY198" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ198" s="70" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="DA198" s="71" t="s">
         <v>650</v>
@@ -66806,25 +66787,25 @@
         <v>652</v>
       </c>
       <c r="CT199" s="70" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="CU199" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV199" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="CW199" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX199" s="70" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="CY199" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ199" s="70" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="DA199" s="71" t="s">
         <v>660</v>
@@ -67005,25 +66986,25 @@
         <v>673</v>
       </c>
       <c r="CT202" s="70" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="CU202" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV202" s="70" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="CW202" s="71" t="s">
         <v>677</v>
       </c>
       <c r="CX202" s="70" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="CY202" s="71" t="s">
         <v>946</v>
       </c>
       <c r="CZ202" s="70" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="DA202" s="71" t="s">
         <v>948</v>
@@ -67086,25 +67067,25 @@
         <v>700</v>
       </c>
       <c r="CT203" s="70" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="CU203" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV203" s="70" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="CW203" s="71" t="s">
         <v>703</v>
       </c>
       <c r="CX203" s="70" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="CY203" s="71" t="s">
         <v>960</v>
       </c>
       <c r="CZ203" s="70" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="DA203" s="71" t="s">
         <v>962</v>
@@ -67167,25 +67148,25 @@
         <v>733</v>
       </c>
       <c r="CT204" s="70" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="CU204" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV204" s="70" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="CW204" s="71" t="s">
         <v>737</v>
       </c>
       <c r="CX204" s="70" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="CY204" s="71" t="s">
         <v>975</v>
       </c>
       <c r="CZ204" s="70" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="DA204" s="71" t="s">
         <v>977</v>
@@ -67348,7 +67329,7 @@
         <v>549</v>
       </c>
       <c r="BF207" s="41" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="BG207" s="56" t="s">
         <v>551</v>
@@ -67760,13 +67741,13 @@
         <v>417</v>
       </c>
       <c r="BF214" s="41" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="BG214" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH214" s="41" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="BI214" s="56" t="s">
         <v>421</v>
@@ -67814,13 +67795,13 @@
         <v>455</v>
       </c>
       <c r="BF215" s="41" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="BG215" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH215" s="41" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="BI215" s="56" t="s">
         <v>458</v>
@@ -67868,13 +67849,13 @@
         <v>482</v>
       </c>
       <c r="BF216" s="41" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="BG216" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH216" s="41" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="BI216" s="56" t="s">
         <v>486</v>
@@ -67922,13 +67903,13 @@
         <v>519</v>
       </c>
       <c r="BF217" s="41" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="BG217" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH217" s="41" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="BI217" s="56" t="s">
         <v>523</v>
@@ -67976,13 +67957,13 @@
         <v>549</v>
       </c>
       <c r="BF218" s="41" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="BG218" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH218" s="41" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="BI218" s="56" t="s">
         <v>552</v>
@@ -68030,13 +68011,13 @@
         <v>576</v>
       </c>
       <c r="BF219" s="41" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="BG219" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH219" s="41" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="BI219" s="56" t="s">
         <v>579</v>
@@ -68079,13 +68060,13 @@
         <v>596</v>
       </c>
       <c r="BF220" s="41" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="BG220" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH220" s="41" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="BI220" s="56" t="s">
         <v>600</v>
@@ -68128,13 +68109,13 @@
         <v>627</v>
       </c>
       <c r="BF221" s="41" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="BG221" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH221" s="41" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="BI221" s="56" t="s">
         <v>630</v>
@@ -68177,7 +68158,7 @@
         <v>636</v>
       </c>
       <c r="BF222" s="41" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="BG222" s="56" t="s">
         <v>636</v>
@@ -68304,13 +68285,13 @@
         <v>417</v>
       </c>
       <c r="BF225" s="41" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="BG225" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH225" s="41" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="BI225" s="56" t="s">
         <v>421</v>
@@ -68353,13 +68334,13 @@
         <v>455</v>
       </c>
       <c r="BF226" s="41" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="BG226" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH226" s="41" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="BI226" s="56" t="s">
         <v>458</v>
@@ -68402,13 +68383,13 @@
         <v>482</v>
       </c>
       <c r="BF227" s="41" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="BG227" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH227" s="41" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="BI227" s="56" t="s">
         <v>486</v>
@@ -68451,13 +68432,13 @@
         <v>519</v>
       </c>
       <c r="BF228" s="41" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="BG228" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH228" s="41" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="BI228" s="56" t="s">
         <v>523</v>
@@ -68500,13 +68481,13 @@
         <v>549</v>
       </c>
       <c r="BF229" s="41" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="BG229" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH229" s="41" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="BI229" s="56" t="s">
         <v>552</v>
@@ -68549,13 +68530,13 @@
         <v>576</v>
       </c>
       <c r="BF230" s="41" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="BG230" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH230" s="41" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="BI230" s="56" t="s">
         <v>579</v>
@@ -68598,13 +68579,13 @@
         <v>596</v>
       </c>
       <c r="BF231" s="41" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="BG231" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH231" s="41" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="BI231" s="56" t="s">
         <v>600</v>
@@ -68647,13 +68628,13 @@
         <v>627</v>
       </c>
       <c r="BF232" s="41" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="BG232" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH232" s="41" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="BI232" s="56" t="s">
         <v>630</v>
@@ -68696,7 +68677,7 @@
         <v>636</v>
       </c>
       <c r="BF233" s="41" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="BG233" s="56" t="s">
         <v>636</v>
@@ -68823,13 +68804,13 @@
         <v>417</v>
       </c>
       <c r="BF236" s="41" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="BG236" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH236" s="41" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="BI236" s="56" t="s">
         <v>421</v>
@@ -68872,13 +68853,13 @@
         <v>455</v>
       </c>
       <c r="BF237" s="41" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="BG237" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH237" s="41" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="BI237" s="56" t="s">
         <v>458</v>
@@ -68921,13 +68902,13 @@
         <v>482</v>
       </c>
       <c r="BF238" s="41" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="BG238" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH238" s="41" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="BI238" s="56" t="s">
         <v>486</v>
@@ -68970,13 +68951,13 @@
         <v>519</v>
       </c>
       <c r="BF239" s="41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BG239" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH239" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="BI239" s="56" t="s">
         <v>523</v>
@@ -69019,13 +69000,13 @@
         <v>549</v>
       </c>
       <c r="BF240" s="41" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="BG240" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH240" s="41" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="BI240" s="56" t="s">
         <v>552</v>
@@ -69068,13 +69049,13 @@
         <v>576</v>
       </c>
       <c r="BF241" s="41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BG241" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH241" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="BI241" s="56" t="s">
         <v>579</v>
@@ -69117,13 +69098,13 @@
         <v>596</v>
       </c>
       <c r="BF242" s="41" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="BG242" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH242" s="41" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="BI242" s="56" t="s">
         <v>600</v>
@@ -69166,13 +69147,13 @@
         <v>627</v>
       </c>
       <c r="BF243" s="41" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="BG243" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH243" s="41" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="BI243" s="56" t="s">
         <v>630</v>
@@ -69215,7 +69196,7 @@
         <v>636</v>
       </c>
       <c r="BF244" s="41" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="BG244" s="56" t="s">
         <v>636</v>
@@ -69685,7 +69666,7 @@
         <v>627</v>
       </c>
       <c r="BF254" s="41" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="BG254" s="56" t="s">
         <v>629</v>
@@ -69908,7 +69889,7 @@
         <v>455</v>
       </c>
       <c r="BF259" s="41" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="BG259" s="56" t="s">
         <v>456</v>
@@ -70000,7 +69981,7 @@
         <v>519</v>
       </c>
       <c r="BF261" s="41" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="BG261" s="56" t="s">
         <v>521</v>
@@ -70079,7 +70060,7 @@
         <v>576</v>
       </c>
       <c r="BF263" s="41" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="BG263" s="56" t="s">
         <v>578</v>
@@ -70116,7 +70097,7 @@
         <v>596</v>
       </c>
       <c r="BF264" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="BG264" s="56" t="s">
         <v>598</v>
@@ -70287,13 +70268,13 @@
         <v>417</v>
       </c>
       <c r="BF269" s="41" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="BG269" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH269" s="41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="BI269" s="56" t="s">
         <v>421</v>
@@ -70326,13 +70307,13 @@
         <v>455</v>
       </c>
       <c r="BF270" s="41" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="BG270" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH270" s="41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="BI270" s="56" t="s">
         <v>458</v>
@@ -70365,13 +70346,13 @@
         <v>482</v>
       </c>
       <c r="BF271" s="41" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="BG271" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH271" s="41" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="BI271" s="56" t="s">
         <v>486</v>
@@ -70404,13 +70385,13 @@
         <v>519</v>
       </c>
       <c r="BF272" s="41" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="BG272" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH272" s="41" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="BI272" s="56" t="s">
         <v>523</v>
@@ -70443,13 +70424,13 @@
         <v>549</v>
       </c>
       <c r="BF273" s="41" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="BG273" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH273" s="41" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="BI273" s="56" t="s">
         <v>552</v>
@@ -70482,13 +70463,13 @@
         <v>576</v>
       </c>
       <c r="BF274" s="41" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="BG274" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH274" s="41" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="BI274" s="56" t="s">
         <v>579</v>
@@ -70521,13 +70502,13 @@
         <v>596</v>
       </c>
       <c r="BF275" s="41" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="BG275" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH275" s="41" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="BI275" s="56" t="s">
         <v>600</v>
@@ -70560,13 +70541,13 @@
         <v>627</v>
       </c>
       <c r="BF276" s="41" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="BG276" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH276" s="41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="BI276" s="56" t="s">
         <v>630</v>
@@ -70599,7 +70580,7 @@
         <v>636</v>
       </c>
       <c r="BF277" s="41" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="BG277" s="56" t="s">
         <v>636</v>
@@ -70792,7 +70773,7 @@
         <v>519</v>
       </c>
       <c r="BF283" s="41" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="BG283" s="56" t="s">
         <v>521</v>
@@ -70838,7 +70819,7 @@
         <v>576</v>
       </c>
       <c r="BF285" s="41" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="BG285" s="56" t="s">
         <v>578</v>
@@ -71504,46 +71485,46 @@
   <sheetData>
     <row r="1" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>2089</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="81" t="s">
         <v>2090</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="81" t="s">
         <v>2091</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>2093</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="81" t="s">
         <v>2095</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="I1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="81" t="s">
         <v>2097</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="K1" s="81" t="s">
         <v>2098</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="L1" s="81" t="s">
         <v>2099</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="M1" s="81" t="s">
         <v>2100</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="N1" s="81" t="s">
         <v>2101</v>
-      </c>
-      <c r="N1" s="81" t="s">
-        <v>2102</v>
       </c>
       <c r="AMI1" s="20"/>
       <c r="AMJ1" s="20"/>
@@ -71553,40 +71534,40 @@
         <v>417</v>
       </c>
       <c r="B2" s="82" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>2103</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>2104</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>2105</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>2106</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="82" t="s">
         <v>2107</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="J2" s="82" t="s">
         <v>2108</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="83" t="s">
         <v>2109</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>2110</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>2111</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="N2" s="83" t="s">
         <v>2112</v>
-      </c>
-      <c r="N2" s="83" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71594,40 +71575,40 @@
         <v>455</v>
       </c>
       <c r="B3" s="82" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>2114</v>
       </c>
-      <c r="C3" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E3" s="83" t="s">
+      <c r="F3" s="83" t="s">
         <v>2115</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="G3" s="83" t="s">
         <v>2116</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="H3" s="83" t="s">
         <v>2117</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="I3" s="82" t="s">
         <v>2118</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="J3" s="82" t="s">
         <v>2119</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="K3" s="83" t="s">
         <v>2120</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="L3" s="83" t="s">
         <v>2121</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="M3" s="83" t="s">
         <v>2122</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="N3" s="83" t="s">
         <v>2123</v>
-      </c>
-      <c r="N3" s="83" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71635,40 +71616,40 @@
         <v>482</v>
       </c>
       <c r="B4" s="82" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>2125</v>
       </c>
-      <c r="C4" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E4" s="83" t="s">
+      <c r="F4" s="83" t="s">
         <v>2126</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="G4" s="83" t="s">
         <v>2127</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="H4" s="83" t="s">
         <v>2128</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="I4" s="82" t="s">
         <v>2129</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="J4" s="82" t="s">
         <v>2130</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="K4" s="83" t="s">
         <v>2131</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="L4" s="83" t="s">
         <v>2132</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="M4" s="83" t="s">
         <v>2133</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="N4" s="83" t="s">
         <v>2134</v>
-      </c>
-      <c r="N4" s="83" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71676,40 +71657,40 @@
         <v>519</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>2136</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E5" s="83" t="s">
+      <c r="F5" s="83" t="s">
         <v>2137</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="G5" s="83" t="s">
         <v>2138</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="H5" s="83" t="s">
         <v>2139</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="I5" s="82" t="s">
         <v>2140</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="82" t="s">
         <v>2141</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="K5" s="83" t="s">
         <v>2142</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="L5" s="83" t="s">
         <v>2143</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="M5" s="83" t="s">
         <v>2144</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="N5" s="83" t="s">
         <v>2145</v>
-      </c>
-      <c r="N5" s="83" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71717,40 +71698,40 @@
         <v>549</v>
       </c>
       <c r="B6" s="82" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>2147</v>
       </c>
-      <c r="C6" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E6" s="83" t="s">
+      <c r="F6" s="83" t="s">
         <v>2148</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="G6" s="83" t="s">
         <v>2149</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="H6" s="83" t="s">
         <v>2150</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="I6" s="82" t="s">
         <v>2151</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="J6" s="82" t="s">
         <v>2152</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="K6" s="83" t="s">
         <v>2153</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="L6" s="83" t="s">
         <v>2154</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="M6" s="83" t="s">
         <v>2155</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="N6" s="83" t="s">
         <v>2156</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71758,40 +71739,40 @@
         <v>576</v>
       </c>
       <c r="B7" s="82" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E7" s="83" t="s">
         <v>2158</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E7" s="83" t="s">
+      <c r="F7" s="83" t="s">
         <v>2159</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="G7" s="83" t="s">
         <v>2160</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="H7" s="83" t="s">
         <v>2161</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="I7" s="82" t="s">
         <v>2162</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="J7" s="82" t="s">
         <v>2163</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="K7" s="83" t="s">
         <v>2164</v>
       </c>
-      <c r="K7" s="83" t="s">
+      <c r="L7" s="83" t="s">
         <v>2165</v>
       </c>
-      <c r="L7" s="83" t="s">
+      <c r="M7" s="83" t="s">
         <v>2166</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="N7" s="83" t="s">
         <v>2167</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71799,40 +71780,40 @@
         <v>596</v>
       </c>
       <c r="B8" s="82" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E8" s="83" t="s">
         <v>2169</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E8" s="83" t="s">
+      <c r="F8" s="83" t="s">
         <v>2170</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="G8" s="83" t="s">
         <v>2171</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="H8" s="83" t="s">
         <v>2172</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="I8" s="82" t="s">
         <v>2173</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="J8" s="82" t="s">
         <v>2174</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="K8" s="83" t="s">
         <v>2175</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="L8" s="83" t="s">
         <v>2176</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="M8" s="83" t="s">
         <v>2177</v>
       </c>
-      <c r="M8" s="83" t="s">
+      <c r="N8" s="83" t="s">
         <v>2178</v>
-      </c>
-      <c r="N8" s="83" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71840,40 +71821,40 @@
         <v>627</v>
       </c>
       <c r="B9" s="82" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E9" s="83" t="s">
         <v>2180</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E9" s="83" t="s">
+      <c r="F9" s="83" t="s">
         <v>2181</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="G9" s="83" t="s">
         <v>2182</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="H9" s="83" t="s">
         <v>2183</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="I9" s="82" t="s">
         <v>2184</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="J9" s="82" t="s">
         <v>2185</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="K9" s="83" t="s">
         <v>2186</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="L9" s="83" t="s">
         <v>2187</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="M9" s="83" t="s">
         <v>2188</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="N9" s="83" t="s">
         <v>2189</v>
-      </c>
-      <c r="N9" s="83" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71881,202 +71862,202 @@
         <v>636</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>2191</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="F10" s="83" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G10" s="83" t="s">
         <v>2192</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>2192</v>
-      </c>
-      <c r="G10" s="83" t="s">
+      <c r="H10" s="83" t="s">
         <v>2193</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="I10" s="82" t="s">
         <v>2194</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="J10" s="82" t="s">
         <v>2195</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="K10" s="83" t="s">
         <v>2196</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="L10" s="83" t="s">
+        <v>2196</v>
+      </c>
+      <c r="M10" s="83" t="s">
         <v>2197</v>
       </c>
-      <c r="L10" s="83" t="s">
-        <v>2197</v>
-      </c>
-      <c r="M10" s="83" t="s">
+      <c r="N10" s="83" t="s">
         <v>2198</v>
-      </c>
-      <c r="N10" s="83" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B12" s="82" t="s">
         <v>2200</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="C12" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>2201</v>
       </c>
-      <c r="C12" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E12" s="83" t="s">
+      <c r="F12" s="83" t="s">
         <v>2202</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="G12" s="83" t="s">
         <v>2203</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="H12" s="83" t="s">
         <v>2204</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="I12" s="82" t="s">
         <v>2205</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="J12" s="82" t="s">
         <v>2206</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="K12" s="83" t="s">
         <v>2207</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="L12" s="83" t="s">
         <v>2208</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="M12" s="83" t="s">
         <v>2209</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="N12" s="83" t="s">
         <v>2210</v>
-      </c>
-      <c r="N12" s="83" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B13" s="82" t="s">
         <v>2212</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="C13" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>2213</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E13" s="83" t="s">
+      <c r="F13" s="83" t="s">
         <v>2214</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="G13" s="83" t="s">
         <v>2215</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="H13" s="83" t="s">
         <v>2216</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="I13" s="82" t="s">
         <v>2217</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="J13" s="82" t="s">
         <v>2218</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="K13" s="83" t="s">
         <v>2219</v>
       </c>
-      <c r="K13" s="83" t="s">
+      <c r="L13" s="83" t="s">
         <v>2220</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="M13" s="83" t="s">
         <v>2221</v>
       </c>
-      <c r="M13" s="83" t="s">
+      <c r="N13" s="83" t="s">
         <v>2222</v>
-      </c>
-      <c r="N13" s="83" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B14" s="82" t="s">
         <v>2224</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="C14" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E14" s="83" t="s">
         <v>2225</v>
       </c>
-      <c r="C14" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E14" s="83" t="s">
+      <c r="F14" s="83" t="s">
         <v>2226</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="G14" s="83" t="s">
         <v>2227</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="H14" s="83" t="s">
         <v>2228</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="I14" s="82" t="s">
         <v>2229</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="J14" s="82" t="s">
         <v>2230</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="K14" s="83" t="s">
         <v>2231</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="L14" s="83" t="s">
         <v>2232</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="M14" s="83" t="s">
         <v>2233</v>
       </c>
-      <c r="M14" s="83" t="s">
+      <c r="N14" s="83" t="s">
         <v>2234</v>
-      </c>
-      <c r="N14" s="83" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B15" s="82" t="s">
         <v>2236</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="C15" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E15" s="83" t="s">
         <v>2237</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E15" s="83" t="s">
+      <c r="F15" s="83" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G15" s="83" t="s">
         <v>2238</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>2238</v>
-      </c>
-      <c r="G15" s="83" t="s">
+      <c r="H15" s="83" t="s">
         <v>2239</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="I15" s="82" t="s">
         <v>2240</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="J15" s="82" t="s">
         <v>2241</v>
       </c>
-      <c r="J15" s="82" t="s">
+      <c r="K15" s="83" t="s">
         <v>2242</v>
       </c>
-      <c r="K15" s="83" t="s">
+      <c r="L15" s="83" t="s">
+        <v>2242</v>
+      </c>
+      <c r="M15" s="83" t="s">
         <v>2243</v>
       </c>
-      <c r="L15" s="83" t="s">
-        <v>2243</v>
-      </c>
-      <c r="M15" s="83" t="s">
+      <c r="N15" s="83" t="s">
         <v>2244</v>
-      </c>
-      <c r="N15" s="83" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72085,40 +72066,40 @@
         <v>413</v>
       </c>
       <c r="B17" s="82" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E17" s="83" t="s">
         <v>2246</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E17" s="83" t="s">
+      <c r="F17" s="83" t="s">
         <v>2247</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="G17" s="83" t="s">
         <v>2248</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="H17" s="83" t="s">
         <v>2249</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="I17" s="82" t="s">
         <v>2250</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="J17" s="82" t="s">
         <v>2251</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="K17" s="83" t="s">
         <v>2252</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="L17" s="83" t="s">
         <v>2253</v>
       </c>
-      <c r="L17" s="83" t="s">
+      <c r="M17" s="83" t="s">
         <v>2254</v>
       </c>
-      <c r="M17" s="83" t="s">
+      <c r="N17" s="83" t="s">
         <v>2255</v>
-      </c>
-      <c r="N17" s="83" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72126,40 +72107,40 @@
         <v>414</v>
       </c>
       <c r="B18" s="82" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>2257</v>
       </c>
-      <c r="C18" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E18" s="83" t="s">
+      <c r="F18" s="83" t="s">
         <v>2258</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="G18" s="83" t="s">
         <v>2259</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="H18" s="83" t="s">
         <v>2260</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="I18" s="82" t="s">
         <v>2261</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="J18" s="82" t="s">
         <v>2262</v>
       </c>
-      <c r="J18" s="82" t="s">
+      <c r="K18" s="83" t="s">
         <v>2263</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="L18" s="83" t="s">
         <v>2264</v>
       </c>
-      <c r="L18" s="83" t="s">
+      <c r="M18" s="83" t="s">
         <v>2265</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="N18" s="83" t="s">
         <v>2266</v>
-      </c>
-      <c r="N18" s="83" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72170,597 +72151,597 @@
         <v>1300</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E19" s="83" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F19" s="83" t="s">
         <v>2268</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="G19" s="83" t="s">
         <v>2269</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="H19" s="83" t="s">
         <v>2270</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="I19" s="82" t="s">
         <v>2271</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="J19" s="82" t="s">
         <v>2272</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="K19" s="83" t="s">
         <v>2273</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="L19" s="83" t="s">
         <v>2274</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="M19" s="83" t="s">
         <v>2275</v>
       </c>
-      <c r="M19" s="83" t="s">
+      <c r="N19" s="83" t="s">
         <v>2276</v>
-      </c>
-      <c r="N19" s="83" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B21" s="82" t="s">
         <v>2278</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="C21" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E21" s="83" t="s">
         <v>2279</v>
       </c>
-      <c r="C21" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E21" s="83" t="s">
+      <c r="F21" s="83" t="s">
         <v>2280</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="G21" s="83" t="s">
         <v>2281</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="H21" s="83" t="s">
         <v>2282</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="I21" s="82" t="s">
         <v>2283</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="J21" s="82" t="s">
         <v>2284</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="K21" s="83" t="s">
         <v>2285</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="L21" s="83" t="s">
         <v>2286</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="M21" s="83" t="s">
         <v>2287</v>
       </c>
-      <c r="M21" s="83" t="s">
+      <c r="N21" s="83" t="s">
         <v>2288</v>
-      </c>
-      <c r="N21" s="83" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B22" s="82" t="s">
         <v>2290</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="C22" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>2291</v>
       </c>
-      <c r="C22" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E22" s="83" t="s">
+      <c r="F22" s="83" t="s">
         <v>2292</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="G22" s="83" t="s">
         <v>2293</v>
       </c>
-      <c r="G22" s="83" t="s">
+      <c r="H22" s="83" t="s">
         <v>2294</v>
       </c>
-      <c r="H22" s="83" t="s">
+      <c r="I22" s="82" t="s">
         <v>2295</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="J22" s="82" t="s">
         <v>2296</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="K22" s="83" t="s">
         <v>2297</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="L22" s="83" t="s">
         <v>2298</v>
       </c>
-      <c r="L22" s="83" t="s">
+      <c r="M22" s="83" t="s">
         <v>2299</v>
       </c>
-      <c r="M22" s="83" t="s">
+      <c r="N22" s="83" t="s">
         <v>2300</v>
-      </c>
-      <c r="N22" s="83" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B24" s="82" t="s">
         <v>2302</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="C24" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>2303</v>
       </c>
-      <c r="C24" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E24" s="83" t="s">
+      <c r="F24" s="83" t="s">
         <v>2304</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="G24" s="83" t="s">
         <v>2305</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="H24" s="83" t="s">
         <v>2306</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="I24" s="82" t="s">
         <v>2307</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="J24" s="82" t="s">
         <v>2308</v>
       </c>
-      <c r="J24" s="82" t="s">
+      <c r="K24" s="83" t="s">
         <v>2309</v>
       </c>
-      <c r="K24" s="83" t="s">
+      <c r="L24" s="83" t="s">
         <v>2310</v>
       </c>
-      <c r="L24" s="83" t="s">
+      <c r="M24" s="83" t="s">
         <v>2311</v>
       </c>
-      <c r="M24" s="83" t="s">
+      <c r="N24" s="83" t="s">
         <v>2312</v>
-      </c>
-      <c r="N24" s="83" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B25" s="82" t="s">
         <v>2314</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="C25" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E25" s="83" t="s">
         <v>2315</v>
       </c>
-      <c r="C25" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E25" s="83" t="s">
+      <c r="F25" s="83" t="s">
         <v>2316</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="G25" s="83" t="s">
         <v>2317</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="H25" s="83" t="s">
         <v>2318</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="I25" s="82" t="s">
         <v>2319</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="J25" s="82" t="s">
         <v>2320</v>
       </c>
-      <c r="J25" s="82" t="s">
+      <c r="K25" s="83" t="s">
         <v>2321</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="L25" s="83" t="s">
         <v>2322</v>
       </c>
-      <c r="L25" s="83" t="s">
+      <c r="M25" s="83" t="s">
         <v>2323</v>
       </c>
-      <c r="M25" s="83" t="s">
+      <c r="N25" s="83" t="s">
         <v>2324</v>
-      </c>
-      <c r="N25" s="83" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B26" s="82" t="s">
         <v>2326</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="C26" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>2327</v>
       </c>
-      <c r="C26" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E26" s="83" t="s">
+      <c r="F26" s="83" t="s">
         <v>2328</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="G26" s="83" t="s">
         <v>2329</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="H26" s="83" t="s">
         <v>2330</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="I26" s="82" t="s">
         <v>2331</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="J26" s="82" t="s">
         <v>2332</v>
       </c>
-      <c r="J26" s="82" t="s">
+      <c r="K26" s="83" t="s">
         <v>2333</v>
       </c>
-      <c r="K26" s="83" t="s">
+      <c r="L26" s="83" t="s">
         <v>2334</v>
       </c>
-      <c r="L26" s="83" t="s">
+      <c r="M26" s="83" t="s">
         <v>2335</v>
       </c>
-      <c r="M26" s="83" t="s">
+      <c r="N26" s="83" t="s">
         <v>2336</v>
-      </c>
-      <c r="N26" s="83" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>2338</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="C27" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>2339</v>
       </c>
-      <c r="C27" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E27" s="83" t="s">
+      <c r="F27" s="83" t="s">
         <v>2340</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="G27" s="83" t="s">
         <v>2341</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="H27" s="83" t="s">
         <v>2342</v>
       </c>
-      <c r="H27" s="83" t="s">
+      <c r="I27" s="82" t="s">
         <v>2343</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="J27" s="82" t="s">
         <v>2344</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="K27" s="83" t="s">
         <v>2345</v>
       </c>
-      <c r="K27" s="83" t="s">
+      <c r="L27" s="83" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M27" s="83" t="s">
         <v>2346</v>
       </c>
-      <c r="L27" s="83" t="s">
-        <v>2177</v>
-      </c>
-      <c r="M27" s="83" t="s">
+      <c r="N27" s="83" t="s">
         <v>2347</v>
-      </c>
-      <c r="N27" s="83" t="s">
-        <v>2348</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B28" s="82" t="s">
         <v>2349</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="C28" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E28" s="83" t="s">
         <v>2350</v>
       </c>
-      <c r="C28" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E28" s="83" t="s">
+      <c r="F28" s="83" t="s">
         <v>2351</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="G28" s="83" t="s">
         <v>2352</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="H28" s="83" t="s">
         <v>2353</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="I28" s="82" t="s">
         <v>2354</v>
       </c>
-      <c r="I28" s="82" t="s">
+      <c r="J28" s="82" t="s">
         <v>2355</v>
       </c>
-      <c r="J28" s="82" t="s">
+      <c r="K28" s="83" t="s">
         <v>2356</v>
       </c>
-      <c r="K28" s="83" t="s">
+      <c r="L28" s="83" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M28" s="83" t="s">
         <v>2357</v>
       </c>
-      <c r="L28" s="83" t="s">
-        <v>2155</v>
-      </c>
-      <c r="M28" s="83" t="s">
+      <c r="N28" s="83" t="s">
         <v>2358</v>
-      </c>
-      <c r="N28" s="83" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B29" s="82" t="s">
         <v>2360</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="C29" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E29" s="83" t="s">
         <v>2361</v>
       </c>
-      <c r="C29" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E29" s="83" t="s">
+      <c r="F29" s="83" t="s">
         <v>2362</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="G29" s="83" t="s">
         <v>2363</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="H29" s="83" t="s">
         <v>2364</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="I29" s="82" t="s">
         <v>2365</v>
       </c>
-      <c r="I29" s="82" t="s">
+      <c r="J29" s="82" t="s">
         <v>2366</v>
       </c>
-      <c r="J29" s="82" t="s">
+      <c r="K29" s="83" t="s">
         <v>2367</v>
       </c>
-      <c r="K29" s="83" t="s">
+      <c r="L29" s="83" t="s">
         <v>2368</v>
       </c>
-      <c r="L29" s="83" t="s">
+      <c r="M29" s="83" t="s">
         <v>2369</v>
       </c>
-      <c r="M29" s="83" t="s">
+      <c r="N29" s="83" t="s">
         <v>2370</v>
-      </c>
-      <c r="N29" s="83" t="s">
-        <v>2371</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B30" s="82" t="s">
         <v>2372</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="C30" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E30" s="83" t="s">
         <v>2373</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E30" s="83" t="s">
+      <c r="F30" s="83" t="s">
         <v>2374</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="G30" s="83" t="s">
         <v>2375</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="H30" s="83" t="s">
         <v>2376</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="I30" s="82" t="s">
         <v>2377</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="J30" s="82" t="s">
         <v>2378</v>
       </c>
-      <c r="J30" s="82" t="s">
+      <c r="K30" s="83" t="s">
         <v>2379</v>
       </c>
-      <c r="K30" s="83" t="s">
+      <c r="L30" s="83" t="s">
         <v>2380</v>
       </c>
-      <c r="L30" s="83" t="s">
+      <c r="M30" s="83" t="s">
         <v>2381</v>
       </c>
-      <c r="M30" s="83" t="s">
+      <c r="N30" s="83" t="s">
         <v>2382</v>
-      </c>
-      <c r="N30" s="83" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B31" s="82" t="s">
         <v>2384</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="C31" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E31" s="83" t="s">
         <v>2385</v>
       </c>
-      <c r="C31" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E31" s="83" t="s">
+      <c r="F31" s="83" t="s">
         <v>2386</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="G31" s="83" t="s">
         <v>2387</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="H31" s="83" t="s">
         <v>2388</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="I31" s="82" t="s">
         <v>2389</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="J31" s="82" t="s">
         <v>2390</v>
       </c>
-      <c r="J31" s="82" t="s">
+      <c r="K31" s="83" t="s">
         <v>2391</v>
       </c>
-      <c r="K31" s="83" t="s">
+      <c r="L31" s="83" t="s">
         <v>2392</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="M31" s="83" t="s">
         <v>2393</v>
       </c>
-      <c r="M31" s="83" t="s">
+      <c r="N31" s="83" t="s">
         <v>2394</v>
-      </c>
-      <c r="N31" s="83" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B33" s="82" t="s">
         <v>2396</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="C33" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>2397</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E33" s="83" t="s">
+      <c r="F33" s="83" t="s">
         <v>2398</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="G33" s="83" t="s">
         <v>2399</v>
       </c>
-      <c r="G33" s="83" t="s">
+      <c r="H33" s="83" t="s">
         <v>2400</v>
-      </c>
-      <c r="H33" s="83" t="s">
-        <v>2401</v>
       </c>
       <c r="I33" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="82" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K33" s="83" t="s">
         <v>2402</v>
       </c>
-      <c r="K33" s="83" t="s">
+      <c r="L33" s="83" t="s">
         <v>2403</v>
       </c>
-      <c r="L33" s="83" t="s">
+      <c r="M33" s="83" t="s">
         <v>2404</v>
       </c>
-      <c r="M33" s="83" t="s">
+      <c r="N33" s="83" t="s">
         <v>2405</v>
-      </c>
-      <c r="N33" s="83" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B34" s="82" t="s">
         <v>2407</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="C34" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E34" s="83" t="s">
         <v>2408</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E34" s="83" t="s">
+      <c r="F34" s="83" t="s">
         <v>2409</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="G34" s="83" t="s">
         <v>2410</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="H34" s="83" t="s">
         <v>2411</v>
-      </c>
-      <c r="H34" s="83" t="s">
-        <v>2412</v>
       </c>
       <c r="I34" s="20" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="82" t="s">
+        <v>2412</v>
+      </c>
+      <c r="K34" s="83" t="s">
         <v>2413</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="L34" s="83" t="s">
         <v>2414</v>
       </c>
-      <c r="L34" s="83" t="s">
+      <c r="M34" s="83" t="s">
         <v>2415</v>
       </c>
-      <c r="M34" s="83" t="s">
+      <c r="N34" s="83" t="s">
         <v>2416</v>
-      </c>
-      <c r="N34" s="83" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B35" s="82" t="s">
         <v>2418</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="C35" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E35" s="83" t="s">
         <v>2419</v>
       </c>
-      <c r="C35" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E35" s="83" t="s">
+      <c r="F35" s="83" t="s">
         <v>2420</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="G35" s="83" t="s">
         <v>2421</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="H35" s="83" t="s">
         <v>2422</v>
-      </c>
-      <c r="H35" s="83" t="s">
-        <v>2423</v>
       </c>
       <c r="I35" s="20" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="82" t="s">
+        <v>2423</v>
+      </c>
+      <c r="K35" s="83" t="s">
         <v>2424</v>
       </c>
-      <c r="K35" s="83" t="s">
+      <c r="L35" s="83" t="s">
         <v>2425</v>
       </c>
-      <c r="L35" s="83" t="s">
+      <c r="M35" s="83" t="s">
         <v>2426</v>
       </c>
-      <c r="M35" s="83" t="s">
+      <c r="N35" s="83" t="s">
         <v>2427</v>
-      </c>
-      <c r="N35" s="83" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72769,542 +72750,542 @@
         <v>32</v>
       </c>
       <c r="B37" s="82" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G37" s="83" t="s">
         <v>2429</v>
       </c>
-      <c r="C37" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G37" s="83" t="s">
+      <c r="H37" s="83" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I37" s="82" t="s">
         <v>2430</v>
       </c>
-      <c r="H37" s="83" t="s">
-        <v>2430</v>
-      </c>
-      <c r="I37" s="82" t="s">
+      <c r="J37" s="82" t="s">
         <v>2431</v>
       </c>
-      <c r="J37" s="82" t="s">
+      <c r="M37" s="83" t="s">
         <v>2432</v>
       </c>
-      <c r="M37" s="83" t="s">
+      <c r="N37" s="83" t="s">
         <v>2433</v>
-      </c>
-      <c r="N37" s="83" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B38" s="82" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>2435</v>
       </c>
-      <c r="C38" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E38" s="83" t="s">
+      <c r="F38" s="83" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G38" s="83" t="s">
         <v>2436</v>
       </c>
-      <c r="F38" s="83" t="s">
-        <v>2436</v>
-      </c>
-      <c r="G38" s="83" t="s">
+      <c r="H38" s="83" t="s">
         <v>2437</v>
       </c>
-      <c r="H38" s="83" t="s">
+      <c r="I38" s="82" t="s">
         <v>2438</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="J38" s="82" t="s">
         <v>2439</v>
       </c>
-      <c r="J38" s="82" t="s">
+      <c r="K38" s="83" t="s">
         <v>2440</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="L38" s="83" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M38" s="83" t="s">
         <v>2441</v>
       </c>
-      <c r="L38" s="83" t="s">
-        <v>2441</v>
-      </c>
-      <c r="M38" s="83" t="s">
+      <c r="N38" s="83" t="s">
         <v>2442</v>
-      </c>
-      <c r="N38" s="83" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="82" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B39" s="82" t="s">
         <v>2444</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="C39" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>2445</v>
       </c>
-      <c r="C39" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E39" s="83" t="s">
+      <c r="F39" s="83" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G39" s="83" t="s">
         <v>2446</v>
       </c>
-      <c r="F39" s="83" t="s">
-        <v>2446</v>
-      </c>
-      <c r="G39" s="83" t="s">
+      <c r="H39" s="83" t="s">
         <v>2447</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="I39" s="82" t="s">
         <v>2448</v>
       </c>
-      <c r="I39" s="82" t="s">
+      <c r="J39" s="82" t="s">
         <v>2449</v>
       </c>
-      <c r="J39" s="82" t="s">
+      <c r="K39" s="83" t="s">
         <v>2450</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="L39" s="83" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M39" s="83" t="s">
         <v>2451</v>
       </c>
-      <c r="L39" s="83" t="s">
-        <v>2451</v>
-      </c>
-      <c r="M39" s="83" t="s">
+      <c r="N39" s="83" t="s">
         <v>2452</v>
-      </c>
-      <c r="N39" s="83" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="82" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B41" s="82" t="s">
         <v>2454</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="C41" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E41" s="83" t="s">
         <v>2455</v>
       </c>
-      <c r="C41" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E41" s="83" t="s">
+      <c r="F41" s="83" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G41" s="83" t="s">
         <v>2456</v>
       </c>
-      <c r="F41" s="83" t="s">
-        <v>2456</v>
-      </c>
-      <c r="G41" s="83" t="s">
+      <c r="H41" s="83" t="s">
         <v>2457</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="I41" s="82" t="s">
         <v>2458</v>
       </c>
-      <c r="I41" s="82" t="s">
+      <c r="J41" s="82" t="s">
         <v>2459</v>
       </c>
-      <c r="J41" s="82" t="s">
+      <c r="K41" s="83" t="s">
         <v>2460</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="M41" s="83" t="s">
         <v>2461</v>
       </c>
-      <c r="M41" s="83" t="s">
+      <c r="N41" s="83" t="s">
         <v>2462</v>
-      </c>
-      <c r="N41" s="83" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="82" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B42" s="82" t="s">
         <v>2464</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="C42" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E42" s="83" t="s">
         <v>2465</v>
       </c>
-      <c r="C42" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E42" s="83" t="s">
+      <c r="F42" s="83" t="s">
+        <v>2465</v>
+      </c>
+      <c r="G42" s="83" t="s">
         <v>2466</v>
       </c>
-      <c r="F42" s="83" t="s">
-        <v>2466</v>
-      </c>
-      <c r="G42" s="83" t="s">
+      <c r="H42" s="83" t="s">
         <v>2467</v>
       </c>
-      <c r="H42" s="83" t="s">
+      <c r="I42" s="82" t="s">
         <v>2468</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="J42" s="82" t="s">
         <v>2469</v>
       </c>
-      <c r="J42" s="82" t="s">
+      <c r="K42" s="83" t="s">
         <v>2470</v>
       </c>
-      <c r="K42" s="83" t="s">
+      <c r="L42" s="83" t="s">
         <v>2471</v>
       </c>
-      <c r="L42" s="83" t="s">
+      <c r="M42" s="83" t="s">
         <v>2472</v>
       </c>
-      <c r="M42" s="83" t="s">
+      <c r="N42" s="83" t="s">
         <v>2473</v>
-      </c>
-      <c r="N42" s="83" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="82" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B43" s="82" t="s">
         <v>2475</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="C43" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>2476</v>
       </c>
-      <c r="C43" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E43" s="83" t="s">
+      <c r="F43" s="83" t="s">
         <v>2477</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="G43" s="83" t="s">
         <v>2478</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="H43" s="83" t="s">
         <v>2479</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="I43" s="82" t="s">
         <v>2480</v>
       </c>
-      <c r="I43" s="82" t="s">
+      <c r="J43" s="82" t="s">
         <v>2481</v>
       </c>
-      <c r="J43" s="82" t="s">
+      <c r="M43" s="83" t="s">
         <v>2482</v>
       </c>
-      <c r="M43" s="83" t="s">
+      <c r="N43" s="83" t="s">
         <v>2483</v>
-      </c>
-      <c r="N43" s="83" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="82" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E44" s="83" t="s">
         <v>2485</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>2485</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E44" s="83" t="s">
+      <c r="G44" s="83" t="s">
         <v>2486</v>
       </c>
-      <c r="G44" s="83" t="s">
+      <c r="H44" s="83" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I44" s="82" t="s">
         <v>2487</v>
       </c>
-      <c r="H44" s="83" t="s">
-        <v>2487</v>
-      </c>
-      <c r="I44" s="82" t="s">
+      <c r="J44" s="82" t="s">
         <v>2488</v>
       </c>
-      <c r="J44" s="82" t="s">
+      <c r="K44" s="83" t="s">
         <v>2489</v>
       </c>
-      <c r="K44" s="83" t="s">
+      <c r="L44" s="83" t="s">
+        <v>2489</v>
+      </c>
+      <c r="M44" s="83" t="s">
         <v>2490</v>
       </c>
-      <c r="L44" s="83" t="s">
-        <v>2490</v>
-      </c>
-      <c r="M44" s="83" t="s">
+      <c r="N44" s="83" t="s">
         <v>2491</v>
-      </c>
-      <c r="N44" s="83" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="82" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B45" s="82" t="s">
         <v>2493</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="C45" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E45" s="83" t="s">
         <v>2494</v>
       </c>
-      <c r="C45" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E45" s="83" t="s">
+      <c r="F45" s="83" t="s">
         <v>2495</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="G45" s="83" t="s">
         <v>2496</v>
       </c>
-      <c r="G45" s="83" t="s">
+      <c r="H45" s="83" t="s">
         <v>2497</v>
       </c>
-      <c r="H45" s="83" t="s">
+      <c r="I45" s="82" t="s">
         <v>2498</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="J45" s="82" t="s">
         <v>2499</v>
       </c>
-      <c r="J45" s="82" t="s">
+      <c r="K45" s="83" t="s">
         <v>2500</v>
       </c>
-      <c r="K45" s="83" t="s">
+      <c r="L45" s="83" t="s">
+        <v>2500</v>
+      </c>
+      <c r="M45" s="83" t="s">
         <v>2501</v>
       </c>
-      <c r="L45" s="83" t="s">
-        <v>2501</v>
-      </c>
-      <c r="M45" s="83" t="s">
+      <c r="N45" s="83" t="s">
         <v>2502</v>
-      </c>
-      <c r="N45" s="83" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="82" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C46" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E46" s="83" t="s">
         <v>2504</v>
       </c>
-      <c r="B46" s="82" t="s">
+      <c r="F46" s="83" t="s">
         <v>2504</v>
       </c>
-      <c r="C46" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E46" s="83" t="s">
+      <c r="G46" s="83" t="s">
         <v>2505</v>
       </c>
-      <c r="F46" s="83" t="s">
-        <v>2505</v>
-      </c>
-      <c r="G46" s="83" t="s">
+      <c r="H46" s="83" t="s">
         <v>2506</v>
       </c>
-      <c r="H46" s="83" t="s">
+      <c r="I46" s="82" t="s">
         <v>2507</v>
       </c>
-      <c r="I46" s="82" t="s">
+      <c r="J46" s="82" t="s">
         <v>2508</v>
       </c>
-      <c r="J46" s="82" t="s">
+      <c r="K46" s="83" t="s">
         <v>2509</v>
       </c>
-      <c r="K46" s="83" t="s">
+      <c r="L46" s="83" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M46" s="83" t="s">
         <v>2510</v>
       </c>
-      <c r="L46" s="83" t="s">
-        <v>2510</v>
-      </c>
-      <c r="M46" s="83" t="s">
+      <c r="N46" s="83" t="s">
         <v>2511</v>
-      </c>
-      <c r="N46" s="83" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="82" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C47" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E47" s="83" t="s">
         <v>2513</v>
       </c>
-      <c r="B47" s="82" t="s">
-        <v>2513</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E47" s="83" t="s">
+      <c r="F47" s="83" t="s">
         <v>2514</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="G47" s="83" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H47" s="83" t="s">
         <v>2515</v>
       </c>
-      <c r="G47" s="83" t="s">
-        <v>2193</v>
-      </c>
-      <c r="H47" s="83" t="s">
+      <c r="I47" s="82" t="s">
         <v>2516</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="J47" s="82" t="s">
         <v>2517</v>
       </c>
-      <c r="J47" s="82" t="s">
+      <c r="K47" s="83" t="s">
         <v>2518</v>
       </c>
-      <c r="K47" s="83" t="s">
+      <c r="L47" s="83" t="s">
+        <v>2518</v>
+      </c>
+      <c r="M47" s="83" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N47" s="83" t="s">
         <v>2519</v>
-      </c>
-      <c r="L47" s="83" t="s">
-        <v>2519</v>
-      </c>
-      <c r="M47" s="83" t="s">
-        <v>2198</v>
-      </c>
-      <c r="N47" s="83" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="82" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B48" s="82" t="s">
         <v>2521</v>
       </c>
-      <c r="B48" s="82" t="s">
+      <c r="C48" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E48" s="83" t="s">
         <v>2522</v>
       </c>
-      <c r="C48" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E48" s="83" t="s">
+      <c r="F48" s="83" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G48" s="83" t="s">
         <v>2523</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="H48" s="83" t="s">
         <v>2523</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="I48" s="82" t="s">
         <v>2524</v>
       </c>
-      <c r="H48" s="83" t="s">
-        <v>2524</v>
-      </c>
-      <c r="I48" s="82" t="s">
+      <c r="J48" s="82" t="s">
         <v>2525</v>
       </c>
-      <c r="J48" s="82" t="s">
+      <c r="K48" s="83" t="s">
         <v>2526</v>
       </c>
-      <c r="K48" s="83" t="s">
+      <c r="L48" s="83" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M48" s="83" t="s">
         <v>2527</v>
       </c>
-      <c r="L48" s="83" t="s">
+      <c r="N48" s="83" t="s">
         <v>2527</v>
-      </c>
-      <c r="M48" s="83" t="s">
-        <v>2528</v>
-      </c>
-      <c r="N48" s="83" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="82" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B49" s="82" t="s">
         <v>2529</v>
       </c>
-      <c r="B49" s="82" t="s">
+      <c r="C49" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E49" s="83" t="s">
         <v>2530</v>
       </c>
-      <c r="C49" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E49" s="83" t="s">
+      <c r="F49" s="83" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G49" s="83" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I49" s="82" t="s">
         <v>2531</v>
       </c>
-      <c r="F49" s="83" t="s">
-        <v>2531</v>
-      </c>
-      <c r="G49" s="83" t="s">
-        <v>2457</v>
-      </c>
-      <c r="H49" s="83" t="s">
-        <v>2458</v>
-      </c>
-      <c r="I49" s="82" t="s">
+      <c r="J49" s="82" t="s">
         <v>2532</v>
       </c>
-      <c r="J49" s="82" t="s">
+      <c r="K49" s="83" t="s">
         <v>2533</v>
       </c>
-      <c r="K49" s="83" t="s">
+      <c r="L49" s="83" t="s">
+        <v>2533</v>
+      </c>
+      <c r="M49" s="83" t="s">
         <v>2534</v>
       </c>
-      <c r="L49" s="83" t="s">
-        <v>2534</v>
-      </c>
-      <c r="M49" s="83" t="s">
+      <c r="N49" s="83" t="s">
         <v>2535</v>
-      </c>
-      <c r="N49" s="83" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="82" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C50" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G50" s="83" t="s">
         <v>2537</v>
       </c>
-      <c r="B50" s="82" t="s">
+      <c r="H50" s="83" t="s">
         <v>2537</v>
       </c>
-      <c r="C50" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G50" s="83" t="s">
+      <c r="I50" s="82" t="s">
         <v>2538</v>
       </c>
-      <c r="H50" s="83" t="s">
+      <c r="J50" s="82" t="s">
         <v>2538</v>
       </c>
-      <c r="I50" s="82" t="s">
+      <c r="M50" s="83" t="s">
         <v>2539</v>
       </c>
-      <c r="J50" s="82" t="s">
-        <v>2539</v>
-      </c>
-      <c r="M50" s="83" t="s">
+      <c r="N50" s="83" t="s">
         <v>2540</v>
-      </c>
-      <c r="N50" s="83" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="82" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B51" s="82" t="s">
         <v>2542</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="C51" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E51" s="83" t="s">
         <v>2543</v>
       </c>
-      <c r="C51" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E51" s="83" t="s">
+      <c r="F51" s="83" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G51" s="83" t="s">
         <v>2544</v>
       </c>
-      <c r="F51" s="83" t="s">
+      <c r="H51" s="83" t="s">
         <v>2544</v>
       </c>
-      <c r="G51" s="83" t="s">
+      <c r="I51" s="82" t="s">
         <v>2545</v>
       </c>
-      <c r="H51" s="83" t="s">
-        <v>2545</v>
-      </c>
-      <c r="I51" s="82" t="s">
+      <c r="J51" s="82" t="s">
         <v>2546</v>
       </c>
-      <c r="J51" s="82" t="s">
+      <c r="K51" s="83" t="s">
         <v>2547</v>
       </c>
-      <c r="K51" s="83" t="s">
+      <c r="L51" s="83" t="s">
         <v>2548</v>
       </c>
-      <c r="L51" s="83" t="s">
+      <c r="M51" s="83" t="s">
         <v>2549</v>
       </c>
-      <c r="M51" s="83" t="s">
+      <c r="N51" s="83" t="s">
         <v>2550</v>
-      </c>
-      <c r="N51" s="83" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -73315,498 +73296,498 @@
         <v>2</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E52" s="83" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F52" s="83" t="s">
         <v>2552</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="G52" s="83" t="s">
         <v>2553</v>
       </c>
-      <c r="G52" s="83" t="s">
+      <c r="H52" s="83" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I52" s="82" t="s">
         <v>2554</v>
       </c>
-      <c r="H52" s="83" t="s">
+      <c r="J52" s="82" t="s">
         <v>2554</v>
       </c>
-      <c r="I52" s="82" t="s">
+      <c r="K52" s="83" t="s">
         <v>2555</v>
       </c>
-      <c r="J52" s="82" t="s">
+      <c r="L52" s="83" t="s">
         <v>2555</v>
       </c>
-      <c r="K52" s="83" t="s">
+      <c r="M52" s="83" t="s">
         <v>2556</v>
       </c>
-      <c r="L52" s="83" t="s">
-        <v>2556</v>
-      </c>
-      <c r="M52" s="83" t="s">
+      <c r="N52" s="83" t="s">
         <v>2557</v>
-      </c>
-      <c r="N52" s="83" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="82" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B53" s="82" t="s">
         <v>2559</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="C53" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G53" s="83" t="s">
         <v>2560</v>
       </c>
-      <c r="C53" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G53" s="83" t="s">
+      <c r="H53" s="83" t="s">
         <v>2561</v>
       </c>
-      <c r="H53" s="83" t="s">
+      <c r="I53" s="82" t="s">
         <v>2562</v>
       </c>
-      <c r="I53" s="82" t="s">
+      <c r="J53" s="82" t="s">
         <v>2563</v>
       </c>
-      <c r="J53" s="82" t="s">
+      <c r="K53" s="83" t="s">
         <v>2564</v>
       </c>
-      <c r="K53" s="83" t="s">
+      <c r="L53" s="83" t="s">
+        <v>2564</v>
+      </c>
+      <c r="M53" s="83" t="s">
         <v>2565</v>
       </c>
-      <c r="L53" s="83" t="s">
-        <v>2565</v>
-      </c>
-      <c r="M53" s="83" t="s">
+      <c r="N53" s="83" t="s">
         <v>2566</v>
-      </c>
-      <c r="N53" s="83" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="82" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B54" s="82" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F54" s="83" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G54" s="83" t="s">
         <v>2568</v>
       </c>
-      <c r="B54" s="82" t="s">
+      <c r="H54" s="83" t="s">
         <v>2568</v>
       </c>
-      <c r="C54" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E54" s="83" t="s">
-        <v>2202</v>
-      </c>
-      <c r="F54" s="83" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G54" s="83" t="s">
+      <c r="I54" s="82" t="s">
         <v>2569</v>
       </c>
-      <c r="H54" s="83" t="s">
+      <c r="J54" s="82" t="s">
         <v>2569</v>
       </c>
-      <c r="I54" s="82" t="s">
+      <c r="K54" s="83" t="s">
         <v>2570</v>
       </c>
-      <c r="J54" s="82" t="s">
+      <c r="L54" s="83" t="s">
         <v>2570</v>
       </c>
-      <c r="K54" s="83" t="s">
+      <c r="M54" s="83" t="s">
         <v>2571</v>
       </c>
-      <c r="L54" s="83" t="s">
-        <v>2571</v>
-      </c>
-      <c r="M54" s="83" t="s">
+      <c r="N54" s="83" t="s">
         <v>2572</v>
-      </c>
-      <c r="N54" s="83" t="s">
-        <v>2573</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="82" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B55" s="82" t="s">
         <v>2574</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="C55" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E55" s="83" t="s">
         <v>2575</v>
       </c>
-      <c r="C55" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E55" s="83" t="s">
+      <c r="F55" s="83" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G55" s="83" t="s">
         <v>2576</v>
       </c>
-      <c r="F55" s="83" t="s">
-        <v>2576</v>
-      </c>
-      <c r="G55" s="83" t="s">
+      <c r="H55" s="83" t="s">
         <v>2577</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="I55" s="82" t="s">
         <v>2578</v>
       </c>
-      <c r="I55" s="82" t="s">
+      <c r="J55" s="82" t="s">
         <v>2579</v>
       </c>
-      <c r="J55" s="82" t="s">
+      <c r="K55" s="83" t="s">
         <v>2580</v>
       </c>
-      <c r="K55" s="83" t="s">
+      <c r="L55" s="83" t="s">
+        <v>2580</v>
+      </c>
+      <c r="M55" s="83" t="s">
         <v>2581</v>
       </c>
-      <c r="L55" s="83" t="s">
+      <c r="N55" s="83" t="s">
         <v>2581</v>
-      </c>
-      <c r="M55" s="83" t="s">
-        <v>2582</v>
-      </c>
-      <c r="N55" s="83" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="82" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E56" s="83" t="s">
         <v>2583</v>
       </c>
-      <c r="B56" s="82" t="s">
+      <c r="F56" s="83" t="s">
         <v>2583</v>
       </c>
-      <c r="C56" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E56" s="83" t="s">
+      <c r="G56" s="83" t="s">
         <v>2584</v>
       </c>
-      <c r="F56" s="83" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G56" s="83" t="s">
+      <c r="H56" s="83" t="s">
         <v>2585</v>
       </c>
-      <c r="H56" s="83" t="s">
+      <c r="I56" s="82" t="s">
         <v>2586</v>
       </c>
-      <c r="I56" s="82" t="s">
+      <c r="J56" s="82" t="s">
         <v>2587</v>
       </c>
-      <c r="J56" s="82" t="s">
+      <c r="K56" s="83" t="s">
         <v>2588</v>
       </c>
-      <c r="K56" s="83" t="s">
+      <c r="L56" s="83" t="s">
+        <v>2588</v>
+      </c>
+      <c r="M56" s="83" t="s">
         <v>2589</v>
       </c>
-      <c r="L56" s="83" t="s">
-        <v>2589</v>
-      </c>
-      <c r="M56" s="83" t="s">
+      <c r="N56" s="83" t="s">
         <v>2590</v>
-      </c>
-      <c r="N56" s="83" t="s">
-        <v>2591</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="82" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B57" s="82" t="s">
         <v>2592</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="C57" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E57" s="83" t="s">
         <v>2593</v>
       </c>
-      <c r="C57" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E57" s="83" t="s">
+      <c r="F57" s="83" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G57" s="83" t="s">
         <v>2594</v>
       </c>
-      <c r="F57" s="83" t="s">
-        <v>2594</v>
-      </c>
-      <c r="G57" s="83" t="s">
+      <c r="H57" s="83" t="s">
         <v>2595</v>
       </c>
-      <c r="H57" s="83" t="s">
+      <c r="I57" s="82" t="s">
         <v>2596</v>
       </c>
-      <c r="I57" s="82" t="s">
+      <c r="J57" s="82" t="s">
         <v>2597</v>
       </c>
-      <c r="J57" s="82" t="s">
+      <c r="K57" s="83" t="s">
         <v>2598</v>
       </c>
-      <c r="K57" s="83" t="s">
+      <c r="L57" s="83" t="s">
+        <v>2598</v>
+      </c>
+      <c r="M57" s="83" t="s">
         <v>2599</v>
       </c>
-      <c r="L57" s="83" t="s">
-        <v>2599</v>
-      </c>
-      <c r="M57" s="83" t="s">
+      <c r="N57" s="83" t="s">
         <v>2600</v>
-      </c>
-      <c r="N57" s="83" t="s">
-        <v>2601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="82" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B58" s="82" t="s">
         <v>2602</v>
       </c>
-      <c r="B58" s="82" t="s">
+      <c r="C58" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E58" s="83" t="s">
         <v>2603</v>
       </c>
-      <c r="C58" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E58" s="83" t="s">
+      <c r="F58" s="83" t="s">
         <v>2604</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="G58" s="83" t="s">
         <v>2605</v>
       </c>
-      <c r="G58" s="83" t="s">
+      <c r="H58" s="83" t="s">
         <v>2606</v>
       </c>
-      <c r="H58" s="83" t="s">
+      <c r="I58" s="82" t="s">
         <v>2607</v>
       </c>
-      <c r="I58" s="82" t="s">
+      <c r="J58" s="82" t="s">
         <v>2608</v>
       </c>
-      <c r="J58" s="82" t="s">
+      <c r="K58" s="83" t="s">
         <v>2609</v>
       </c>
-      <c r="K58" s="83" t="s">
+      <c r="L58" s="83" t="s">
+        <v>2609</v>
+      </c>
+      <c r="M58" s="83" t="s">
         <v>2610</v>
       </c>
-      <c r="L58" s="83" t="s">
+      <c r="N58" s="83" t="s">
         <v>2610</v>
-      </c>
-      <c r="M58" s="83" t="s">
-        <v>2611</v>
-      </c>
-      <c r="N58" s="83" t="s">
-        <v>2611</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="82" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B59" s="82" t="s">
         <v>2612</v>
       </c>
-      <c r="B59" s="82" t="s">
+      <c r="C59" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G59" s="83" t="s">
         <v>2613</v>
       </c>
-      <c r="C59" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G59" s="83" t="s">
+      <c r="H59" s="83" t="s">
         <v>2614</v>
       </c>
-      <c r="H59" s="83" t="s">
+      <c r="I59" s="82" t="s">
         <v>2615</v>
       </c>
-      <c r="I59" s="82" t="s">
+      <c r="J59" s="82" t="s">
         <v>2616</v>
       </c>
-      <c r="J59" s="82" t="s">
+      <c r="K59" s="83" t="s">
         <v>2617</v>
       </c>
-      <c r="K59" s="83" t="s">
+      <c r="L59" s="83" t="s">
+        <v>2617</v>
+      </c>
+      <c r="M59" s="83" t="s">
         <v>2618</v>
       </c>
-      <c r="L59" s="83" t="s">
+      <c r="N59" s="83" t="s">
         <v>2618</v>
-      </c>
-      <c r="M59" s="83" t="s">
-        <v>2619</v>
-      </c>
-      <c r="N59" s="83" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="82" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B60" s="82" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E60" s="83" t="s">
         <v>2620</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="F60" s="83" t="s">
         <v>2620</v>
       </c>
-      <c r="C60" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E60" s="83" t="s">
+      <c r="G60" s="83" t="s">
         <v>2621</v>
       </c>
-      <c r="F60" s="83" t="s">
-        <v>2621</v>
-      </c>
-      <c r="G60" s="83" t="s">
+      <c r="H60" s="83" t="s">
         <v>2622</v>
       </c>
-      <c r="H60" s="83" t="s">
+      <c r="I60" s="82" t="s">
         <v>2623</v>
       </c>
-      <c r="I60" s="82" t="s">
+      <c r="J60" s="82" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K60" s="83" t="s">
         <v>2624</v>
       </c>
-      <c r="J60" s="82" t="s">
+      <c r="L60" s="83" t="s">
         <v>2624</v>
       </c>
-      <c r="K60" s="83" t="s">
+      <c r="M60" s="83" t="s">
         <v>2625</v>
       </c>
-      <c r="L60" s="83" t="s">
-        <v>2625</v>
-      </c>
-      <c r="M60" s="83" t="s">
+      <c r="N60" s="83" t="s">
         <v>2626</v>
-      </c>
-      <c r="N60" s="83" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="82" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B61" s="82" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E61" s="83" t="s">
         <v>2628</v>
       </c>
-      <c r="B61" s="82" t="s">
+      <c r="F61" s="83" t="s">
         <v>2628</v>
       </c>
-      <c r="C61" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E61" s="83" t="s">
+      <c r="G61" s="83" t="s">
         <v>2629</v>
       </c>
-      <c r="F61" s="83" t="s">
+      <c r="H61" s="83" t="s">
         <v>2629</v>
       </c>
-      <c r="G61" s="83" t="s">
+      <c r="I61" s="82" t="s">
         <v>2630</v>
       </c>
-      <c r="H61" s="83" t="s">
+      <c r="J61" s="82" t="s">
         <v>2630</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="K61" s="83" t="s">
         <v>2631</v>
       </c>
-      <c r="J61" s="82" t="s">
+      <c r="L61" s="83" t="s">
         <v>2631</v>
       </c>
-      <c r="K61" s="83" t="s">
+      <c r="M61" s="83" t="s">
         <v>2632</v>
       </c>
-      <c r="L61" s="83" t="s">
+      <c r="N61" s="83" t="s">
         <v>2632</v>
-      </c>
-      <c r="M61" s="83" t="s">
-        <v>2633</v>
-      </c>
-      <c r="N61" s="83" t="s">
-        <v>2633</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="82" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E62" s="83" t="s">
         <v>2634</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="F62" s="83" t="s">
         <v>2634</v>
       </c>
-      <c r="C62" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E62" s="83" t="s">
+      <c r="G62" s="83" t="s">
         <v>2635</v>
       </c>
-      <c r="F62" s="83" t="s">
+      <c r="H62" s="83" t="s">
         <v>2635</v>
       </c>
-      <c r="G62" s="83" t="s">
+      <c r="I62" s="82" t="s">
         <v>2636</v>
       </c>
-      <c r="H62" s="83" t="s">
-        <v>2636</v>
-      </c>
-      <c r="I62" s="82" t="s">
+      <c r="J62" s="82" t="s">
         <v>2637</v>
       </c>
-      <c r="J62" s="82" t="s">
+      <c r="K62" s="83" t="s">
         <v>2638</v>
       </c>
-      <c r="K62" s="83" t="s">
+      <c r="L62" s="83" t="s">
+        <v>2638</v>
+      </c>
+      <c r="M62" s="83" t="s">
         <v>2639</v>
       </c>
-      <c r="L62" s="83" t="s">
-        <v>2639</v>
-      </c>
-      <c r="M62" s="83" t="s">
+      <c r="N62" s="83" t="s">
         <v>2640</v>
-      </c>
-      <c r="N62" s="83" t="s">
-        <v>2641</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="82" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B63" s="82" t="s">
         <v>2642</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="C63" s="82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G63" s="83" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I63" s="82" t="s">
         <v>2643</v>
       </c>
-      <c r="C63" s="82" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E63" s="83" t="s">
-        <v>2505</v>
-      </c>
-      <c r="F63" s="83" t="s">
-        <v>2505</v>
-      </c>
-      <c r="G63" s="83" t="s">
-        <v>2506</v>
-      </c>
-      <c r="H63" s="83" t="s">
-        <v>2507</v>
-      </c>
-      <c r="I63" s="82" t="s">
+      <c r="J63" s="82" t="s">
         <v>2644</v>
       </c>
-      <c r="J63" s="82" t="s">
-        <v>2645</v>
-      </c>
       <c r="K63" s="83" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L63" s="83" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M63" s="83" t="s">
         <v>2510</v>
       </c>
-      <c r="L63" s="83" t="s">
-        <v>2510</v>
-      </c>
-      <c r="M63" s="83" t="s">
+      <c r="N63" s="83" t="s">
         <v>2511</v>
-      </c>
-      <c r="N63" s="83" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="82" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="C64" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="82" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B66" s="82" t="s">
         <v>2647</v>
       </c>
-      <c r="B66" s="82" t="s">
-        <v>2648</v>
-      </c>
       <c r="C66" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
@@ -73841,174 +73822,174 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="84" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>2649</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="84" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="84" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B3" s="84" t="s">
         <v>2652</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>2653</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="84" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="84" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="84" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B6" s="84" t="s">
         <v>2656</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>2657</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="84" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B7" s="84" t="s">
         <v>2658</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>2659</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="84" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B8" s="84" t="s">
         <v>2660</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>2661</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="84" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>2662</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>2663</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="84" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B10" s="84" t="s">
         <v>2664</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>2665</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="84" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>2666</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>2667</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="84" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B12" s="84" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C12" s="84" t="s">
         <v>2649</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="84" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B13" s="84" t="s">
         <v>2669</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>2670</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="84" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>2671</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>2672</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="84" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="84" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="84" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B17" s="84" t="s">
         <v>2675</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>2676</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="84" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B18" s="84" t="s">
         <v>2677</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>2678</v>
       </c>
       <c r="C18" s="2"/>
     </row>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId3"/>
@@ -3893,7 +3893,8 @@
   </si>
   <si>
     <t xml:space="preserve">ārānaṃ
-ānaṃ</t>
+ānaṃ
+ūnaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">āya
@@ -10019,7 +10020,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -36233,8 +36234,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O91" activeCellId="0" sqref="O91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH52" activeCellId="0" sqref="BH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9962" uniqueCount="2678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9966" uniqueCount="2679">
   <si>
     <t xml:space="preserve">inflection name</t>
   </si>
@@ -6842,6 +6842,9 @@
 santamhā
 santasmā
 santā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ete</t>
   </si>
   <si>
     <t xml:space="preserve">ubhayamhi
@@ -36234,8 +36237,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH52" activeCellId="0" sqref="BH52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ161" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DA165" activeCellId="0" sqref="DA165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -63454,47 +63457,55 @@
       <c r="CW164" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="CX164" s="70"/>
-      <c r="CY164" s="71"/>
-      <c r="CZ164" s="70"/>
-      <c r="DA164" s="71"/>
+      <c r="CX164" s="70" t="s">
+        <v>1933</v>
+      </c>
+      <c r="CY164" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="CZ164" s="70" t="s">
+        <v>860</v>
+      </c>
+      <c r="DA164" s="71" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
         <v>596</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C165" s="48" t="s">
         <v>598</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>600</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="G165" s="49" t="s">
         <v>602</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="I165" s="49" t="s">
         <v>604</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="K165" s="48" t="s">
         <v>605</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="M165" s="48" t="s">
         <v>606</v>
@@ -63523,7 +63534,7 @@
         <v>596</v>
       </c>
       <c r="BF165" s="41" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="BG165" s="56" t="s">
         <v>598</v>
@@ -63565,7 +63576,7 @@
         <v>636</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C166" s="48" t="s">
         <v>636</v>
@@ -63772,13 +63783,13 @@
         <v>570</v>
       </c>
       <c r="CX168" s="46" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="CY168" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ168" s="46" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="DA168" s="19" t="s">
         <v>574</v>
@@ -63871,7 +63882,7 @@
         <v>592</v>
       </c>
       <c r="CZ169" s="46" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="DA169" s="19" t="s">
         <v>594</v>
@@ -63941,13 +63952,13 @@
         <v>417</v>
       </c>
       <c r="BF170" s="41" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="BG170" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH170" s="41" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="BI170" s="56" t="s">
         <v>421</v>
@@ -63962,7 +63973,7 @@
         <v>618</v>
       </c>
       <c r="CT170" s="70" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="CU170" s="71" t="s">
         <v>620</v>
@@ -64050,13 +64061,13 @@
         <v>455</v>
       </c>
       <c r="BF171" s="41" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="BG171" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH171" s="41" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="BI171" s="56" t="s">
         <v>458</v>
@@ -64071,13 +64082,13 @@
         <v>642</v>
       </c>
       <c r="CT171" s="70" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="CU171" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV171" s="70" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="CW171" s="71" t="s">
         <v>646</v>
@@ -64159,13 +64170,13 @@
         <v>482</v>
       </c>
       <c r="BF172" s="41" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="BG172" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH172" s="41" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="BI172" s="56" t="s">
         <v>486</v>
@@ -64180,13 +64191,13 @@
         <v>652</v>
       </c>
       <c r="CT172" s="70" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="CU172" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV172" s="70" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="CW172" s="71" t="s">
         <v>656</v>
@@ -64268,13 +64279,13 @@
         <v>519</v>
       </c>
       <c r="BF173" s="41" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="BG173" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH173" s="41" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="BI173" s="56" t="s">
         <v>523</v>
@@ -64289,25 +64300,25 @@
         <v>664</v>
       </c>
       <c r="CT173" s="46" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="CU173" s="19" t="s">
         <v>666</v>
       </c>
       <c r="CV173" s="46" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="CW173" s="19" t="s">
         <v>668</v>
       </c>
       <c r="CX173" s="46" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="CY173" s="19" t="s">
         <v>670</v>
       </c>
       <c r="CZ173" s="46" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="DA173" s="19" t="s">
         <v>672</v>
@@ -64377,13 +64388,13 @@
         <v>549</v>
       </c>
       <c r="BF174" s="41" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="BG174" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH174" s="41" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="BI174" s="56" t="s">
         <v>552</v>
@@ -64398,25 +64409,25 @@
         <v>691</v>
       </c>
       <c r="CT174" s="46" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="CU174" s="19" t="s">
         <v>693</v>
       </c>
       <c r="CV174" s="46" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="CW174" s="19" t="s">
         <v>695</v>
       </c>
       <c r="CX174" s="46" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="CY174" s="19" t="s">
         <v>697</v>
       </c>
       <c r="CZ174" s="46" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="DA174" s="19" t="s">
         <v>699</v>
@@ -64486,13 +64497,13 @@
         <v>576</v>
       </c>
       <c r="BF175" s="41" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="BG175" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH175" s="41" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="BI175" s="56" t="s">
         <v>579</v>
@@ -64507,25 +64518,25 @@
         <v>724</v>
       </c>
       <c r="CT175" s="46" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="CU175" s="19" t="s">
         <v>726</v>
       </c>
       <c r="CV175" s="46" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="CW175" s="19" t="s">
         <v>728</v>
       </c>
       <c r="CX175" s="46" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="CY175" s="19" t="s">
         <v>730</v>
       </c>
       <c r="CZ175" s="46" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="DA175" s="19" t="s">
         <v>732</v>
@@ -64595,13 +64606,13 @@
         <v>596</v>
       </c>
       <c r="BF176" s="41" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="BG176" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH176" s="41" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="BI176" s="56" t="s">
         <v>600</v>
@@ -64686,13 +64697,13 @@
         <v>627</v>
       </c>
       <c r="BF177" s="41" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="BG177" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH177" s="41" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="BI177" s="56" t="s">
         <v>630</v>
@@ -64748,7 +64759,7 @@
         <v>636</v>
       </c>
       <c r="BF178" s="41" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="BG178" s="56" t="s">
         <v>636</v>
@@ -64813,13 +64824,13 @@
         <v>673</v>
       </c>
       <c r="CT179" s="70" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="CU179" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV179" s="70" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="CW179" s="71" t="s">
         <v>677</v>
@@ -64898,7 +64909,7 @@
         <v>701</v>
       </c>
       <c r="CV180" s="70" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="CW180" s="71" t="s">
         <v>703</v>
@@ -64989,7 +65000,7 @@
         <v>733</v>
       </c>
       <c r="CT181" s="70" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="CU181" s="71" t="s">
         <v>735</v>
@@ -65150,7 +65161,7 @@
         <v>482</v>
       </c>
       <c r="BF183" s="41" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="BG183" s="56" t="s">
         <v>484</v>
@@ -65232,7 +65243,7 @@
         <v>519</v>
       </c>
       <c r="BF184" s="41" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="BG184" s="56" t="s">
         <v>521</v>
@@ -65333,7 +65344,7 @@
         <v>549</v>
       </c>
       <c r="BF185" s="41" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="BG185" s="56" t="s">
         <v>551</v>
@@ -65359,13 +65370,13 @@
         <v>618</v>
       </c>
       <c r="CT185" s="62" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="CU185" s="63" t="s">
         <v>620</v>
       </c>
       <c r="CV185" s="62" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="CW185" s="63" t="s">
         <v>622</v>
@@ -65445,7 +65456,7 @@
         <v>576</v>
       </c>
       <c r="BF186" s="41" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="BG186" s="56" t="s">
         <v>578</v>
@@ -65471,7 +65482,7 @@
         <v>642</v>
       </c>
       <c r="CT186" s="62" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="CU186" s="63" t="s">
         <v>644</v>
@@ -65555,7 +65566,7 @@
         <v>596</v>
       </c>
       <c r="BF187" s="41" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="BG187" s="56" t="s">
         <v>598</v>
@@ -65581,13 +65592,13 @@
         <v>652</v>
       </c>
       <c r="CT187" s="62" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="CU187" s="63" t="s">
         <v>654</v>
       </c>
       <c r="CV187" s="62" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="CW187" s="63" t="s">
         <v>656</v>
@@ -65665,13 +65676,13 @@
         <v>627</v>
       </c>
       <c r="BF188" s="41" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="BG188" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH188" s="41" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="BI188" s="56" t="s">
         <v>630</v>
@@ -65741,7 +65752,7 @@
         <v>636</v>
       </c>
       <c r="BF189" s="41" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="BG189" s="56" t="s">
         <v>636</v>
@@ -65904,25 +65915,25 @@
         <v>443</v>
       </c>
       <c r="CT191" s="70" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="CU191" s="71" t="s">
         <v>445</v>
       </c>
       <c r="CV191" s="70" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="CW191" s="71" t="s">
         <v>447</v>
       </c>
       <c r="CX191" s="70" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="CY191" s="71" t="s">
         <v>449</v>
       </c>
       <c r="CZ191" s="70" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="DA191" s="71" t="s">
         <v>451</v>
@@ -65992,7 +66003,7 @@
         <v>417</v>
       </c>
       <c r="BF192" s="41" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="BG192" s="56" t="s">
         <v>419</v>
@@ -66016,25 +66027,25 @@
         <v>470</v>
       </c>
       <c r="CT192" s="70" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="CU192" s="71" t="s">
         <v>472</v>
       </c>
       <c r="CV192" s="70" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CW192" s="71" t="s">
         <v>474</v>
       </c>
       <c r="CX192" s="70" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="CY192" s="71" t="s">
         <v>476</v>
       </c>
       <c r="CZ192" s="70" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="DA192" s="71" t="s">
         <v>478</v>
@@ -66104,7 +66115,7 @@
         <v>455</v>
       </c>
       <c r="BF193" s="41" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="BG193" s="56" t="s">
         <v>456</v>
@@ -66128,25 +66139,25 @@
         <v>507</v>
       </c>
       <c r="CT193" s="70" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="CU193" s="71" t="s">
         <v>509</v>
       </c>
       <c r="CV193" s="70" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="CW193" s="71" t="s">
         <v>511</v>
       </c>
       <c r="CX193" s="70" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="CY193" s="71" t="s">
         <v>512</v>
       </c>
       <c r="CZ193" s="70" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="DA193" s="71" t="s">
         <v>514</v>
@@ -66238,25 +66249,25 @@
         <v>538</v>
       </c>
       <c r="CT194" s="46" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="CU194" s="19" t="s">
         <v>540</v>
       </c>
       <c r="CV194" s="46" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="CW194" s="19" t="s">
         <v>542</v>
       </c>
       <c r="CX194" s="46" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="CY194" s="19" t="s">
         <v>544</v>
       </c>
       <c r="CZ194" s="46" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="DA194" s="19" t="s">
         <v>546</v>
@@ -66348,25 +66359,25 @@
         <v>567</v>
       </c>
       <c r="CT195" s="46" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="CU195" s="19" t="s">
         <v>569</v>
       </c>
       <c r="CV195" s="46" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CW195" s="19" t="s">
         <v>570</v>
       </c>
       <c r="CX195" s="46" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="CY195" s="19" t="s">
         <v>572</v>
       </c>
       <c r="CZ195" s="46" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="DA195" s="19" t="s">
         <v>574</v>
@@ -66458,25 +66469,25 @@
         <v>589</v>
       </c>
       <c r="CT196" s="46" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="CU196" s="19" t="s">
         <v>590</v>
       </c>
       <c r="CV196" s="46" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="CW196" s="19" t="s">
         <v>591</v>
       </c>
       <c r="CX196" s="46" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="CY196" s="19" t="s">
         <v>592</v>
       </c>
       <c r="CZ196" s="46" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="DA196" s="19" t="s">
         <v>594</v>
@@ -66568,25 +66579,25 @@
         <v>618</v>
       </c>
       <c r="CT197" s="70" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="CU197" s="71" t="s">
         <v>620</v>
       </c>
       <c r="CV197" s="70" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="CW197" s="71" t="s">
         <v>622</v>
       </c>
       <c r="CX197" s="70" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="CY197" s="71" t="s">
         <v>624</v>
       </c>
       <c r="CZ197" s="70" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="DA197" s="71" t="s">
         <v>626</v>
@@ -66678,25 +66689,25 @@
         <v>642</v>
       </c>
       <c r="CT198" s="70" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="CU198" s="71" t="s">
         <v>644</v>
       </c>
       <c r="CV198" s="70" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="CW198" s="71" t="s">
         <v>646</v>
       </c>
       <c r="CX198" s="70" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="CY198" s="71" t="s">
         <v>648</v>
       </c>
       <c r="CZ198" s="70" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="DA198" s="71" t="s">
         <v>650</v>
@@ -66788,25 +66799,25 @@
         <v>652</v>
       </c>
       <c r="CT199" s="70" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="CU199" s="71" t="s">
         <v>654</v>
       </c>
       <c r="CV199" s="70" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="CW199" s="71" t="s">
         <v>656</v>
       </c>
       <c r="CX199" s="70" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="CY199" s="71" t="s">
         <v>658</v>
       </c>
       <c r="CZ199" s="70" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="DA199" s="71" t="s">
         <v>660</v>
@@ -66987,25 +66998,25 @@
         <v>673</v>
       </c>
       <c r="CT202" s="70" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="CU202" s="71" t="s">
         <v>675</v>
       </c>
       <c r="CV202" s="70" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="CW202" s="71" t="s">
         <v>677</v>
       </c>
       <c r="CX202" s="70" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="CY202" s="71" t="s">
         <v>946</v>
       </c>
       <c r="CZ202" s="70" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="DA202" s="71" t="s">
         <v>948</v>
@@ -67068,25 +67079,25 @@
         <v>700</v>
       </c>
       <c r="CT203" s="70" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="CU203" s="71" t="s">
         <v>701</v>
       </c>
       <c r="CV203" s="70" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="CW203" s="71" t="s">
         <v>703</v>
       </c>
       <c r="CX203" s="70" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="CY203" s="71" t="s">
         <v>960</v>
       </c>
       <c r="CZ203" s="70" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="DA203" s="71" t="s">
         <v>962</v>
@@ -67149,25 +67160,25 @@
         <v>733</v>
       </c>
       <c r="CT204" s="70" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="CU204" s="71" t="s">
         <v>735</v>
       </c>
       <c r="CV204" s="70" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="CW204" s="71" t="s">
         <v>737</v>
       </c>
       <c r="CX204" s="70" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="CY204" s="71" t="s">
         <v>975</v>
       </c>
       <c r="CZ204" s="70" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="DA204" s="71" t="s">
         <v>977</v>
@@ -67330,7 +67341,7 @@
         <v>549</v>
       </c>
       <c r="BF207" s="41" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="BG207" s="56" t="s">
         <v>551</v>
@@ -67742,13 +67753,13 @@
         <v>417</v>
       </c>
       <c r="BF214" s="41" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG214" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH214" s="41" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="BI214" s="56" t="s">
         <v>421</v>
@@ -67796,13 +67807,13 @@
         <v>455</v>
       </c>
       <c r="BF215" s="41" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="BG215" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH215" s="41" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="BI215" s="56" t="s">
         <v>458</v>
@@ -67850,13 +67861,13 @@
         <v>482</v>
       </c>
       <c r="BF216" s="41" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="BG216" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH216" s="41" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="BI216" s="56" t="s">
         <v>486</v>
@@ -67904,13 +67915,13 @@
         <v>519</v>
       </c>
       <c r="BF217" s="41" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="BG217" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH217" s="41" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="BI217" s="56" t="s">
         <v>523</v>
@@ -67958,13 +67969,13 @@
         <v>549</v>
       </c>
       <c r="BF218" s="41" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="BG218" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH218" s="41" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="BI218" s="56" t="s">
         <v>552</v>
@@ -68012,13 +68023,13 @@
         <v>576</v>
       </c>
       <c r="BF219" s="41" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="BG219" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH219" s="41" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="BI219" s="56" t="s">
         <v>579</v>
@@ -68061,13 +68072,13 @@
         <v>596</v>
       </c>
       <c r="BF220" s="41" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="BG220" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH220" s="41" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="BI220" s="56" t="s">
         <v>600</v>
@@ -68110,13 +68121,13 @@
         <v>627</v>
       </c>
       <c r="BF221" s="41" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG221" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH221" s="41" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="BI221" s="56" t="s">
         <v>630</v>
@@ -68159,7 +68170,7 @@
         <v>636</v>
       </c>
       <c r="BF222" s="41" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="BG222" s="56" t="s">
         <v>636</v>
@@ -68286,13 +68297,13 @@
         <v>417</v>
       </c>
       <c r="BF225" s="41" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="BG225" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH225" s="41" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="BI225" s="56" t="s">
         <v>421</v>
@@ -68335,13 +68346,13 @@
         <v>455</v>
       </c>
       <c r="BF226" s="41" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="BG226" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH226" s="41" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="BI226" s="56" t="s">
         <v>458</v>
@@ -68384,13 +68395,13 @@
         <v>482</v>
       </c>
       <c r="BF227" s="41" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="BG227" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH227" s="41" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="BI227" s="56" t="s">
         <v>486</v>
@@ -68433,13 +68444,13 @@
         <v>519</v>
       </c>
       <c r="BF228" s="41" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="BG228" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH228" s="41" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="BI228" s="56" t="s">
         <v>523</v>
@@ -68482,13 +68493,13 @@
         <v>549</v>
       </c>
       <c r="BF229" s="41" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="BG229" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH229" s="41" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="BI229" s="56" t="s">
         <v>552</v>
@@ -68531,13 +68542,13 @@
         <v>576</v>
       </c>
       <c r="BF230" s="41" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="BG230" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH230" s="41" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="BI230" s="56" t="s">
         <v>579</v>
@@ -68580,13 +68591,13 @@
         <v>596</v>
       </c>
       <c r="BF231" s="41" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="BG231" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH231" s="41" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="BI231" s="56" t="s">
         <v>600</v>
@@ -68629,13 +68640,13 @@
         <v>627</v>
       </c>
       <c r="BF232" s="41" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="BG232" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH232" s="41" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="BI232" s="56" t="s">
         <v>630</v>
@@ -68678,7 +68689,7 @@
         <v>636</v>
       </c>
       <c r="BF233" s="41" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="BG233" s="56" t="s">
         <v>636</v>
@@ -68805,13 +68816,13 @@
         <v>417</v>
       </c>
       <c r="BF236" s="41" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="BG236" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH236" s="41" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="BI236" s="56" t="s">
         <v>421</v>
@@ -68854,13 +68865,13 @@
         <v>455</v>
       </c>
       <c r="BF237" s="41" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="BG237" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH237" s="41" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="BI237" s="56" t="s">
         <v>458</v>
@@ -68903,13 +68914,13 @@
         <v>482</v>
       </c>
       <c r="BF238" s="41" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="BG238" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH238" s="41" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="BI238" s="56" t="s">
         <v>486</v>
@@ -68952,13 +68963,13 @@
         <v>519</v>
       </c>
       <c r="BF239" s="41" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BG239" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH239" s="41" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="BI239" s="56" t="s">
         <v>523</v>
@@ -69001,13 +69012,13 @@
         <v>549</v>
       </c>
       <c r="BF240" s="41" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="BG240" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH240" s="41" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="BI240" s="56" t="s">
         <v>552</v>
@@ -69050,13 +69061,13 @@
         <v>576</v>
       </c>
       <c r="BF241" s="41" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="BG241" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH241" s="41" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="BI241" s="56" t="s">
         <v>579</v>
@@ -69099,13 +69110,13 @@
         <v>596</v>
       </c>
       <c r="BF242" s="41" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="BG242" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH242" s="41" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="BI242" s="56" t="s">
         <v>600</v>
@@ -69148,13 +69159,13 @@
         <v>627</v>
       </c>
       <c r="BF243" s="41" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="BG243" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH243" s="41" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="BI243" s="56" t="s">
         <v>630</v>
@@ -69197,7 +69208,7 @@
         <v>636</v>
       </c>
       <c r="BF244" s="41" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="BG244" s="56" t="s">
         <v>636</v>
@@ -69667,7 +69678,7 @@
         <v>627</v>
       </c>
       <c r="BF254" s="41" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="BG254" s="56" t="s">
         <v>629</v>
@@ -69890,7 +69901,7 @@
         <v>455</v>
       </c>
       <c r="BF259" s="41" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="BG259" s="56" t="s">
         <v>456</v>
@@ -69982,7 +69993,7 @@
         <v>519</v>
       </c>
       <c r="BF261" s="41" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="BG261" s="56" t="s">
         <v>521</v>
@@ -70061,7 +70072,7 @@
         <v>576</v>
       </c>
       <c r="BF263" s="41" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="BG263" s="56" t="s">
         <v>578</v>
@@ -70098,7 +70109,7 @@
         <v>596</v>
       </c>
       <c r="BF264" s="41" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="BG264" s="56" t="s">
         <v>598</v>
@@ -70269,13 +70280,13 @@
         <v>417</v>
       </c>
       <c r="BF269" s="41" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="BG269" s="56" t="s">
         <v>419</v>
       </c>
       <c r="BH269" s="41" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BI269" s="56" t="s">
         <v>421</v>
@@ -70308,13 +70319,13 @@
         <v>455</v>
       </c>
       <c r="BF270" s="41" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="BG270" s="56" t="s">
         <v>456</v>
       </c>
       <c r="BH270" s="41" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BI270" s="56" t="s">
         <v>458</v>
@@ -70347,13 +70358,13 @@
         <v>482</v>
       </c>
       <c r="BF271" s="41" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="BG271" s="56" t="s">
         <v>484</v>
       </c>
       <c r="BH271" s="41" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="BI271" s="56" t="s">
         <v>486</v>
@@ -70386,13 +70397,13 @@
         <v>519</v>
       </c>
       <c r="BF272" s="41" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="BG272" s="56" t="s">
         <v>521</v>
       </c>
       <c r="BH272" s="41" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="BI272" s="56" t="s">
         <v>523</v>
@@ -70425,13 +70436,13 @@
         <v>549</v>
       </c>
       <c r="BF273" s="41" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="BG273" s="56" t="s">
         <v>551</v>
       </c>
       <c r="BH273" s="41" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="BI273" s="56" t="s">
         <v>552</v>
@@ -70464,13 +70475,13 @@
         <v>576</v>
       </c>
       <c r="BF274" s="41" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="BG274" s="56" t="s">
         <v>578</v>
       </c>
       <c r="BH274" s="41" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="BI274" s="56" t="s">
         <v>579</v>
@@ -70503,13 +70514,13 @@
         <v>596</v>
       </c>
       <c r="BF275" s="41" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="BG275" s="56" t="s">
         <v>598</v>
       </c>
       <c r="BH275" s="41" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="BI275" s="56" t="s">
         <v>600</v>
@@ -70542,13 +70553,13 @@
         <v>627</v>
       </c>
       <c r="BF276" s="41" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="BG276" s="56" t="s">
         <v>629</v>
       </c>
       <c r="BH276" s="41" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BI276" s="56" t="s">
         <v>630</v>
@@ -70581,7 +70592,7 @@
         <v>636</v>
       </c>
       <c r="BF277" s="41" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="BG277" s="56" t="s">
         <v>636</v>
@@ -70774,7 +70785,7 @@
         <v>519</v>
       </c>
       <c r="BF283" s="41" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="BG283" s="56" t="s">
         <v>521</v>
@@ -70820,7 +70831,7 @@
         <v>576</v>
       </c>
       <c r="BF285" s="41" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="BG285" s="56" t="s">
         <v>578</v>
@@ -71486,46 +71497,46 @@
   <sheetData>
     <row r="1" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="H1" s="81" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="M1" s="81" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="AMI1" s="20"/>
       <c r="AMJ1" s="20"/>
@@ -71535,40 +71546,40 @@
         <v>417</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71576,40 +71587,40 @@
         <v>455</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71617,40 +71628,40 @@
         <v>482</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="J4" s="82" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="M4" s="83" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71658,40 +71669,40 @@
         <v>519</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="I5" s="82" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="M5" s="83" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71699,40 +71710,40 @@
         <v>549</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71740,40 +71751,40 @@
         <v>576</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71781,40 +71792,40 @@
         <v>596</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71822,40 +71833,40 @@
         <v>627</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -71863,202 +71874,202 @@
         <v>636</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J10" s="82" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="N10" s="83" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="L12" s="83" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="N12" s="83" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="I13" s="82" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="J13" s="82" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="K13" s="83" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="L13" s="83" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="N13" s="83" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="I14" s="82" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="K14" s="83" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="I15" s="82" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="J15" s="82" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="K15" s="83" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="L15" s="83" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="N15" s="83" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72067,40 +72078,40 @@
         <v>413</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72108,40 +72119,40 @@
         <v>414</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72152,597 +72163,597 @@
         <v>1300</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J19" s="82" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="N19" s="83" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="G21" s="83" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="L21" s="83" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="N21" s="83" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="J22" s="82" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="L22" s="83" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="H24" s="83" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="J24" s="82" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="K24" s="83" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="L24" s="83" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="M24" s="83" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="N24" s="83" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="K25" s="83" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="L25" s="83" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="M25" s="83" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="N25" s="83" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="J26" s="82" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="F27" s="83" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="I27" s="82" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="J27" s="82" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="K27" s="83" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="L27" s="83" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="M27" s="83" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="N27" s="83" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="G28" s="83" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="I28" s="82" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="J28" s="82" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="K28" s="83" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="N28" s="83" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="J29" s="82" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="K29" s="83" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="L29" s="83" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="M29" s="83" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="N29" s="83" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="J30" s="82" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="K30" s="83" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="L30" s="83" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="M30" s="83" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="I31" s="82" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="J31" s="82" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="K31" s="83" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="M31" s="83" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="N31" s="83" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="F33" s="83" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="I33" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="82" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="K33" s="83" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="L33" s="83" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="M33" s="83" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="N33" s="83" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="I34" s="20" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="82" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="G35" s="83" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="I35" s="20" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="82" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="K35" s="83" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="L35" s="83" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="M35" s="83" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="N35" s="83" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -72751,542 +72762,542 @@
         <v>32</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G37" s="83" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="I37" s="82" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="J37" s="82" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="M37" s="83" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="N37" s="83" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="I38" s="82" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="82" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="F39" s="83" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="G39" s="83" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="H39" s="83" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="I39" s="82" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="J39" s="82" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="K39" s="83" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="L39" s="83" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="N39" s="83" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="82" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="B41" s="82" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="G41" s="83" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="H41" s="83" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="I41" s="82" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="J41" s="82" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="K41" s="83" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="M41" s="83" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="N41" s="83" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="82" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="B42" s="82" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="J42" s="82" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="K42" s="83" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="L42" s="83" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N42" s="83" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="82" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B43" s="82" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="G43" s="83" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="H43" s="83" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="I43" s="82" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="J43" s="82" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="M43" s="83" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="N43" s="83" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="82" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="G44" s="83" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="H44" s="83" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="K44" s="83" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="L44" s="83" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="M44" s="83" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="N44" s="83" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="82" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="B45" s="82" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="F45" s="83" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="G45" s="83" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="I45" s="82" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="J45" s="82" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="K45" s="83" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="L45" s="83" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="M45" s="83" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="N45" s="83" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="82" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="J46" s="82" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="82" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B47" s="82" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="F47" s="83" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="I47" s="82" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="J47" s="82" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="L47" s="83" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="M47" s="83" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="N47" s="83" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="82" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="F48" s="83" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G48" s="83" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="J48" s="82" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="K48" s="83" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="L48" s="83" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="M48" s="83" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="N48" s="83" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="82" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="F49" s="83" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="G49" s="83" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="I49" s="82" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="J49" s="82" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="K49" s="83" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="L49" s="83" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="M49" s="83" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="N49" s="83" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="82" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G50" s="83" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="I50" s="82" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="J50" s="82" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="M50" s="83" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="82" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="F51" s="83" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="J51" s="82" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="K51" s="83" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="L51" s="83" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="M51" s="83" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="N51" s="83" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -73297,498 +73308,498 @@
         <v>2</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E52" s="83" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="F52" s="83" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="G52" s="83" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="K52" s="83" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="L52" s="83" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="N52" s="83" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="82" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="B53" s="82" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G53" s="83" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="H53" s="83" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="I53" s="82" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="J53" s="82" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="K53" s="83" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="L53" s="83" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="M53" s="83" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="N53" s="83" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="82" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B54" s="82" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="I54" s="82" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="N54" s="83" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="82" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="B55" s="82" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E55" s="83" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="H55" s="83" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="I55" s="82" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="J55" s="82" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="K55" s="83" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="L55" s="83" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="M55" s="83" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="N55" s="83" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="82" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="F56" s="83" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="G56" s="83" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="H56" s="83" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="I56" s="82" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="J56" s="82" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="K56" s="83" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="L56" s="83" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="M56" s="83" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="N56" s="83" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="82" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="F57" s="83" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="G57" s="83" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="H57" s="83" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="I57" s="82" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="J57" s="82" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="K57" s="83" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="L57" s="83" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="M57" s="83" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="N57" s="83" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="82" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="I58" s="82" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="J58" s="82" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="N58" s="83" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="82" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="B59" s="82" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G59" s="83" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="H59" s="83" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="I59" s="82" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="J59" s="82" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="K59" s="83" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="L59" s="83" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="M59" s="83" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="N59" s="83" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="82" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="F60" s="83" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="G60" s="83" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="H60" s="83" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="I60" s="82" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="J60" s="82" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="K60" s="83" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="L60" s="83" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="M60" s="83" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="N60" s="83" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="82" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="B61" s="82" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="F61" s="83" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="H61" s="83" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="I61" s="82" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="J61" s="82" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="K61" s="83" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="L61" s="83" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="M61" s="83" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="N61" s="83" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="82" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="B62" s="82" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="F62" s="83" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="G62" s="83" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="I62" s="82" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="J62" s="82" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="K62" s="83" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="L62" s="83" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="M62" s="83" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="N62" s="83" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="82" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="B63" s="82" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="F63" s="83" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="G63" s="83" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="I63" s="82" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="J63" s="82" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K63" s="83" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="L63" s="83" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="M63" s="83" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="N63" s="83" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="82" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C64" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="82" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
@@ -73823,174 +73834,174 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="84" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="84" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B2" s="84" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>2650</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="84" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="84" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="84" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="84" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="84" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="84" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="84" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="84" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="84" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="84" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="84" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="84" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="84" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="84" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="84" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="84" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="C18" s="2"/>
     </row>

--- a/db/inflections/inflection_templates.xlsx
+++ b/db/inflections/inflection_templates.xlsx
@@ -3310,7 +3310,28 @@
     <t xml:space="preserve">catunnaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">catassannaṃ</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Crimson Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">catassannaṃ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Crimson Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">catunnaṃ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">assa
@@ -9182,7 +9203,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9271,6 +9292,13 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Crimson Pro"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9783,11 +9811,11 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9795,11 +9823,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9823,7 +9851,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10028,7 +10056,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="1" sqref="R37 B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36237,8 +36265,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CQ161" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DA165" activeCellId="0" sqref="DA165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R37" activeCellId="0" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -71477,7 +71505,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="R37 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -73823,7 +73851,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="R37 B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
